--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/ENTRADAS  OBRADOR   JUNIO      2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/ENTRADAS  OBRADOR   JUNIO      2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="331">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -1034,6 +1034,21 @@
   </si>
   <si>
     <t>0849 C1</t>
+  </si>
+  <si>
+    <t>0874 C1</t>
+  </si>
+  <si>
+    <t>0885 C1</t>
+  </si>
+  <si>
+    <t>892 C1</t>
+  </si>
+  <si>
+    <t>0912 C1</t>
+  </si>
+  <si>
+    <t>0922 C1</t>
   </si>
 </sst>
 </file>
@@ -4236,6 +4251,126 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4272,126 +4407,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4407,6 +4422,54 @@
     <xf numFmtId="165" fontId="42" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="63" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="63" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4417,54 +4480,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16941,13 +16956,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="569" t="s">
+      <c r="A59" s="609" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="571" t="s">
+      <c r="C59" s="611" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -16955,10 +16970,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="573">
+      <c r="G59" s="613">
         <v>44981</v>
       </c>
-      <c r="H59" s="575" t="s">
+      <c r="H59" s="615" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -16977,10 +16992,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="577" t="s">
+      <c r="O59" s="617" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="567">
+      <c r="P59" s="607">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -16991,18 +17006,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="570"/>
+      <c r="A60" s="610"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="572"/>
+      <c r="C60" s="612"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="574"/>
-      <c r="H60" s="576"/>
+      <c r="G60" s="614"/>
+      <c r="H60" s="616"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -17019,8 +17034,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="578"/>
-      <c r="P60" s="568"/>
+      <c r="O60" s="618"/>
+      <c r="P60" s="608"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -17258,7 +17273,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="607" t="s">
+      <c r="A66" s="567" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -17270,10 +17285,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="609">
+      <c r="G66" s="569">
         <v>44973</v>
       </c>
-      <c r="H66" s="611" t="s">
+      <c r="H66" s="571" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -17292,10 +17307,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="613" t="s">
+      <c r="O66" s="573" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="615">
+      <c r="P66" s="575">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -17306,7 +17321,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="608"/>
+      <c r="A67" s="568"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -17316,8 +17331,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="610"/>
-      <c r="H67" s="612"/>
+      <c r="G67" s="570"/>
+      <c r="H67" s="572"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -17334,8 +17349,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="614"/>
-      <c r="P67" s="616"/>
+      <c r="O67" s="574"/>
+      <c r="P67" s="576"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -17393,13 +17408,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="581" t="s">
+      <c r="A69" s="597" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="583" t="s">
+      <c r="C69" s="599" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -17407,10 +17422,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="587">
+      <c r="G69" s="603">
         <v>44979</v>
       </c>
-      <c r="H69" s="585" t="s">
+      <c r="H69" s="601" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -17429,10 +17444,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="589" t="s">
+      <c r="O69" s="605" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="579">
+      <c r="P69" s="595">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -17443,18 +17458,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="582"/>
+      <c r="A70" s="598"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="584"/>
+      <c r="C70" s="600"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="588"/>
-      <c r="H70" s="586"/>
+      <c r="G70" s="604"/>
+      <c r="H70" s="602"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -17471,8 +17486,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="590"/>
-      <c r="P70" s="580"/>
+      <c r="O70" s="606"/>
+      <c r="P70" s="596"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -17481,13 +17496,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="595" t="s">
+      <c r="A71" s="585" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="593" t="s">
+      <c r="C71" s="583" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -17495,10 +17510,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="598">
+      <c r="G71" s="588">
         <v>44982</v>
       </c>
-      <c r="H71" s="600" t="s">
+      <c r="H71" s="590" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -17517,10 +17532,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="603" t="s">
+      <c r="O71" s="579" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="591">
+      <c r="P71" s="581">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -17531,18 +17546,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="595"/>
+      <c r="A72" s="585"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="597"/>
+      <c r="C72" s="587"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="598"/>
-      <c r="H72" s="601"/>
+      <c r="G72" s="588"/>
+      <c r="H72" s="591"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -17559,8 +17574,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="604"/>
-      <c r="P72" s="606"/>
+      <c r="O72" s="593"/>
+      <c r="P72" s="594"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -17569,18 +17584,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="596"/>
+      <c r="A73" s="586"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="594"/>
+      <c r="C73" s="584"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="599"/>
-      <c r="H73" s="602"/>
+      <c r="G73" s="589"/>
+      <c r="H73" s="592"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -17597,8 +17612,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="605"/>
-      <c r="P73" s="592"/>
+      <c r="O73" s="580"/>
+      <c r="P73" s="582"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -17774,13 +17789,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="607" t="s">
+      <c r="A80" s="567" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="593" t="s">
+      <c r="C80" s="583" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -17791,7 +17806,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="617" t="s">
+      <c r="H80" s="577" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -17810,10 +17825,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="603" t="s">
+      <c r="O80" s="579" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="591">
+      <c r="P80" s="581">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -17824,11 +17839,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="608"/>
+      <c r="A81" s="568"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="594"/>
+      <c r="C81" s="584"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -17837,7 +17852,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="618"/>
+      <c r="H81" s="578"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -17854,8 +17869,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="605"/>
-      <c r="P81" s="592"/>
+      <c r="O81" s="580"/>
+      <c r="P81" s="582"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -24647,6 +24662,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="P71:P73"/>
     <mergeCell ref="F271:H271"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
@@ -24663,26 +24698,6 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="H80:H81"/>
     <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="P71:P73"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O59:O60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28410,13 +28425,13 @@
       <c r="V82" s="50"/>
     </row>
     <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="607" t="s">
+      <c r="A83" s="567" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="593" t="s">
+      <c r="C83" s="583" t="s">
         <v>193</v>
       </c>
       <c r="D83" s="431"/>
@@ -28424,7 +28439,7 @@
       <c r="F83" s="410">
         <v>27.48</v>
       </c>
-      <c r="G83" s="573">
+      <c r="G83" s="613">
         <v>45014</v>
       </c>
       <c r="H83" s="619" t="s">
@@ -28462,17 +28477,17 @@
       <c r="V83" s="50"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="608"/>
+      <c r="A84" s="568"/>
       <c r="B84" s="430" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="594"/>
+      <c r="C84" s="584"/>
       <c r="D84" s="431"/>
       <c r="E84" s="56"/>
       <c r="F84" s="410">
         <v>142.5</v>
       </c>
-      <c r="G84" s="574"/>
+      <c r="G84" s="614"/>
       <c r="H84" s="620"/>
       <c r="I84" s="155">
         <v>142.5771</v>
@@ -37747,13 +37762,13 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="638" t="s">
+      <c r="A60" s="634" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="593" t="s">
+      <c r="C60" s="583" t="s">
         <v>291</v>
       </c>
       <c r="D60" s="409"/>
@@ -37761,10 +37776,10 @@
       <c r="F60" s="410">
         <v>847.4</v>
       </c>
-      <c r="G60" s="640">
+      <c r="G60" s="636">
         <v>45023</v>
       </c>
-      <c r="H60" s="642" t="s">
+      <c r="H60" s="638" t="s">
         <v>292</v>
       </c>
       <c r="I60" s="402">
@@ -37783,10 +37798,10 @@
         <f t="shared" si="2"/>
         <v>76266</v>
       </c>
-      <c r="O60" s="624" t="s">
+      <c r="O60" s="640" t="s">
         <v>21</v>
       </c>
-      <c r="P60" s="626">
+      <c r="P60" s="642">
         <v>45065</v>
       </c>
       <c r="Q60" s="543"/>
@@ -37797,18 +37812,18 @@
       <c r="V60" s="50"/>
     </row>
     <row r="61" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="639"/>
+      <c r="A61" s="635"/>
       <c r="B61" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="594"/>
+      <c r="C61" s="584"/>
       <c r="D61" s="409"/>
       <c r="E61" s="56"/>
       <c r="F61" s="410">
         <v>175.4</v>
       </c>
-      <c r="G61" s="641"/>
-      <c r="H61" s="643"/>
+      <c r="G61" s="637"/>
+      <c r="H61" s="639"/>
       <c r="I61" s="402">
         <v>175.4</v>
       </c>
@@ -37825,8 +37840,8 @@
         <f t="shared" si="2"/>
         <v>15435.2</v>
       </c>
-      <c r="O61" s="625"/>
-      <c r="P61" s="627"/>
+      <c r="O61" s="641"/>
+      <c r="P61" s="643"/>
       <c r="Q61" s="166"/>
       <c r="R61" s="125"/>
       <c r="S61" s="48"/>
@@ -38037,13 +38052,13 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="628" t="s">
+      <c r="A66" s="624" t="s">
         <v>31</v>
       </c>
       <c r="B66" s="519" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="630" t="s">
+      <c r="C66" s="626" t="s">
         <v>255</v>
       </c>
       <c r="D66" s="517"/>
@@ -38051,10 +38066,10 @@
       <c r="F66" s="493">
         <v>9084.5</v>
       </c>
-      <c r="G66" s="634">
+      <c r="G66" s="630">
         <v>45041</v>
       </c>
-      <c r="H66" s="632">
+      <c r="H66" s="628">
         <v>145029</v>
       </c>
       <c r="I66" s="515">
@@ -38073,10 +38088,10 @@
         <f t="shared" si="2"/>
         <v>417887</v>
       </c>
-      <c r="O66" s="636" t="s">
+      <c r="O66" s="632" t="s">
         <v>22</v>
       </c>
-      <c r="P66" s="591">
+      <c r="P66" s="581">
         <v>45054</v>
       </c>
       <c r="Q66" s="166"/>
@@ -38087,18 +38102,18 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="629"/>
+      <c r="A67" s="625"/>
       <c r="B67" s="519" t="s">
         <v>256</v>
       </c>
-      <c r="C67" s="631"/>
+      <c r="C67" s="627"/>
       <c r="D67" s="517"/>
       <c r="E67" s="56"/>
       <c r="F67" s="526">
         <v>1007.3</v>
       </c>
-      <c r="G67" s="635"/>
-      <c r="H67" s="633"/>
+      <c r="G67" s="631"/>
+      <c r="H67" s="629"/>
       <c r="I67" s="527">
         <v>1007.3</v>
       </c>
@@ -38115,8 +38130,8 @@
         <f t="shared" si="2"/>
         <v>63459.899999999994</v>
       </c>
-      <c r="O67" s="637"/>
-      <c r="P67" s="592"/>
+      <c r="O67" s="633"/>
+      <c r="P67" s="582"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="48"/>
@@ -45480,6 +45495,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
     <mergeCell ref="L102:M103"/>
     <mergeCell ref="O109:O110"/>
     <mergeCell ref="P109:P110"/>
@@ -45495,13 +45517,6 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="G60:G61"/>
     <mergeCell ref="H60:H61"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -45516,8 +45531,8 @@
   <dimension ref="A1:X307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -46025,11 +46040,15 @@
       <c r="B10" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="56">
+        <v>37</v>
+      </c>
       <c r="E10" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>814000</v>
       </c>
       <c r="F10" s="504">
         <v>22000</v>
@@ -46080,11 +46099,15 @@
       <c r="B11" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="56"/>
+      <c r="C11" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11" s="56">
+        <v>37</v>
+      </c>
       <c r="E11" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>427720</v>
       </c>
       <c r="F11" s="504">
         <v>11560</v>
@@ -46133,11 +46156,15 @@
       <c r="B12" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
+      <c r="C12" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" s="56">
+        <v>37</v>
+      </c>
       <c r="E12" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>886890</v>
       </c>
       <c r="F12" s="504">
         <v>23970</v>
@@ -46188,11 +46215,15 @@
       <c r="B13" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
+      <c r="C13" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="56">
+        <v>37</v>
+      </c>
       <c r="E13" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>860250</v>
       </c>
       <c r="F13" s="504">
         <v>23250</v>
@@ -46235,11 +46266,15 @@
       <c r="B14" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="73"/>
+      <c r="C14" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="73">
+        <v>41</v>
+      </c>
       <c r="E14" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>957350</v>
       </c>
       <c r="F14" s="504">
         <v>23350</v>
@@ -55673,16 +55708,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
     <mergeCell ref="L102:M103"/>
     <mergeCell ref="O109:O110"/>
     <mergeCell ref="P109:P110"/>
     <mergeCell ref="F274:H274"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/ENTRADAS  OBRADOR   JUNIO      2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/ENTRADAS  OBRADOR   JUNIO      2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="335">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -1049,6 +1049,18 @@
   </si>
   <si>
     <t>0922 C1</t>
+  </si>
+  <si>
+    <t>0953 C1</t>
+  </si>
+  <si>
+    <t>0975 C1</t>
+  </si>
+  <si>
+    <t>0998 C1</t>
+  </si>
+  <si>
+    <t>0014 C1</t>
   </si>
 </sst>
 </file>
@@ -45532,7 +45544,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -46319,11 +46331,15 @@
       <c r="B15" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="D15" s="56">
+        <v>43</v>
+      </c>
       <c r="E15" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>930090</v>
       </c>
       <c r="F15" s="504">
         <v>21630</v>
@@ -46368,11 +46384,15 @@
       <c r="B16" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="56">
+        <v>43</v>
+      </c>
       <c r="E16" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1084030</v>
       </c>
       <c r="F16" s="504">
         <v>25210</v>
@@ -46417,11 +46437,15 @@
       <c r="B17" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" s="56">
+        <v>43</v>
+      </c>
       <c r="E17" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1137350</v>
       </c>
       <c r="F17" s="504">
         <v>26450</v>
@@ -46466,11 +46490,15 @@
       <c r="B18" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="56"/>
+      <c r="C18" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="56">
+        <v>46</v>
+      </c>
       <c r="E18" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1073180</v>
       </c>
       <c r="F18" s="504">
         <v>23330</v>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/ENTRADAS  OBRADOR   JUNIO      2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/ENTRADAS  OBRADOR   JUNIO      2023.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="338">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -1068,6 +1068,9 @@
   </si>
   <si>
     <t>CANALES  214</t>
+  </si>
+  <si>
+    <t>0034 D1</t>
   </si>
 </sst>
 </file>
@@ -2684,7 +2687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="645">
+  <cellXfs count="648">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4273,40 +4276,88 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4345,89 +4396,41 @@
     <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4442,18 +4445,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="42" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4502,6 +4493,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="58" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16979,13 +16991,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="570" t="s">
+      <c r="A59" s="610" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="572" t="s">
+      <c r="C59" s="612" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -16993,10 +17005,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="574">
+      <c r="G59" s="614">
         <v>44981</v>
       </c>
-      <c r="H59" s="576" t="s">
+      <c r="H59" s="616" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -17015,10 +17027,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="578" t="s">
+      <c r="O59" s="618" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="568">
+      <c r="P59" s="608">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -17029,18 +17041,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="571"/>
+      <c r="A60" s="611"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="573"/>
+      <c r="C60" s="613"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="575"/>
-      <c r="H60" s="577"/>
+      <c r="G60" s="615"/>
+      <c r="H60" s="617"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -17057,8 +17069,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="579"/>
-      <c r="P60" s="569"/>
+      <c r="O60" s="619"/>
+      <c r="P60" s="609"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -17296,7 +17308,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="608" t="s">
+      <c r="A66" s="568" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -17308,10 +17320,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="610">
+      <c r="G66" s="570">
         <v>44973</v>
       </c>
-      <c r="H66" s="612" t="s">
+      <c r="H66" s="572" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -17330,10 +17342,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="614" t="s">
+      <c r="O66" s="574" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="616">
+      <c r="P66" s="576">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -17344,7 +17356,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="609"/>
+      <c r="A67" s="569"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -17354,8 +17366,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="611"/>
-      <c r="H67" s="613"/>
+      <c r="G67" s="571"/>
+      <c r="H67" s="573"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -17372,8 +17384,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="615"/>
-      <c r="P67" s="617"/>
+      <c r="O67" s="575"/>
+      <c r="P67" s="577"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -17431,13 +17443,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="582" t="s">
+      <c r="A69" s="598" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="584" t="s">
+      <c r="C69" s="600" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -17445,10 +17457,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="588">
+      <c r="G69" s="604">
         <v>44979</v>
       </c>
-      <c r="H69" s="586" t="s">
+      <c r="H69" s="602" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -17467,10 +17479,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="590" t="s">
+      <c r="O69" s="606" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="580">
+      <c r="P69" s="596">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -17481,18 +17493,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="583"/>
+      <c r="A70" s="599"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="585"/>
+      <c r="C70" s="601"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="589"/>
-      <c r="H70" s="587"/>
+      <c r="G70" s="605"/>
+      <c r="H70" s="603"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -17509,8 +17521,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="591"/>
-      <c r="P70" s="581"/>
+      <c r="O70" s="607"/>
+      <c r="P70" s="597"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -17519,13 +17531,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="596" t="s">
+      <c r="A71" s="586" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="594" t="s">
+      <c r="C71" s="584" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -17533,10 +17545,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="599">
+      <c r="G71" s="589">
         <v>44982</v>
       </c>
-      <c r="H71" s="601" t="s">
+      <c r="H71" s="591" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -17555,10 +17567,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="604" t="s">
+      <c r="O71" s="580" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="592">
+      <c r="P71" s="582">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -17569,18 +17581,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="596"/>
+      <c r="A72" s="586"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="598"/>
+      <c r="C72" s="588"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="599"/>
-      <c r="H72" s="602"/>
+      <c r="G72" s="589"/>
+      <c r="H72" s="592"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -17597,8 +17609,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="605"/>
-      <c r="P72" s="607"/>
+      <c r="O72" s="594"/>
+      <c r="P72" s="595"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -17607,18 +17619,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="597"/>
+      <c r="A73" s="587"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="595"/>
+      <c r="C73" s="585"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="600"/>
-      <c r="H73" s="603"/>
+      <c r="G73" s="590"/>
+      <c r="H73" s="593"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -17635,8 +17647,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="606"/>
-      <c r="P73" s="593"/>
+      <c r="O73" s="581"/>
+      <c r="P73" s="583"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -17812,13 +17824,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="608" t="s">
+      <c r="A80" s="568" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="594" t="s">
+      <c r="C80" s="584" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -17829,7 +17841,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="618" t="s">
+      <c r="H80" s="578" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -17848,10 +17860,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="604" t="s">
+      <c r="O80" s="580" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="592">
+      <c r="P80" s="582">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -17862,11 +17874,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="609"/>
+      <c r="A81" s="569"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="595"/>
+      <c r="C81" s="585"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -17875,7 +17887,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="619"/>
+      <c r="H81" s="579"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -17892,8 +17904,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="606"/>
-      <c r="P81" s="593"/>
+      <c r="O81" s="581"/>
+      <c r="P81" s="583"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -24685,6 +24697,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="P71:P73"/>
     <mergeCell ref="F271:H271"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
@@ -24701,26 +24733,6 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="H80:H81"/>
     <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="P71:P73"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O59:O60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28448,13 +28460,13 @@
       <c r="V82" s="50"/>
     </row>
     <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="608" t="s">
+      <c r="A83" s="568" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="594" t="s">
+      <c r="C83" s="584" t="s">
         <v>193</v>
       </c>
       <c r="D83" s="431"/>
@@ -28462,7 +28474,7 @@
       <c r="F83" s="410">
         <v>27.48</v>
       </c>
-      <c r="G83" s="574">
+      <c r="G83" s="614">
         <v>45014</v>
       </c>
       <c r="H83" s="620" t="s">
@@ -28500,17 +28512,17 @@
       <c r="V83" s="50"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="609"/>
+      <c r="A84" s="569"/>
       <c r="B84" s="430" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="595"/>
+      <c r="C84" s="585"/>
       <c r="D84" s="431"/>
       <c r="E84" s="56"/>
       <c r="F84" s="410">
         <v>142.5</v>
       </c>
-      <c r="G84" s="575"/>
+      <c r="G84" s="615"/>
       <c r="H84" s="621"/>
       <c r="I84" s="155">
         <v>142.5771</v>
@@ -37785,13 +37797,13 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="639" t="s">
+      <c r="A60" s="635" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="594" t="s">
+      <c r="C60" s="584" t="s">
         <v>291</v>
       </c>
       <c r="D60" s="409"/>
@@ -37799,10 +37811,10 @@
       <c r="F60" s="410">
         <v>847.4</v>
       </c>
-      <c r="G60" s="641">
+      <c r="G60" s="637">
         <v>45023</v>
       </c>
-      <c r="H60" s="643" t="s">
+      <c r="H60" s="639" t="s">
         <v>292</v>
       </c>
       <c r="I60" s="402">
@@ -37821,10 +37833,10 @@
         <f t="shared" si="2"/>
         <v>76266</v>
       </c>
-      <c r="O60" s="625" t="s">
+      <c r="O60" s="641" t="s">
         <v>21</v>
       </c>
-      <c r="P60" s="627">
+      <c r="P60" s="643">
         <v>45065</v>
       </c>
       <c r="Q60" s="543"/>
@@ -37835,18 +37847,18 @@
       <c r="V60" s="50"/>
     </row>
     <row r="61" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="640"/>
+      <c r="A61" s="636"/>
       <c r="B61" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="595"/>
+      <c r="C61" s="585"/>
       <c r="D61" s="409"/>
       <c r="E61" s="56"/>
       <c r="F61" s="410">
         <v>175.4</v>
       </c>
-      <c r="G61" s="642"/>
-      <c r="H61" s="644"/>
+      <c r="G61" s="638"/>
+      <c r="H61" s="640"/>
       <c r="I61" s="402">
         <v>175.4</v>
       </c>
@@ -37863,8 +37875,8 @@
         <f t="shared" si="2"/>
         <v>15435.2</v>
       </c>
-      <c r="O61" s="626"/>
-      <c r="P61" s="628"/>
+      <c r="O61" s="642"/>
+      <c r="P61" s="644"/>
       <c r="Q61" s="166"/>
       <c r="R61" s="125"/>
       <c r="S61" s="48"/>
@@ -38075,13 +38087,13 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="629" t="s">
+      <c r="A66" s="625" t="s">
         <v>31</v>
       </c>
       <c r="B66" s="519" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="631" t="s">
+      <c r="C66" s="627" t="s">
         <v>255</v>
       </c>
       <c r="D66" s="517"/>
@@ -38089,10 +38101,10 @@
       <c r="F66" s="493">
         <v>9084.5</v>
       </c>
-      <c r="G66" s="635">
+      <c r="G66" s="631">
         <v>45041</v>
       </c>
-      <c r="H66" s="633">
+      <c r="H66" s="629">
         <v>145029</v>
       </c>
       <c r="I66" s="515">
@@ -38111,10 +38123,10 @@
         <f t="shared" si="2"/>
         <v>417887</v>
       </c>
-      <c r="O66" s="637" t="s">
+      <c r="O66" s="633" t="s">
         <v>22</v>
       </c>
-      <c r="P66" s="592">
+      <c r="P66" s="582">
         <v>45054</v>
       </c>
       <c r="Q66" s="166"/>
@@ -38125,18 +38137,18 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="630"/>
+      <c r="A67" s="626"/>
       <c r="B67" s="519" t="s">
         <v>256</v>
       </c>
-      <c r="C67" s="632"/>
+      <c r="C67" s="628"/>
       <c r="D67" s="517"/>
       <c r="E67" s="56"/>
       <c r="F67" s="526">
         <v>1007.3</v>
       </c>
-      <c r="G67" s="636"/>
-      <c r="H67" s="634"/>
+      <c r="G67" s="632"/>
+      <c r="H67" s="630"/>
       <c r="I67" s="527">
         <v>1007.3</v>
       </c>
@@ -38153,8 +38165,8 @@
         <f t="shared" si="2"/>
         <v>63459.899999999994</v>
       </c>
-      <c r="O67" s="638"/>
-      <c r="P67" s="593"/>
+      <c r="O67" s="634"/>
+      <c r="P67" s="583"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="48"/>
@@ -45518,6 +45530,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
     <mergeCell ref="L102:M103"/>
     <mergeCell ref="O109:O110"/>
     <mergeCell ref="P109:P110"/>
@@ -45533,13 +45552,6 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="G60:G61"/>
     <mergeCell ref="H60:H61"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -55747,16 +55759,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
     <mergeCell ref="L102:M103"/>
     <mergeCell ref="O109:O110"/>
     <mergeCell ref="P109:P110"/>
     <mergeCell ref="F274:H274"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -55771,16 +55783,16 @@
   <dimension ref="A1:X307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="296" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="296" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="296" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="317" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="296" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="296" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="317" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="297" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="298" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="301" customWidth="1"/>
@@ -55923,47 +55935,45 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="538" t="s">
+      <c r="A4" s="539" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
+        <v>42</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="33">
+        <v>48</v>
+      </c>
       <c r="E4" s="34">
         <f>D4*F4</f>
-        <v>0</v>
+        <v>1246560</v>
       </c>
       <c r="F4" s="500">
-        <v>19839</v>
+        <v>25970</v>
       </c>
       <c r="G4" s="501">
-        <v>45082</v>
-      </c>
-      <c r="H4" s="502"/>
+        <v>45079</v>
+      </c>
+      <c r="H4" s="645"/>
       <c r="I4" s="503">
-        <v>19839</v>
+        <v>25970</v>
       </c>
       <c r="J4" s="39">
-        <f t="shared" ref="J4:J135" si="0">I4-F4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="40">
-        <v>46</v>
-      </c>
+        <f>I4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="40"/>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="42">
-        <f t="shared" ref="N4:N129" si="1">K4*I4</f>
-        <v>912594</v>
-      </c>
-      <c r="O4" s="470" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="471">
-        <v>45057</v>
-      </c>
+        <f>K4*I4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="647"/>
+      <c r="P4" s="471"/>
       <c r="Q4" s="45"/>
       <c r="R4" s="46"/>
       <c r="S4" s="47"/>
@@ -55976,47 +55986,43 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="53" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>32</v>
+        <v>336</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="56"/>
       <c r="E5" s="34">
-        <f t="shared" ref="E5:E58" si="2">D5*F5</f>
+        <f>D5*F5</f>
         <v>0</v>
       </c>
       <c r="F5" s="504">
-        <v>22060</v>
+        <v>19839</v>
       </c>
       <c r="G5" s="376">
-        <v>45086</v>
+        <v>45082</v>
       </c>
       <c r="H5" s="453"/>
       <c r="I5" s="491">
-        <v>22060</v>
+        <v>19839</v>
       </c>
       <c r="J5" s="39">
-        <f t="shared" si="0"/>
+        <f>I5-F5</f>
         <v>0</v>
       </c>
       <c r="K5" s="40">
         <v>46</v>
       </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
+      <c r="L5" s="646"/>
+      <c r="M5" s="646"/>
       <c r="N5" s="42">
         <f>K5*I5</f>
-        <v>1014760</v>
-      </c>
-      <c r="O5" s="472" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="473">
-        <v>45065</v>
-      </c>
+        <v>912594</v>
+      </c>
+      <c r="O5" s="476"/>
+      <c r="P5" s="473"/>
       <c r="Q5" s="64"/>
       <c r="R5" s="65"/>
       <c r="S5" s="47"/>
@@ -56029,35 +56035,43 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="539"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>32</v>
+      </c>
       <c r="C6" s="55"/>
       <c r="D6" s="56"/>
       <c r="E6" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="504"/>
-      <c r="G6" s="376"/>
-      <c r="H6" s="505"/>
-      <c r="I6" s="491"/>
+        <f>D6*F6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="504">
+        <v>22060</v>
+      </c>
+      <c r="G6" s="376">
+        <v>45086</v>
+      </c>
+      <c r="H6" s="453"/>
+      <c r="I6" s="491">
+        <v>22060</v>
+      </c>
       <c r="J6" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="40"/>
+        <f>I6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="40">
+        <v>46</v>
+      </c>
       <c r="L6" s="61"/>
       <c r="M6" s="61"/>
       <c r="N6" s="42">
         <f>K6*I6</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="472" t="s">
-        <v>299</v>
-      </c>
-      <c r="P6" s="473">
-        <v>45068</v>
-      </c>
+        <v>1014760</v>
+      </c>
+      <c r="O6" s="472"/>
+      <c r="P6" s="473"/>
       <c r="Q6" s="64"/>
       <c r="R6" s="65"/>
       <c r="S6" s="47"/>
@@ -56075,7 +56089,7 @@
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
       <c r="E7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E5:E58" si="0">D7*F7</f>
         <v>0</v>
       </c>
       <c r="F7" s="504"/>
@@ -56083,22 +56097,18 @@
       <c r="H7" s="506"/>
       <c r="I7" s="491"/>
       <c r="J7" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J4:J135" si="1">I7-F7</f>
         <v>0</v>
       </c>
       <c r="K7" s="40"/>
       <c r="L7" s="61"/>
       <c r="M7" s="61"/>
       <c r="N7" s="42">
-        <f t="shared" ref="N7:N9" si="3">K7*I7</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="472" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="473">
-        <v>45068</v>
-      </c>
+        <f t="shared" ref="N7:N9" si="2">K7*I7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="472"/>
+      <c r="P7" s="473"/>
       <c r="Q7" s="64"/>
       <c r="R7" s="65"/>
       <c r="S7" s="47"/>
@@ -56114,7 +56124,7 @@
       <c r="C8" s="67"/>
       <c r="D8" s="56"/>
       <c r="E8" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="504"/>
@@ -56122,22 +56132,18 @@
       <c r="H8" s="506"/>
       <c r="I8" s="491"/>
       <c r="J8" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="40"/>
       <c r="L8" s="61"/>
       <c r="M8" s="61"/>
       <c r="N8" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="508" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="473">
-        <v>45070</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="508"/>
+      <c r="P8" s="473"/>
       <c r="Q8" s="64"/>
       <c r="R8" s="65"/>
       <c r="S8" s="47"/>
@@ -56155,7 +56161,7 @@
       <c r="C9" s="67"/>
       <c r="D9" s="56"/>
       <c r="E9" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="504"/>
@@ -56163,22 +56169,18 @@
       <c r="H9" s="506"/>
       <c r="I9" s="491"/>
       <c r="J9" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="61"/>
       <c r="M9" s="61"/>
       <c r="N9" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="508" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="473">
-        <v>45072</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="508"/>
+      <c r="P9" s="473"/>
       <c r="Q9" s="64"/>
       <c r="R9" s="65"/>
       <c r="S9" s="47"/>
@@ -56194,7 +56196,7 @@
       <c r="C10" s="67"/>
       <c r="D10" s="56"/>
       <c r="E10" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="504"/>
@@ -56202,22 +56204,18 @@
       <c r="H10" s="506"/>
       <c r="I10" s="491"/>
       <c r="J10" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="40"/>
       <c r="L10" s="61"/>
       <c r="M10" s="61"/>
       <c r="N10" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="474" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="475">
-        <v>45075</v>
-      </c>
+        <f t="shared" ref="N4:N129" si="3">K10*I10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="474"/>
+      <c r="P10" s="475"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="65"/>
       <c r="S10" s="47"/>
@@ -56235,7 +56233,7 @@
       <c r="C11" s="67"/>
       <c r="D11" s="56"/>
       <c r="E11" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="504"/>
@@ -56243,22 +56241,18 @@
       <c r="H11" s="506"/>
       <c r="I11" s="491"/>
       <c r="J11" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="40"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="474" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="475">
-        <v>45076</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="474"/>
+      <c r="P11" s="475"/>
       <c r="Q11" s="64"/>
       <c r="R11" s="65"/>
       <c r="S11" s="47"/>
@@ -56274,7 +56268,7 @@
       <c r="C12" s="55"/>
       <c r="D12" s="56"/>
       <c r="E12" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="504"/>
@@ -56282,22 +56276,18 @@
       <c r="H12" s="453"/>
       <c r="I12" s="491"/>
       <c r="J12" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="40"/>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="476" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="475">
-        <v>45077</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="476"/>
+      <c r="P12" s="475"/>
       <c r="Q12" s="64"/>
       <c r="R12" s="65"/>
       <c r="S12" s="47"/>
@@ -56315,7 +56305,7 @@
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
       <c r="E13" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="504"/>
@@ -56323,14 +56313,14 @@
       <c r="H13" s="453"/>
       <c r="I13" s="491"/>
       <c r="J13" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="40"/>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="476"/>
@@ -56350,7 +56340,7 @@
       <c r="C14" s="55"/>
       <c r="D14" s="73"/>
       <c r="E14" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="504"/>
@@ -56358,14 +56348,14 @@
       <c r="H14" s="507"/>
       <c r="I14" s="491"/>
       <c r="J14" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="40"/>
       <c r="L14" s="61"/>
       <c r="M14" s="61"/>
       <c r="N14" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14" s="476"/>
@@ -56387,7 +56377,7 @@
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
       <c r="E15" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="504"/>
@@ -56395,14 +56385,14 @@
       <c r="H15" s="453"/>
       <c r="I15" s="491"/>
       <c r="J15" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="40"/>
       <c r="L15" s="61"/>
       <c r="M15" s="61"/>
       <c r="N15" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="476"/>
@@ -56424,7 +56414,7 @@
       <c r="C16" s="77"/>
       <c r="D16" s="56"/>
       <c r="E16" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="504"/>
@@ -56432,14 +56422,14 @@
       <c r="H16" s="453"/>
       <c r="I16" s="491"/>
       <c r="J16" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="40"/>
       <c r="L16" s="61"/>
       <c r="M16" s="61"/>
       <c r="N16" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="476"/>
@@ -56461,7 +56451,7 @@
       <c r="C17" s="77"/>
       <c r="D17" s="56"/>
       <c r="E17" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="504"/>
@@ -56469,14 +56459,14 @@
       <c r="H17" s="453"/>
       <c r="I17" s="491"/>
       <c r="J17" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="40"/>
       <c r="L17" s="61"/>
       <c r="M17" s="61"/>
       <c r="N17" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O17" s="476"/>
@@ -56498,7 +56488,7 @@
       <c r="C18" s="77"/>
       <c r="D18" s="56"/>
       <c r="E18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="504"/>
@@ -56506,14 +56496,14 @@
       <c r="H18" s="453"/>
       <c r="I18" s="491"/>
       <c r="J18" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="40"/>
       <c r="L18" s="61"/>
       <c r="M18" s="61"/>
       <c r="N18" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O18" s="476"/>
@@ -56535,7 +56525,7 @@
       <c r="C19" s="78"/>
       <c r="D19" s="56"/>
       <c r="E19" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="504"/>
@@ -56543,14 +56533,14 @@
       <c r="H19" s="453"/>
       <c r="I19" s="491"/>
       <c r="J19" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="40"/>
       <c r="L19" s="61"/>
       <c r="M19" s="61"/>
       <c r="N19" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O19" s="478"/>
@@ -56572,7 +56562,7 @@
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
       <c r="E20" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="504"/>
@@ -56580,14 +56570,14 @@
       <c r="H20" s="453"/>
       <c r="I20" s="491"/>
       <c r="J20" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="40"/>
       <c r="L20" s="61"/>
       <c r="M20" s="61"/>
       <c r="N20" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O20" s="476"/>
@@ -56609,7 +56599,7 @@
       <c r="C21" s="67"/>
       <c r="D21" s="56"/>
       <c r="E21" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="504"/>
@@ -56617,14 +56607,14 @@
       <c r="H21" s="453"/>
       <c r="I21" s="491"/>
       <c r="J21" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="40"/>
       <c r="L21" s="61"/>
       <c r="M21" s="61"/>
       <c r="N21" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O21" s="72"/>
@@ -56646,7 +56636,7 @@
       <c r="C22" s="55"/>
       <c r="D22" s="56"/>
       <c r="E22" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="504"/>
@@ -56654,14 +56644,14 @@
       <c r="H22" s="453"/>
       <c r="I22" s="491"/>
       <c r="J22" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="81"/>
       <c r="L22" s="61"/>
       <c r="M22" s="61"/>
       <c r="N22" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O22" s="75"/>
@@ -56683,7 +56673,7 @@
       <c r="C23" s="77"/>
       <c r="D23" s="56"/>
       <c r="E23" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="504"/>
@@ -56691,14 +56681,14 @@
       <c r="H23" s="453"/>
       <c r="I23" s="491"/>
       <c r="J23" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="81"/>
       <c r="L23" s="61"/>
       <c r="M23" s="61"/>
       <c r="N23" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23" s="72"/>
@@ -56720,7 +56710,7 @@
       <c r="C24" s="439"/>
       <c r="D24" s="85"/>
       <c r="E24" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="504"/>
@@ -56728,14 +56718,14 @@
       <c r="H24" s="453"/>
       <c r="I24" s="491"/>
       <c r="J24" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="81"/>
       <c r="L24" s="61"/>
       <c r="M24" s="61"/>
       <c r="N24" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O24" s="72"/>
@@ -56757,7 +56747,7 @@
       <c r="C25" s="88"/>
       <c r="D25" s="85"/>
       <c r="E25" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="57"/>
@@ -56765,14 +56755,14 @@
       <c r="H25" s="59"/>
       <c r="I25" s="60"/>
       <c r="J25" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="81"/>
       <c r="L25" s="61"/>
       <c r="M25" s="61"/>
       <c r="N25" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O25" s="69"/>
@@ -56794,7 +56784,7 @@
       <c r="C26" s="55"/>
       <c r="D26" s="56"/>
       <c r="E26" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26" s="57"/>
@@ -56802,14 +56792,14 @@
       <c r="H26" s="59"/>
       <c r="I26" s="60"/>
       <c r="J26" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="81"/>
       <c r="L26" s="61"/>
       <c r="M26" s="61"/>
       <c r="N26" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O26" s="69"/>
@@ -56831,7 +56821,7 @@
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
       <c r="E27" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27" s="57"/>
@@ -56839,14 +56829,14 @@
       <c r="H27" s="59"/>
       <c r="I27" s="60"/>
       <c r="J27" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="81"/>
       <c r="L27" s="61"/>
       <c r="M27" s="61"/>
       <c r="N27" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O27" s="69"/>
@@ -56868,7 +56858,7 @@
       <c r="C28" s="55"/>
       <c r="D28" s="56"/>
       <c r="E28" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28" s="57"/>
@@ -56876,14 +56866,14 @@
       <c r="H28" s="59"/>
       <c r="I28" s="60"/>
       <c r="J28" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="81"/>
       <c r="L28" s="61"/>
       <c r="M28" s="61"/>
       <c r="N28" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O28" s="69"/>
@@ -56905,7 +56895,7 @@
       <c r="C29" s="55"/>
       <c r="D29" s="56"/>
       <c r="E29" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="57"/>
@@ -56913,14 +56903,14 @@
       <c r="H29" s="59"/>
       <c r="I29" s="60"/>
       <c r="J29" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="81"/>
       <c r="L29" s="61"/>
       <c r="M29" s="61"/>
       <c r="N29" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O29" s="72"/>
@@ -56942,7 +56932,7 @@
       <c r="C30" s="55"/>
       <c r="D30" s="56"/>
       <c r="E30" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30" s="57"/>
@@ -56950,14 +56940,14 @@
       <c r="H30" s="59"/>
       <c r="I30" s="60"/>
       <c r="J30" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="81"/>
       <c r="L30" s="61"/>
       <c r="M30" s="61"/>
       <c r="N30" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O30" s="69"/>
@@ -56979,7 +56969,7 @@
       <c r="C31" s="55"/>
       <c r="D31" s="56"/>
       <c r="E31" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" s="57"/>
@@ -56987,14 +56977,14 @@
       <c r="H31" s="59"/>
       <c r="I31" s="60"/>
       <c r="J31" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="81"/>
       <c r="L31" s="61"/>
       <c r="M31" s="61"/>
       <c r="N31" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O31" s="69"/>
@@ -57016,7 +57006,7 @@
       <c r="C32" s="55"/>
       <c r="D32" s="56"/>
       <c r="E32" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="57"/>
@@ -57024,14 +57014,14 @@
       <c r="H32" s="59"/>
       <c r="I32" s="60"/>
       <c r="J32" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="81"/>
       <c r="L32" s="61"/>
       <c r="M32" s="61"/>
       <c r="N32" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O32" s="69"/>
@@ -57053,7 +57043,7 @@
       <c r="C33" s="55"/>
       <c r="D33" s="56"/>
       <c r="E33" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33" s="57"/>
@@ -57061,14 +57051,14 @@
       <c r="H33" s="59"/>
       <c r="I33" s="60"/>
       <c r="J33" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="81"/>
       <c r="L33" s="61"/>
       <c r="M33" s="61"/>
       <c r="N33" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O33" s="69"/>
@@ -57090,7 +57080,7 @@
       <c r="C34" s="55"/>
       <c r="D34" s="56"/>
       <c r="E34" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="57"/>
@@ -57098,14 +57088,14 @@
       <c r="H34" s="59"/>
       <c r="I34" s="60"/>
       <c r="J34" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34" s="81"/>
       <c r="L34" s="61"/>
       <c r="M34" s="61"/>
       <c r="N34" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O34" s="69"/>
@@ -57127,7 +57117,7 @@
       <c r="C35" s="96"/>
       <c r="D35" s="56"/>
       <c r="E35" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35" s="57"/>
@@ -57135,14 +57125,14 @@
       <c r="H35" s="59"/>
       <c r="I35" s="60"/>
       <c r="J35" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35" s="81"/>
       <c r="L35" s="61"/>
       <c r="M35" s="61"/>
       <c r="N35" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O35" s="68"/>
@@ -57164,7 +57154,7 @@
       <c r="C36" s="96"/>
       <c r="D36" s="56"/>
       <c r="E36" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36" s="57"/>
@@ -57172,14 +57162,14 @@
       <c r="H36" s="59"/>
       <c r="I36" s="60"/>
       <c r="J36" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K36" s="81"/>
       <c r="L36" s="61"/>
       <c r="M36" s="61"/>
       <c r="N36" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O36" s="69"/>
@@ -57201,7 +57191,7 @@
       <c r="C37" s="96"/>
       <c r="D37" s="56"/>
       <c r="E37" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37" s="57"/>
@@ -57209,14 +57199,14 @@
       <c r="H37" s="59"/>
       <c r="I37" s="60"/>
       <c r="J37" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K37" s="81"/>
       <c r="L37" s="61"/>
       <c r="M37" s="61"/>
       <c r="N37" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O37" s="69"/>
@@ -57238,7 +57228,7 @@
       <c r="C38" s="96"/>
       <c r="D38" s="56"/>
       <c r="E38" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="57"/>
@@ -57246,14 +57236,14 @@
       <c r="H38" s="59"/>
       <c r="I38" s="60"/>
       <c r="J38" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K38" s="81"/>
       <c r="L38" s="61"/>
       <c r="M38" s="61"/>
       <c r="N38" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O38" s="69"/>
@@ -57273,7 +57263,7 @@
       <c r="C39" s="96"/>
       <c r="D39" s="56"/>
       <c r="E39" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F39" s="57"/>
@@ -57281,14 +57271,14 @@
       <c r="H39" s="59"/>
       <c r="I39" s="60"/>
       <c r="J39" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39" s="81"/>
       <c r="L39" s="61"/>
       <c r="M39" s="61"/>
       <c r="N39" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O39" s="69"/>
@@ -57308,7 +57298,7 @@
       <c r="C40" s="96"/>
       <c r="D40" s="56"/>
       <c r="E40" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40" s="57"/>
@@ -57316,14 +57306,14 @@
       <c r="H40" s="59"/>
       <c r="I40" s="60"/>
       <c r="J40" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K40" s="81"/>
       <c r="L40" s="61"/>
       <c r="M40" s="61"/>
       <c r="N40" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O40" s="69"/>
@@ -57343,7 +57333,7 @@
       <c r="C41" s="96"/>
       <c r="D41" s="56"/>
       <c r="E41" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F41" s="57"/>
@@ -57351,14 +57341,14 @@
       <c r="H41" s="59"/>
       <c r="I41" s="60"/>
       <c r="J41" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K41" s="81"/>
       <c r="L41" s="61"/>
       <c r="M41" s="61"/>
       <c r="N41" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O41" s="69"/>
@@ -57378,7 +57368,7 @@
       <c r="C42" s="96"/>
       <c r="D42" s="56"/>
       <c r="E42" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F42" s="57"/>
@@ -57386,14 +57376,14 @@
       <c r="H42" s="59"/>
       <c r="I42" s="60"/>
       <c r="J42" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K42" s="81"/>
       <c r="L42" s="61"/>
       <c r="M42" s="61"/>
       <c r="N42" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O42" s="69"/>
@@ -57413,7 +57403,7 @@
       <c r="C43" s="96"/>
       <c r="D43" s="56"/>
       <c r="E43" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F43" s="57"/>
@@ -57421,14 +57411,14 @@
       <c r="H43" s="59"/>
       <c r="I43" s="60"/>
       <c r="J43" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K43" s="81"/>
       <c r="L43" s="61"/>
       <c r="M43" s="61"/>
       <c r="N43" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O43" s="104"/>
@@ -57448,7 +57438,7 @@
       <c r="C44" s="96"/>
       <c r="D44" s="56"/>
       <c r="E44" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44" s="57"/>
@@ -57456,14 +57446,14 @@
       <c r="H44" s="59"/>
       <c r="I44" s="60"/>
       <c r="J44" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K44" s="81"/>
       <c r="L44" s="61"/>
       <c r="M44" s="61"/>
       <c r="N44" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O44" s="106"/>
@@ -57483,7 +57473,7 @@
       <c r="C45" s="96"/>
       <c r="D45" s="56"/>
       <c r="E45" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F45" s="57"/>
@@ -57491,14 +57481,14 @@
       <c r="H45" s="59"/>
       <c r="I45" s="60"/>
       <c r="J45" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K45" s="81"/>
       <c r="L45" s="61"/>
       <c r="M45" s="61"/>
       <c r="N45" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O45" s="69"/>
@@ -57518,7 +57508,7 @@
       <c r="C46" s="96"/>
       <c r="D46" s="56"/>
       <c r="E46" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F46" s="57"/>
@@ -57526,14 +57516,14 @@
       <c r="H46" s="59"/>
       <c r="I46" s="60"/>
       <c r="J46" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K46" s="81"/>
       <c r="L46" s="61"/>
       <c r="M46" s="61"/>
       <c r="N46" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O46" s="69"/>
@@ -57553,7 +57543,7 @@
       <c r="C47" s="113"/>
       <c r="D47" s="114"/>
       <c r="E47" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F47" s="57"/>
@@ -57561,14 +57551,14 @@
       <c r="H47" s="59"/>
       <c r="I47" s="60"/>
       <c r="J47" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K47" s="81"/>
       <c r="L47" s="61"/>
       <c r="M47" s="61"/>
       <c r="N47" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O47" s="69"/>
@@ -57588,7 +57578,7 @@
       <c r="C48" s="96"/>
       <c r="D48" s="114"/>
       <c r="E48" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F48" s="57"/>
@@ -57596,14 +57586,14 @@
       <c r="H48" s="59"/>
       <c r="I48" s="60"/>
       <c r="J48" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K48" s="81"/>
       <c r="L48" s="61"/>
       <c r="M48" s="61"/>
       <c r="N48" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O48" s="69"/>
@@ -57623,7 +57613,7 @@
       <c r="C49" s="96"/>
       <c r="D49" s="114"/>
       <c r="E49" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F49" s="57"/>
@@ -57631,14 +57621,14 @@
       <c r="H49" s="59"/>
       <c r="I49" s="60"/>
       <c r="J49" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K49" s="81"/>
       <c r="L49" s="61"/>
       <c r="M49" s="61"/>
       <c r="N49" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O49" s="69"/>
@@ -57658,7 +57648,7 @@
       <c r="C50" s="96"/>
       <c r="D50" s="114"/>
       <c r="E50" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F50" s="57"/>
@@ -57666,14 +57656,14 @@
       <c r="H50" s="59"/>
       <c r="I50" s="60"/>
       <c r="J50" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K50" s="81"/>
       <c r="L50" s="61"/>
       <c r="M50" s="61"/>
       <c r="N50" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O50" s="69"/>
@@ -57693,7 +57683,7 @@
       <c r="C51" s="96"/>
       <c r="D51" s="114"/>
       <c r="E51" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F51" s="57"/>
@@ -57701,14 +57691,14 @@
       <c r="H51" s="59"/>
       <c r="I51" s="60"/>
       <c r="J51" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K51" s="81"/>
       <c r="L51" s="61"/>
       <c r="M51" s="61"/>
       <c r="N51" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O51" s="69"/>
@@ -57728,7 +57718,7 @@
       <c r="C52" s="116"/>
       <c r="D52" s="114"/>
       <c r="E52" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F52" s="57"/>
@@ -57736,14 +57726,14 @@
       <c r="H52" s="59"/>
       <c r="I52" s="60"/>
       <c r="J52" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K52" s="81"/>
       <c r="L52" s="61"/>
       <c r="M52" s="61"/>
       <c r="N52" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O52" s="69"/>
@@ -57763,7 +57753,7 @@
       <c r="C53" s="116"/>
       <c r="D53" s="114"/>
       <c r="E53" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F53" s="57"/>
@@ -57771,14 +57761,14 @@
       <c r="H53" s="59"/>
       <c r="I53" s="60"/>
       <c r="J53" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K53" s="81"/>
       <c r="L53" s="61"/>
       <c r="M53" s="61"/>
       <c r="N53" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O53" s="69"/>
@@ -57797,7 +57787,7 @@
       <c r="C54" s="116"/>
       <c r="D54" s="114"/>
       <c r="E54" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F54" s="57"/>
@@ -57805,14 +57795,14 @@
       <c r="H54" s="59"/>
       <c r="I54" s="60"/>
       <c r="J54" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K54" s="81"/>
       <c r="L54" s="61"/>
       <c r="M54" s="61"/>
       <c r="N54" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O54" s="69"/>
@@ -57831,7 +57821,7 @@
       <c r="C55" s="116"/>
       <c r="D55" s="114"/>
       <c r="E55" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F55" s="57"/>
@@ -57839,14 +57829,14 @@
       <c r="H55" s="59"/>
       <c r="I55" s="60"/>
       <c r="J55" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K55" s="81"/>
       <c r="L55" s="61"/>
       <c r="M55" s="61"/>
       <c r="N55" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O55" s="69"/>
@@ -57864,7 +57854,7 @@
       <c r="C56" s="116"/>
       <c r="D56" s="116"/>
       <c r="E56" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F56" s="57"/>
@@ -57872,14 +57862,14 @@
       <c r="H56" s="59"/>
       <c r="I56" s="60"/>
       <c r="J56" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K56" s="81"/>
       <c r="L56" s="61"/>
       <c r="M56" s="61"/>
       <c r="N56" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O56" s="69"/>
@@ -57897,7 +57887,7 @@
       <c r="C57" s="116"/>
       <c r="D57" s="116"/>
       <c r="E57" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F57" s="60"/>
@@ -57905,14 +57895,14 @@
       <c r="H57" s="59"/>
       <c r="I57" s="60"/>
       <c r="J57" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K57" s="81"/>
       <c r="L57" s="61"/>
       <c r="M57" s="61"/>
       <c r="N57" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O57" s="69"/>
@@ -57930,7 +57920,7 @@
       <c r="C58" s="128"/>
       <c r="D58" s="128"/>
       <c r="E58" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F58" s="129"/>
@@ -57938,14 +57928,14 @@
       <c r="H58" s="131"/>
       <c r="I58" s="132"/>
       <c r="J58" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K58" s="133"/>
       <c r="L58" s="134"/>
       <c r="M58" s="134"/>
       <c r="N58" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O58" s="135"/>
@@ -57968,14 +57958,14 @@
       <c r="H59" s="148"/>
       <c r="I59" s="146"/>
       <c r="J59" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K59" s="40"/>
       <c r="L59" s="61"/>
       <c r="M59" s="61"/>
       <c r="N59" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O59" s="149"/>
@@ -58002,14 +57992,14 @@
       <c r="H60" s="157"/>
       <c r="I60" s="155"/>
       <c r="J60" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K60" s="40"/>
       <c r="L60" s="61"/>
       <c r="M60" s="61"/>
       <c r="N60" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O60" s="372"/>
@@ -58036,14 +58026,14 @@
       <c r="H61" s="157"/>
       <c r="I61" s="155"/>
       <c r="J61" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K61" s="40"/>
       <c r="L61" s="61"/>
       <c r="M61" s="61"/>
       <c r="N61" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O61" s="375"/>
@@ -58068,14 +58058,14 @@
       <c r="H62" s="162"/>
       <c r="I62" s="155"/>
       <c r="J62" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K62" s="40"/>
       <c r="L62" s="61"/>
       <c r="M62" s="61"/>
       <c r="N62" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O62" s="158"/>
@@ -58100,14 +58090,14 @@
       <c r="H63" s="164"/>
       <c r="I63" s="155"/>
       <c r="J63" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K63" s="40"/>
       <c r="L63" s="61"/>
       <c r="M63" s="61"/>
       <c r="N63" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O63" s="158"/>
@@ -58132,14 +58122,14 @@
       <c r="H64" s="164"/>
       <c r="I64" s="155"/>
       <c r="J64" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K64" s="462"/>
       <c r="L64" s="463"/>
       <c r="M64" s="463"/>
       <c r="N64" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O64" s="158"/>
@@ -58162,14 +58152,14 @@
       <c r="H65" s="59"/>
       <c r="I65" s="155"/>
       <c r="J65" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K65" s="462"/>
       <c r="L65" s="463"/>
       <c r="M65" s="463"/>
       <c r="N65" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O65" s="537"/>
@@ -58192,14 +58182,14 @@
       <c r="H66" s="59"/>
       <c r="I66" s="155"/>
       <c r="J66" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K66" s="462"/>
       <c r="L66" s="463"/>
       <c r="M66" s="463"/>
       <c r="N66" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O66" s="537"/>
@@ -58222,14 +58212,14 @@
       <c r="H67" s="506"/>
       <c r="I67" s="493"/>
       <c r="J67" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K67" s="496"/>
       <c r="L67" s="463"/>
       <c r="M67" s="463"/>
       <c r="N67" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O67" s="169"/>
@@ -58252,14 +58242,14 @@
       <c r="H68" s="448"/>
       <c r="I68" s="446"/>
       <c r="J68" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K68" s="462"/>
       <c r="L68" s="463"/>
       <c r="M68" s="463"/>
       <c r="N68" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O68" s="169"/>
@@ -58282,14 +58272,14 @@
       <c r="H69" s="453"/>
       <c r="I69" s="446"/>
       <c r="J69" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K69" s="462"/>
       <c r="L69" s="463"/>
       <c r="M69" s="464"/>
       <c r="N69" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O69" s="169"/>
@@ -58312,14 +58302,14 @@
       <c r="H70" s="453"/>
       <c r="I70" s="446"/>
       <c r="J70" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K70" s="462"/>
       <c r="L70" s="463"/>
       <c r="M70" s="464"/>
       <c r="N70" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O70" s="169"/>
@@ -58342,14 +58332,14 @@
       <c r="H71" s="453"/>
       <c r="I71" s="446"/>
       <c r="J71" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K71" s="462"/>
       <c r="L71" s="463"/>
       <c r="M71" s="463"/>
       <c r="N71" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O71" s="169"/>
@@ -58372,14 +58362,14 @@
       <c r="H72" s="453"/>
       <c r="I72" s="446"/>
       <c r="J72" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K72" s="462"/>
       <c r="L72" s="463"/>
       <c r="M72" s="463"/>
       <c r="N72" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O72" s="169"/>
@@ -58402,7 +58392,7 @@
       <c r="H73" s="455"/>
       <c r="I73" s="446"/>
       <c r="J73" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K73" s="462"/>
@@ -58432,7 +58422,7 @@
       <c r="H74" s="455"/>
       <c r="I74" s="446"/>
       <c r="J74" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K74" s="462"/>
@@ -58462,7 +58452,7 @@
       <c r="H75" s="451"/>
       <c r="I75" s="446"/>
       <c r="J75" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K75" s="462"/>
@@ -58492,7 +58482,7 @@
       <c r="H76" s="453"/>
       <c r="I76" s="446"/>
       <c r="J76" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K76" s="462"/>
@@ -58522,7 +58512,7 @@
       <c r="H77" s="453"/>
       <c r="I77" s="446"/>
       <c r="J77" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K77" s="462"/>
@@ -58552,7 +58542,7 @@
       <c r="H78" s="453"/>
       <c r="I78" s="446"/>
       <c r="J78" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K78" s="462"/>
@@ -58582,7 +58572,7 @@
       <c r="H79" s="453"/>
       <c r="I79" s="446"/>
       <c r="J79" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K79" s="462"/>
@@ -58612,7 +58602,7 @@
       <c r="H80" s="453"/>
       <c r="I80" s="446"/>
       <c r="J80" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K80" s="462"/>
@@ -58642,7 +58632,7 @@
       <c r="H81" s="448"/>
       <c r="I81" s="446"/>
       <c r="J81" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K81" s="462"/>
@@ -58672,7 +58662,7 @@
       <c r="H82" s="448"/>
       <c r="I82" s="446"/>
       <c r="J82" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K82" s="462"/>
@@ -58702,7 +58692,7 @@
       <c r="H83" s="448"/>
       <c r="I83" s="446"/>
       <c r="J83" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K83" s="462"/>
@@ -58732,14 +58722,14 @@
       <c r="H84" s="451"/>
       <c r="I84" s="446"/>
       <c r="J84" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K84" s="462"/>
       <c r="L84" s="463"/>
       <c r="M84" s="463"/>
       <c r="N84" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O84" s="158"/>
@@ -58762,14 +58752,14 @@
       <c r="H85" s="451"/>
       <c r="I85" s="446"/>
       <c r="J85" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K85" s="462"/>
       <c r="L85" s="463"/>
       <c r="M85" s="463"/>
       <c r="N85" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O85" s="158"/>
@@ -58792,14 +58782,14 @@
       <c r="H86" s="451"/>
       <c r="I86" s="446"/>
       <c r="J86" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K86" s="462"/>
       <c r="L86" s="464"/>
       <c r="M86" s="463"/>
       <c r="N86" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O86" s="158"/>
@@ -58822,14 +58812,14 @@
       <c r="H87" s="448"/>
       <c r="I87" s="446"/>
       <c r="J87" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K87" s="462"/>
       <c r="L87" s="469"/>
       <c r="M87" s="463"/>
       <c r="N87" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O87" s="564"/>
@@ -58852,14 +58842,14 @@
       <c r="H88" s="448"/>
       <c r="I88" s="446"/>
       <c r="J88" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K88" s="462"/>
       <c r="L88" s="469"/>
       <c r="M88" s="463"/>
       <c r="N88" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O88" s="565"/>
@@ -58882,14 +58872,14 @@
       <c r="H89" s="448"/>
       <c r="I89" s="446"/>
       <c r="J89" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K89" s="462"/>
       <c r="L89" s="463"/>
       <c r="M89" s="463"/>
       <c r="N89" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O89" s="158"/>
@@ -58912,14 +58902,14 @@
       <c r="H90" s="448"/>
       <c r="I90" s="446"/>
       <c r="J90" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K90" s="462"/>
       <c r="L90" s="463"/>
       <c r="M90" s="463"/>
       <c r="N90" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O90" s="158"/>
@@ -58942,14 +58932,14 @@
       <c r="H91" s="164"/>
       <c r="I91" s="155"/>
       <c r="J91" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K91" s="462"/>
       <c r="L91" s="463"/>
       <c r="M91" s="463"/>
       <c r="N91" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O91" s="158"/>
@@ -58972,14 +58962,14 @@
       <c r="H92" s="168"/>
       <c r="I92" s="155"/>
       <c r="J92" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K92" s="462"/>
       <c r="L92" s="463"/>
       <c r="M92" s="463"/>
       <c r="N92" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O92" s="158"/>
@@ -59002,14 +58992,14 @@
       <c r="H93" s="168"/>
       <c r="I93" s="155"/>
       <c r="J93" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K93" s="468"/>
       <c r="L93" s="463"/>
       <c r="M93" s="463"/>
       <c r="N93" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O93" s="158"/>
@@ -59032,14 +59022,14 @@
       <c r="H94" s="164"/>
       <c r="I94" s="155"/>
       <c r="J94" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K94" s="468"/>
       <c r="L94" s="463"/>
       <c r="M94" s="463"/>
       <c r="N94" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O94" s="158"/>
@@ -59062,14 +59052,14 @@
       <c r="H95" s="164"/>
       <c r="I95" s="155"/>
       <c r="J95" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K95" s="468"/>
       <c r="L95" s="463"/>
       <c r="M95" s="463"/>
       <c r="N95" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O95" s="158"/>
@@ -59092,14 +59082,14 @@
       <c r="H96" s="164"/>
       <c r="I96" s="155"/>
       <c r="J96" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K96" s="468"/>
       <c r="L96" s="463"/>
       <c r="M96" s="463"/>
       <c r="N96" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O96" s="158"/>
@@ -59125,14 +59115,14 @@
       <c r="H97" s="164"/>
       <c r="I97" s="155"/>
       <c r="J97" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K97" s="81"/>
       <c r="L97" s="61"/>
       <c r="M97" s="61"/>
       <c r="N97" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O97" s="158"/>
@@ -59158,14 +59148,14 @@
       <c r="H98" s="168"/>
       <c r="I98" s="155"/>
       <c r="J98" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K98" s="81"/>
       <c r="L98" s="61"/>
       <c r="M98" s="61"/>
       <c r="N98" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O98" s="158"/>
@@ -59191,14 +59181,14 @@
       <c r="H99" s="168"/>
       <c r="I99" s="155"/>
       <c r="J99" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
       <c r="L99" s="61"/>
       <c r="M99" s="61"/>
       <c r="N99" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O99" s="158"/>
@@ -59224,14 +59214,14 @@
       <c r="H100" s="168"/>
       <c r="I100" s="155"/>
       <c r="J100" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
       <c r="L100" s="61"/>
       <c r="M100" s="61"/>
       <c r="N100" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O100" s="158"/>
@@ -59257,14 +59247,14 @@
       <c r="H101" s="59"/>
       <c r="I101" s="60"/>
       <c r="J101" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K101" s="81"/>
       <c r="L101" s="61"/>
       <c r="M101" s="61"/>
       <c r="N101" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O101" s="158"/>
@@ -59290,14 +59280,14 @@
       <c r="H102" s="59"/>
       <c r="I102" s="60"/>
       <c r="J102" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K102" s="81"/>
       <c r="L102" s="562"/>
       <c r="M102" s="563"/>
       <c r="N102" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O102" s="158"/>
@@ -59323,14 +59313,14 @@
       <c r="H103" s="59"/>
       <c r="I103" s="60"/>
       <c r="J103" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K103" s="81"/>
       <c r="L103" s="562"/>
       <c r="M103" s="563"/>
       <c r="N103" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O103" s="158"/>
@@ -59356,14 +59346,14 @@
       <c r="H104" s="59"/>
       <c r="I104" s="60"/>
       <c r="J104" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K104" s="81"/>
       <c r="L104" s="195"/>
       <c r="M104" s="195"/>
       <c r="N104" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O104" s="158"/>
@@ -59389,14 +59379,14 @@
       <c r="H105" s="59"/>
       <c r="I105" s="60"/>
       <c r="J105" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K105" s="81"/>
       <c r="L105" s="195"/>
       <c r="M105" s="195"/>
       <c r="N105" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O105" s="158"/>
@@ -59422,14 +59412,14 @@
       <c r="H106" s="59"/>
       <c r="I106" s="60"/>
       <c r="J106" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K106" s="81"/>
       <c r="L106" s="61"/>
       <c r="M106" s="61"/>
       <c r="N106" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O106" s="158"/>
@@ -59455,14 +59445,14 @@
       <c r="H107" s="59"/>
       <c r="I107" s="60"/>
       <c r="J107" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K107" s="81"/>
       <c r="L107" s="61"/>
       <c r="M107" s="61"/>
       <c r="N107" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O107" s="158"/>
@@ -59488,14 +59478,14 @@
       <c r="H108" s="59"/>
       <c r="I108" s="60"/>
       <c r="J108" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K108" s="81"/>
       <c r="L108" s="61"/>
       <c r="M108" s="61"/>
       <c r="N108" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O108" s="158"/>
@@ -59521,14 +59511,14 @@
       <c r="H109" s="59"/>
       <c r="I109" s="60"/>
       <c r="J109" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K109" s="81"/>
       <c r="L109" s="61"/>
       <c r="M109" s="61"/>
       <c r="N109" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O109" s="564"/>
@@ -59554,14 +59544,14 @@
       <c r="H110" s="59"/>
       <c r="I110" s="60"/>
       <c r="J110" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K110" s="81"/>
       <c r="L110" s="61"/>
       <c r="M110" s="61"/>
       <c r="N110" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O110" s="565"/>
@@ -59587,14 +59577,14 @@
       <c r="H111" s="59"/>
       <c r="I111" s="60"/>
       <c r="J111" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K111" s="81"/>
       <c r="L111" s="61"/>
       <c r="M111" s="61"/>
       <c r="N111" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O111" s="158"/>
@@ -59620,14 +59610,14 @@
       <c r="H112" s="59"/>
       <c r="I112" s="60"/>
       <c r="J112" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K112" s="81"/>
       <c r="L112" s="61"/>
       <c r="M112" s="61"/>
       <c r="N112" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O112" s="158"/>
@@ -59653,14 +59643,14 @@
       <c r="H113" s="59"/>
       <c r="I113" s="60"/>
       <c r="J113" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K113" s="81"/>
       <c r="L113" s="61"/>
       <c r="M113" s="61"/>
       <c r="N113" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O113" s="158"/>
@@ -59686,14 +59676,14 @@
       <c r="H114" s="59"/>
       <c r="I114" s="60"/>
       <c r="J114" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K114" s="81"/>
       <c r="L114" s="61"/>
       <c r="M114" s="61"/>
       <c r="N114" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O114" s="158"/>
@@ -59719,14 +59709,14 @@
       <c r="H115" s="59"/>
       <c r="I115" s="60"/>
       <c r="J115" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K115" s="81"/>
       <c r="L115" s="61"/>
       <c r="M115" s="61"/>
       <c r="N115" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O115" s="158"/>
@@ -59752,14 +59742,14 @@
       <c r="H116" s="59"/>
       <c r="I116" s="60"/>
       <c r="J116" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K116" s="81"/>
       <c r="L116" s="61"/>
       <c r="M116" s="61"/>
       <c r="N116" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O116" s="158"/>
@@ -59785,14 +59775,14 @@
       <c r="H117" s="59"/>
       <c r="I117" s="60"/>
       <c r="J117" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K117" s="81"/>
       <c r="L117" s="61"/>
       <c r="M117" s="61"/>
       <c r="N117" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O117" s="158"/>
@@ -59818,14 +59808,14 @@
       <c r="H118" s="59"/>
       <c r="I118" s="60"/>
       <c r="J118" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K118" s="81"/>
       <c r="L118" s="61"/>
       <c r="M118" s="61"/>
       <c r="N118" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O118" s="158"/>
@@ -59851,14 +59841,14 @@
       <c r="H119" s="59"/>
       <c r="I119" s="60"/>
       <c r="J119" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K119" s="81"/>
       <c r="L119" s="61"/>
       <c r="M119" s="61"/>
       <c r="N119" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O119" s="158"/>
@@ -59884,14 +59874,14 @@
       <c r="H120" s="59"/>
       <c r="I120" s="60"/>
       <c r="J120" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K120" s="81"/>
       <c r="L120" s="61"/>
       <c r="M120" s="61"/>
       <c r="N120" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O120" s="158"/>
@@ -59917,14 +59907,14 @@
       <c r="H121" s="59"/>
       <c r="I121" s="60"/>
       <c r="J121" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K121" s="81"/>
       <c r="L121" s="61"/>
       <c r="M121" s="61"/>
       <c r="N121" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O121" s="158"/>
@@ -59950,14 +59940,14 @@
       <c r="H122" s="59"/>
       <c r="I122" s="60"/>
       <c r="J122" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K122" s="81"/>
       <c r="L122" s="61"/>
       <c r="M122" s="61"/>
       <c r="N122" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O122" s="158"/>
@@ -59983,14 +59973,14 @@
       <c r="H123" s="59"/>
       <c r="I123" s="60"/>
       <c r="J123" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K123" s="81"/>
       <c r="L123" s="61"/>
       <c r="M123" s="61"/>
       <c r="N123" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O123" s="158"/>
@@ -60016,14 +60006,14 @@
       <c r="H124" s="552"/>
       <c r="I124" s="60"/>
       <c r="J124" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K124" s="81"/>
       <c r="L124" s="61"/>
       <c r="M124" s="61"/>
       <c r="N124" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O124" s="158"/>
@@ -60049,14 +60039,14 @@
       <c r="H125" s="59"/>
       <c r="I125" s="60"/>
       <c r="J125" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K125" s="81"/>
       <c r="L125" s="61"/>
       <c r="M125" s="61"/>
       <c r="N125" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O125" s="158"/>
@@ -60082,14 +60072,14 @@
       <c r="H126" s="59"/>
       <c r="I126" s="60"/>
       <c r="J126" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K126" s="81"/>
       <c r="L126" s="61"/>
       <c r="M126" s="61"/>
       <c r="N126" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O126" s="158"/>
@@ -60115,14 +60105,14 @@
       <c r="H127" s="59"/>
       <c r="I127" s="60"/>
       <c r="J127" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K127" s="81"/>
       <c r="L127" s="61"/>
       <c r="M127" s="61"/>
       <c r="N127" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O127" s="158"/>
@@ -60148,14 +60138,14 @@
       <c r="H128" s="59"/>
       <c r="I128" s="60"/>
       <c r="J128" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K128" s="81"/>
       <c r="L128" s="61"/>
       <c r="M128" s="61"/>
       <c r="N128" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O128" s="158"/>
@@ -60181,14 +60171,14 @@
       <c r="H129" s="59"/>
       <c r="I129" s="60"/>
       <c r="J129" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K129" s="81"/>
       <c r="L129" s="61"/>
       <c r="M129" s="61"/>
       <c r="N129" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O129" s="158"/>
@@ -60214,7 +60204,7 @@
       <c r="H130" s="59"/>
       <c r="I130" s="60"/>
       <c r="J130" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K130" s="81"/>
@@ -60247,7 +60237,7 @@
       <c r="H131" s="59"/>
       <c r="I131" s="60"/>
       <c r="J131" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K131" s="81"/>
@@ -60280,7 +60270,7 @@
       <c r="H132" s="59"/>
       <c r="I132" s="60"/>
       <c r="J132" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K132" s="81"/>
@@ -60313,7 +60303,7 @@
       <c r="H133" s="59"/>
       <c r="I133" s="60"/>
       <c r="J133" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K133" s="81"/>
@@ -60346,7 +60336,7 @@
       <c r="H134" s="59"/>
       <c r="I134" s="60"/>
       <c r="J134" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K134" s="81"/>
@@ -60379,7 +60369,7 @@
       <c r="H135" s="59"/>
       <c r="I135" s="60"/>
       <c r="J135" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K135" s="81"/>
@@ -64964,7 +64954,7 @@
       <c r="H274" s="554"/>
       <c r="I274" s="303">
         <f>SUM(I4:I273)</f>
-        <v>41899</v>
+        <v>67869</v>
       </c>
       <c r="J274" s="304"/>
       <c r="K274" s="300"/>
@@ -65534,17 +65524,20 @@
       <c r="V307"/>
     </row>
   </sheetData>
+  <sortState ref="A4:O6">
+    <sortCondition ref="G4:G6"/>
+  </sortState>
   <mergeCells count="10">
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
     <mergeCell ref="L102:M103"/>
     <mergeCell ref="O109:O110"/>
     <mergeCell ref="P109:P110"/>
     <mergeCell ref="F274:H274"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/ENTRADAS  OBRADOR   JUNIO      2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/ENTRADAS  OBRADOR   JUNIO      2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="11715" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="11715" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES   ENERO    2023       " sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="346">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -1071,6 +1071,30 @@
   </si>
   <si>
     <t>0034 D1</t>
+  </si>
+  <si>
+    <t>Transfereencia B</t>
+  </si>
+  <si>
+    <t>A-337930</t>
+  </si>
+  <si>
+    <t>NOTAS 2193--2199--2200</t>
+  </si>
+  <si>
+    <t>COMBO CUERO PAPEL</t>
+  </si>
+  <si>
+    <t>A-337931</t>
+  </si>
+  <si>
+    <t>NOTA---2201</t>
+  </si>
+  <si>
+    <t>FOLIO  11229</t>
+  </si>
+  <si>
+    <t>FOLIO  11230</t>
   </si>
 </sst>
 </file>
@@ -2687,7 +2711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="648">
+  <cellXfs count="651">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4231,6 +4255,24 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="58" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4276,88 +4318,40 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4396,41 +4390,89 @@
     <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4445,6 +4487,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="42" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4495,27 +4549,6 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="58" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4525,8 +4558,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF800000"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF660033"/>
@@ -4846,49 +4879,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="555" t="s">
+      <c r="A1" s="561" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="555"/>
-      <c r="C1" s="555"/>
-      <c r="D1" s="555"/>
-      <c r="E1" s="555"/>
-      <c r="F1" s="555"/>
-      <c r="G1" s="555"/>
-      <c r="H1" s="555"/>
-      <c r="I1" s="555"/>
-      <c r="J1" s="555"/>
+      <c r="B1" s="561"/>
+      <c r="C1" s="561"/>
+      <c r="D1" s="561"/>
+      <c r="E1" s="561"/>
+      <c r="F1" s="561"/>
+      <c r="G1" s="561"/>
+      <c r="H1" s="561"/>
+      <c r="I1" s="561"/>
+      <c r="J1" s="561"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="556" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="556"/>
+      <c r="S1" s="562" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="562"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="558" t="s">
+      <c r="W1" s="564" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="559"/>
+      <c r="X1" s="565"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="555"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="555"/>
-      <c r="D2" s="555"/>
-      <c r="E2" s="555"/>
-      <c r="F2" s="555"/>
-      <c r="G2" s="555"/>
-      <c r="H2" s="555"/>
-      <c r="I2" s="555"/>
-      <c r="J2" s="555"/>
+      <c r="A2" s="561"/>
+      <c r="B2" s="561"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="561"/>
+      <c r="E2" s="561"/>
+      <c r="F2" s="561"/>
+      <c r="G2" s="561"/>
+      <c r="H2" s="561"/>
+      <c r="I2" s="561"/>
+      <c r="J2" s="561"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -4896,8 +4929,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="557"/>
-      <c r="T2" s="557"/>
+      <c r="S2" s="563"/>
+      <c r="T2" s="563"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -4942,10 +4975,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="560" t="s">
+      <c r="O3" s="566" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="561"/>
+      <c r="P3" s="567"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -8266,8 +8299,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="562"/>
-      <c r="M90" s="563"/>
+      <c r="L90" s="568"/>
+      <c r="M90" s="569"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8299,8 +8332,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="562"/>
-      <c r="M91" s="563"/>
+      <c r="L91" s="568"/>
+      <c r="M91" s="569"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8503,8 +8536,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="564"/>
-      <c r="P97" s="566"/>
+      <c r="O97" s="570"/>
+      <c r="P97" s="572"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -8536,8 +8569,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="565"/>
-      <c r="P98" s="567"/>
+      <c r="O98" s="571"/>
+      <c r="P98" s="573"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -13929,11 +13962,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="553" t="s">
+      <c r="F262" s="559" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="553"/>
-      <c r="H262" s="554"/>
+      <c r="G262" s="559"/>
+      <c r="H262" s="560"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -14559,49 +14592,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="555" t="s">
+      <c r="A1" s="561" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="555"/>
-      <c r="C1" s="555"/>
-      <c r="D1" s="555"/>
-      <c r="E1" s="555"/>
-      <c r="F1" s="555"/>
-      <c r="G1" s="555"/>
-      <c r="H1" s="555"/>
-      <c r="I1" s="555"/>
-      <c r="J1" s="555"/>
+      <c r="B1" s="561"/>
+      <c r="C1" s="561"/>
+      <c r="D1" s="561"/>
+      <c r="E1" s="561"/>
+      <c r="F1" s="561"/>
+      <c r="G1" s="561"/>
+      <c r="H1" s="561"/>
+      <c r="I1" s="561"/>
+      <c r="J1" s="561"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="556" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="556"/>
+      <c r="S1" s="562" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="562"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="558" t="s">
+      <c r="W1" s="564" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="559"/>
+      <c r="X1" s="565"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="555"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="555"/>
-      <c r="D2" s="555"/>
-      <c r="E2" s="555"/>
-      <c r="F2" s="555"/>
-      <c r="G2" s="555"/>
-      <c r="H2" s="555"/>
-      <c r="I2" s="555"/>
-      <c r="J2" s="555"/>
+      <c r="A2" s="561"/>
+      <c r="B2" s="561"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="561"/>
+      <c r="E2" s="561"/>
+      <c r="F2" s="561"/>
+      <c r="G2" s="561"/>
+      <c r="H2" s="561"/>
+      <c r="I2" s="561"/>
+      <c r="J2" s="561"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -14609,8 +14642,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="557"/>
-      <c r="T2" s="557"/>
+      <c r="S2" s="563"/>
+      <c r="T2" s="563"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -14655,10 +14688,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="560" t="s">
+      <c r="O3" s="566" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="561"/>
+      <c r="P3" s="567"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -16991,13 +17024,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="610" t="s">
+      <c r="A59" s="576" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="612" t="s">
+      <c r="C59" s="578" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -17005,10 +17038,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="614">
+      <c r="G59" s="580">
         <v>44981</v>
       </c>
-      <c r="H59" s="616" t="s">
+      <c r="H59" s="582" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -17027,10 +17060,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="618" t="s">
+      <c r="O59" s="584" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="608">
+      <c r="P59" s="574">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -17041,18 +17074,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="611"/>
+      <c r="A60" s="577"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="613"/>
+      <c r="C60" s="579"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="615"/>
-      <c r="H60" s="617"/>
+      <c r="G60" s="581"/>
+      <c r="H60" s="583"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -17069,8 +17102,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="619"/>
-      <c r="P60" s="609"/>
+      <c r="O60" s="585"/>
+      <c r="P60" s="575"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -17308,7 +17341,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="568" t="s">
+      <c r="A66" s="614" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -17320,10 +17353,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="570">
+      <c r="G66" s="616">
         <v>44973</v>
       </c>
-      <c r="H66" s="572" t="s">
+      <c r="H66" s="618" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -17342,10 +17375,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="574" t="s">
+      <c r="O66" s="620" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="576">
+      <c r="P66" s="622">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -17356,7 +17389,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="569"/>
+      <c r="A67" s="615"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -17366,8 +17399,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="571"/>
-      <c r="H67" s="573"/>
+      <c r="G67" s="617"/>
+      <c r="H67" s="619"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -17384,8 +17417,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="575"/>
-      <c r="P67" s="577"/>
+      <c r="O67" s="621"/>
+      <c r="P67" s="623"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -17443,13 +17476,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="598" t="s">
+      <c r="A69" s="588" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="600" t="s">
+      <c r="C69" s="590" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -17457,10 +17490,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="604">
+      <c r="G69" s="594">
         <v>44979</v>
       </c>
-      <c r="H69" s="602" t="s">
+      <c r="H69" s="592" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -17479,10 +17512,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="606" t="s">
+      <c r="O69" s="596" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="596">
+      <c r="P69" s="586">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -17493,18 +17526,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="599"/>
+      <c r="A70" s="589"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="601"/>
+      <c r="C70" s="591"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="605"/>
-      <c r="H70" s="603"/>
+      <c r="G70" s="595"/>
+      <c r="H70" s="593"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -17521,8 +17554,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="607"/>
-      <c r="P70" s="597"/>
+      <c r="O70" s="597"/>
+      <c r="P70" s="587"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -17531,13 +17564,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="586" t="s">
+      <c r="A71" s="602" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="584" t="s">
+      <c r="C71" s="600" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -17545,10 +17578,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="589">
+      <c r="G71" s="605">
         <v>44982</v>
       </c>
-      <c r="H71" s="591" t="s">
+      <c r="H71" s="607" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -17567,10 +17600,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="580" t="s">
+      <c r="O71" s="610" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="582">
+      <c r="P71" s="598">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -17581,18 +17614,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="586"/>
+      <c r="A72" s="602"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="588"/>
+      <c r="C72" s="604"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="589"/>
-      <c r="H72" s="592"/>
+      <c r="G72" s="605"/>
+      <c r="H72" s="608"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -17609,8 +17642,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="594"/>
-      <c r="P72" s="595"/>
+      <c r="O72" s="611"/>
+      <c r="P72" s="613"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -17619,18 +17652,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="587"/>
+      <c r="A73" s="603"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="585"/>
+      <c r="C73" s="601"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="590"/>
-      <c r="H73" s="593"/>
+      <c r="G73" s="606"/>
+      <c r="H73" s="609"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -17647,8 +17680,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="581"/>
-      <c r="P73" s="583"/>
+      <c r="O73" s="612"/>
+      <c r="P73" s="599"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -17824,13 +17857,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="568" t="s">
+      <c r="A80" s="614" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="584" t="s">
+      <c r="C80" s="600" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -17841,7 +17874,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="578" t="s">
+      <c r="H80" s="624" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -17860,10 +17893,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="580" t="s">
+      <c r="O80" s="610" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="582">
+      <c r="P80" s="598">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -17874,11 +17907,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="569"/>
+      <c r="A81" s="615"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="585"/>
+      <c r="C81" s="601"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -17887,7 +17920,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="579"/>
+      <c r="H81" s="625"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -17904,8 +17937,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="581"/>
-      <c r="P81" s="583"/>
+      <c r="O81" s="612"/>
+      <c r="P81" s="599"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -18456,8 +18489,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="562"/>
-      <c r="M99" s="563"/>
+      <c r="L99" s="568"/>
+      <c r="M99" s="569"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18489,8 +18522,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="562"/>
-      <c r="M100" s="563"/>
+      <c r="L100" s="568"/>
+      <c r="M100" s="569"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18693,8 +18726,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="564"/>
-      <c r="P106" s="566"/>
+      <c r="O106" s="570"/>
+      <c r="P106" s="572"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -18726,8 +18759,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="565"/>
-      <c r="P107" s="567"/>
+      <c r="O107" s="571"/>
+      <c r="P107" s="573"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -24119,11 +24152,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F271" s="553" t="s">
+      <c r="F271" s="559" t="s">
         <v>27</v>
       </c>
-      <c r="G271" s="553"/>
-      <c r="H271" s="554"/>
+      <c r="G271" s="559"/>
+      <c r="H271" s="560"/>
       <c r="I271" s="303">
         <f>SUM(I4:I270)</f>
         <v>323525.489</v>
@@ -24697,26 +24730,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="P71:P73"/>
     <mergeCell ref="F271:H271"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
@@ -24733,6 +24746,26 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="H80:H81"/>
     <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="P71:P73"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O59:O60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24780,49 +24813,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="555" t="s">
+      <c r="A1" s="561" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="555"/>
-      <c r="C1" s="555"/>
-      <c r="D1" s="555"/>
-      <c r="E1" s="555"/>
-      <c r="F1" s="555"/>
-      <c r="G1" s="555"/>
-      <c r="H1" s="555"/>
-      <c r="I1" s="555"/>
-      <c r="J1" s="555"/>
+      <c r="B1" s="561"/>
+      <c r="C1" s="561"/>
+      <c r="D1" s="561"/>
+      <c r="E1" s="561"/>
+      <c r="F1" s="561"/>
+      <c r="G1" s="561"/>
+      <c r="H1" s="561"/>
+      <c r="I1" s="561"/>
+      <c r="J1" s="561"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="556" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="556"/>
+      <c r="S1" s="562" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="562"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="558" t="s">
+      <c r="W1" s="564" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="559"/>
+      <c r="X1" s="565"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="555"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="555"/>
-      <c r="D2" s="555"/>
-      <c r="E2" s="555"/>
-      <c r="F2" s="555"/>
-      <c r="G2" s="555"/>
-      <c r="H2" s="555"/>
-      <c r="I2" s="555"/>
-      <c r="J2" s="555"/>
+      <c r="A2" s="561"/>
+      <c r="B2" s="561"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="561"/>
+      <c r="E2" s="561"/>
+      <c r="F2" s="561"/>
+      <c r="G2" s="561"/>
+      <c r="H2" s="561"/>
+      <c r="I2" s="561"/>
+      <c r="J2" s="561"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -24830,8 +24863,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="557"/>
-      <c r="T2" s="557"/>
+      <c r="S2" s="563"/>
+      <c r="T2" s="563"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -24876,10 +24909,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="560" t="s">
+      <c r="O3" s="566" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="561"/>
+      <c r="P3" s="567"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -28460,13 +28493,13 @@
       <c r="V82" s="50"/>
     </row>
     <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="568" t="s">
+      <c r="A83" s="614" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="584" t="s">
+      <c r="C83" s="600" t="s">
         <v>193</v>
       </c>
       <c r="D83" s="431"/>
@@ -28474,10 +28507,10 @@
       <c r="F83" s="410">
         <v>27.48</v>
       </c>
-      <c r="G83" s="614">
+      <c r="G83" s="580">
         <v>45014</v>
       </c>
-      <c r="H83" s="620" t="s">
+      <c r="H83" s="626" t="s">
         <v>180</v>
       </c>
       <c r="I83" s="155">
@@ -28490,7 +28523,7 @@
       <c r="K83" s="40">
         <v>70</v>
       </c>
-      <c r="L83" s="624" t="s">
+      <c r="L83" s="630" t="s">
         <v>194</v>
       </c>
       <c r="M83" s="61"/>
@@ -28498,10 +28531,10 @@
         <f t="shared" si="2"/>
         <v>1923.6000000000001</v>
       </c>
-      <c r="O83" s="564" t="s">
+      <c r="O83" s="570" t="s">
         <v>21</v>
       </c>
-      <c r="P83" s="622">
+      <c r="P83" s="628">
         <v>45016</v>
       </c>
       <c r="Q83" s="158"/>
@@ -28512,18 +28545,18 @@
       <c r="V83" s="50"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="569"/>
+      <c r="A84" s="615"/>
       <c r="B84" s="430" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="585"/>
+      <c r="C84" s="601"/>
       <c r="D84" s="431"/>
       <c r="E84" s="56"/>
       <c r="F84" s="410">
         <v>142.5</v>
       </c>
-      <c r="G84" s="615"/>
-      <c r="H84" s="621"/>
+      <c r="G84" s="581"/>
+      <c r="H84" s="627"/>
       <c r="I84" s="155">
         <v>142.5771</v>
       </c>
@@ -28534,14 +28567,14 @@
       <c r="K84" s="40">
         <v>70</v>
       </c>
-      <c r="L84" s="624"/>
+      <c r="L84" s="630"/>
       <c r="M84" s="61"/>
       <c r="N84" s="42">
         <f t="shared" si="2"/>
         <v>9980.3970000000008</v>
       </c>
-      <c r="O84" s="565"/>
-      <c r="P84" s="623"/>
+      <c r="O84" s="571"/>
+      <c r="P84" s="629"/>
       <c r="Q84" s="158"/>
       <c r="R84" s="125"/>
       <c r="S84" s="176"/>
@@ -28972,8 +29005,8 @@
         <v>0</v>
       </c>
       <c r="K98" s="81"/>
-      <c r="L98" s="562"/>
-      <c r="M98" s="563"/>
+      <c r="L98" s="568"/>
+      <c r="M98" s="569"/>
       <c r="N98" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -29005,8 +29038,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="562"/>
-      <c r="M99" s="563"/>
+      <c r="L99" s="568"/>
+      <c r="M99" s="569"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -29209,8 +29242,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O105" s="564"/>
-      <c r="P105" s="566"/>
+      <c r="O105" s="570"/>
+      <c r="P105" s="572"/>
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
@@ -29242,8 +29275,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="565"/>
-      <c r="P106" s="567"/>
+      <c r="O106" s="571"/>
+      <c r="P106" s="573"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -34635,11 +34668,11 @@
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F270" s="553" t="s">
+      <c r="F270" s="559" t="s">
         <v>27</v>
       </c>
-      <c r="G270" s="553"/>
-      <c r="H270" s="554"/>
+      <c r="G270" s="559"/>
+      <c r="H270" s="560"/>
       <c r="I270" s="303">
         <f>SUM(I4:I269)</f>
         <v>601739.64578900009</v>
@@ -35275,49 +35308,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="555" t="s">
+      <c r="A1" s="561" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="555"/>
-      <c r="C1" s="555"/>
-      <c r="D1" s="555"/>
-      <c r="E1" s="555"/>
-      <c r="F1" s="555"/>
-      <c r="G1" s="555"/>
-      <c r="H1" s="555"/>
-      <c r="I1" s="555"/>
-      <c r="J1" s="555"/>
+      <c r="B1" s="561"/>
+      <c r="C1" s="561"/>
+      <c r="D1" s="561"/>
+      <c r="E1" s="561"/>
+      <c r="F1" s="561"/>
+      <c r="G1" s="561"/>
+      <c r="H1" s="561"/>
+      <c r="I1" s="561"/>
+      <c r="J1" s="561"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="556" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="556"/>
+      <c r="S1" s="562" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="562"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="558" t="s">
+      <c r="W1" s="564" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="559"/>
+      <c r="X1" s="565"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="555"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="555"/>
-      <c r="D2" s="555"/>
-      <c r="E2" s="555"/>
-      <c r="F2" s="555"/>
-      <c r="G2" s="555"/>
-      <c r="H2" s="555"/>
-      <c r="I2" s="555"/>
-      <c r="J2" s="555"/>
+      <c r="A2" s="561"/>
+      <c r="B2" s="561"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="561"/>
+      <c r="E2" s="561"/>
+      <c r="F2" s="561"/>
+      <c r="G2" s="561"/>
+      <c r="H2" s="561"/>
+      <c r="I2" s="561"/>
+      <c r="J2" s="561"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -35325,8 +35358,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="557"/>
-      <c r="T2" s="557"/>
+      <c r="S2" s="563"/>
+      <c r="T2" s="563"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -35371,10 +35404,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="560" t="s">
+      <c r="O3" s="566" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="561"/>
+      <c r="P3" s="567"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -37797,13 +37830,13 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="635" t="s">
+      <c r="A60" s="645" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="584" t="s">
+      <c r="C60" s="600" t="s">
         <v>291</v>
       </c>
       <c r="D60" s="409"/>
@@ -37811,10 +37844,10 @@
       <c r="F60" s="410">
         <v>847.4</v>
       </c>
-      <c r="G60" s="637">
+      <c r="G60" s="647">
         <v>45023</v>
       </c>
-      <c r="H60" s="639" t="s">
+      <c r="H60" s="649" t="s">
         <v>292</v>
       </c>
       <c r="I60" s="402">
@@ -37833,10 +37866,10 @@
         <f t="shared" si="2"/>
         <v>76266</v>
       </c>
-      <c r="O60" s="641" t="s">
+      <c r="O60" s="631" t="s">
         <v>21</v>
       </c>
-      <c r="P60" s="643">
+      <c r="P60" s="633">
         <v>45065</v>
       </c>
       <c r="Q60" s="543"/>
@@ -37847,18 +37880,18 @@
       <c r="V60" s="50"/>
     </row>
     <row r="61" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="636"/>
+      <c r="A61" s="646"/>
       <c r="B61" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="585"/>
+      <c r="C61" s="601"/>
       <c r="D61" s="409"/>
       <c r="E61" s="56"/>
       <c r="F61" s="410">
         <v>175.4</v>
       </c>
-      <c r="G61" s="638"/>
-      <c r="H61" s="640"/>
+      <c r="G61" s="648"/>
+      <c r="H61" s="650"/>
       <c r="I61" s="402">
         <v>175.4</v>
       </c>
@@ -37875,8 +37908,8 @@
         <f t="shared" si="2"/>
         <v>15435.2</v>
       </c>
-      <c r="O61" s="642"/>
-      <c r="P61" s="644"/>
+      <c r="O61" s="632"/>
+      <c r="P61" s="634"/>
       <c r="Q61" s="166"/>
       <c r="R61" s="125"/>
       <c r="S61" s="48"/>
@@ -38087,13 +38120,13 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="625" t="s">
+      <c r="A66" s="635" t="s">
         <v>31</v>
       </c>
       <c r="B66" s="519" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="627" t="s">
+      <c r="C66" s="637" t="s">
         <v>255</v>
       </c>
       <c r="D66" s="517"/>
@@ -38101,10 +38134,10 @@
       <c r="F66" s="493">
         <v>9084.5</v>
       </c>
-      <c r="G66" s="631">
+      <c r="G66" s="641">
         <v>45041</v>
       </c>
-      <c r="H66" s="629">
+      <c r="H66" s="639">
         <v>145029</v>
       </c>
       <c r="I66" s="515">
@@ -38123,10 +38156,10 @@
         <f t="shared" si="2"/>
         <v>417887</v>
       </c>
-      <c r="O66" s="633" t="s">
+      <c r="O66" s="643" t="s">
         <v>22</v>
       </c>
-      <c r="P66" s="582">
+      <c r="P66" s="598">
         <v>45054</v>
       </c>
       <c r="Q66" s="166"/>
@@ -38137,18 +38170,18 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="626"/>
+      <c r="A67" s="636"/>
       <c r="B67" s="519" t="s">
         <v>256</v>
       </c>
-      <c r="C67" s="628"/>
+      <c r="C67" s="638"/>
       <c r="D67" s="517"/>
       <c r="E67" s="56"/>
       <c r="F67" s="526">
         <v>1007.3</v>
       </c>
-      <c r="G67" s="632"/>
-      <c r="H67" s="630"/>
+      <c r="G67" s="642"/>
+      <c r="H67" s="640"/>
       <c r="I67" s="527">
         <v>1007.3</v>
       </c>
@@ -38165,8 +38198,8 @@
         <f t="shared" si="2"/>
         <v>63459.899999999994</v>
       </c>
-      <c r="O67" s="634"/>
-      <c r="P67" s="583"/>
+      <c r="O67" s="644"/>
+      <c r="P67" s="599"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="48"/>
@@ -38827,8 +38860,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O87" s="564"/>
-      <c r="P87" s="622"/>
+      <c r="O87" s="570"/>
+      <c r="P87" s="628"/>
       <c r="Q87" s="158"/>
       <c r="R87" s="125"/>
       <c r="S87" s="176"/>
@@ -38857,8 +38890,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O88" s="565"/>
-      <c r="P88" s="623"/>
+      <c r="O88" s="571"/>
+      <c r="P88" s="629"/>
       <c r="Q88" s="158"/>
       <c r="R88" s="125"/>
       <c r="S88" s="176"/>
@@ -39289,8 +39322,8 @@
         <v>0</v>
       </c>
       <c r="K102" s="81"/>
-      <c r="L102" s="562"/>
-      <c r="M102" s="563"/>
+      <c r="L102" s="568"/>
+      <c r="M102" s="569"/>
       <c r="N102" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -39322,8 +39355,8 @@
         <v>0</v>
       </c>
       <c r="K103" s="81"/>
-      <c r="L103" s="562"/>
-      <c r="M103" s="563"/>
+      <c r="L103" s="568"/>
+      <c r="M103" s="569"/>
       <c r="N103" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -39526,8 +39559,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O109" s="564"/>
-      <c r="P109" s="566"/>
+      <c r="O109" s="570"/>
+      <c r="P109" s="572"/>
       <c r="Q109" s="158"/>
       <c r="R109" s="125"/>
       <c r="S109" s="176"/>
@@ -39559,8 +39592,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O110" s="565"/>
-      <c r="P110" s="567"/>
+      <c r="O110" s="571"/>
+      <c r="P110" s="573"/>
       <c r="Q110" s="158"/>
       <c r="R110" s="125"/>
       <c r="S110" s="176"/>
@@ -44952,11 +44985,11 @@
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F274" s="553" t="s">
+      <c r="F274" s="559" t="s">
         <v>27</v>
       </c>
-      <c r="G274" s="553"/>
-      <c r="H274" s="554"/>
+      <c r="G274" s="559"/>
+      <c r="H274" s="560"/>
       <c r="I274" s="303">
         <f>SUM(I4:I273)</f>
         <v>409425.92000000004</v>
@@ -45530,13 +45563,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
     <mergeCell ref="L102:M103"/>
     <mergeCell ref="O109:O110"/>
     <mergeCell ref="P109:P110"/>
@@ -45552,6 +45578,13 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="G60:G61"/>
     <mergeCell ref="H60:H61"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -45563,20 +45596,20 @@
   <sheetPr>
     <tabColor rgb="FF660033"/>
   </sheetPr>
-  <dimension ref="A1:X307"/>
+  <dimension ref="A1:X309"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="296" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="296" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="296" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="317" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="296" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="296" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="317" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="297" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="298" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="301" customWidth="1"/>
@@ -45597,49 +45630,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="555" t="s">
+      <c r="A1" s="561" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="555"/>
-      <c r="C1" s="555"/>
-      <c r="D1" s="555"/>
-      <c r="E1" s="555"/>
-      <c r="F1" s="555"/>
-      <c r="G1" s="555"/>
-      <c r="H1" s="555"/>
-      <c r="I1" s="555"/>
-      <c r="J1" s="555"/>
+      <c r="B1" s="561"/>
+      <c r="C1" s="561"/>
+      <c r="D1" s="561"/>
+      <c r="E1" s="561"/>
+      <c r="F1" s="561"/>
+      <c r="G1" s="561"/>
+      <c r="H1" s="561"/>
+      <c r="I1" s="561"/>
+      <c r="J1" s="561"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="556" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="556"/>
+      <c r="S1" s="562" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="562"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="558" t="s">
+      <c r="W1" s="564" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="559"/>
+      <c r="X1" s="565"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="555"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="555"/>
-      <c r="D2" s="555"/>
-      <c r="E2" s="555"/>
-      <c r="F2" s="555"/>
-      <c r="G2" s="555"/>
-      <c r="H2" s="555"/>
-      <c r="I2" s="555"/>
-      <c r="J2" s="555"/>
+      <c r="A2" s="561"/>
+      <c r="B2" s="561"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="561"/>
+      <c r="E2" s="561"/>
+      <c r="F2" s="561"/>
+      <c r="G2" s="561"/>
+      <c r="H2" s="561"/>
+      <c r="I2" s="561"/>
+      <c r="J2" s="561"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -45647,8 +45680,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="557"/>
-      <c r="T2" s="557"/>
+      <c r="S2" s="563"/>
+      <c r="T2" s="563"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -45693,10 +45726,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="560" t="s">
+      <c r="O3" s="566" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="561"/>
+      <c r="P3" s="567"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -45748,7 +45781,7 @@
         <v>23043.65</v>
       </c>
       <c r="J4" s="39">
-        <f t="shared" ref="J4:J135" si="0">I4-F4</f>
+        <f t="shared" ref="J4:J137" si="0">I4-F4</f>
         <v>0</v>
       </c>
       <c r="K4" s="40">
@@ -45757,7 +45790,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="42">
-        <f t="shared" ref="N4:N129" si="1">K4*I4</f>
+        <f t="shared" ref="N4:N131" si="1">K4*I4</f>
         <v>744309.89500000002</v>
       </c>
       <c r="O4" s="470" t="s">
@@ -46207,7 +46240,7 @@
       <c r="G12" s="376">
         <v>45063</v>
       </c>
-      <c r="H12" s="453">
+      <c r="H12" s="556">
         <v>42336</v>
       </c>
       <c r="I12" s="491">
@@ -46266,7 +46299,9 @@
       <c r="G13" s="376">
         <v>45065</v>
       </c>
-      <c r="H13" s="453"/>
+      <c r="H13" s="557">
+        <v>42365</v>
+      </c>
       <c r="I13" s="491">
         <v>23250</v>
       </c>
@@ -46283,8 +46318,12 @@
         <f t="shared" si="1"/>
         <v>860250</v>
       </c>
-      <c r="O13" s="476"/>
-      <c r="P13" s="475"/>
+      <c r="O13" s="378" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="483">
+        <v>45079</v>
+      </c>
       <c r="Q13" s="64"/>
       <c r="R13" s="65"/>
       <c r="S13" s="47"/>
@@ -46317,7 +46356,9 @@
       <c r="G14" s="376">
         <v>45067</v>
       </c>
-      <c r="H14" s="507"/>
+      <c r="H14" s="557">
+        <v>42382</v>
+      </c>
       <c r="I14" s="491">
         <v>23350</v>
       </c>
@@ -46334,8 +46375,12 @@
         <f t="shared" si="1"/>
         <v>898975</v>
       </c>
-      <c r="O14" s="476"/>
-      <c r="P14" s="477"/>
+      <c r="O14" s="378" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="379">
+        <v>45082</v>
+      </c>
       <c r="Q14" s="64"/>
       <c r="R14" s="65"/>
       <c r="S14" s="47"/>
@@ -46370,7 +46415,9 @@
       <c r="G15" s="376">
         <v>45070</v>
       </c>
-      <c r="H15" s="453"/>
+      <c r="H15" s="557">
+        <v>42416</v>
+      </c>
       <c r="I15" s="491">
         <v>21630</v>
       </c>
@@ -46387,8 +46434,12 @@
         <f t="shared" si="1"/>
         <v>832755</v>
       </c>
-      <c r="O15" s="476"/>
-      <c r="P15" s="477"/>
+      <c r="O15" s="378" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="379">
+        <v>45083</v>
+      </c>
       <c r="Q15" s="64"/>
       <c r="R15" s="65"/>
       <c r="S15" s="47"/>
@@ -46423,7 +46474,9 @@
       <c r="G16" s="376">
         <v>45072</v>
       </c>
-      <c r="H16" s="453"/>
+      <c r="H16" s="557">
+        <v>42430</v>
+      </c>
       <c r="I16" s="491">
         <v>25210</v>
       </c>
@@ -46440,8 +46493,12 @@
         <f t="shared" si="1"/>
         <v>1021005</v>
       </c>
-      <c r="O16" s="476"/>
-      <c r="P16" s="477"/>
+      <c r="O16" s="378" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="379">
+        <v>45086</v>
+      </c>
       <c r="Q16" s="64"/>
       <c r="R16" s="65"/>
       <c r="S16" s="47"/>
@@ -46476,7 +46533,9 @@
       <c r="G17" s="376">
         <v>45075</v>
       </c>
-      <c r="H17" s="453"/>
+      <c r="H17" s="557">
+        <v>42456</v>
+      </c>
       <c r="I17" s="491">
         <v>26450</v>
       </c>
@@ -46493,8 +46552,12 @@
         <f t="shared" si="1"/>
         <v>1071225</v>
       </c>
-      <c r="O17" s="476"/>
-      <c r="P17" s="477"/>
+      <c r="O17" s="378" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="379">
+        <v>45089</v>
+      </c>
       <c r="Q17" s="64"/>
       <c r="R17" s="65"/>
       <c r="S17" s="47"/>
@@ -46529,7 +46592,9 @@
       <c r="G18" s="376">
         <v>45077</v>
       </c>
-      <c r="H18" s="453"/>
+      <c r="H18" s="557">
+        <v>42474</v>
+      </c>
       <c r="I18" s="491">
         <v>23330</v>
       </c>
@@ -46546,8 +46611,12 @@
         <f t="shared" si="1"/>
         <v>1007856.0000000001</v>
       </c>
-      <c r="O18" s="476"/>
-      <c r="P18" s="477"/>
+      <c r="O18" s="378" t="s">
+        <v>338</v>
+      </c>
+      <c r="P18" s="379">
+        <v>45091</v>
+      </c>
       <c r="Q18" s="64"/>
       <c r="R18" s="65"/>
       <c r="S18" s="47"/>
@@ -48607,7 +48676,7 @@
       </c>
       <c r="M73" s="465"/>
       <c r="N73" s="42">
-        <f>K73*I73</f>
+        <f t="shared" ref="N73:N78" si="5">K73*I73</f>
         <v>16324</v>
       </c>
       <c r="O73" s="169" t="s">
@@ -48623,50 +48692,50 @@
       <c r="U73" s="49"/>
       <c r="V73" s="50"/>
     </row>
-    <row r="74" spans="1:22" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="456" t="s">
         <v>300</v>
       </c>
       <c r="B74" s="386" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" s="450" t="s">
-        <v>315</v>
+        <v>341</v>
+      </c>
+      <c r="C74" s="558" t="s">
+        <v>344</v>
       </c>
       <c r="D74" s="454"/>
       <c r="E74" s="56"/>
       <c r="F74" s="446">
-        <v>14402</v>
+        <v>15298.42</v>
       </c>
       <c r="G74" s="447">
-        <v>45075</v>
+        <v>45069</v>
       </c>
       <c r="H74" s="455" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="I74" s="446">
-        <v>14402</v>
+        <v>15298.42</v>
       </c>
       <c r="J74" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K74" s="462">
-        <v>1</v>
-      </c>
-      <c r="L74" s="435" t="s">
-        <v>317</v>
-      </c>
-      <c r="M74" s="435"/>
+        <v>24</v>
+      </c>
+      <c r="L74" s="463" t="s">
+        <v>340</v>
+      </c>
+      <c r="M74" s="465"/>
       <c r="N74" s="42">
-        <f>K74*I74</f>
-        <v>14402</v>
-      </c>
-      <c r="O74" s="169" t="s">
+        <f t="shared" si="5"/>
+        <v>367162.08</v>
+      </c>
+      <c r="O74" s="382" t="s">
         <v>21</v>
       </c>
-      <c r="P74" s="58">
-        <v>45077</v>
+      <c r="P74" s="384">
+        <v>45083</v>
       </c>
       <c r="Q74" s="166"/>
       <c r="R74" s="125"/>
@@ -48675,85 +48744,129 @@
       <c r="U74" s="49"/>
       <c r="V74" s="50"/>
     </row>
-    <row r="75" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="456"/>
-      <c r="B75" s="369"/>
-      <c r="C75" s="450"/>
+    <row r="75" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="456" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75" s="386" t="s">
+        <v>341</v>
+      </c>
+      <c r="C75" s="558" t="s">
+        <v>345</v>
+      </c>
       <c r="D75" s="454"/>
       <c r="E75" s="56"/>
-      <c r="F75" s="446"/>
-      <c r="G75" s="447"/>
-      <c r="H75" s="451"/>
-      <c r="I75" s="446"/>
+      <c r="F75" s="446">
+        <v>2632.65</v>
+      </c>
+      <c r="G75" s="447">
+        <v>45069</v>
+      </c>
+      <c r="H75" s="455" t="s">
+        <v>342</v>
+      </c>
+      <c r="I75" s="446">
+        <v>2632.65</v>
+      </c>
       <c r="J75" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K75" s="462"/>
-      <c r="L75" s="463"/>
-      <c r="M75" s="463"/>
+      <c r="K75" s="462">
+        <v>24</v>
+      </c>
+      <c r="L75" s="463" t="s">
+        <v>343</v>
+      </c>
+      <c r="M75" s="465"/>
       <c r="N75" s="42">
-        <f>K75*I75</f>
-        <v>0</v>
-      </c>
-      <c r="O75" s="169"/>
-      <c r="P75" s="58"/>
+        <f t="shared" si="5"/>
+        <v>63183.600000000006</v>
+      </c>
+      <c r="O75" s="382" t="s">
+        <v>21</v>
+      </c>
+      <c r="P75" s="384">
+        <v>45083</v>
+      </c>
       <c r="Q75" s="166"/>
       <c r="R75" s="125"/>
-      <c r="S75" s="176"/>
-      <c r="T75" s="177"/>
+      <c r="S75" s="48"/>
+      <c r="T75" s="48"/>
       <c r="U75" s="49"/>
       <c r="V75" s="50"/>
     </row>
-    <row r="76" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="90"/>
-      <c r="B76" s="386"/>
-      <c r="C76" s="452"/>
-      <c r="D76" s="445"/>
+    <row r="76" spans="1:22" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="456" t="s">
+        <v>300</v>
+      </c>
+      <c r="B76" s="386" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="450" t="s">
+        <v>315</v>
+      </c>
+      <c r="D76" s="454"/>
       <c r="E76" s="56"/>
-      <c r="F76" s="446"/>
-      <c r="G76" s="447"/>
-      <c r="H76" s="453"/>
-      <c r="I76" s="446"/>
+      <c r="F76" s="446">
+        <v>14402</v>
+      </c>
+      <c r="G76" s="447">
+        <v>45075</v>
+      </c>
+      <c r="H76" s="455" t="s">
+        <v>316</v>
+      </c>
+      <c r="I76" s="446">
+        <v>14402</v>
+      </c>
       <c r="J76" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K76" s="462"/>
-      <c r="L76" s="463"/>
-      <c r="M76" s="463"/>
+      <c r="K76" s="462">
+        <v>1</v>
+      </c>
+      <c r="L76" s="435" t="s">
+        <v>317</v>
+      </c>
+      <c r="M76" s="435"/>
       <c r="N76" s="42">
-        <f>K76*I76</f>
-        <v>0</v>
-      </c>
-      <c r="O76" s="169"/>
-      <c r="P76" s="58"/>
+        <f t="shared" si="5"/>
+        <v>14402</v>
+      </c>
+      <c r="O76" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76" s="58">
+        <v>45077</v>
+      </c>
       <c r="Q76" s="166"/>
       <c r="R76" s="125"/>
-      <c r="S76" s="176"/>
-      <c r="T76" s="177"/>
+      <c r="S76" s="48"/>
+      <c r="T76" s="48"/>
       <c r="U76" s="49"/>
       <c r="V76" s="50"/>
     </row>
-    <row r="77" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="90"/>
-      <c r="B77" s="386"/>
+    <row r="77" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="456"/>
+      <c r="B77" s="369"/>
       <c r="C77" s="450"/>
-      <c r="D77" s="445"/>
+      <c r="D77" s="454"/>
       <c r="E77" s="56"/>
       <c r="F77" s="446"/>
       <c r="G77" s="447"/>
-      <c r="H77" s="453"/>
+      <c r="H77" s="451"/>
       <c r="I77" s="446"/>
       <c r="J77" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K77" s="462"/>
-      <c r="L77" s="435"/>
+      <c r="L77" s="463"/>
       <c r="M77" s="463"/>
       <c r="N77" s="42">
-        <f t="shared" ref="N77:N83" si="5">K77*I77</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O77" s="169"/>
@@ -48765,10 +48878,10 @@
       <c r="U77" s="49"/>
       <c r="V77" s="50"/>
     </row>
-    <row r="78" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="90"/>
       <c r="B78" s="386"/>
-      <c r="C78" s="450"/>
+      <c r="C78" s="452"/>
       <c r="D78" s="445"/>
       <c r="E78" s="56"/>
       <c r="F78" s="446"/>
@@ -48780,7 +48893,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="462"/>
-      <c r="L78" s="467"/>
+      <c r="L78" s="463"/>
       <c r="M78" s="463"/>
       <c r="N78" s="42">
         <f t="shared" si="5"/>
@@ -48797,7 +48910,7 @@
     </row>
     <row r="79" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="90"/>
-      <c r="B79" s="369"/>
+      <c r="B79" s="386"/>
       <c r="C79" s="450"/>
       <c r="D79" s="445"/>
       <c r="E79" s="56"/>
@@ -48810,10 +48923,10 @@
         <v>0</v>
       </c>
       <c r="K79" s="462"/>
-      <c r="L79" s="467"/>
+      <c r="L79" s="435"/>
       <c r="M79" s="463"/>
       <c r="N79" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N79:N85" si="6">K79*I79</f>
         <v>0</v>
       </c>
       <c r="O79" s="169"/>
@@ -48825,10 +48938,10 @@
       <c r="U79" s="49"/>
       <c r="V79" s="50"/>
     </row>
-    <row r="80" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="90"/>
-      <c r="B80" s="369"/>
-      <c r="C80" s="452"/>
+      <c r="B80" s="386"/>
+      <c r="C80" s="450"/>
       <c r="D80" s="445"/>
       <c r="E80" s="56"/>
       <c r="F80" s="446"/>
@@ -48840,10 +48953,10 @@
         <v>0</v>
       </c>
       <c r="K80" s="462"/>
-      <c r="L80" s="463"/>
+      <c r="L80" s="467"/>
       <c r="M80" s="463"/>
       <c r="N80" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O80" s="169"/>
@@ -48855,25 +48968,25 @@
       <c r="U80" s="49"/>
       <c r="V80" s="50"/>
     </row>
-    <row r="81" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="456"/>
-      <c r="B81" s="386"/>
-      <c r="C81" s="457"/>
-      <c r="D81" s="454"/>
+    <row r="81" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="90"/>
+      <c r="B81" s="369"/>
+      <c r="C81" s="450"/>
+      <c r="D81" s="445"/>
       <c r="E81" s="56"/>
       <c r="F81" s="446"/>
       <c r="G81" s="447"/>
-      <c r="H81" s="448"/>
+      <c r="H81" s="453"/>
       <c r="I81" s="446"/>
       <c r="J81" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K81" s="462"/>
-      <c r="L81" s="463"/>
+      <c r="L81" s="467"/>
       <c r="M81" s="463"/>
       <c r="N81" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O81" s="169"/>
@@ -48886,14 +48999,14 @@
       <c r="V81" s="50"/>
     </row>
     <row r="82" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="456"/>
-      <c r="B82" s="386"/>
-      <c r="C82" s="458"/>
-      <c r="D82" s="454"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="369"/>
+      <c r="C82" s="452"/>
+      <c r="D82" s="445"/>
       <c r="E82" s="56"/>
       <c r="F82" s="446"/>
       <c r="G82" s="447"/>
-      <c r="H82" s="448"/>
+      <c r="H82" s="453"/>
       <c r="I82" s="446"/>
       <c r="J82" s="39">
         <f t="shared" si="0"/>
@@ -48903,7 +49016,7 @@
       <c r="L82" s="463"/>
       <c r="M82" s="463"/>
       <c r="N82" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O82" s="169"/>
@@ -48915,10 +49028,10 @@
       <c r="U82" s="49"/>
       <c r="V82" s="50"/>
     </row>
-    <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="456"/>
-      <c r="B83" s="459"/>
-      <c r="C83" s="452"/>
+      <c r="B83" s="386"/>
+      <c r="C83" s="457"/>
       <c r="D83" s="454"/>
       <c r="E83" s="56"/>
       <c r="F83" s="446"/>
@@ -48933,7 +49046,7 @@
       <c r="L83" s="463"/>
       <c r="M83" s="463"/>
       <c r="N83" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O83" s="169"/>
@@ -48948,12 +49061,12 @@
     <row r="84" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="456"/>
       <c r="B84" s="386"/>
-      <c r="C84" s="452"/>
+      <c r="C84" s="458"/>
       <c r="D84" s="454"/>
       <c r="E84" s="56"/>
       <c r="F84" s="446"/>
       <c r="G84" s="447"/>
-      <c r="H84" s="451"/>
+      <c r="H84" s="448"/>
       <c r="I84" s="446"/>
       <c r="J84" s="39">
         <f t="shared" si="0"/>
@@ -48963,11 +49076,11 @@
       <c r="L84" s="463"/>
       <c r="M84" s="463"/>
       <c r="N84" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O84" s="158"/>
-      <c r="P84" s="183"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="169"/>
+      <c r="P84" s="58"/>
       <c r="Q84" s="166"/>
       <c r="R84" s="125"/>
       <c r="S84" s="176"/>
@@ -48975,15 +49088,15 @@
       <c r="U84" s="49"/>
       <c r="V84" s="50"/>
     </row>
-    <row r="85" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
-      <c r="B85" s="369"/>
+      <c r="B85" s="459"/>
       <c r="C85" s="452"/>
-      <c r="D85" s="452"/>
+      <c r="D85" s="454"/>
       <c r="E85" s="56"/>
       <c r="F85" s="446"/>
       <c r="G85" s="447"/>
-      <c r="H85" s="451"/>
+      <c r="H85" s="448"/>
       <c r="I85" s="446"/>
       <c r="J85" s="39">
         <f t="shared" si="0"/>
@@ -48993,11 +49106,11 @@
       <c r="L85" s="463"/>
       <c r="M85" s="463"/>
       <c r="N85" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O85" s="158"/>
-      <c r="P85" s="183"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="169"/>
+      <c r="P85" s="58"/>
       <c r="Q85" s="166"/>
       <c r="R85" s="125"/>
       <c r="S85" s="176"/>
@@ -49005,10 +49118,10 @@
       <c r="U85" s="49"/>
       <c r="V85" s="50"/>
     </row>
-    <row r="86" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="456"/>
-      <c r="B86" s="459"/>
-      <c r="C86" s="450"/>
+      <c r="B86" s="386"/>
+      <c r="C86" s="452"/>
       <c r="D86" s="454"/>
       <c r="E86" s="56"/>
       <c r="F86" s="446"/>
@@ -49020,7 +49133,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="462"/>
-      <c r="L86" s="464"/>
+      <c r="L86" s="463"/>
       <c r="M86" s="463"/>
       <c r="N86" s="42">
         <f t="shared" si="1"/>
@@ -49028,7 +49141,7 @@
       </c>
       <c r="O86" s="158"/>
       <c r="P86" s="183"/>
-      <c r="Q86" s="158"/>
+      <c r="Q86" s="166"/>
       <c r="R86" s="125"/>
       <c r="S86" s="176"/>
       <c r="T86" s="177"/>
@@ -49037,57 +49150,57 @@
     </row>
     <row r="87" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="456"/>
-      <c r="B87" s="386"/>
-      <c r="C87" s="461"/>
+      <c r="B87" s="369"/>
+      <c r="C87" s="452"/>
       <c r="D87" s="452"/>
       <c r="E87" s="56"/>
       <c r="F87" s="446"/>
-      <c r="G87" s="460"/>
-      <c r="H87" s="448"/>
+      <c r="G87" s="447"/>
+      <c r="H87" s="451"/>
       <c r="I87" s="446"/>
       <c r="J87" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K87" s="462"/>
-      <c r="L87" s="469"/>
+      <c r="L87" s="463"/>
       <c r="M87" s="463"/>
       <c r="N87" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O87" s="564"/>
-      <c r="P87" s="622"/>
-      <c r="Q87" s="158"/>
+      <c r="O87" s="158"/>
+      <c r="P87" s="183"/>
+      <c r="Q87" s="166"/>
       <c r="R87" s="125"/>
       <c r="S87" s="176"/>
       <c r="T87" s="177"/>
       <c r="U87" s="49"/>
       <c r="V87" s="50"/>
     </row>
-    <row r="88" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="456"/>
-      <c r="B88" s="369"/>
-      <c r="C88" s="461"/>
-      <c r="D88" s="452"/>
+      <c r="B88" s="459"/>
+      <c r="C88" s="450"/>
+      <c r="D88" s="454"/>
       <c r="E88" s="56"/>
       <c r="F88" s="446"/>
-      <c r="G88" s="460"/>
-      <c r="H88" s="448"/>
+      <c r="G88" s="447"/>
+      <c r="H88" s="451"/>
       <c r="I88" s="446"/>
       <c r="J88" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K88" s="462"/>
-      <c r="L88" s="469"/>
+      <c r="L88" s="464"/>
       <c r="M88" s="463"/>
       <c r="N88" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O88" s="565"/>
-      <c r="P88" s="623"/>
+      <c r="O88" s="158"/>
+      <c r="P88" s="183"/>
       <c r="Q88" s="158"/>
       <c r="R88" s="125"/>
       <c r="S88" s="176"/>
@@ -49095,10 +49208,10 @@
       <c r="U88" s="49"/>
       <c r="V88" s="50"/>
     </row>
-    <row r="89" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="456"/>
-      <c r="B89" s="369"/>
-      <c r="C89" s="452"/>
+      <c r="B89" s="386"/>
+      <c r="C89" s="461"/>
       <c r="D89" s="452"/>
       <c r="E89" s="56"/>
       <c r="F89" s="446"/>
@@ -49110,14 +49223,14 @@
         <v>0</v>
       </c>
       <c r="K89" s="462"/>
-      <c r="L89" s="463"/>
+      <c r="L89" s="469"/>
       <c r="M89" s="463"/>
       <c r="N89" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O89" s="158"/>
-      <c r="P89" s="186"/>
+      <c r="O89" s="570"/>
+      <c r="P89" s="628"/>
       <c r="Q89" s="158"/>
       <c r="R89" s="125"/>
       <c r="S89" s="176"/>
@@ -49125,10 +49238,10 @@
       <c r="U89" s="49"/>
       <c r="V89" s="50"/>
     </row>
-    <row r="90" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="456"/>
       <c r="B90" s="369"/>
-      <c r="C90" s="452"/>
+      <c r="C90" s="461"/>
       <c r="D90" s="452"/>
       <c r="E90" s="56"/>
       <c r="F90" s="446"/>
@@ -49140,14 +49253,14 @@
         <v>0</v>
       </c>
       <c r="K90" s="462"/>
-      <c r="L90" s="463"/>
+      <c r="L90" s="469"/>
       <c r="M90" s="463"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O90" s="158"/>
-      <c r="P90" s="186"/>
+      <c r="O90" s="571"/>
+      <c r="P90" s="629"/>
       <c r="Q90" s="158"/>
       <c r="R90" s="125"/>
       <c r="S90" s="176"/>
@@ -49156,15 +49269,15 @@
       <c r="V90" s="50"/>
     </row>
     <row r="91" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="152"/>
-      <c r="B91" s="178"/>
-      <c r="C91" s="170"/>
-      <c r="D91" s="170"/>
+      <c r="A91" s="456"/>
+      <c r="B91" s="369"/>
+      <c r="C91" s="452"/>
+      <c r="D91" s="452"/>
       <c r="E91" s="56"/>
-      <c r="F91" s="155"/>
-      <c r="G91" s="185"/>
-      <c r="H91" s="164"/>
-      <c r="I91" s="155"/>
+      <c r="F91" s="446"/>
+      <c r="G91" s="460"/>
+      <c r="H91" s="448"/>
+      <c r="I91" s="446"/>
       <c r="J91" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -49185,16 +49298,16 @@
       <c r="U91" s="49"/>
       <c r="V91" s="50"/>
     </row>
-    <row r="92" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="152"/>
-      <c r="B92" s="167"/>
-      <c r="C92" s="170"/>
-      <c r="D92" s="174"/>
+    <row r="92" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="456"/>
+      <c r="B92" s="369"/>
+      <c r="C92" s="452"/>
+      <c r="D92" s="452"/>
       <c r="E92" s="56"/>
-      <c r="F92" s="155"/>
-      <c r="G92" s="156"/>
-      <c r="H92" s="168"/>
-      <c r="I92" s="155"/>
+      <c r="F92" s="446"/>
+      <c r="G92" s="460"/>
+      <c r="H92" s="448"/>
+      <c r="I92" s="446"/>
       <c r="J92" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -49207,7 +49320,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="158"/>
-      <c r="P92" s="183"/>
+      <c r="P92" s="186"/>
       <c r="Q92" s="158"/>
       <c r="R92" s="125"/>
       <c r="S92" s="176"/>
@@ -49215,21 +49328,21 @@
       <c r="U92" s="49"/>
       <c r="V92" s="50"/>
     </row>
-    <row r="93" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="152"/>
-      <c r="B93" s="167"/>
+      <c r="B93" s="178"/>
       <c r="C93" s="170"/>
-      <c r="D93" s="187"/>
+      <c r="D93" s="170"/>
       <c r="E93" s="56"/>
       <c r="F93" s="155"/>
-      <c r="G93" s="156"/>
-      <c r="H93" s="168"/>
+      <c r="G93" s="185"/>
+      <c r="H93" s="164"/>
       <c r="I93" s="155"/>
       <c r="J93" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K93" s="468"/>
+      <c r="K93" s="462"/>
       <c r="L93" s="463"/>
       <c r="M93" s="463"/>
       <c r="N93" s="42">
@@ -49237,7 +49350,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="158"/>
-      <c r="P93" s="183"/>
+      <c r="P93" s="186"/>
       <c r="Q93" s="158"/>
       <c r="R93" s="125"/>
       <c r="S93" s="176"/>
@@ -49245,21 +49358,21 @@
       <c r="U93" s="49"/>
       <c r="V93" s="50"/>
     </row>
-    <row r="94" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="152"/>
       <c r="B94" s="167"/>
       <c r="C94" s="170"/>
-      <c r="D94" s="187"/>
+      <c r="D94" s="174"/>
       <c r="E94" s="56"/>
       <c r="F94" s="155"/>
       <c r="G94" s="156"/>
-      <c r="H94" s="164"/>
+      <c r="H94" s="168"/>
       <c r="I94" s="155"/>
       <c r="J94" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K94" s="468"/>
+      <c r="K94" s="462"/>
       <c r="L94" s="463"/>
       <c r="M94" s="463"/>
       <c r="N94" s="42">
@@ -49267,7 +49380,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="158"/>
-      <c r="P94" s="186"/>
+      <c r="P94" s="183"/>
       <c r="Q94" s="158"/>
       <c r="R94" s="125"/>
       <c r="S94" s="176"/>
@@ -49283,7 +49396,7 @@
       <c r="E95" s="56"/>
       <c r="F95" s="155"/>
       <c r="G95" s="156"/>
-      <c r="H95" s="164"/>
+      <c r="H95" s="168"/>
       <c r="I95" s="155"/>
       <c r="J95" s="39">
         <f t="shared" si="0"/>
@@ -49297,7 +49410,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="158"/>
-      <c r="P95" s="186"/>
+      <c r="P95" s="183"/>
       <c r="Q95" s="158"/>
       <c r="R95" s="125"/>
       <c r="S95" s="176"/>
@@ -49309,7 +49422,7 @@
       <c r="A96" s="152"/>
       <c r="B96" s="167"/>
       <c r="C96" s="170"/>
-      <c r="D96" s="181"/>
+      <c r="D96" s="187"/>
       <c r="E96" s="56"/>
       <c r="F96" s="155"/>
       <c r="G96" s="156"/>
@@ -49339,11 +49452,8 @@
       <c r="A97" s="152"/>
       <c r="B97" s="167"/>
       <c r="C97" s="170"/>
-      <c r="D97" s="181"/>
-      <c r="E97" s="56">
-        <f t="shared" ref="E97:E162" si="6">D97*F97</f>
-        <v>0</v>
-      </c>
+      <c r="D97" s="187"/>
+      <c r="E97" s="56"/>
       <c r="F97" s="155"/>
       <c r="G97" s="156"/>
       <c r="H97" s="164"/>
@@ -49352,9 +49462,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K97" s="81"/>
-      <c r="L97" s="61"/>
-      <c r="M97" s="61"/>
+      <c r="K97" s="468"/>
+      <c r="L97" s="463"/>
+      <c r="M97" s="463"/>
       <c r="N97" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49369,31 +49479,28 @@
       <c r="V97" s="50"/>
     </row>
     <row r="98" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="98"/>
+      <c r="A98" s="152"/>
       <c r="B98" s="167"/>
-      <c r="C98" s="188"/>
-      <c r="D98" s="187"/>
-      <c r="E98" s="56">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="C98" s="170"/>
+      <c r="D98" s="181"/>
+      <c r="E98" s="56"/>
       <c r="F98" s="155"/>
       <c r="G98" s="156"/>
-      <c r="H98" s="168"/>
+      <c r="H98" s="164"/>
       <c r="I98" s="155"/>
       <c r="J98" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K98" s="81"/>
-      <c r="L98" s="61"/>
-      <c r="M98" s="61"/>
+      <c r="K98" s="468"/>
+      <c r="L98" s="463"/>
+      <c r="M98" s="463"/>
       <c r="N98" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O98" s="158"/>
-      <c r="P98" s="183"/>
+      <c r="P98" s="186"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -49402,17 +49509,17 @@
       <c r="V98" s="50"/>
     </row>
     <row r="99" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="98"/>
+      <c r="A99" s="152"/>
       <c r="B99" s="167"/>
-      <c r="C99" s="189"/>
-      <c r="D99" s="187"/>
+      <c r="C99" s="170"/>
+      <c r="D99" s="181"/>
       <c r="E99" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E99:E164" si="7">D99*F99</f>
         <v>0</v>
       </c>
       <c r="F99" s="155"/>
       <c r="G99" s="156"/>
-      <c r="H99" s="168"/>
+      <c r="H99" s="164"/>
       <c r="I99" s="155"/>
       <c r="J99" s="39">
         <f t="shared" si="0"/>
@@ -49426,7 +49533,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="158"/>
-      <c r="P99" s="190"/>
+      <c r="P99" s="186"/>
       <c r="Q99" s="158"/>
       <c r="R99" s="125"/>
       <c r="S99" s="176"/>
@@ -49437,10 +49544,10 @@
     <row r="100" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="98"/>
       <c r="B100" s="167"/>
-      <c r="C100" s="187"/>
-      <c r="D100" s="191"/>
+      <c r="C100" s="188"/>
+      <c r="D100" s="187"/>
       <c r="E100" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F100" s="155"/>
@@ -49459,7 +49566,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="158"/>
-      <c r="P100" s="190"/>
+      <c r="P100" s="183"/>
       <c r="Q100" s="158"/>
       <c r="R100" s="125"/>
       <c r="S100" s="176"/>
@@ -49468,18 +49575,18 @@
       <c r="V100" s="50"/>
     </row>
     <row r="101" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="110"/>
-      <c r="B101" s="99"/>
-      <c r="C101" s="187"/>
-      <c r="D101" s="191"/>
+      <c r="A101" s="98"/>
+      <c r="B101" s="167"/>
+      <c r="C101" s="189"/>
+      <c r="D101" s="187"/>
       <c r="E101" s="56">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F101" s="60"/>
-      <c r="G101" s="58"/>
-      <c r="H101" s="59"/>
-      <c r="I101" s="60"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="155"/>
+      <c r="G101" s="156"/>
+      <c r="H101" s="168"/>
+      <c r="I101" s="155"/>
       <c r="J101" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -49500,26 +49607,26 @@
       <c r="U101" s="49"/>
       <c r="V101" s="50"/>
     </row>
-    <row r="102" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="110"/>
-      <c r="B102" s="99"/>
-      <c r="C102" s="192"/>
+    <row r="102" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="98"/>
+      <c r="B102" s="167"/>
+      <c r="C102" s="187"/>
       <c r="D102" s="191"/>
       <c r="E102" s="56">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F102" s="60"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="59"/>
-      <c r="I102" s="60"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="155"/>
+      <c r="G102" s="156"/>
+      <c r="H102" s="168"/>
+      <c r="I102" s="155"/>
       <c r="J102" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K102" s="81"/>
-      <c r="L102" s="562"/>
-      <c r="M102" s="563"/>
+      <c r="L102" s="61"/>
+      <c r="M102" s="61"/>
       <c r="N102" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49533,13 +49640,13 @@
       <c r="U102" s="49"/>
       <c r="V102" s="50"/>
     </row>
-    <row r="103" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="110"/>
       <c r="B103" s="99"/>
-      <c r="C103" s="182"/>
+      <c r="C103" s="187"/>
       <c r="D103" s="191"/>
       <c r="E103" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F103" s="60"/>
@@ -49551,8 +49658,8 @@
         <v>0</v>
       </c>
       <c r="K103" s="81"/>
-      <c r="L103" s="562"/>
-      <c r="M103" s="563"/>
+      <c r="L103" s="61"/>
+      <c r="M103" s="61"/>
       <c r="N103" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49566,13 +49673,13 @@
       <c r="U103" s="49"/>
       <c r="V103" s="50"/>
     </row>
-    <row r="104" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="193"/>
+    <row r="104" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="110"/>
       <c r="B104" s="99"/>
-      <c r="C104" s="194"/>
+      <c r="C104" s="192"/>
       <c r="D104" s="191"/>
       <c r="E104" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F104" s="60"/>
@@ -49584,8 +49691,8 @@
         <v>0</v>
       </c>
       <c r="K104" s="81"/>
-      <c r="L104" s="195"/>
-      <c r="M104" s="195"/>
+      <c r="L104" s="568"/>
+      <c r="M104" s="569"/>
       <c r="N104" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49599,13 +49706,13 @@
       <c r="U104" s="49"/>
       <c r="V104" s="50"/>
     </row>
-    <row r="105" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="196"/>
+    <row r="105" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="110"/>
       <c r="B105" s="99"/>
-      <c r="C105" s="154"/>
+      <c r="C105" s="182"/>
       <c r="D105" s="191"/>
       <c r="E105" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F105" s="60"/>
@@ -49617,8 +49724,8 @@
         <v>0</v>
       </c>
       <c r="K105" s="81"/>
-      <c r="L105" s="195"/>
-      <c r="M105" s="195"/>
+      <c r="L105" s="568"/>
+      <c r="M105" s="569"/>
       <c r="N105" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49632,13 +49739,13 @@
       <c r="U105" s="49"/>
       <c r="V105" s="50"/>
     </row>
-    <row r="106" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="101"/>
+    <row r="106" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="193"/>
       <c r="B106" s="99"/>
-      <c r="C106" s="191"/>
+      <c r="C106" s="194"/>
       <c r="D106" s="191"/>
       <c r="E106" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F106" s="60"/>
@@ -49650,8 +49757,8 @@
         <v>0</v>
       </c>
       <c r="K106" s="81"/>
-      <c r="L106" s="61"/>
-      <c r="M106" s="61"/>
+      <c r="L106" s="195"/>
+      <c r="M106" s="195"/>
       <c r="N106" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49665,13 +49772,13 @@
       <c r="U106" s="49"/>
       <c r="V106" s="50"/>
     </row>
-    <row r="107" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="101"/>
+    <row r="107" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="196"/>
       <c r="B107" s="99"/>
-      <c r="C107" s="191"/>
+      <c r="C107" s="154"/>
       <c r="D107" s="191"/>
       <c r="E107" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F107" s="60"/>
@@ -49683,8 +49790,8 @@
         <v>0</v>
       </c>
       <c r="K107" s="81"/>
-      <c r="L107" s="61"/>
-      <c r="M107" s="61"/>
+      <c r="L107" s="195"/>
+      <c r="M107" s="195"/>
       <c r="N107" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49704,7 +49811,7 @@
       <c r="C108" s="191"/>
       <c r="D108" s="191"/>
       <c r="E108" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F108" s="60"/>
@@ -49732,12 +49839,12 @@
       <c r="V108" s="50"/>
     </row>
     <row r="109" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A109" s="110"/>
+      <c r="A109" s="101"/>
       <c r="B109" s="99"/>
-      <c r="C109" s="187"/>
+      <c r="C109" s="191"/>
       <c r="D109" s="191"/>
       <c r="E109" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F109" s="60"/>
@@ -49755,8 +49862,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O109" s="564"/>
-      <c r="P109" s="566"/>
+      <c r="O109" s="158"/>
+      <c r="P109" s="190"/>
       <c r="Q109" s="158"/>
       <c r="R109" s="125"/>
       <c r="S109" s="176"/>
@@ -49765,12 +49872,12 @@
       <c r="V109" s="50"/>
     </row>
     <row r="110" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="110"/>
+      <c r="A110" s="101"/>
       <c r="B110" s="99"/>
-      <c r="C110" s="187"/>
+      <c r="C110" s="191"/>
       <c r="D110" s="191"/>
       <c r="E110" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F110" s="60"/>
@@ -49788,8 +49895,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O110" s="565"/>
-      <c r="P110" s="567"/>
+      <c r="O110" s="158"/>
+      <c r="P110" s="190"/>
       <c r="Q110" s="158"/>
       <c r="R110" s="125"/>
       <c r="S110" s="176"/>
@@ -49798,12 +49905,12 @@
       <c r="V110" s="50"/>
     </row>
     <row r="111" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="99"/>
+      <c r="A111" s="110"/>
       <c r="B111" s="99"/>
-      <c r="C111" s="191"/>
+      <c r="C111" s="187"/>
       <c r="D111" s="191"/>
       <c r="E111" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F111" s="60"/>
@@ -49821,8 +49928,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O111" s="158"/>
-      <c r="P111" s="190"/>
+      <c r="O111" s="570"/>
+      <c r="P111" s="572"/>
       <c r="Q111" s="158"/>
       <c r="R111" s="125"/>
       <c r="S111" s="176"/>
@@ -49831,12 +49938,12 @@
       <c r="V111" s="50"/>
     </row>
     <row r="112" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A112" s="99"/>
+      <c r="A112" s="110"/>
       <c r="B112" s="99"/>
-      <c r="C112" s="191"/>
+      <c r="C112" s="187"/>
       <c r="D112" s="191"/>
       <c r="E112" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F112" s="60"/>
@@ -49854,8 +49961,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O112" s="158"/>
-      <c r="P112" s="190"/>
+      <c r="O112" s="571"/>
+      <c r="P112" s="573"/>
       <c r="Q112" s="158"/>
       <c r="R112" s="125"/>
       <c r="S112" s="176"/>
@@ -49864,12 +49971,12 @@
       <c r="V112" s="50"/>
     </row>
     <row r="113" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="102"/>
+      <c r="A113" s="99"/>
       <c r="B113" s="99"/>
-      <c r="C113" s="197"/>
-      <c r="D113" s="197"/>
+      <c r="C113" s="191"/>
+      <c r="D113" s="191"/>
       <c r="E113" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F113" s="60"/>
@@ -49896,13 +50003,13 @@
       <c r="U113" s="49"/>
       <c r="V113" s="50"/>
     </row>
-    <row r="114" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="152"/>
-      <c r="B114" s="110"/>
-      <c r="C114" s="194"/>
-      <c r="D114" s="194"/>
+    <row r="114" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="99"/>
+      <c r="B114" s="99"/>
+      <c r="C114" s="191"/>
+      <c r="D114" s="191"/>
       <c r="E114" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F114" s="60"/>
@@ -49929,13 +50036,13 @@
       <c r="U114" s="49"/>
       <c r="V114" s="50"/>
     </row>
-    <row r="115" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A115" s="152"/>
-      <c r="B115" s="110"/>
+    <row r="115" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="102"/>
+      <c r="B115" s="99"/>
       <c r="C115" s="197"/>
       <c r="D115" s="197"/>
       <c r="E115" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F115" s="60"/>
@@ -49965,10 +50072,10 @@
     <row r="116" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A116" s="152"/>
       <c r="B116" s="110"/>
-      <c r="C116" s="197"/>
-      <c r="D116" s="197"/>
+      <c r="C116" s="194"/>
+      <c r="D116" s="194"/>
       <c r="E116" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F116" s="60"/>
@@ -49995,13 +50102,13 @@
       <c r="U116" s="49"/>
       <c r="V116" s="50"/>
     </row>
-    <row r="117" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A117" s="101"/>
-      <c r="B117" s="99"/>
+    <row r="117" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A117" s="152"/>
+      <c r="B117" s="110"/>
       <c r="C117" s="197"/>
       <c r="D117" s="197"/>
       <c r="E117" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F117" s="60"/>
@@ -50024,17 +50131,17 @@
       <c r="Q117" s="158"/>
       <c r="R117" s="125"/>
       <c r="S117" s="176"/>
-      <c r="T117" s="176"/>
+      <c r="T117" s="177"/>
       <c r="U117" s="49"/>
       <c r="V117" s="50"/>
     </row>
-    <row r="118" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A118" s="101"/>
-      <c r="B118" s="99"/>
+    <row r="118" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A118" s="152"/>
+      <c r="B118" s="110"/>
       <c r="C118" s="197"/>
       <c r="D118" s="197"/>
       <c r="E118" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F118" s="60"/>
@@ -50057,7 +50164,7 @@
       <c r="Q118" s="158"/>
       <c r="R118" s="125"/>
       <c r="S118" s="176"/>
-      <c r="T118" s="176"/>
+      <c r="T118" s="177"/>
       <c r="U118" s="49"/>
       <c r="V118" s="50"/>
     </row>
@@ -50067,7 +50174,7 @@
       <c r="C119" s="197"/>
       <c r="D119" s="197"/>
       <c r="E119" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F119" s="60"/>
@@ -50094,13 +50201,13 @@
       <c r="U119" s="49"/>
       <c r="V119" s="50"/>
     </row>
-    <row r="120" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="99"/>
-      <c r="B120" s="198"/>
+    <row r="120" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A120" s="101"/>
+      <c r="B120" s="99"/>
       <c r="C120" s="197"/>
       <c r="D120" s="197"/>
       <c r="E120" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F120" s="60"/>
@@ -50123,17 +50230,17 @@
       <c r="Q120" s="158"/>
       <c r="R120" s="125"/>
       <c r="S120" s="176"/>
-      <c r="T120" s="177"/>
+      <c r="T120" s="176"/>
       <c r="U120" s="49"/>
       <c r="V120" s="50"/>
     </row>
     <row r="121" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A121" s="99"/>
+      <c r="A121" s="101"/>
       <c r="B121" s="99"/>
       <c r="C121" s="197"/>
       <c r="D121" s="197"/>
       <c r="E121" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F121" s="60"/>
@@ -50156,17 +50263,17 @@
       <c r="Q121" s="158"/>
       <c r="R121" s="125"/>
       <c r="S121" s="176"/>
-      <c r="T121" s="177"/>
+      <c r="T121" s="176"/>
       <c r="U121" s="49"/>
       <c r="V121" s="50"/>
     </row>
-    <row r="122" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="99"/>
-      <c r="B122" s="99"/>
+      <c r="B122" s="198"/>
       <c r="C122" s="197"/>
       <c r="D122" s="197"/>
       <c r="E122" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F122" s="60"/>
@@ -50194,12 +50301,12 @@
       <c r="V122" s="50"/>
     </row>
     <row r="123" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A123" s="152"/>
+      <c r="A123" s="99"/>
       <c r="B123" s="99"/>
       <c r="C123" s="197"/>
       <c r="D123" s="197"/>
       <c r="E123" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F123" s="60"/>
@@ -50226,18 +50333,18 @@
       <c r="U123" s="49"/>
       <c r="V123" s="50"/>
     </row>
-    <row r="124" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="199"/>
-      <c r="B124" s="199"/>
-      <c r="C124" s="200"/>
-      <c r="D124" s="200"/>
-      <c r="E124" s="201">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F124" s="38"/>
-      <c r="G124" s="36"/>
-      <c r="H124" s="499"/>
+    <row r="124" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A124" s="99"/>
+      <c r="B124" s="99"/>
+      <c r="C124" s="197"/>
+      <c r="D124" s="197"/>
+      <c r="E124" s="56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F124" s="60"/>
+      <c r="G124" s="58"/>
+      <c r="H124" s="59"/>
       <c r="I124" s="60"/>
       <c r="J124" s="39">
         <f t="shared" si="0"/>
@@ -50259,13 +50366,13 @@
       <c r="U124" s="49"/>
       <c r="V124" s="50"/>
     </row>
-    <row r="125" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="99"/>
+    <row r="125" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A125" s="152"/>
       <c r="B125" s="99"/>
       <c r="C125" s="197"/>
       <c r="D125" s="197"/>
-      <c r="E125" s="34">
-        <f t="shared" si="6"/>
+      <c r="E125" s="56">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F125" s="60"/>
@@ -50292,18 +50399,18 @@
       <c r="U125" s="49"/>
       <c r="V125" s="50"/>
     </row>
-    <row r="126" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="110"/>
-      <c r="B126" s="99"/>
-      <c r="C126" s="197"/>
-      <c r="D126" s="197"/>
-      <c r="E126" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F126" s="60"/>
-      <c r="G126" s="58"/>
-      <c r="H126" s="59"/>
+    <row r="126" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="199"/>
+      <c r="B126" s="199"/>
+      <c r="C126" s="200"/>
+      <c r="D126" s="200"/>
+      <c r="E126" s="201">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F126" s="38"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="499"/>
       <c r="I126" s="60"/>
       <c r="J126" s="39">
         <f t="shared" si="0"/>
@@ -50326,12 +50433,12 @@
       <c r="V126" s="50"/>
     </row>
     <row r="127" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="110"/>
+      <c r="A127" s="99"/>
       <c r="B127" s="99"/>
       <c r="C127" s="197"/>
       <c r="D127" s="197"/>
       <c r="E127" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F127" s="60"/>
@@ -50364,7 +50471,7 @@
       <c r="C128" s="197"/>
       <c r="D128" s="197"/>
       <c r="E128" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F128" s="60"/>
@@ -50392,12 +50499,12 @@
       <c r="V128" s="50"/>
     </row>
     <row r="129" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="99"/>
+      <c r="A129" s="110"/>
       <c r="B129" s="99"/>
       <c r="C129" s="197"/>
       <c r="D129" s="197"/>
       <c r="E129" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F129" s="60"/>
@@ -50425,12 +50532,12 @@
       <c r="V129" s="50"/>
     </row>
     <row r="130" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="98"/>
+      <c r="A130" s="110"/>
       <c r="B130" s="99"/>
       <c r="C130" s="197"/>
       <c r="D130" s="197"/>
       <c r="E130" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F130" s="60"/>
@@ -50445,7 +50552,7 @@
       <c r="L130" s="61"/>
       <c r="M130" s="61"/>
       <c r="N130" s="42">
-        <f t="shared" ref="N130:N193" si="7">K130*I130</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O130" s="158"/>
@@ -50458,12 +50565,12 @@
       <c r="V130" s="50"/>
     </row>
     <row r="131" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="101"/>
+      <c r="A131" s="99"/>
       <c r="B131" s="99"/>
       <c r="C131" s="197"/>
       <c r="D131" s="197"/>
       <c r="E131" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F131" s="60"/>
@@ -50478,7 +50585,7 @@
       <c r="L131" s="61"/>
       <c r="M131" s="61"/>
       <c r="N131" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O131" s="158"/>
@@ -50491,12 +50598,12 @@
       <c r="V131" s="50"/>
     </row>
     <row r="132" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="101"/>
+      <c r="A132" s="98"/>
       <c r="B132" s="99"/>
       <c r="C132" s="197"/>
       <c r="D132" s="197"/>
       <c r="E132" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F132" s="60"/>
@@ -50511,7 +50618,7 @@
       <c r="L132" s="61"/>
       <c r="M132" s="61"/>
       <c r="N132" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N132:N195" si="8">K132*I132</f>
         <v>0</v>
       </c>
       <c r="O132" s="158"/>
@@ -50524,12 +50631,12 @@
       <c r="V132" s="50"/>
     </row>
     <row r="133" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="202"/>
+      <c r="A133" s="101"/>
       <c r="B133" s="99"/>
       <c r="C133" s="197"/>
       <c r="D133" s="197"/>
       <c r="E133" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F133" s="60"/>
@@ -50544,7 +50651,7 @@
       <c r="L133" s="61"/>
       <c r="M133" s="61"/>
       <c r="N133" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O133" s="158"/>
@@ -50557,12 +50664,12 @@
       <c r="V133" s="50"/>
     </row>
     <row r="134" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="203"/>
+      <c r="A134" s="101"/>
       <c r="B134" s="99"/>
       <c r="C134" s="197"/>
       <c r="D134" s="197"/>
       <c r="E134" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F134" s="60"/>
@@ -50577,7 +50684,7 @@
       <c r="L134" s="61"/>
       <c r="M134" s="61"/>
       <c r="N134" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O134" s="158"/>
@@ -50590,12 +50697,12 @@
       <c r="V134" s="50"/>
     </row>
     <row r="135" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="204"/>
+      <c r="A135" s="202"/>
       <c r="B135" s="99"/>
       <c r="C135" s="197"/>
       <c r="D135" s="197"/>
       <c r="E135" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F135" s="60"/>
@@ -50610,7 +50717,7 @@
       <c r="L135" s="61"/>
       <c r="M135" s="61"/>
       <c r="N135" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O135" s="158"/>
@@ -50623,12 +50730,12 @@
       <c r="V135" s="50"/>
     </row>
     <row r="136" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="204"/>
+      <c r="A136" s="203"/>
       <c r="B136" s="99"/>
-      <c r="C136" s="154"/>
-      <c r="D136" s="154"/>
+      <c r="C136" s="197"/>
+      <c r="D136" s="197"/>
       <c r="E136" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F136" s="60"/>
@@ -50636,14 +50743,14 @@
       <c r="H136" s="59"/>
       <c r="I136" s="60"/>
       <c r="J136" s="39">
-        <f t="shared" ref="J136:J199" si="8">I136-F136</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K136" s="81"/>
       <c r="L136" s="61"/>
       <c r="M136" s="61"/>
       <c r="N136" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O136" s="158"/>
@@ -50656,27 +50763,27 @@
       <c r="V136" s="50"/>
     </row>
     <row r="137" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="203"/>
+      <c r="A137" s="204"/>
       <c r="B137" s="99"/>
       <c r="C137" s="197"/>
       <c r="D137" s="197"/>
       <c r="E137" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F137" s="60"/>
       <c r="G137" s="58"/>
-      <c r="H137" s="205"/>
+      <c r="H137" s="59"/>
       <c r="I137" s="60"/>
       <c r="J137" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K137" s="81"/>
       <c r="L137" s="61"/>
       <c r="M137" s="61"/>
       <c r="N137" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O137" s="158"/>
@@ -50689,27 +50796,27 @@
       <c r="V137" s="50"/>
     </row>
     <row r="138" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="203"/>
+      <c r="A138" s="204"/>
       <c r="B138" s="99"/>
       <c r="C138" s="154"/>
       <c r="D138" s="154"/>
       <c r="E138" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F138" s="60"/>
       <c r="G138" s="58"/>
-      <c r="H138" s="205"/>
+      <c r="H138" s="59"/>
       <c r="I138" s="60"/>
       <c r="J138" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J138:J201" si="9">I138-F138</f>
         <v>0</v>
       </c>
       <c r="K138" s="81"/>
       <c r="L138" s="61"/>
       <c r="M138" s="61"/>
       <c r="N138" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O138" s="158"/>
@@ -50727,7 +50834,7 @@
       <c r="C139" s="197"/>
       <c r="D139" s="197"/>
       <c r="E139" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F139" s="60"/>
@@ -50735,14 +50842,14 @@
       <c r="H139" s="205"/>
       <c r="I139" s="60"/>
       <c r="J139" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K139" s="81"/>
       <c r="L139" s="61"/>
       <c r="M139" s="61"/>
       <c r="N139" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O139" s="158"/>
@@ -50757,10 +50864,10 @@
     <row r="140" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="203"/>
       <c r="B140" s="99"/>
-      <c r="C140" s="194"/>
-      <c r="D140" s="194"/>
+      <c r="C140" s="154"/>
+      <c r="D140" s="154"/>
       <c r="E140" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F140" s="60"/>
@@ -50768,18 +50875,18 @@
       <c r="H140" s="205"/>
       <c r="I140" s="60"/>
       <c r="J140" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K140" s="81"/>
       <c r="L140" s="61"/>
       <c r="M140" s="61"/>
       <c r="N140" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O140" s="158"/>
-      <c r="P140" s="183"/>
+      <c r="P140" s="190"/>
       <c r="Q140" s="158"/>
       <c r="R140" s="125"/>
       <c r="S140" s="176"/>
@@ -50787,67 +50894,67 @@
       <c r="U140" s="49"/>
       <c r="V140" s="50"/>
     </row>
-    <row r="141" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="99"/>
+    <row r="141" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="203"/>
       <c r="B141" s="99"/>
       <c r="C141" s="197"/>
       <c r="D141" s="197"/>
       <c r="E141" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F141" s="60"/>
       <c r="G141" s="58"/>
-      <c r="H141" s="206"/>
+      <c r="H141" s="205"/>
       <c r="I141" s="60"/>
       <c r="J141" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K141" s="81"/>
       <c r="L141" s="61"/>
       <c r="M141" s="61"/>
       <c r="N141" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O141" s="158"/>
-      <c r="P141" s="207"/>
+      <c r="P141" s="190"/>
       <c r="Q141" s="158"/>
-      <c r="R141" s="208"/>
+      <c r="R141" s="125"/>
       <c r="S141" s="176"/>
       <c r="T141" s="177"/>
       <c r="U141" s="49"/>
       <c r="V141" s="50"/>
     </row>
-    <row r="142" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="99"/>
+    <row r="142" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="203"/>
       <c r="B142" s="99"/>
-      <c r="C142" s="197"/>
-      <c r="D142" s="197"/>
+      <c r="C142" s="194"/>
+      <c r="D142" s="194"/>
       <c r="E142" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F142" s="60"/>
       <c r="G142" s="58"/>
-      <c r="H142" s="206"/>
+      <c r="H142" s="205"/>
       <c r="I142" s="60"/>
       <c r="J142" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K142" s="81"/>
       <c r="L142" s="61"/>
       <c r="M142" s="61"/>
       <c r="N142" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O142" s="158"/>
-      <c r="P142" s="207"/>
+      <c r="P142" s="183"/>
       <c r="Q142" s="158"/>
-      <c r="R142" s="208"/>
+      <c r="R142" s="125"/>
       <c r="S142" s="176"/>
       <c r="T142" s="177"/>
       <c r="U142" s="49"/>
@@ -50859,7 +50966,7 @@
       <c r="C143" s="197"/>
       <c r="D143" s="197"/>
       <c r="E143" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F143" s="60"/>
@@ -50867,14 +50974,14 @@
       <c r="H143" s="206"/>
       <c r="I143" s="60"/>
       <c r="J143" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K143" s="81"/>
       <c r="L143" s="61"/>
       <c r="M143" s="61"/>
       <c r="N143" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O143" s="158"/>
@@ -50892,7 +50999,7 @@
       <c r="C144" s="197"/>
       <c r="D144" s="197"/>
       <c r="E144" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F144" s="60"/>
@@ -50900,14 +51007,14 @@
       <c r="H144" s="206"/>
       <c r="I144" s="60"/>
       <c r="J144" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K144" s="81"/>
       <c r="L144" s="61"/>
       <c r="M144" s="61"/>
       <c r="N144" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O144" s="158"/>
@@ -50919,66 +51026,66 @@
       <c r="U144" s="49"/>
       <c r="V144" s="50"/>
     </row>
-    <row r="145" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="102"/>
+    <row r="145" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="99"/>
       <c r="B145" s="99"/>
       <c r="C145" s="197"/>
       <c r="D145" s="197"/>
       <c r="E145" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F145" s="60"/>
       <c r="G145" s="58"/>
-      <c r="H145" s="205"/>
+      <c r="H145" s="206"/>
       <c r="I145" s="60"/>
       <c r="J145" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K145" s="81"/>
       <c r="L145" s="61"/>
       <c r="M145" s="61"/>
       <c r="N145" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O145" s="69"/>
-      <c r="P145" s="209"/>
-      <c r="Q145" s="210"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O145" s="158"/>
+      <c r="P145" s="207"/>
+      <c r="Q145" s="158"/>
       <c r="R145" s="208"/>
       <c r="S145" s="176"/>
       <c r="T145" s="177"/>
       <c r="U145" s="49"/>
       <c r="V145" s="50"/>
     </row>
-    <row r="146" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="99"/>
       <c r="B146" s="99"/>
       <c r="C146" s="197"/>
       <c r="D146" s="197"/>
       <c r="E146" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F146" s="60"/>
       <c r="G146" s="58"/>
-      <c r="H146" s="205"/>
+      <c r="H146" s="206"/>
       <c r="I146" s="60"/>
       <c r="J146" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K146" s="81"/>
       <c r="L146" s="61"/>
       <c r="M146" s="61"/>
       <c r="N146" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O146" s="69"/>
-      <c r="P146" s="209"/>
-      <c r="Q146" s="210"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O146" s="158"/>
+      <c r="P146" s="207"/>
+      <c r="Q146" s="158"/>
       <c r="R146" s="208"/>
       <c r="S146" s="176"/>
       <c r="T146" s="177"/>
@@ -50986,12 +51093,12 @@
       <c r="V146" s="50"/>
     </row>
     <row r="147" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="101"/>
+      <c r="A147" s="102"/>
       <c r="B147" s="99"/>
-      <c r="C147" s="181"/>
-      <c r="D147" s="181"/>
+      <c r="C147" s="197"/>
+      <c r="D147" s="197"/>
       <c r="E147" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F147" s="60"/>
@@ -50999,14 +51106,14 @@
       <c r="H147" s="205"/>
       <c r="I147" s="60"/>
       <c r="J147" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K147" s="81"/>
       <c r="L147" s="61"/>
       <c r="M147" s="61"/>
       <c r="N147" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O147" s="69"/>
@@ -51019,12 +51126,12 @@
       <c r="V147" s="50"/>
     </row>
     <row r="148" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="101"/>
+      <c r="A148" s="99"/>
       <c r="B148" s="99"/>
-      <c r="C148" s="181"/>
-      <c r="D148" s="181"/>
+      <c r="C148" s="197"/>
+      <c r="D148" s="197"/>
       <c r="E148" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F148" s="60"/>
@@ -51032,14 +51139,14 @@
       <c r="H148" s="205"/>
       <c r="I148" s="60"/>
       <c r="J148" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K148" s="81"/>
       <c r="L148" s="61"/>
       <c r="M148" s="61"/>
       <c r="N148" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O148" s="69"/>
@@ -51057,7 +51164,7 @@
       <c r="C149" s="181"/>
       <c r="D149" s="181"/>
       <c r="E149" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F149" s="60"/>
@@ -51065,14 +51172,14 @@
       <c r="H149" s="205"/>
       <c r="I149" s="60"/>
       <c r="J149" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K149" s="81"/>
       <c r="L149" s="61"/>
       <c r="M149" s="61"/>
       <c r="N149" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O149" s="69"/>
@@ -51090,7 +51197,7 @@
       <c r="C150" s="181"/>
       <c r="D150" s="181"/>
       <c r="E150" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F150" s="60"/>
@@ -51098,14 +51205,14 @@
       <c r="H150" s="205"/>
       <c r="I150" s="60"/>
       <c r="J150" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K150" s="81"/>
       <c r="L150" s="61"/>
       <c r="M150" s="61"/>
       <c r="N150" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O150" s="69"/>
@@ -51123,7 +51230,7 @@
       <c r="C151" s="181"/>
       <c r="D151" s="181"/>
       <c r="E151" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F151" s="60"/>
@@ -51131,14 +51238,14 @@
       <c r="H151" s="205"/>
       <c r="I151" s="60"/>
       <c r="J151" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K151" s="81"/>
       <c r="L151" s="61"/>
       <c r="M151" s="61"/>
       <c r="N151" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O151" s="69"/>
@@ -51151,12 +51258,12 @@
       <c r="V151" s="50"/>
     </row>
     <row r="152" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="203"/>
+      <c r="A152" s="101"/>
       <c r="B152" s="99"/>
-      <c r="C152" s="197"/>
-      <c r="D152" s="197"/>
+      <c r="C152" s="181"/>
+      <c r="D152" s="181"/>
       <c r="E152" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F152" s="60"/>
@@ -51164,14 +51271,14 @@
       <c r="H152" s="205"/>
       <c r="I152" s="60"/>
       <c r="J152" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K152" s="81"/>
       <c r="L152" s="61"/>
       <c r="M152" s="61"/>
       <c r="N152" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O152" s="69"/>
@@ -51184,12 +51291,12 @@
       <c r="V152" s="50"/>
     </row>
     <row r="153" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="169"/>
+      <c r="A153" s="101"/>
       <c r="B153" s="99"/>
-      <c r="C153" s="182"/>
-      <c r="D153" s="182"/>
+      <c r="C153" s="181"/>
+      <c r="D153" s="181"/>
       <c r="E153" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F153" s="60"/>
@@ -51197,14 +51304,14 @@
       <c r="H153" s="205"/>
       <c r="I153" s="60"/>
       <c r="J153" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K153" s="81"/>
       <c r="L153" s="61"/>
       <c r="M153" s="61"/>
       <c r="N153" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O153" s="69"/>
@@ -51217,12 +51324,12 @@
       <c r="V153" s="50"/>
     </row>
     <row r="154" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="169"/>
+      <c r="A154" s="203"/>
       <c r="B154" s="99"/>
-      <c r="C154" s="182"/>
-      <c r="D154" s="182"/>
+      <c r="C154" s="197"/>
+      <c r="D154" s="197"/>
       <c r="E154" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F154" s="60"/>
@@ -51230,19 +51337,19 @@
       <c r="H154" s="205"/>
       <c r="I154" s="60"/>
       <c r="J154" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K154" s="81"/>
       <c r="L154" s="61"/>
       <c r="M154" s="61"/>
       <c r="N154" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O154" s="69"/>
       <c r="P154" s="209"/>
-      <c r="Q154" s="211"/>
+      <c r="Q154" s="210"/>
       <c r="R154" s="208"/>
       <c r="S154" s="176"/>
       <c r="T154" s="177"/>
@@ -51255,7 +51362,7 @@
       <c r="C155" s="182"/>
       <c r="D155" s="182"/>
       <c r="E155" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F155" s="60"/>
@@ -51263,14 +51370,14 @@
       <c r="H155" s="205"/>
       <c r="I155" s="60"/>
       <c r="J155" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K155" s="81"/>
       <c r="L155" s="61"/>
       <c r="M155" s="61"/>
       <c r="N155" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O155" s="69"/>
@@ -51283,12 +51390,12 @@
       <c r="V155" s="50"/>
     </row>
     <row r="156" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="203"/>
+      <c r="A156" s="169"/>
       <c r="B156" s="99"/>
-      <c r="C156" s="197"/>
-      <c r="D156" s="197"/>
+      <c r="C156" s="182"/>
+      <c r="D156" s="182"/>
       <c r="E156" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F156" s="60"/>
@@ -51296,51 +51403,51 @@
       <c r="H156" s="205"/>
       <c r="I156" s="60"/>
       <c r="J156" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K156" s="81"/>
       <c r="L156" s="61"/>
       <c r="M156" s="61"/>
       <c r="N156" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O156" s="69"/>
-      <c r="P156" s="212"/>
-      <c r="Q156" s="210"/>
+      <c r="P156" s="209"/>
+      <c r="Q156" s="211"/>
       <c r="R156" s="208"/>
       <c r="S156" s="176"/>
       <c r="T156" s="177"/>
       <c r="U156" s="49"/>
       <c r="V156" s="50"/>
     </row>
-    <row r="157" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="203"/>
+    <row r="157" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="169"/>
       <c r="B157" s="99"/>
-      <c r="C157" s="197"/>
-      <c r="D157" s="197"/>
+      <c r="C157" s="182"/>
+      <c r="D157" s="182"/>
       <c r="E157" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F157" s="60"/>
       <c r="G157" s="58"/>
-      <c r="H157" s="206"/>
+      <c r="H157" s="205"/>
       <c r="I157" s="60"/>
       <c r="J157" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K157" s="81"/>
       <c r="L157" s="61"/>
       <c r="M157" s="61"/>
       <c r="N157" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O157" s="69"/>
-      <c r="P157" s="212"/>
+      <c r="P157" s="209"/>
       <c r="Q157" s="210"/>
       <c r="R157" s="208"/>
       <c r="S157" s="176"/>
@@ -51354,22 +51461,22 @@
       <c r="C158" s="197"/>
       <c r="D158" s="197"/>
       <c r="E158" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F158" s="60"/>
       <c r="G158" s="58"/>
-      <c r="H158" s="213"/>
+      <c r="H158" s="205"/>
       <c r="I158" s="60"/>
       <c r="J158" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K158" s="81"/>
       <c r="L158" s="61"/>
       <c r="M158" s="61"/>
       <c r="N158" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O158" s="69"/>
@@ -51381,28 +51488,28 @@
       <c r="U158" s="49"/>
       <c r="V158" s="50"/>
     </row>
-    <row r="159" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="203"/>
       <c r="B159" s="99"/>
       <c r="C159" s="197"/>
       <c r="D159" s="197"/>
       <c r="E159" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F159" s="60"/>
       <c r="G159" s="58"/>
-      <c r="H159" s="205"/>
+      <c r="H159" s="206"/>
       <c r="I159" s="60"/>
       <c r="J159" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K159" s="81"/>
       <c r="L159" s="61"/>
       <c r="M159" s="61"/>
       <c r="N159" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O159" s="69"/>
@@ -51415,64 +51522,64 @@
       <c r="V159" s="50"/>
     </row>
     <row r="160" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="214"/>
+      <c r="A160" s="203"/>
       <c r="B160" s="99"/>
       <c r="C160" s="197"/>
       <c r="D160" s="197"/>
       <c r="E160" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F160" s="60"/>
       <c r="G160" s="58"/>
-      <c r="H160" s="215"/>
+      <c r="H160" s="213"/>
       <c r="I160" s="60"/>
       <c r="J160" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K160" s="81"/>
       <c r="L160" s="61"/>
       <c r="M160" s="61"/>
       <c r="N160" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O160" s="216"/>
-      <c r="P160" s="217"/>
-      <c r="Q160" s="218"/>
-      <c r="R160" s="219"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O160" s="69"/>
+      <c r="P160" s="212"/>
+      <c r="Q160" s="210"/>
+      <c r="R160" s="208"/>
       <c r="S160" s="176"/>
       <c r="T160" s="177"/>
       <c r="U160" s="49"/>
       <c r="V160" s="50"/>
     </row>
     <row r="161" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="220"/>
+      <c r="A161" s="203"/>
       <c r="B161" s="99"/>
       <c r="C161" s="197"/>
       <c r="D161" s="197"/>
       <c r="E161" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F161" s="60"/>
-      <c r="G161" s="221"/>
-      <c r="H161" s="222"/>
+      <c r="G161" s="58"/>
+      <c r="H161" s="205"/>
       <c r="I161" s="60"/>
       <c r="J161" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K161" s="81"/>
       <c r="L161" s="61"/>
       <c r="M161" s="61"/>
       <c r="N161" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O161" s="223"/>
-      <c r="P161" s="224"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O161" s="69"/>
+      <c r="P161" s="212"/>
       <c r="Q161" s="210"/>
       <c r="R161" s="208"/>
       <c r="S161" s="176"/>
@@ -51481,95 +51588,93 @@
       <c r="V161" s="50"/>
     </row>
     <row r="162" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="204"/>
+      <c r="A162" s="214"/>
       <c r="B162" s="99"/>
       <c r="C162" s="197"/>
       <c r="D162" s="197"/>
       <c r="E162" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F162" s="60"/>
-      <c r="G162" s="224"/>
+      <c r="G162" s="58"/>
       <c r="H162" s="215"/>
       <c r="I162" s="60"/>
       <c r="J162" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K162" s="81"/>
       <c r="L162" s="61"/>
       <c r="M162" s="61"/>
       <c r="N162" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O162" s="223"/>
-      <c r="P162" s="224"/>
-      <c r="Q162" s="210"/>
-      <c r="R162" s="208"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O162" s="216"/>
+      <c r="P162" s="217"/>
+      <c r="Q162" s="218"/>
+      <c r="R162" s="219"/>
       <c r="S162" s="176"/>
       <c r="T162" s="177"/>
       <c r="U162" s="49"/>
       <c r="V162" s="50"/>
     </row>
     <row r="163" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="204"/>
+      <c r="A163" s="220"/>
       <c r="B163" s="99"/>
       <c r="C163" s="197"/>
       <c r="D163" s="197"/>
       <c r="E163" s="34">
-        <f t="shared" ref="E163:E232" si="9">D163*F163</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F163" s="60"/>
-      <c r="G163" s="224"/>
+      <c r="G163" s="221"/>
       <c r="H163" s="222"/>
       <c r="I163" s="60"/>
       <c r="J163" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K163" s="81"/>
+      <c r="L163" s="61"/>
+      <c r="M163" s="61"/>
+      <c r="N163" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K163" s="225"/>
-      <c r="L163" s="61"/>
-      <c r="M163" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="N163" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O163" s="216"/>
-      <c r="P163" s="217"/>
-      <c r="Q163" s="218"/>
-      <c r="R163" s="219"/>
+      <c r="O163" s="223"/>
+      <c r="P163" s="224"/>
+      <c r="Q163" s="210"/>
+      <c r="R163" s="208"/>
       <c r="S163" s="176"/>
       <c r="T163" s="177"/>
       <c r="U163" s="49"/>
       <c r="V163" s="50"/>
     </row>
     <row r="164" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="203"/>
+      <c r="A164" s="204"/>
       <c r="B164" s="99"/>
       <c r="C164" s="197"/>
       <c r="D164" s="197"/>
       <c r="E164" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F164" s="60"/>
       <c r="G164" s="224"/>
-      <c r="H164" s="222"/>
+      <c r="H164" s="215"/>
       <c r="I164" s="60"/>
       <c r="J164" s="39">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K164" s="225"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K164" s="81"/>
       <c r="L164" s="61"/>
       <c r="M164" s="61"/>
       <c r="N164" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O164" s="223"/>
@@ -51582,130 +51687,132 @@
       <c r="V164" s="50"/>
     </row>
     <row r="165" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="169"/>
+      <c r="A165" s="204"/>
       <c r="B165" s="99"/>
-      <c r="C165" s="226"/>
-      <c r="D165" s="226"/>
+      <c r="C165" s="197"/>
+      <c r="D165" s="197"/>
       <c r="E165" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E165:E234" si="10">D165*F165</f>
         <v>0</v>
       </c>
       <c r="F165" s="60"/>
       <c r="G165" s="224"/>
-      <c r="H165" s="227"/>
+      <c r="H165" s="222"/>
       <c r="I165" s="60"/>
       <c r="J165" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K165" s="225"/>
+      <c r="L165" s="61"/>
+      <c r="M165" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="N165" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K165" s="81"/>
-      <c r="L165" s="61"/>
-      <c r="M165" s="61"/>
-      <c r="N165" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O165" s="228"/>
-      <c r="P165" s="229"/>
-      <c r="Q165" s="124"/>
-      <c r="R165" s="125"/>
+      <c r="O165" s="216"/>
+      <c r="P165" s="217"/>
+      <c r="Q165" s="218"/>
+      <c r="R165" s="219"/>
       <c r="S165" s="176"/>
       <c r="T165" s="177"/>
       <c r="U165" s="49"/>
       <c r="V165" s="50"/>
     </row>
     <row r="166" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="230"/>
+      <c r="A166" s="203"/>
       <c r="B166" s="99"/>
       <c r="C166" s="197"/>
       <c r="D166" s="197"/>
       <c r="E166" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F166" s="60"/>
       <c r="G166" s="224"/>
-      <c r="H166" s="205"/>
+      <c r="H166" s="222"/>
       <c r="I166" s="60"/>
       <c r="J166" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K166" s="225"/>
+      <c r="L166" s="61"/>
+      <c r="M166" s="61"/>
+      <c r="N166" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K166" s="225"/>
-      <c r="L166" s="231"/>
-      <c r="M166" s="231"/>
-      <c r="N166" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O166" s="228"/>
-      <c r="P166" s="229"/>
-      <c r="Q166" s="218"/>
-      <c r="R166" s="219"/>
+      <c r="O166" s="223"/>
+      <c r="P166" s="224"/>
+      <c r="Q166" s="210"/>
+      <c r="R166" s="208"/>
       <c r="S166" s="176"/>
       <c r="T166" s="177"/>
       <c r="U166" s="49"/>
       <c r="V166" s="50"/>
     </row>
     <row r="167" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="203"/>
+      <c r="A167" s="169"/>
       <c r="B167" s="99"/>
-      <c r="C167" s="197"/>
-      <c r="D167" s="197"/>
+      <c r="C167" s="226"/>
+      <c r="D167" s="226"/>
       <c r="E167" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F167" s="60"/>
       <c r="G167" s="224"/>
-      <c r="H167" s="205"/>
+      <c r="H167" s="227"/>
       <c r="I167" s="60"/>
       <c r="J167" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K167" s="81"/>
+      <c r="L167" s="61"/>
+      <c r="M167" s="61"/>
+      <c r="N167" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K167" s="225"/>
-      <c r="L167" s="231"/>
-      <c r="M167" s="231"/>
-      <c r="N167" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O167" s="69"/>
-      <c r="P167" s="209"/>
-      <c r="Q167" s="218"/>
-      <c r="R167" s="219"/>
+      <c r="O167" s="228"/>
+      <c r="P167" s="229"/>
+      <c r="Q167" s="124"/>
+      <c r="R167" s="125"/>
       <c r="S167" s="176"/>
       <c r="T167" s="177"/>
       <c r="U167" s="49"/>
       <c r="V167" s="50"/>
     </row>
     <row r="168" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="204"/>
+      <c r="A168" s="230"/>
       <c r="B168" s="99"/>
       <c r="C168" s="197"/>
       <c r="D168" s="197"/>
       <c r="E168" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F168" s="60"/>
       <c r="G168" s="224"/>
-      <c r="H168" s="232"/>
+      <c r="H168" s="205"/>
       <c r="I168" s="60"/>
       <c r="J168" s="39">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K168" s="233"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K168" s="225"/>
       <c r="L168" s="231"/>
       <c r="M168" s="231"/>
       <c r="N168" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O168" s="223"/>
-      <c r="P168" s="224"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O168" s="228"/>
+      <c r="P168" s="229"/>
       <c r="Q168" s="218"/>
       <c r="R168" s="219"/>
       <c r="S168" s="176"/>
@@ -51713,13 +51820,13 @@
       <c r="U168" s="49"/>
       <c r="V168" s="50"/>
     </row>
-    <row r="169" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="204"/>
+    <row r="169" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="203"/>
       <c r="B169" s="99"/>
       <c r="C169" s="197"/>
       <c r="D169" s="197"/>
       <c r="E169" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F169" s="60"/>
@@ -51727,18 +51834,18 @@
       <c r="H169" s="205"/>
       <c r="I169" s="60"/>
       <c r="J169" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K169" s="225"/>
+      <c r="L169" s="231"/>
+      <c r="M169" s="231"/>
+      <c r="N169" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K169" s="234"/>
-      <c r="L169" s="235"/>
-      <c r="M169" s="235"/>
-      <c r="N169" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O169" s="216"/>
-      <c r="P169" s="217"/>
+      <c r="O169" s="69"/>
+      <c r="P169" s="209"/>
       <c r="Q169" s="218"/>
       <c r="R169" s="219"/>
       <c r="S169" s="176"/>
@@ -51747,27 +51854,27 @@
       <c r="V169" s="50"/>
     </row>
     <row r="170" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="236"/>
+      <c r="A170" s="204"/>
       <c r="B170" s="99"/>
       <c r="C170" s="197"/>
       <c r="D170" s="197"/>
       <c r="E170" s="34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F170" s="237"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F170" s="60"/>
       <c r="G170" s="224"/>
-      <c r="H170" s="213"/>
+      <c r="H170" s="232"/>
       <c r="I170" s="60"/>
       <c r="J170" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K170" s="233"/>
+      <c r="L170" s="231"/>
+      <c r="M170" s="231"/>
+      <c r="N170" s="42">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K170" s="234"/>
-      <c r="L170" s="238"/>
-      <c r="M170" s="238"/>
-      <c r="N170" s="42">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O170" s="223"/>
@@ -51779,13 +51886,13 @@
       <c r="U170" s="49"/>
       <c r="V170" s="50"/>
     </row>
-    <row r="171" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="214"/>
+    <row r="171" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="204"/>
       <c r="B171" s="99"/>
       <c r="C171" s="197"/>
       <c r="D171" s="197"/>
       <c r="E171" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F171" s="60"/>
@@ -51793,14 +51900,14 @@
       <c r="H171" s="205"/>
       <c r="I171" s="60"/>
       <c r="J171" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K171" s="234"/>
+      <c r="L171" s="235"/>
+      <c r="M171" s="235"/>
+      <c r="N171" s="42">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K171" s="234"/>
-      <c r="L171" s="231"/>
-      <c r="M171" s="231"/>
-      <c r="N171" s="42">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O171" s="216"/>
@@ -51812,32 +51919,32 @@
       <c r="U171" s="49"/>
       <c r="V171" s="50"/>
     </row>
-    <row r="172" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="204"/>
+    <row r="172" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="236"/>
       <c r="B172" s="99"/>
       <c r="C172" s="197"/>
       <c r="D172" s="197"/>
       <c r="E172" s="34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F172" s="60"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F172" s="237"/>
       <c r="G172" s="224"/>
-      <c r="H172" s="239"/>
+      <c r="H172" s="213"/>
       <c r="I172" s="60"/>
       <c r="J172" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K172" s="234"/>
+      <c r="L172" s="238"/>
+      <c r="M172" s="238"/>
+      <c r="N172" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K172" s="81"/>
-      <c r="L172" s="231"/>
-      <c r="M172" s="231"/>
-      <c r="N172" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O172" s="216"/>
-      <c r="P172" s="217"/>
+      <c r="O172" s="223"/>
+      <c r="P172" s="224"/>
       <c r="Q172" s="218"/>
       <c r="R172" s="219"/>
       <c r="S172" s="176"/>
@@ -51846,27 +51953,27 @@
       <c r="V172" s="50"/>
     </row>
     <row r="173" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="204"/>
+      <c r="A173" s="214"/>
       <c r="B173" s="99"/>
       <c r="C173" s="197"/>
       <c r="D173" s="197"/>
       <c r="E173" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F173" s="60"/>
       <c r="G173" s="224"/>
-      <c r="H173" s="215"/>
+      <c r="H173" s="205"/>
       <c r="I173" s="60"/>
       <c r="J173" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K173" s="234"/>
       <c r="L173" s="231"/>
       <c r="M173" s="231"/>
       <c r="N173" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O173" s="216"/>
@@ -51878,28 +51985,28 @@
       <c r="U173" s="49"/>
       <c r="V173" s="50"/>
     </row>
-    <row r="174" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="204"/>
       <c r="B174" s="99"/>
       <c r="C174" s="197"/>
       <c r="D174" s="197"/>
       <c r="E174" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F174" s="60"/>
       <c r="G174" s="224"/>
-      <c r="H174" s="175"/>
+      <c r="H174" s="239"/>
       <c r="I174" s="60"/>
       <c r="J174" s="39">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K174" s="234"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K174" s="81"/>
       <c r="L174" s="231"/>
       <c r="M174" s="231"/>
       <c r="N174" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O174" s="216"/>
@@ -51917,22 +52024,22 @@
       <c r="C175" s="197"/>
       <c r="D175" s="197"/>
       <c r="E175" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F175" s="60"/>
       <c r="G175" s="224"/>
-      <c r="H175" s="240"/>
+      <c r="H175" s="215"/>
       <c r="I175" s="60"/>
       <c r="J175" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K175" s="234"/>
+      <c r="L175" s="231"/>
+      <c r="M175" s="231"/>
+      <c r="N175" s="42">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K175" s="234"/>
-      <c r="L175" s="241"/>
-      <c r="M175" s="241"/>
-      <c r="N175" s="42">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O175" s="216"/>
@@ -51950,7 +52057,7 @@
       <c r="C176" s="197"/>
       <c r="D176" s="197"/>
       <c r="E176" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F176" s="60"/>
@@ -51958,14 +52065,14 @@
       <c r="H176" s="175"/>
       <c r="I176" s="60"/>
       <c r="J176" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K176" s="234"/>
+      <c r="L176" s="231"/>
+      <c r="M176" s="231"/>
+      <c r="N176" s="42">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K176" s="234"/>
-      <c r="L176" s="241"/>
-      <c r="M176" s="241"/>
-      <c r="N176" s="42">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O176" s="216"/>
@@ -51983,22 +52090,22 @@
       <c r="C177" s="197"/>
       <c r="D177" s="197"/>
       <c r="E177" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F177" s="60"/>
       <c r="G177" s="224"/>
-      <c r="H177" s="175"/>
+      <c r="H177" s="240"/>
       <c r="I177" s="60"/>
       <c r="J177" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K177" s="234"/>
       <c r="L177" s="241"/>
       <c r="M177" s="241"/>
       <c r="N177" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O177" s="216"/>
@@ -52016,7 +52123,7 @@
       <c r="C178" s="197"/>
       <c r="D178" s="197"/>
       <c r="E178" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F178" s="60"/>
@@ -52024,14 +52131,14 @@
       <c r="H178" s="175"/>
       <c r="I178" s="60"/>
       <c r="J178" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K178" s="234"/>
+      <c r="L178" s="241"/>
+      <c r="M178" s="241"/>
+      <c r="N178" s="42">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K178" s="81"/>
-      <c r="L178" s="61"/>
-      <c r="M178" s="61"/>
-      <c r="N178" s="42">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O178" s="216"/>
@@ -52046,10 +52153,10 @@
     <row r="179" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="204"/>
       <c r="B179" s="99"/>
-      <c r="C179" s="242"/>
-      <c r="D179" s="242"/>
+      <c r="C179" s="197"/>
+      <c r="D179" s="197"/>
       <c r="E179" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F179" s="60"/>
@@ -52057,20 +52164,20 @@
       <c r="H179" s="175"/>
       <c r="I179" s="60"/>
       <c r="J179" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K179" s="234"/>
+      <c r="L179" s="241"/>
+      <c r="M179" s="241"/>
+      <c r="N179" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K179" s="81"/>
-      <c r="L179" s="61"/>
-      <c r="M179" s="61"/>
-      <c r="N179" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O179" s="223"/>
-      <c r="P179" s="243"/>
-      <c r="Q179" s="124"/>
-      <c r="R179" s="125"/>
+      <c r="O179" s="216"/>
+      <c r="P179" s="217"/>
+      <c r="Q179" s="218"/>
+      <c r="R179" s="219"/>
       <c r="S179" s="176"/>
       <c r="T179" s="177"/>
       <c r="U179" s="49"/>
@@ -52079,10 +52186,10 @@
     <row r="180" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="204"/>
       <c r="B180" s="99"/>
-      <c r="C180" s="242"/>
-      <c r="D180" s="242"/>
+      <c r="C180" s="197"/>
+      <c r="D180" s="197"/>
       <c r="E180" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F180" s="60"/>
@@ -52090,51 +52197,51 @@
       <c r="H180" s="175"/>
       <c r="I180" s="60"/>
       <c r="J180" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K180" s="81"/>
       <c r="L180" s="61"/>
       <c r="M180" s="61"/>
       <c r="N180" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O180" s="223"/>
-      <c r="P180" s="243"/>
-      <c r="Q180" s="124"/>
-      <c r="R180" s="125"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O180" s="216"/>
+      <c r="P180" s="217"/>
+      <c r="Q180" s="218"/>
+      <c r="R180" s="219"/>
       <c r="S180" s="176"/>
       <c r="T180" s="177"/>
       <c r="U180" s="49"/>
       <c r="V180" s="50"/>
     </row>
     <row r="181" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="101"/>
+      <c r="A181" s="204"/>
       <c r="B181" s="99"/>
-      <c r="C181" s="226"/>
-      <c r="D181" s="226"/>
+      <c r="C181" s="242"/>
+      <c r="D181" s="242"/>
       <c r="E181" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F181" s="60"/>
       <c r="G181" s="224"/>
-      <c r="H181" s="227"/>
+      <c r="H181" s="175"/>
       <c r="I181" s="60"/>
       <c r="J181" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K181" s="81"/>
       <c r="L181" s="61"/>
       <c r="M181" s="61"/>
       <c r="N181" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O181" s="69"/>
-      <c r="P181" s="209"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O181" s="223"/>
+      <c r="P181" s="243"/>
       <c r="Q181" s="124"/>
       <c r="R181" s="125"/>
       <c r="S181" s="176"/>
@@ -52145,29 +52252,29 @@
     <row r="182" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="204"/>
       <c r="B182" s="99"/>
-      <c r="C182" s="244"/>
-      <c r="D182" s="244"/>
+      <c r="C182" s="242"/>
+      <c r="D182" s="242"/>
       <c r="E182" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F182" s="60"/>
       <c r="G182" s="224"/>
-      <c r="H182" s="59"/>
+      <c r="H182" s="175"/>
       <c r="I182" s="60"/>
       <c r="J182" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K182" s="81"/>
       <c r="L182" s="61"/>
       <c r="M182" s="61"/>
       <c r="N182" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O182" s="69"/>
-      <c r="P182" s="209"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O182" s="223"/>
+      <c r="P182" s="243"/>
       <c r="Q182" s="124"/>
       <c r="R182" s="125"/>
       <c r="S182" s="176"/>
@@ -52176,12 +52283,12 @@
       <c r="V182" s="50"/>
     </row>
     <row r="183" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="169"/>
+      <c r="A183" s="101"/>
       <c r="B183" s="99"/>
       <c r="C183" s="226"/>
       <c r="D183" s="226"/>
       <c r="E183" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F183" s="60"/>
@@ -52189,14 +52296,14 @@
       <c r="H183" s="227"/>
       <c r="I183" s="60"/>
       <c r="J183" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K183" s="81"/>
       <c r="L183" s="61"/>
       <c r="M183" s="61"/>
       <c r="N183" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O183" s="69"/>
@@ -52208,32 +52315,32 @@
       <c r="U183" s="49"/>
       <c r="V183" s="50"/>
     </row>
-    <row r="184" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="245"/>
-      <c r="B184" s="246"/>
-      <c r="C184" s="181"/>
-      <c r="D184" s="181"/>
+    <row r="184" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="204"/>
+      <c r="B184" s="99"/>
+      <c r="C184" s="244"/>
+      <c r="D184" s="244"/>
       <c r="E184" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F184" s="60"/>
       <c r="G184" s="224"/>
-      <c r="H184" s="227"/>
+      <c r="H184" s="59"/>
       <c r="I184" s="60"/>
       <c r="J184" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K184" s="81"/>
       <c r="L184" s="61"/>
       <c r="M184" s="61"/>
       <c r="N184" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O184" s="228"/>
-      <c r="P184" s="229"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O184" s="69"/>
+      <c r="P184" s="209"/>
       <c r="Q184" s="124"/>
       <c r="R184" s="125"/>
       <c r="S184" s="176"/>
@@ -52244,10 +52351,10 @@
     <row r="185" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="169"/>
       <c r="B185" s="99"/>
-      <c r="C185" s="247"/>
-      <c r="D185" s="247"/>
+      <c r="C185" s="226"/>
+      <c r="D185" s="226"/>
       <c r="E185" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F185" s="60"/>
@@ -52255,14 +52362,14 @@
       <c r="H185" s="227"/>
       <c r="I185" s="60"/>
       <c r="J185" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K185" s="81"/>
       <c r="L185" s="61"/>
       <c r="M185" s="61"/>
       <c r="N185" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O185" s="69"/>
@@ -52274,13 +52381,13 @@
       <c r="U185" s="49"/>
       <c r="V185" s="50"/>
     </row>
-    <row r="186" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="169"/>
-      <c r="B186" s="99"/>
-      <c r="C186" s="247"/>
-      <c r="D186" s="247"/>
+    <row r="186" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="245"/>
+      <c r="B186" s="246"/>
+      <c r="C186" s="181"/>
+      <c r="D186" s="181"/>
       <c r="E186" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F186" s="60"/>
@@ -52288,18 +52395,18 @@
       <c r="H186" s="227"/>
       <c r="I186" s="60"/>
       <c r="J186" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K186" s="81"/>
       <c r="L186" s="61"/>
       <c r="M186" s="61"/>
       <c r="N186" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O186" s="69"/>
-      <c r="P186" s="209"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O186" s="228"/>
+      <c r="P186" s="229"/>
       <c r="Q186" s="124"/>
       <c r="R186" s="125"/>
       <c r="S186" s="176"/>
@@ -52308,12 +52415,12 @@
       <c r="V186" s="50"/>
     </row>
     <row r="187" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="248"/>
+      <c r="A187" s="169"/>
       <c r="B187" s="99"/>
-      <c r="C187" s="249"/>
-      <c r="D187" s="249"/>
+      <c r="C187" s="247"/>
+      <c r="D187" s="247"/>
       <c r="E187" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F187" s="60"/>
@@ -52321,14 +52428,14 @@
       <c r="H187" s="227"/>
       <c r="I187" s="60"/>
       <c r="J187" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K187" s="81"/>
       <c r="L187" s="61"/>
       <c r="M187" s="61"/>
       <c r="N187" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O187" s="69"/>
@@ -52343,29 +52450,29 @@
     <row r="188" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="169"/>
       <c r="B188" s="99"/>
-      <c r="C188" s="250"/>
-      <c r="D188" s="250"/>
+      <c r="C188" s="247"/>
+      <c r="D188" s="247"/>
       <c r="E188" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F188" s="60"/>
-      <c r="G188" s="251"/>
+      <c r="G188" s="224"/>
       <c r="H188" s="227"/>
       <c r="I188" s="60"/>
       <c r="J188" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K188" s="81"/>
       <c r="L188" s="61"/>
       <c r="M188" s="61"/>
       <c r="N188" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O188" s="62"/>
-      <c r="P188" s="252"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O188" s="69"/>
+      <c r="P188" s="209"/>
       <c r="Q188" s="124"/>
       <c r="R188" s="125"/>
       <c r="S188" s="176"/>
@@ -52374,31 +52481,31 @@
       <c r="V188" s="50"/>
     </row>
     <row r="189" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="169"/>
+      <c r="A189" s="248"/>
       <c r="B189" s="99"/>
-      <c r="C189" s="250"/>
-      <c r="D189" s="250"/>
+      <c r="C189" s="249"/>
+      <c r="D189" s="249"/>
       <c r="E189" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F189" s="60"/>
-      <c r="G189" s="58"/>
+      <c r="G189" s="224"/>
       <c r="H189" s="227"/>
       <c r="I189" s="60"/>
       <c r="J189" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K189" s="81"/>
       <c r="L189" s="61"/>
       <c r="M189" s="61"/>
       <c r="N189" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O189" s="62"/>
-      <c r="P189" s="252"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O189" s="69"/>
+      <c r="P189" s="209"/>
       <c r="Q189" s="124"/>
       <c r="R189" s="125"/>
       <c r="S189" s="176"/>
@@ -52406,98 +52513,101 @@
       <c r="U189" s="49"/>
       <c r="V189" s="50"/>
     </row>
-    <row r="190" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="169"/>
-      <c r="B190" s="203"/>
-      <c r="C190" s="253"/>
-      <c r="D190" s="253"/>
+      <c r="B190" s="99"/>
+      <c r="C190" s="250"/>
+      <c r="D190" s="250"/>
       <c r="E190" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F190" s="60"/>
+      <c r="G190" s="251"/>
+      <c r="H190" s="227"/>
+      <c r="I190" s="60"/>
+      <c r="J190" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F190" s="254"/>
-      <c r="G190" s="224"/>
-      <c r="H190" s="255"/>
-      <c r="I190" s="254"/>
-      <c r="J190" s="39">
+      <c r="K190" s="81"/>
+      <c r="L190" s="61"/>
+      <c r="M190" s="61"/>
+      <c r="N190" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N190" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O190" s="257"/>
-      <c r="P190" s="243"/>
-      <c r="Q190" s="258"/>
-      <c r="R190" s="259"/>
-      <c r="S190" s="260"/>
-      <c r="T190" s="261"/>
-      <c r="U190" s="262"/>
-      <c r="V190" s="263"/>
+      <c r="O190" s="62"/>
+      <c r="P190" s="252"/>
+      <c r="Q190" s="124"/>
+      <c r="R190" s="125"/>
+      <c r="S190" s="176"/>
+      <c r="T190" s="177"/>
+      <c r="U190" s="49"/>
+      <c r="V190" s="50"/>
     </row>
     <row r="191" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="169"/>
       <c r="B191" s="99"/>
-      <c r="C191" s="249"/>
-      <c r="D191" s="249"/>
+      <c r="C191" s="250"/>
+      <c r="D191" s="250"/>
       <c r="E191" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F191" s="60"/>
+      <c r="G191" s="58"/>
+      <c r="H191" s="227"/>
+      <c r="I191" s="60"/>
+      <c r="J191" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F191" s="254"/>
-      <c r="G191" s="224"/>
-      <c r="H191" s="255"/>
-      <c r="I191" s="254"/>
-      <c r="J191" s="39">
+      <c r="K191" s="81"/>
+      <c r="L191" s="61"/>
+      <c r="M191" s="61"/>
+      <c r="N191" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N191" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O191" s="257"/>
-      <c r="P191" s="243"/>
-      <c r="Q191" s="258"/>
-      <c r="R191" s="259"/>
-      <c r="S191" s="260"/>
-      <c r="T191" s="261"/>
-      <c r="U191" s="262"/>
-      <c r="V191" s="263"/>
-    </row>
-    <row r="192" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O191" s="62"/>
+      <c r="P191" s="252"/>
+      <c r="Q191" s="124"/>
+      <c r="R191" s="125"/>
+      <c r="S191" s="176"/>
+      <c r="T191" s="177"/>
+      <c r="U191" s="49"/>
+      <c r="V191" s="50"/>
+    </row>
+    <row r="192" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="169"/>
-      <c r="B192" s="99"/>
-      <c r="C192" s="249"/>
-      <c r="D192" s="249"/>
+      <c r="B192" s="203"/>
+      <c r="C192" s="253"/>
+      <c r="D192" s="253"/>
       <c r="E192" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F192" s="254"/>
+      <c r="G192" s="224"/>
+      <c r="H192" s="255"/>
+      <c r="I192" s="254"/>
+      <c r="J192" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F192" s="60"/>
-      <c r="G192" s="224"/>
-      <c r="H192" s="227"/>
-      <c r="I192" s="60"/>
-      <c r="J192" s="39">
+      <c r="N192" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K192" s="81"/>
-      <c r="L192" s="61"/>
-      <c r="M192" s="61"/>
-      <c r="N192" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O192" s="69"/>
-      <c r="P192" s="209"/>
-      <c r="Q192" s="124"/>
-      <c r="R192" s="125"/>
-      <c r="S192" s="176"/>
-      <c r="T192" s="177"/>
-      <c r="U192" s="49"/>
-      <c r="V192" s="50"/>
+      <c r="O192" s="257"/>
+      <c r="P192" s="243"/>
+      <c r="Q192" s="258"/>
+      <c r="R192" s="259"/>
+      <c r="S192" s="260"/>
+      <c r="T192" s="261"/>
+      <c r="U192" s="262"/>
+      <c r="V192" s="263"/>
     </row>
     <row r="193" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="169"/>
@@ -52505,55 +52615,52 @@
       <c r="C193" s="249"/>
       <c r="D193" s="249"/>
       <c r="E193" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F193" s="254"/>
+      <c r="G193" s="224"/>
+      <c r="H193" s="255"/>
+      <c r="I193" s="254"/>
+      <c r="J193" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F193" s="60"/>
-      <c r="G193" s="224"/>
-      <c r="H193" s="227"/>
-      <c r="I193" s="60"/>
-      <c r="J193" s="39">
+      <c r="N193" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K193" s="81"/>
-      <c r="L193" s="61"/>
-      <c r="M193" s="61"/>
-      <c r="N193" s="42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O193" s="69"/>
-      <c r="P193" s="209"/>
-      <c r="Q193" s="124"/>
-      <c r="R193" s="125"/>
-      <c r="S193" s="176"/>
-      <c r="T193" s="177"/>
-      <c r="U193" s="49"/>
-      <c r="V193" s="50"/>
+      <c r="O193" s="257"/>
+      <c r="P193" s="243"/>
+      <c r="Q193" s="258"/>
+      <c r="R193" s="259"/>
+      <c r="S193" s="260"/>
+      <c r="T193" s="261"/>
+      <c r="U193" s="262"/>
+      <c r="V193" s="263"/>
     </row>
     <row r="194" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="169"/>
       <c r="B194" s="99"/>
-      <c r="C194" s="264"/>
-      <c r="D194" s="264"/>
+      <c r="C194" s="249"/>
+      <c r="D194" s="249"/>
       <c r="E194" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F194" s="60"/>
-      <c r="G194" s="251"/>
+      <c r="G194" s="224"/>
       <c r="H194" s="227"/>
       <c r="I194" s="60"/>
       <c r="J194" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K194" s="81"/>
       <c r="L194" s="61"/>
       <c r="M194" s="61"/>
       <c r="N194" s="42">
-        <f t="shared" ref="N194:N257" si="10">K194*I194</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O194" s="69"/>
@@ -52568,25 +52675,25 @@
     <row r="195" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="169"/>
       <c r="B195" s="99"/>
-      <c r="C195" s="264"/>
-      <c r="D195" s="264"/>
+      <c r="C195" s="249"/>
+      <c r="D195" s="249"/>
       <c r="E195" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F195" s="60"/>
-      <c r="G195" s="251"/>
+      <c r="G195" s="224"/>
       <c r="H195" s="227"/>
       <c r="I195" s="60"/>
       <c r="J195" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K195" s="81"/>
       <c r="L195" s="61"/>
       <c r="M195" s="61"/>
       <c r="N195" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O195" s="69"/>
@@ -52604,7 +52711,7 @@
       <c r="C196" s="264"/>
       <c r="D196" s="264"/>
       <c r="E196" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F196" s="60"/>
@@ -52612,14 +52719,14 @@
       <c r="H196" s="227"/>
       <c r="I196" s="60"/>
       <c r="J196" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K196" s="81"/>
       <c r="L196" s="61"/>
       <c r="M196" s="61"/>
       <c r="N196" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="N196:N259" si="11">K196*I196</f>
         <v>0</v>
       </c>
       <c r="O196" s="69"/>
@@ -52631,13 +52738,13 @@
       <c r="U196" s="49"/>
       <c r="V196" s="50"/>
     </row>
-    <row r="197" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="169"/>
-      <c r="B197" s="203"/>
-      <c r="C197" s="265"/>
-      <c r="D197" s="265"/>
+      <c r="B197" s="99"/>
+      <c r="C197" s="264"/>
+      <c r="D197" s="264"/>
       <c r="E197" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F197" s="60"/>
@@ -52645,14 +52752,14 @@
       <c r="H197" s="227"/>
       <c r="I197" s="60"/>
       <c r="J197" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K197" s="81"/>
       <c r="L197" s="61"/>
       <c r="M197" s="61"/>
       <c r="N197" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O197" s="69"/>
@@ -52670,7 +52777,7 @@
       <c r="C198" s="264"/>
       <c r="D198" s="264"/>
       <c r="E198" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F198" s="60"/>
@@ -52678,14 +52785,14 @@
       <c r="H198" s="227"/>
       <c r="I198" s="60"/>
       <c r="J198" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K198" s="81"/>
       <c r="L198" s="61"/>
       <c r="M198" s="61"/>
       <c r="N198" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O198" s="69"/>
@@ -52697,28 +52804,28 @@
       <c r="U198" s="49"/>
       <c r="V198" s="50"/>
     </row>
-    <row r="199" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="169"/>
-      <c r="B199" s="99"/>
-      <c r="C199" s="244"/>
-      <c r="D199" s="244"/>
+      <c r="B199" s="203"/>
+      <c r="C199" s="265"/>
+      <c r="D199" s="265"/>
       <c r="E199" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F199" s="60"/>
-      <c r="G199" s="224"/>
+      <c r="G199" s="251"/>
       <c r="H199" s="227"/>
       <c r="I199" s="60"/>
       <c r="J199" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K199" s="81"/>
       <c r="L199" s="61"/>
       <c r="M199" s="61"/>
       <c r="N199" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O199" s="69"/>
@@ -52733,25 +52840,25 @@
     <row r="200" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="169"/>
       <c r="B200" s="99"/>
-      <c r="C200" s="244"/>
-      <c r="D200" s="244"/>
+      <c r="C200" s="264"/>
+      <c r="D200" s="264"/>
       <c r="E200" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F200" s="60"/>
-      <c r="G200" s="224"/>
+      <c r="G200" s="251"/>
       <c r="H200" s="227"/>
       <c r="I200" s="60"/>
       <c r="J200" s="39">
-        <f t="shared" ref="J200:J263" si="11">I200-F200</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K200" s="81"/>
       <c r="L200" s="61"/>
       <c r="M200" s="61"/>
       <c r="N200" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O200" s="69"/>
@@ -52769,7 +52876,7 @@
       <c r="C201" s="244"/>
       <c r="D201" s="244"/>
       <c r="E201" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F201" s="60"/>
@@ -52777,14 +52884,14 @@
       <c r="H201" s="227"/>
       <c r="I201" s="60"/>
       <c r="J201" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K201" s="81"/>
       <c r="L201" s="61"/>
       <c r="M201" s="61"/>
       <c r="N201" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O201" s="69"/>
@@ -52802,7 +52909,7 @@
       <c r="C202" s="244"/>
       <c r="D202" s="244"/>
       <c r="E202" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F202" s="60"/>
@@ -52810,14 +52917,14 @@
       <c r="H202" s="227"/>
       <c r="I202" s="60"/>
       <c r="J202" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J202:J265" si="12">I202-F202</f>
         <v>0</v>
       </c>
       <c r="K202" s="81"/>
       <c r="L202" s="61"/>
       <c r="M202" s="61"/>
       <c r="N202" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O202" s="69"/>
@@ -52829,13 +52936,13 @@
       <c r="U202" s="49"/>
       <c r="V202" s="50"/>
     </row>
-    <row r="203" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="248"/>
-      <c r="B203" s="203"/>
-      <c r="C203" s="249"/>
-      <c r="D203" s="249"/>
+    <row r="203" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="169"/>
+      <c r="B203" s="99"/>
+      <c r="C203" s="244"/>
+      <c r="D203" s="244"/>
       <c r="E203" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F203" s="60"/>
@@ -52843,14 +52950,14 @@
       <c r="H203" s="227"/>
       <c r="I203" s="60"/>
       <c r="J203" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K203" s="81"/>
       <c r="L203" s="61"/>
       <c r="M203" s="61"/>
       <c r="N203" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O203" s="69"/>
@@ -52863,31 +52970,31 @@
       <c r="V203" s="50"/>
     </row>
     <row r="204" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="266"/>
+      <c r="A204" s="169"/>
       <c r="B204" s="99"/>
-      <c r="C204" s="250"/>
-      <c r="D204" s="250"/>
+      <c r="C204" s="244"/>
+      <c r="D204" s="244"/>
       <c r="E204" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F204" s="60"/>
-      <c r="G204" s="58"/>
+      <c r="G204" s="224"/>
       <c r="H204" s="227"/>
       <c r="I204" s="60"/>
       <c r="J204" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K204" s="81"/>
       <c r="L204" s="61"/>
       <c r="M204" s="61"/>
       <c r="N204" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O204" s="62"/>
-      <c r="P204" s="252"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O204" s="69"/>
+      <c r="P204" s="209"/>
       <c r="Q204" s="124"/>
       <c r="R204" s="125"/>
       <c r="S204" s="176"/>
@@ -52896,12 +53003,12 @@
       <c r="V204" s="50"/>
     </row>
     <row r="205" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="169"/>
+      <c r="A205" s="248"/>
       <c r="B205" s="203"/>
-      <c r="C205" s="267"/>
-      <c r="D205" s="267"/>
+      <c r="C205" s="249"/>
+      <c r="D205" s="249"/>
       <c r="E205" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F205" s="60"/>
@@ -52909,14 +53016,14 @@
       <c r="H205" s="227"/>
       <c r="I205" s="60"/>
       <c r="J205" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K205" s="81"/>
       <c r="L205" s="61"/>
       <c r="M205" s="61"/>
       <c r="N205" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O205" s="69"/>
@@ -52928,32 +53035,32 @@
       <c r="U205" s="49"/>
       <c r="V205" s="50"/>
     </row>
-    <row r="206" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="169"/>
-      <c r="B206" s="203"/>
-      <c r="C206" s="267"/>
-      <c r="D206" s="267"/>
+    <row r="206" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="266"/>
+      <c r="B206" s="99"/>
+      <c r="C206" s="250"/>
+      <c r="D206" s="250"/>
       <c r="E206" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F206" s="60"/>
-      <c r="G206" s="224"/>
+      <c r="G206" s="58"/>
       <c r="H206" s="227"/>
       <c r="I206" s="60"/>
       <c r="J206" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K206" s="81"/>
       <c r="L206" s="61"/>
       <c r="M206" s="61"/>
       <c r="N206" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O206" s="69"/>
-      <c r="P206" s="209"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O206" s="62"/>
+      <c r="P206" s="252"/>
       <c r="Q206" s="124"/>
       <c r="R206" s="125"/>
       <c r="S206" s="176"/>
@@ -52967,7 +53074,7 @@
       <c r="C207" s="267"/>
       <c r="D207" s="267"/>
       <c r="E207" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F207" s="60"/>
@@ -52975,14 +53082,14 @@
       <c r="H207" s="227"/>
       <c r="I207" s="60"/>
       <c r="J207" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K207" s="81"/>
       <c r="L207" s="61"/>
       <c r="M207" s="61"/>
       <c r="N207" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O207" s="69"/>
@@ -53000,22 +53107,22 @@
       <c r="C208" s="267"/>
       <c r="D208" s="267"/>
       <c r="E208" s="34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F208" s="268"/>
-      <c r="G208" s="251"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F208" s="60"/>
+      <c r="G208" s="224"/>
       <c r="H208" s="227"/>
       <c r="I208" s="60"/>
       <c r="J208" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K208" s="81"/>
       <c r="L208" s="61"/>
       <c r="M208" s="61"/>
       <c r="N208" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O208" s="69"/>
@@ -53033,22 +53140,22 @@
       <c r="C209" s="267"/>
       <c r="D209" s="267"/>
       <c r="E209" s="34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F209" s="268"/>
-      <c r="G209" s="251"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F209" s="60"/>
+      <c r="G209" s="224"/>
       <c r="H209" s="227"/>
       <c r="I209" s="60"/>
       <c r="J209" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K209" s="81"/>
       <c r="L209" s="61"/>
       <c r="M209" s="61"/>
       <c r="N209" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O209" s="69"/>
@@ -53066,7 +53173,7 @@
       <c r="C210" s="267"/>
       <c r="D210" s="267"/>
       <c r="E210" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F210" s="268"/>
@@ -53074,14 +53181,14 @@
       <c r="H210" s="227"/>
       <c r="I210" s="60"/>
       <c r="J210" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K210" s="81"/>
       <c r="L210" s="61"/>
       <c r="M210" s="61"/>
       <c r="N210" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O210" s="69"/>
@@ -53099,7 +53206,7 @@
       <c r="C211" s="267"/>
       <c r="D211" s="267"/>
       <c r="E211" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F211" s="268"/>
@@ -53107,14 +53214,14 @@
       <c r="H211" s="227"/>
       <c r="I211" s="60"/>
       <c r="J211" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K211" s="81"/>
       <c r="L211" s="61"/>
       <c r="M211" s="61"/>
       <c r="N211" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O211" s="69"/>
@@ -53132,7 +53239,7 @@
       <c r="C212" s="267"/>
       <c r="D212" s="267"/>
       <c r="E212" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F212" s="268"/>
@@ -53140,14 +53247,14 @@
       <c r="H212" s="227"/>
       <c r="I212" s="60"/>
       <c r="J212" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K212" s="81"/>
       <c r="L212" s="61"/>
       <c r="M212" s="61"/>
       <c r="N212" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O212" s="69"/>
@@ -53165,7 +53272,7 @@
       <c r="C213" s="267"/>
       <c r="D213" s="267"/>
       <c r="E213" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F213" s="268"/>
@@ -53173,14 +53280,14 @@
       <c r="H213" s="227"/>
       <c r="I213" s="60"/>
       <c r="J213" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K213" s="81"/>
       <c r="L213" s="61"/>
       <c r="M213" s="61"/>
       <c r="N213" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O213" s="69"/>
@@ -53198,7 +53305,7 @@
       <c r="C214" s="267"/>
       <c r="D214" s="267"/>
       <c r="E214" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F214" s="268"/>
@@ -53206,14 +53313,14 @@
       <c r="H214" s="227"/>
       <c r="I214" s="60"/>
       <c r="J214" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K214" s="81"/>
       <c r="L214" s="61"/>
       <c r="M214" s="61"/>
       <c r="N214" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O214" s="69"/>
@@ -53231,22 +53338,22 @@
       <c r="C215" s="267"/>
       <c r="D215" s="267"/>
       <c r="E215" s="34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F215" s="60"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F215" s="268"/>
       <c r="G215" s="251"/>
       <c r="H215" s="227"/>
       <c r="I215" s="60"/>
       <c r="J215" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K215" s="81"/>
       <c r="L215" s="61"/>
       <c r="M215" s="61"/>
       <c r="N215" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O215" s="69"/>
@@ -53261,25 +53368,25 @@
     <row r="216" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="169"/>
       <c r="B216" s="203"/>
-      <c r="C216" s="244"/>
-      <c r="D216" s="244"/>
+      <c r="C216" s="267"/>
+      <c r="D216" s="267"/>
       <c r="E216" s="34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F216" s="60"/>
-      <c r="G216" s="224"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F216" s="268"/>
+      <c r="G216" s="251"/>
       <c r="H216" s="227"/>
       <c r="I216" s="60"/>
       <c r="J216" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K216" s="81"/>
       <c r="L216" s="61"/>
       <c r="M216" s="61"/>
       <c r="N216" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O216" s="69"/>
@@ -53294,25 +53401,25 @@
     <row r="217" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="169"/>
       <c r="B217" s="203"/>
-      <c r="C217" s="244"/>
-      <c r="D217" s="244"/>
+      <c r="C217" s="267"/>
+      <c r="D217" s="267"/>
       <c r="E217" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F217" s="60"/>
-      <c r="G217" s="224"/>
+      <c r="G217" s="251"/>
       <c r="H217" s="227"/>
       <c r="I217" s="60"/>
       <c r="J217" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K217" s="81"/>
       <c r="L217" s="61"/>
       <c r="M217" s="61"/>
       <c r="N217" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O217" s="69"/>
@@ -53330,7 +53437,7 @@
       <c r="C218" s="244"/>
       <c r="D218" s="244"/>
       <c r="E218" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F218" s="60"/>
@@ -53338,14 +53445,14 @@
       <c r="H218" s="227"/>
       <c r="I218" s="60"/>
       <c r="J218" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K218" s="81"/>
       <c r="L218" s="61"/>
       <c r="M218" s="61"/>
       <c r="N218" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O218" s="69"/>
@@ -53363,7 +53470,7 @@
       <c r="C219" s="244"/>
       <c r="D219" s="244"/>
       <c r="E219" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F219" s="60"/>
@@ -53371,14 +53478,14 @@
       <c r="H219" s="227"/>
       <c r="I219" s="60"/>
       <c r="J219" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K219" s="81"/>
       <c r="L219" s="61"/>
       <c r="M219" s="61"/>
       <c r="N219" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O219" s="69"/>
@@ -53396,7 +53503,7 @@
       <c r="C220" s="244"/>
       <c r="D220" s="244"/>
       <c r="E220" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F220" s="60"/>
@@ -53404,14 +53511,14 @@
       <c r="H220" s="227"/>
       <c r="I220" s="60"/>
       <c r="J220" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K220" s="81"/>
       <c r="L220" s="61"/>
       <c r="M220" s="61"/>
       <c r="N220" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O220" s="69"/>
@@ -53429,7 +53536,7 @@
       <c r="C221" s="244"/>
       <c r="D221" s="244"/>
       <c r="E221" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F221" s="60"/>
@@ -53437,14 +53544,14 @@
       <c r="H221" s="227"/>
       <c r="I221" s="60"/>
       <c r="J221" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K221" s="81"/>
       <c r="L221" s="61"/>
       <c r="M221" s="61"/>
       <c r="N221" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O221" s="69"/>
@@ -53462,7 +53569,7 @@
       <c r="C222" s="244"/>
       <c r="D222" s="244"/>
       <c r="E222" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F222" s="60"/>
@@ -53470,14 +53577,14 @@
       <c r="H222" s="227"/>
       <c r="I222" s="60"/>
       <c r="J222" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K222" s="81"/>
       <c r="L222" s="61"/>
       <c r="M222" s="61"/>
       <c r="N222" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O222" s="69"/>
@@ -53495,7 +53602,7 @@
       <c r="C223" s="244"/>
       <c r="D223" s="244"/>
       <c r="E223" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F223" s="60"/>
@@ -53503,14 +53610,14 @@
       <c r="H223" s="227"/>
       <c r="I223" s="60"/>
       <c r="J223" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K223" s="81"/>
       <c r="L223" s="61"/>
       <c r="M223" s="61"/>
       <c r="N223" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O223" s="69"/>
@@ -53522,28 +53629,28 @@
       <c r="U223" s="49"/>
       <c r="V223" s="50"/>
     </row>
-    <row r="224" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="203"/>
-      <c r="B224" s="253"/>
+    <row r="224" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="169"/>
+      <c r="B224" s="203"/>
       <c r="C224" s="244"/>
       <c r="D224" s="244"/>
       <c r="E224" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F224" s="60"/>
-      <c r="G224" s="58"/>
-      <c r="H224" s="59"/>
+      <c r="G224" s="224"/>
+      <c r="H224" s="227"/>
       <c r="I224" s="60"/>
       <c r="J224" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K224" s="81"/>
       <c r="L224" s="61"/>
       <c r="M224" s="61"/>
       <c r="N224" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O224" s="69"/>
@@ -53556,12 +53663,12 @@
       <c r="V224" s="50"/>
     </row>
     <row r="225" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="266"/>
+      <c r="A225" s="169"/>
       <c r="B225" s="203"/>
       <c r="C225" s="244"/>
       <c r="D225" s="244"/>
       <c r="E225" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F225" s="60"/>
@@ -53569,14 +53676,14 @@
       <c r="H225" s="227"/>
       <c r="I225" s="60"/>
       <c r="J225" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K225" s="81"/>
       <c r="L225" s="61"/>
       <c r="M225" s="61"/>
       <c r="N225" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O225" s="69"/>
@@ -53588,28 +53695,28 @@
       <c r="U225" s="49"/>
       <c r="V225" s="50"/>
     </row>
-    <row r="226" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="266"/>
-      <c r="B226" s="203"/>
+    <row r="226" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="203"/>
+      <c r="B226" s="253"/>
       <c r="C226" s="244"/>
       <c r="D226" s="244"/>
       <c r="E226" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F226" s="60"/>
-      <c r="G226" s="224"/>
-      <c r="H226" s="227"/>
+      <c r="G226" s="58"/>
+      <c r="H226" s="59"/>
       <c r="I226" s="60"/>
       <c r="J226" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K226" s="81"/>
       <c r="L226" s="61"/>
       <c r="M226" s="61"/>
       <c r="N226" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O226" s="69"/>
@@ -53627,7 +53734,7 @@
       <c r="C227" s="244"/>
       <c r="D227" s="244"/>
       <c r="E227" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F227" s="60"/>
@@ -53635,14 +53742,14 @@
       <c r="H227" s="227"/>
       <c r="I227" s="60"/>
       <c r="J227" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K227" s="81"/>
       <c r="L227" s="61"/>
       <c r="M227" s="61"/>
       <c r="N227" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O227" s="69"/>
@@ -53660,7 +53767,7 @@
       <c r="C228" s="244"/>
       <c r="D228" s="244"/>
       <c r="E228" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F228" s="60"/>
@@ -53668,14 +53775,14 @@
       <c r="H228" s="227"/>
       <c r="I228" s="60"/>
       <c r="J228" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K228" s="81"/>
       <c r="L228" s="61"/>
       <c r="M228" s="61"/>
       <c r="N228" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O228" s="69"/>
@@ -53688,12 +53795,12 @@
       <c r="V228" s="50"/>
     </row>
     <row r="229" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="269"/>
+      <c r="A229" s="266"/>
       <c r="B229" s="203"/>
       <c r="C229" s="244"/>
       <c r="D229" s="244"/>
       <c r="E229" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F229" s="60"/>
@@ -53701,14 +53808,14 @@
       <c r="H229" s="227"/>
       <c r="I229" s="60"/>
       <c r="J229" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K229" s="81"/>
       <c r="L229" s="61"/>
       <c r="M229" s="61"/>
       <c r="N229" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O229" s="69"/>
@@ -53721,12 +53828,12 @@
       <c r="V229" s="50"/>
     </row>
     <row r="230" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="169"/>
+      <c r="A230" s="266"/>
       <c r="B230" s="203"/>
       <c r="C230" s="244"/>
       <c r="D230" s="244"/>
       <c r="E230" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F230" s="60"/>
@@ -53734,14 +53841,14 @@
       <c r="H230" s="227"/>
       <c r="I230" s="60"/>
       <c r="J230" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K230" s="81"/>
       <c r="L230" s="61"/>
       <c r="M230" s="61"/>
       <c r="N230" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O230" s="69"/>
@@ -53754,12 +53861,12 @@
       <c r="V230" s="50"/>
     </row>
     <row r="231" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="169"/>
+      <c r="A231" s="269"/>
       <c r="B231" s="203"/>
       <c r="C231" s="244"/>
       <c r="D231" s="244"/>
       <c r="E231" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F231" s="60"/>
@@ -53767,14 +53874,14 @@
       <c r="H231" s="227"/>
       <c r="I231" s="60"/>
       <c r="J231" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K231" s="81"/>
       <c r="L231" s="61"/>
       <c r="M231" s="61"/>
       <c r="N231" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O231" s="69"/>
@@ -53792,7 +53899,7 @@
       <c r="C232" s="244"/>
       <c r="D232" s="244"/>
       <c r="E232" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F232" s="60"/>
@@ -53800,14 +53907,14 @@
       <c r="H232" s="227"/>
       <c r="I232" s="60"/>
       <c r="J232" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K232" s="81"/>
       <c r="L232" s="61"/>
       <c r="M232" s="61"/>
       <c r="N232" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O232" s="69"/>
@@ -53825,7 +53932,7 @@
       <c r="C233" s="244"/>
       <c r="D233" s="244"/>
       <c r="E233" s="34">
-        <f t="shared" ref="E233:E277" si="12">D233*F233</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F233" s="60"/>
@@ -53833,14 +53940,14 @@
       <c r="H233" s="227"/>
       <c r="I233" s="60"/>
       <c r="J233" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K233" s="81"/>
       <c r="L233" s="61"/>
       <c r="M233" s="61"/>
       <c r="N233" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O233" s="69"/>
@@ -53858,7 +53965,7 @@
       <c r="C234" s="244"/>
       <c r="D234" s="244"/>
       <c r="E234" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F234" s="60"/>
@@ -53866,14 +53973,14 @@
       <c r="H234" s="227"/>
       <c r="I234" s="60"/>
       <c r="J234" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K234" s="81"/>
       <c r="L234" s="61"/>
       <c r="M234" s="61"/>
       <c r="N234" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O234" s="69"/>
@@ -53891,7 +53998,7 @@
       <c r="C235" s="244"/>
       <c r="D235" s="244"/>
       <c r="E235" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E235:E279" si="13">D235*F235</f>
         <v>0</v>
       </c>
       <c r="F235" s="60"/>
@@ -53899,14 +54006,14 @@
       <c r="H235" s="227"/>
       <c r="I235" s="60"/>
       <c r="J235" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K235" s="81"/>
       <c r="L235" s="61"/>
       <c r="M235" s="61"/>
       <c r="N235" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O235" s="69"/>
@@ -53924,7 +54031,7 @@
       <c r="C236" s="244"/>
       <c r="D236" s="244"/>
       <c r="E236" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F236" s="60"/>
@@ -53932,14 +54039,14 @@
       <c r="H236" s="227"/>
       <c r="I236" s="60"/>
       <c r="J236" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K236" s="81"/>
       <c r="L236" s="61"/>
       <c r="M236" s="61"/>
       <c r="N236" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O236" s="69"/>
@@ -53957,7 +54064,7 @@
       <c r="C237" s="244"/>
       <c r="D237" s="244"/>
       <c r="E237" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F237" s="60"/>
@@ -53965,14 +54072,14 @@
       <c r="H237" s="227"/>
       <c r="I237" s="60"/>
       <c r="J237" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K237" s="81"/>
       <c r="L237" s="61"/>
       <c r="M237" s="61"/>
       <c r="N237" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O237" s="69"/>
@@ -53990,7 +54097,7 @@
       <c r="C238" s="244"/>
       <c r="D238" s="244"/>
       <c r="E238" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F238" s="60"/>
@@ -53998,14 +54105,14 @@
       <c r="H238" s="227"/>
       <c r="I238" s="60"/>
       <c r="J238" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K238" s="81"/>
       <c r="L238" s="61"/>
       <c r="M238" s="61"/>
       <c r="N238" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O238" s="69"/>
@@ -54020,10 +54127,10 @@
     <row r="239" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="169"/>
       <c r="B239" s="203"/>
-      <c r="C239" s="270"/>
-      <c r="D239" s="270"/>
+      <c r="C239" s="244"/>
+      <c r="D239" s="244"/>
       <c r="E239" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F239" s="60"/>
@@ -54031,14 +54138,14 @@
       <c r="H239" s="227"/>
       <c r="I239" s="60"/>
       <c r="J239" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K239" s="81"/>
       <c r="L239" s="61"/>
       <c r="M239" s="61"/>
       <c r="N239" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O239" s="69"/>
@@ -54056,7 +54163,7 @@
       <c r="C240" s="244"/>
       <c r="D240" s="244"/>
       <c r="E240" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F240" s="60"/>
@@ -54064,14 +54171,14 @@
       <c r="H240" s="227"/>
       <c r="I240" s="60"/>
       <c r="J240" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K240" s="81"/>
       <c r="L240" s="61"/>
       <c r="M240" s="61"/>
       <c r="N240" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O240" s="69"/>
@@ -54086,10 +54193,10 @@
     <row r="241" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="169"/>
       <c r="B241" s="203"/>
-      <c r="C241" s="264"/>
-      <c r="D241" s="264"/>
+      <c r="C241" s="270"/>
+      <c r="D241" s="270"/>
       <c r="E241" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F241" s="60"/>
@@ -54097,14 +54204,14 @@
       <c r="H241" s="227"/>
       <c r="I241" s="60"/>
       <c r="J241" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K241" s="81"/>
       <c r="L241" s="61"/>
       <c r="M241" s="61"/>
       <c r="N241" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O241" s="69"/>
@@ -54119,10 +54226,10 @@
     <row r="242" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="169"/>
       <c r="B242" s="203"/>
-      <c r="C242" s="265"/>
-      <c r="D242" s="265"/>
+      <c r="C242" s="244"/>
+      <c r="D242" s="244"/>
       <c r="E242" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F242" s="60"/>
@@ -54130,14 +54237,14 @@
       <c r="H242" s="227"/>
       <c r="I242" s="60"/>
       <c r="J242" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K242" s="81"/>
       <c r="L242" s="61"/>
       <c r="M242" s="61"/>
       <c r="N242" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O242" s="69"/>
@@ -54152,10 +54259,10 @@
     <row r="243" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="169"/>
       <c r="B243" s="203"/>
-      <c r="C243" s="265"/>
-      <c r="D243" s="265"/>
+      <c r="C243" s="264"/>
+      <c r="D243" s="264"/>
       <c r="E243" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F243" s="60"/>
@@ -54163,14 +54270,14 @@
       <c r="H243" s="227"/>
       <c r="I243" s="60"/>
       <c r="J243" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K243" s="81"/>
       <c r="L243" s="61"/>
       <c r="M243" s="61"/>
       <c r="N243" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O243" s="69"/>
@@ -54185,10 +54292,10 @@
     <row r="244" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="169"/>
       <c r="B244" s="203"/>
-      <c r="C244" s="264"/>
-      <c r="D244" s="264"/>
+      <c r="C244" s="265"/>
+      <c r="D244" s="265"/>
       <c r="E244" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F244" s="60"/>
@@ -54196,14 +54303,14 @@
       <c r="H244" s="227"/>
       <c r="I244" s="60"/>
       <c r="J244" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K244" s="81"/>
       <c r="L244" s="61"/>
       <c r="M244" s="61"/>
       <c r="N244" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O244" s="69"/>
@@ -54218,10 +54325,10 @@
     <row r="245" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="169"/>
       <c r="B245" s="203"/>
-      <c r="C245" s="249"/>
-      <c r="D245" s="249"/>
+      <c r="C245" s="265"/>
+      <c r="D245" s="265"/>
       <c r="E245" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F245" s="60"/>
@@ -54229,14 +54336,14 @@
       <c r="H245" s="227"/>
       <c r="I245" s="60"/>
       <c r="J245" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K245" s="81"/>
       <c r="L245" s="61"/>
       <c r="M245" s="61"/>
       <c r="N245" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O245" s="69"/>
@@ -54251,10 +54358,10 @@
     <row r="246" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="169"/>
       <c r="B246" s="203"/>
-      <c r="C246" s="197"/>
-      <c r="D246" s="197"/>
+      <c r="C246" s="264"/>
+      <c r="D246" s="264"/>
       <c r="E246" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F246" s="60"/>
@@ -54262,14 +54369,14 @@
       <c r="H246" s="227"/>
       <c r="I246" s="60"/>
       <c r="J246" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K246" s="81"/>
       <c r="L246" s="61"/>
       <c r="M246" s="61"/>
       <c r="N246" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O246" s="69"/>
@@ -54282,12 +54389,12 @@
       <c r="V246" s="50"/>
     </row>
     <row r="247" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="204"/>
+      <c r="A247" s="169"/>
       <c r="B247" s="203"/>
-      <c r="C247" s="226"/>
-      <c r="D247" s="226"/>
+      <c r="C247" s="249"/>
+      <c r="D247" s="249"/>
       <c r="E247" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F247" s="60"/>
@@ -54295,14 +54402,14 @@
       <c r="H247" s="227"/>
       <c r="I247" s="60"/>
       <c r="J247" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K247" s="81"/>
       <c r="L247" s="61"/>
       <c r="M247" s="61"/>
       <c r="N247" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O247" s="69"/>
@@ -54317,10 +54424,10 @@
     <row r="248" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="169"/>
       <c r="B248" s="203"/>
-      <c r="C248" s="226"/>
-      <c r="D248" s="226"/>
+      <c r="C248" s="197"/>
+      <c r="D248" s="197"/>
       <c r="E248" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F248" s="60"/>
@@ -54328,14 +54435,14 @@
       <c r="H248" s="227"/>
       <c r="I248" s="60"/>
       <c r="J248" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K248" s="81"/>
       <c r="L248" s="61"/>
       <c r="M248" s="61"/>
       <c r="N248" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O248" s="69"/>
@@ -54348,12 +54455,12 @@
       <c r="V248" s="50"/>
     </row>
     <row r="249" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="169"/>
+      <c r="A249" s="204"/>
       <c r="B249" s="203"/>
       <c r="C249" s="226"/>
       <c r="D249" s="226"/>
       <c r="E249" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F249" s="60"/>
@@ -54361,14 +54468,14 @@
       <c r="H249" s="227"/>
       <c r="I249" s="60"/>
       <c r="J249" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K249" s="81"/>
       <c r="L249" s="61"/>
       <c r="M249" s="61"/>
       <c r="N249" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O249" s="69"/>
@@ -54381,12 +54488,12 @@
       <c r="V249" s="50"/>
     </row>
     <row r="250" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="271"/>
-      <c r="B250" s="272"/>
+      <c r="A250" s="169"/>
+      <c r="B250" s="203"/>
       <c r="C250" s="226"/>
       <c r="D250" s="226"/>
       <c r="E250" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F250" s="60"/>
@@ -54394,14 +54501,14 @@
       <c r="H250" s="227"/>
       <c r="I250" s="60"/>
       <c r="J250" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K250" s="81"/>
       <c r="L250" s="61"/>
       <c r="M250" s="61"/>
       <c r="N250" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O250" s="69"/>
@@ -54413,28 +54520,28 @@
       <c r="U250" s="49"/>
       <c r="V250" s="50"/>
     </row>
-    <row r="251" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="204"/>
-      <c r="B251" s="272"/>
+    <row r="251" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="169"/>
+      <c r="B251" s="203"/>
       <c r="C251" s="226"/>
       <c r="D251" s="226"/>
       <c r="E251" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F251" s="60"/>
       <c r="G251" s="224"/>
-      <c r="H251" s="59"/>
+      <c r="H251" s="227"/>
       <c r="I251" s="60"/>
       <c r="J251" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K251" s="81"/>
       <c r="L251" s="61"/>
       <c r="M251" s="61"/>
       <c r="N251" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O251" s="69"/>
@@ -54447,12 +54554,12 @@
       <c r="V251" s="50"/>
     </row>
     <row r="252" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="204"/>
+      <c r="A252" s="271"/>
       <c r="B252" s="272"/>
       <c r="C252" s="226"/>
       <c r="D252" s="226"/>
       <c r="E252" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F252" s="60"/>
@@ -54460,14 +54567,14 @@
       <c r="H252" s="227"/>
       <c r="I252" s="60"/>
       <c r="J252" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K252" s="81"/>
       <c r="L252" s="61"/>
       <c r="M252" s="61"/>
       <c r="N252" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O252" s="69"/>
@@ -54479,28 +54586,28 @@
       <c r="U252" s="49"/>
       <c r="V252" s="50"/>
     </row>
-    <row r="253" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="169"/>
+    <row r="253" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="204"/>
       <c r="B253" s="272"/>
-      <c r="C253" s="181"/>
-      <c r="D253" s="181"/>
+      <c r="C253" s="226"/>
+      <c r="D253" s="226"/>
       <c r="E253" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F253" s="60"/>
       <c r="G253" s="224"/>
-      <c r="H253" s="227"/>
+      <c r="H253" s="59"/>
       <c r="I253" s="60"/>
       <c r="J253" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K253" s="81"/>
       <c r="L253" s="61"/>
       <c r="M253" s="61"/>
       <c r="N253" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O253" s="69"/>
@@ -54513,12 +54620,12 @@
       <c r="V253" s="50"/>
     </row>
     <row r="254" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="169"/>
+      <c r="A254" s="204"/>
       <c r="B254" s="272"/>
-      <c r="C254" s="181"/>
-      <c r="D254" s="181"/>
+      <c r="C254" s="226"/>
+      <c r="D254" s="226"/>
       <c r="E254" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F254" s="60"/>
@@ -54526,14 +54633,14 @@
       <c r="H254" s="227"/>
       <c r="I254" s="60"/>
       <c r="J254" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K254" s="81"/>
       <c r="L254" s="61"/>
       <c r="M254" s="61"/>
       <c r="N254" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O254" s="69"/>
@@ -54545,32 +54652,32 @@
       <c r="U254" s="49"/>
       <c r="V254" s="50"/>
     </row>
-    <row r="255" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="204"/>
+    <row r="255" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="169"/>
       <c r="B255" s="272"/>
-      <c r="C255" s="242"/>
-      <c r="D255" s="242"/>
+      <c r="C255" s="181"/>
+      <c r="D255" s="181"/>
       <c r="E255" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F255" s="60"/>
       <c r="G255" s="224"/>
-      <c r="H255" s="175"/>
+      <c r="H255" s="227"/>
       <c r="I255" s="60"/>
       <c r="J255" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K255" s="81"/>
       <c r="L255" s="61"/>
       <c r="M255" s="61"/>
       <c r="N255" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O255" s="223"/>
-      <c r="P255" s="243"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O255" s="69"/>
+      <c r="P255" s="209"/>
       <c r="Q255" s="124"/>
       <c r="R255" s="125"/>
       <c r="S255" s="176"/>
@@ -54578,32 +54685,32 @@
       <c r="U255" s="49"/>
       <c r="V255" s="50"/>
     </row>
-    <row r="256" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="204"/>
+    <row r="256" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="169"/>
       <c r="B256" s="272"/>
-      <c r="C256" s="187"/>
-      <c r="D256" s="187"/>
+      <c r="C256" s="181"/>
+      <c r="D256" s="181"/>
       <c r="E256" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F256" s="60"/>
       <c r="G256" s="224"/>
-      <c r="H256" s="175"/>
+      <c r="H256" s="227"/>
       <c r="I256" s="60"/>
       <c r="J256" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K256" s="81"/>
+      <c r="L256" s="61"/>
+      <c r="M256" s="61"/>
+      <c r="N256" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K256" s="81"/>
-      <c r="L256" s="273"/>
-      <c r="M256" s="274"/>
-      <c r="N256" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O256" s="223"/>
-      <c r="P256" s="243"/>
+      <c r="O256" s="69"/>
+      <c r="P256" s="209"/>
       <c r="Q256" s="124"/>
       <c r="R256" s="125"/>
       <c r="S256" s="176"/>
@@ -54613,26 +54720,26 @@
     </row>
     <row r="257" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="204"/>
-      <c r="B257" s="275"/>
-      <c r="C257" s="182"/>
-      <c r="D257" s="182"/>
+      <c r="B257" s="272"/>
+      <c r="C257" s="242"/>
+      <c r="D257" s="242"/>
       <c r="E257" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F257" s="60"/>
+      <c r="G257" s="224"/>
+      <c r="H257" s="175"/>
+      <c r="I257" s="60"/>
+      <c r="J257" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F257" s="182"/>
-      <c r="G257" s="276"/>
-      <c r="H257" s="277"/>
-      <c r="I257" s="57"/>
-      <c r="J257" s="39">
+      <c r="K257" s="81"/>
+      <c r="L257" s="61"/>
+      <c r="M257" s="61"/>
+      <c r="N257" s="42">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K257" s="81"/>
-      <c r="L257" s="273"/>
-      <c r="M257" s="274"/>
-      <c r="N257" s="42">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O257" s="223"/>
@@ -54646,26 +54753,26 @@
     </row>
     <row r="258" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="204"/>
-      <c r="B258" s="275"/>
-      <c r="C258" s="182"/>
-      <c r="D258" s="182"/>
+      <c r="B258" s="272"/>
+      <c r="C258" s="187"/>
+      <c r="D258" s="187"/>
       <c r="E258" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F258" s="60"/>
+      <c r="G258" s="224"/>
+      <c r="H258" s="175"/>
+      <c r="I258" s="60"/>
+      <c r="J258" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F258" s="182"/>
-      <c r="G258" s="276"/>
-      <c r="H258" s="277"/>
-      <c r="I258" s="57"/>
-      <c r="J258" s="39">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K258" s="81"/>
       <c r="L258" s="273"/>
       <c r="M258" s="274"/>
       <c r="N258" s="42">
-        <f t="shared" ref="N258:N277" si="13">K258*I258</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O258" s="223"/>
@@ -54679,11 +54786,11 @@
     </row>
     <row r="259" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="204"/>
-      <c r="B259" s="278"/>
+      <c r="B259" s="275"/>
       <c r="C259" s="182"/>
       <c r="D259" s="182"/>
       <c r="E259" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F259" s="182"/>
@@ -54691,18 +54798,18 @@
       <c r="H259" s="277"/>
       <c r="I259" s="57"/>
       <c r="J259" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K259" s="81"/>
       <c r="L259" s="273"/>
       <c r="M259" s="274"/>
       <c r="N259" s="42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O259" s="69"/>
-      <c r="P259" s="212"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O259" s="223"/>
+      <c r="P259" s="243"/>
       <c r="Q259" s="124"/>
       <c r="R259" s="125"/>
       <c r="S259" s="176"/>
@@ -54712,11 +54819,11 @@
     </row>
     <row r="260" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="204"/>
-      <c r="B260" s="278"/>
+      <c r="B260" s="275"/>
       <c r="C260" s="182"/>
       <c r="D260" s="182"/>
       <c r="E260" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F260" s="182"/>
@@ -54724,18 +54831,18 @@
       <c r="H260" s="277"/>
       <c r="I260" s="57"/>
       <c r="J260" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K260" s="81"/>
       <c r="L260" s="273"/>
       <c r="M260" s="274"/>
       <c r="N260" s="42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O260" s="69"/>
-      <c r="P260" s="212"/>
+        <f t="shared" ref="N260:N279" si="14">K260*I260</f>
+        <v>0</v>
+      </c>
+      <c r="O260" s="223"/>
+      <c r="P260" s="243"/>
       <c r="Q260" s="124"/>
       <c r="R260" s="125"/>
       <c r="S260" s="176"/>
@@ -54749,7 +54856,7 @@
       <c r="C261" s="182"/>
       <c r="D261" s="182"/>
       <c r="E261" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F261" s="182"/>
@@ -54757,14 +54864,14 @@
       <c r="H261" s="277"/>
       <c r="I261" s="57"/>
       <c r="J261" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K261" s="81"/>
       <c r="L261" s="273"/>
       <c r="M261" s="274"/>
       <c r="N261" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O261" s="69"/>
@@ -54776,32 +54883,32 @@
       <c r="U261" s="49"/>
       <c r="V261" s="50"/>
     </row>
-    <row r="262" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="204"/>
-      <c r="B262" s="203"/>
-      <c r="C262" s="279"/>
-      <c r="D262" s="280"/>
+      <c r="B262" s="278"/>
+      <c r="C262" s="182"/>
+      <c r="D262" s="182"/>
       <c r="E262" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F262" s="182"/>
+      <c r="G262" s="276"/>
+      <c r="H262" s="277"/>
+      <c r="I262" s="57"/>
+      <c r="J262" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F262" s="38"/>
-      <c r="G262" s="281"/>
-      <c r="H262" s="282"/>
-      <c r="I262" s="60"/>
-      <c r="J262" s="39">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K262" s="81"/>
       <c r="L262" s="273"/>
-      <c r="M262" s="283"/>
+      <c r="M262" s="274"/>
       <c r="N262" s="42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O262" s="223"/>
-      <c r="P262" s="243"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O262" s="69"/>
+      <c r="P262" s="212"/>
       <c r="Q262" s="124"/>
       <c r="R262" s="125"/>
       <c r="S262" s="176"/>
@@ -54809,32 +54916,32 @@
       <c r="U262" s="49"/>
       <c r="V262" s="50"/>
     </row>
-    <row r="263" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="204"/>
-      <c r="B263" s="203"/>
-      <c r="C263" s="279"/>
-      <c r="D263" s="279"/>
+      <c r="B263" s="278"/>
+      <c r="C263" s="182"/>
+      <c r="D263" s="182"/>
       <c r="E263" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F263" s="182"/>
+      <c r="G263" s="276"/>
+      <c r="H263" s="277"/>
+      <c r="I263" s="57"/>
+      <c r="J263" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F263" s="60"/>
-      <c r="G263" s="224"/>
-      <c r="H263" s="175"/>
-      <c r="I263" s="60"/>
-      <c r="J263" s="39">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K263" s="81"/>
       <c r="L263" s="273"/>
-      <c r="M263" s="283"/>
+      <c r="M263" s="274"/>
       <c r="N263" s="42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O263" s="223"/>
-      <c r="P263" s="243"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O263" s="69"/>
+      <c r="P263" s="212"/>
       <c r="Q263" s="124"/>
       <c r="R263" s="125"/>
       <c r="S263" s="176"/>
@@ -54846,24 +54953,24 @@
       <c r="A264" s="204"/>
       <c r="B264" s="203"/>
       <c r="C264" s="279"/>
-      <c r="D264" s="279"/>
+      <c r="D264" s="280"/>
       <c r="E264" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F264" s="60"/>
-      <c r="G264" s="224"/>
-      <c r="H264" s="175"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F264" s="38"/>
+      <c r="G264" s="281"/>
+      <c r="H264" s="282"/>
       <c r="I264" s="60"/>
       <c r="J264" s="39">
-        <f t="shared" ref="J264:J273" si="14">I264-F264</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K264" s="81"/>
       <c r="L264" s="273"/>
       <c r="M264" s="283"/>
       <c r="N264" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O264" s="223"/>
@@ -54878,10 +54985,10 @@
     <row r="265" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="204"/>
       <c r="B265" s="203"/>
-      <c r="C265" s="284"/>
-      <c r="D265" s="284"/>
+      <c r="C265" s="279"/>
+      <c r="D265" s="279"/>
       <c r="E265" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F265" s="60"/>
@@ -54889,14 +54996,14 @@
       <c r="H265" s="175"/>
       <c r="I265" s="60"/>
       <c r="J265" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K265" s="81"/>
       <c r="L265" s="273"/>
       <c r="M265" s="283"/>
       <c r="N265" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O265" s="223"/>
@@ -54908,75 +55015,71 @@
       <c r="U265" s="49"/>
       <c r="V265" s="50"/>
     </row>
-    <row r="266" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="285"/>
+    <row r="266" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="204"/>
       <c r="B266" s="203"/>
-      <c r="C266" s="203"/>
-      <c r="D266" s="203"/>
+      <c r="C266" s="279"/>
+      <c r="D266" s="279"/>
       <c r="E266" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F266" s="254"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F266" s="60"/>
       <c r="G266" s="224"/>
-      <c r="H266" s="255"/>
-      <c r="I266" s="254">
-        <v>0</v>
-      </c>
+      <c r="H266" s="175"/>
+      <c r="I266" s="60"/>
       <c r="J266" s="39">
+        <f t="shared" ref="J266:J275" si="15">I266-F266</f>
+        <v>0</v>
+      </c>
+      <c r="K266" s="81"/>
+      <c r="L266" s="273"/>
+      <c r="M266" s="283"/>
+      <c r="N266" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K266" s="286"/>
-      <c r="L266" s="286"/>
-      <c r="M266" s="286"/>
-      <c r="N266" s="42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O266" s="287"/>
+      <c r="O266" s="223"/>
       <c r="P266" s="243"/>
       <c r="Q266" s="124"/>
-      <c r="R266" s="288"/>
-      <c r="S266" s="289"/>
-      <c r="T266" s="290"/>
-      <c r="U266" s="259"/>
-      <c r="V266" s="263"/>
-    </row>
-    <row r="267" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="285"/>
+      <c r="R266" s="125"/>
+      <c r="S266" s="176"/>
+      <c r="T266" s="177"/>
+      <c r="U266" s="49"/>
+      <c r="V266" s="50"/>
+    </row>
+    <row r="267" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="204"/>
       <c r="B267" s="203"/>
-      <c r="C267" s="203"/>
-      <c r="D267" s="203"/>
+      <c r="C267" s="284"/>
+      <c r="D267" s="284"/>
       <c r="E267" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F267" s="254"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F267" s="60"/>
       <c r="G267" s="224"/>
-      <c r="H267" s="255"/>
-      <c r="I267" s="254">
-        <v>0</v>
-      </c>
+      <c r="H267" s="175"/>
+      <c r="I267" s="60"/>
       <c r="J267" s="39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K267" s="81"/>
+      <c r="L267" s="273"/>
+      <c r="M267" s="283"/>
+      <c r="N267" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K267" s="286"/>
-      <c r="L267" s="286"/>
-      <c r="M267" s="286"/>
-      <c r="N267" s="42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O267" s="287"/>
+      <c r="O267" s="223"/>
       <c r="P267" s="243"/>
       <c r="Q267" s="124"/>
-      <c r="R267" s="288"/>
-      <c r="S267" s="289"/>
-      <c r="T267" s="290"/>
-      <c r="U267" s="259"/>
-      <c r="V267" s="263"/>
+      <c r="R267" s="125"/>
+      <c r="S267" s="176"/>
+      <c r="T267" s="177"/>
+      <c r="U267" s="49"/>
+      <c r="V267" s="50"/>
     </row>
     <row r="268" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="285"/>
@@ -54984,7 +55087,7 @@
       <c r="C268" s="203"/>
       <c r="D268" s="203"/>
       <c r="E268" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F268" s="254"/>
@@ -54994,14 +55097,14 @@
         <v>0</v>
       </c>
       <c r="J268" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K268" s="286"/>
       <c r="L268" s="286"/>
       <c r="M268" s="286"/>
       <c r="N268" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O268" s="287"/>
@@ -55019,24 +55122,24 @@
       <c r="C269" s="203"/>
       <c r="D269" s="203"/>
       <c r="E269" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F269" s="254"/>
       <c r="G269" s="224"/>
-      <c r="H269" s="291"/>
+      <c r="H269" s="255"/>
       <c r="I269" s="254">
         <v>0</v>
       </c>
       <c r="J269" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K269" s="286"/>
       <c r="L269" s="286"/>
       <c r="M269" s="286"/>
       <c r="N269" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O269" s="287"/>
@@ -55049,29 +55152,29 @@
       <c r="V269" s="263"/>
     </row>
     <row r="270" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="292"/>
+      <c r="A270" s="285"/>
       <c r="B270" s="203"/>
       <c r="C270" s="203"/>
       <c r="D270" s="203"/>
       <c r="E270" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F270" s="254"/>
       <c r="G270" s="224"/>
-      <c r="H270" s="293"/>
+      <c r="H270" s="255"/>
       <c r="I270" s="254">
         <v>0</v>
       </c>
       <c r="J270" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K270" s="286"/>
       <c r="L270" s="286"/>
       <c r="M270" s="286"/>
       <c r="N270" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O270" s="287"/>
@@ -55080,64 +55183,73 @@
       <c r="R270" s="288"/>
       <c r="S270" s="289"/>
       <c r="T270" s="290"/>
-      <c r="U270" s="49"/>
-      <c r="V270" s="50"/>
+      <c r="U270" s="259"/>
+      <c r="V270" s="263"/>
     </row>
     <row r="271" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="294"/>
-      <c r="B271" s="295"/>
+      <c r="A271" s="285"/>
+      <c r="B271" s="203"/>
+      <c r="C271" s="203"/>
+      <c r="D271" s="203"/>
       <c r="E271" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H271" s="299"/>
-      <c r="I271" s="297">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F271" s="254"/>
+      <c r="G271" s="224"/>
+      <c r="H271" s="291"/>
+      <c r="I271" s="254">
         <v>0</v>
       </c>
       <c r="J271" s="39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K271" s="286"/>
+      <c r="L271" s="286"/>
+      <c r="M271" s="286"/>
+      <c r="N271" s="42">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K271" s="300"/>
-      <c r="L271" s="300"/>
-      <c r="M271" s="300"/>
-      <c r="N271" s="42">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O271" s="287"/>
       <c r="P271" s="243"/>
-      <c r="Q271" s="258"/>
+      <c r="Q271" s="124"/>
       <c r="R271" s="288"/>
       <c r="S271" s="289"/>
       <c r="T271" s="290"/>
-      <c r="U271" s="49"/>
-      <c r="V271" s="50"/>
+      <c r="U271" s="259"/>
+      <c r="V271" s="263"/>
     </row>
     <row r="272" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="294"/>
-      <c r="B272" s="295"/>
+      <c r="A272" s="292"/>
+      <c r="B272" s="203"/>
+      <c r="C272" s="203"/>
+      <c r="D272" s="203"/>
       <c r="E272" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I272" s="297">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F272" s="254"/>
+      <c r="G272" s="224"/>
+      <c r="H272" s="293"/>
+      <c r="I272" s="254">
         <v>0</v>
       </c>
       <c r="J272" s="39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K272" s="286"/>
+      <c r="L272" s="286"/>
+      <c r="M272" s="286"/>
+      <c r="N272" s="42">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K272" s="300"/>
-      <c r="L272" s="300"/>
-      <c r="M272" s="300"/>
-      <c r="N272" s="42">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O272" s="287"/>
       <c r="P272" s="243"/>
-      <c r="Q272" s="258"/>
+      <c r="Q272" s="124"/>
       <c r="R272" s="288"/>
       <c r="S272" s="289"/>
       <c r="T272" s="290"/>
@@ -55148,21 +55260,22 @@
       <c r="A273" s="294"/>
       <c r="B273" s="295"/>
       <c r="E273" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I273" s="302">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H273" s="299"/>
+      <c r="I273" s="297">
         <v>0</v>
       </c>
       <c r="J273" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K273" s="300"/>
       <c r="L273" s="300"/>
       <c r="M273" s="300"/>
       <c r="N273" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O273" s="287"/>
@@ -55174,273 +55287,315 @@
       <c r="U273" s="49"/>
       <c r="V273" s="50"/>
     </row>
-    <row r="274" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="294"/>
       <c r="B274" s="295"/>
-      <c r="E274" s="34" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F274" s="553" t="s">
-        <v>27</v>
-      </c>
-      <c r="G274" s="553"/>
-      <c r="H274" s="554"/>
-      <c r="I274" s="303">
-        <f>SUM(I4:I273)</f>
-        <v>428442.4</v>
-      </c>
-      <c r="J274" s="304"/>
+      <c r="E274" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I274" s="297">
+        <v>0</v>
+      </c>
+      <c r="J274" s="39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="K274" s="300"/>
-      <c r="L274" s="305"/>
+      <c r="L274" s="300"/>
       <c r="M274" s="300"/>
       <c r="N274" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O274" s="287"/>
       <c r="P274" s="243"/>
       <c r="Q274" s="258"/>
       <c r="R274" s="288"/>
-      <c r="S274" s="306"/>
-      <c r="T274" s="261"/>
-      <c r="U274" s="262"/>
+      <c r="S274" s="289"/>
+      <c r="T274" s="290"/>
+      <c r="U274" s="49"/>
       <c r="V274" s="50"/>
     </row>
-    <row r="275" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="307"/>
+    <row r="275" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="294"/>
       <c r="B275" s="295"/>
       <c r="E275" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I275" s="308"/>
-      <c r="J275" s="304"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I275" s="302">
+        <v>0</v>
+      </c>
+      <c r="J275" s="39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="K275" s="300"/>
-      <c r="L275" s="305"/>
+      <c r="L275" s="300"/>
       <c r="M275" s="300"/>
       <c r="N275" s="42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O275" s="309"/>
-      <c r="Q275" s="6"/>
-      <c r="R275" s="310"/>
-      <c r="S275" s="311"/>
-      <c r="T275" s="312"/>
-      <c r="V275" s="9"/>
-    </row>
-    <row r="276" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O275" s="287"/>
+      <c r="P275" s="243"/>
+      <c r="Q275" s="258"/>
+      <c r="R275" s="288"/>
+      <c r="S275" s="289"/>
+      <c r="T275" s="290"/>
+      <c r="U275" s="49"/>
+      <c r="V275" s="50"/>
+    </row>
+    <row r="276" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="294"/>
       <c r="B276" s="295"/>
-      <c r="E276" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J276" s="297"/>
+      <c r="E276" s="34" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F276" s="559" t="s">
+        <v>27</v>
+      </c>
+      <c r="G276" s="559"/>
+      <c r="H276" s="560"/>
+      <c r="I276" s="303">
+        <f>SUM(I4:I275)</f>
+        <v>446373.47000000003</v>
+      </c>
+      <c r="J276" s="304"/>
       <c r="K276" s="300"/>
-      <c r="L276" s="300"/>
+      <c r="L276" s="305"/>
       <c r="M276" s="300"/>
       <c r="N276" s="42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O276" s="309"/>
-      <c r="Q276" s="6"/>
-      <c r="R276" s="310"/>
-      <c r="S276" s="311"/>
-      <c r="T276" s="312"/>
-      <c r="V276" s="9"/>
-    </row>
-    <row r="277" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="294"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O276" s="287"/>
+      <c r="P276" s="243"/>
+      <c r="Q276" s="258"/>
+      <c r="R276" s="288"/>
+      <c r="S276" s="306"/>
+      <c r="T276" s="261"/>
+      <c r="U276" s="262"/>
+      <c r="V276" s="50"/>
+    </row>
+    <row r="277" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="307"/>
       <c r="B277" s="295"/>
       <c r="E277" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J277" s="297"/>
-      <c r="K277" s="314"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I277" s="308"/>
+      <c r="J277" s="304"/>
+      <c r="K277" s="300"/>
+      <c r="L277" s="305"/>
+      <c r="M277" s="300"/>
       <c r="N277" s="42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O277" s="315"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O277" s="309"/>
       <c r="Q277" s="6"/>
       <c r="R277" s="310"/>
       <c r="S277" s="311"/>
-      <c r="T277" s="316"/>
+      <c r="T277" s="312"/>
       <c r="V277" s="9"/>
     </row>
     <row r="278" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="294"/>
-      <c r="H278" s="318"/>
-      <c r="I278" s="319" t="s">
-        <v>28</v>
-      </c>
-      <c r="J278" s="320"/>
-      <c r="K278" s="320"/>
-      <c r="L278" s="321">
-        <f>SUM(L266:L277)</f>
-        <v>0</v>
-      </c>
-      <c r="M278" s="322"/>
-      <c r="N278" s="323">
-        <f>SUM(N4:N277)</f>
-        <v>13094038.046999998</v>
-      </c>
-      <c r="O278" s="324"/>
-      <c r="Q278" s="325">
-        <f>SUM(Q4:Q277)</f>
-        <v>0</v>
-      </c>
-      <c r="R278" s="256"/>
-      <c r="S278" s="326">
-        <f>SUM(S22:S277)</f>
-        <v>0</v>
-      </c>
-      <c r="T278" s="327"/>
-      <c r="U278" s="328"/>
-      <c r="V278" s="329">
-        <f>SUM(V266:V277)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B278" s="295"/>
+      <c r="E278" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J278" s="297"/>
+      <c r="K278" s="300"/>
+      <c r="L278" s="300"/>
+      <c r="M278" s="300"/>
+      <c r="N278" s="42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O278" s="309"/>
+      <c r="Q278" s="6"/>
+      <c r="R278" s="310"/>
+      <c r="S278" s="311"/>
+      <c r="T278" s="312"/>
+      <c r="V278" s="9"/>
+    </row>
+    <row r="279" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="294"/>
-      <c r="H279" s="318"/>
-      <c r="I279" s="330"/>
-      <c r="J279" s="331"/>
-      <c r="K279" s="332"/>
-      <c r="L279" s="332"/>
-      <c r="M279" s="332"/>
-      <c r="N279" s="333"/>
-      <c r="O279" s="324"/>
+      <c r="B279" s="295"/>
+      <c r="E279" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J279" s="297"/>
+      <c r="K279" s="314"/>
+      <c r="N279" s="42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O279" s="315"/>
+      <c r="Q279" s="6"/>
       <c r="R279" s="310"/>
-      <c r="S279" s="334"/>
-      <c r="U279" s="336"/>
-      <c r="V279"/>
-    </row>
-    <row r="280" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S279" s="311"/>
+      <c r="T279" s="316"/>
+      <c r="V279" s="9"/>
+    </row>
+    <row r="280" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="294"/>
       <c r="H280" s="318"/>
-      <c r="I280" s="330"/>
-      <c r="J280" s="331"/>
-      <c r="K280" s="332"/>
-      <c r="L280" s="332"/>
-      <c r="M280" s="332"/>
-      <c r="N280" s="333"/>
+      <c r="I280" s="319" t="s">
+        <v>28</v>
+      </c>
+      <c r="J280" s="320"/>
+      <c r="K280" s="320"/>
+      <c r="L280" s="321">
+        <f>SUM(L268:L279)</f>
+        <v>0</v>
+      </c>
+      <c r="M280" s="322"/>
+      <c r="N280" s="323">
+        <f>SUM(N4:N279)</f>
+        <v>13524383.726999998</v>
+      </c>
       <c r="O280" s="324"/>
-      <c r="R280" s="310"/>
-      <c r="S280" s="334"/>
-      <c r="U280" s="336"/>
-      <c r="V280"/>
-    </row>
-    <row r="281" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q280" s="325">
+        <f>SUM(Q4:Q279)</f>
+        <v>0</v>
+      </c>
+      <c r="R280" s="256"/>
+      <c r="S280" s="326">
+        <f>SUM(S22:S279)</f>
+        <v>0</v>
+      </c>
+      <c r="T280" s="327"/>
+      <c r="U280" s="328"/>
+      <c r="V280" s="329">
+        <f>SUM(V268:V279)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A281" s="294"/>
-      <c r="I281" s="337" t="s">
-        <v>29</v>
-      </c>
-      <c r="J281" s="338"/>
-      <c r="K281" s="338"/>
-      <c r="L281" s="339"/>
-      <c r="M281" s="339"/>
-      <c r="N281" s="340">
-        <f>V278+S278+Q278+N278+L278</f>
-        <v>13094038.046999998</v>
-      </c>
-      <c r="O281" s="341"/>
+      <c r="H281" s="318"/>
+      <c r="I281" s="330"/>
+      <c r="J281" s="331"/>
+      <c r="K281" s="332"/>
+      <c r="L281" s="332"/>
+      <c r="M281" s="332"/>
+      <c r="N281" s="333"/>
+      <c r="O281" s="324"/>
       <c r="R281" s="310"/>
       <c r="S281" s="334"/>
       <c r="U281" s="336"/>
       <c r="V281"/>
     </row>
-    <row r="282" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="342"/>
-      <c r="I282" s="343"/>
-      <c r="J282" s="344"/>
-      <c r="K282" s="344"/>
-      <c r="L282" s="345"/>
-      <c r="M282" s="345"/>
-      <c r="N282" s="346"/>
-      <c r="O282" s="347"/>
+    <row r="282" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="294"/>
+      <c r="H282" s="318"/>
+      <c r="I282" s="330"/>
+      <c r="J282" s="331"/>
+      <c r="K282" s="332"/>
+      <c r="L282" s="332"/>
+      <c r="M282" s="332"/>
+      <c r="N282" s="333"/>
+      <c r="O282" s="324"/>
       <c r="R282" s="310"/>
       <c r="S282" s="334"/>
       <c r="U282" s="336"/>
       <c r="V282"/>
     </row>
-    <row r="283" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="342"/>
-      <c r="I283" s="330"/>
-      <c r="J283" s="331"/>
-      <c r="K283" s="332"/>
-      <c r="L283" s="332"/>
-      <c r="M283" s="332"/>
-      <c r="N283" s="333"/>
-      <c r="O283" s="324"/>
+    <row r="283" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="294"/>
+      <c r="I283" s="337" t="s">
+        <v>29</v>
+      </c>
+      <c r="J283" s="338"/>
+      <c r="K283" s="338"/>
+      <c r="L283" s="339"/>
+      <c r="M283" s="339"/>
+      <c r="N283" s="340">
+        <f>V280+S280+Q280+N280+L280</f>
+        <v>13524383.726999998</v>
+      </c>
+      <c r="O283" s="341"/>
       <c r="R283" s="310"/>
       <c r="S283" s="334"/>
       <c r="U283" s="336"/>
       <c r="V283"/>
     </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A284" s="294"/>
-      <c r="I284" s="330"/>
-      <c r="J284" s="331"/>
-      <c r="K284" s="332"/>
-      <c r="L284" s="332"/>
-      <c r="M284" s="332"/>
-      <c r="N284" s="333"/>
-      <c r="O284" s="324"/>
+    <row r="284" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="342"/>
+      <c r="I284" s="343"/>
+      <c r="J284" s="344"/>
+      <c r="K284" s="344"/>
+      <c r="L284" s="345"/>
+      <c r="M284" s="345"/>
+      <c r="N284" s="346"/>
+      <c r="O284" s="347"/>
       <c r="R284" s="310"/>
       <c r="S284" s="334"/>
       <c r="U284" s="336"/>
       <c r="V284"/>
     </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A285" s="294"/>
+    <row r="285" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="342"/>
       <c r="I285" s="330"/>
-      <c r="J285" s="348"/>
+      <c r="J285" s="331"/>
       <c r="K285" s="332"/>
       <c r="L285" s="332"/>
       <c r="M285" s="332"/>
       <c r="N285" s="333"/>
-      <c r="O285" s="349"/>
+      <c r="O285" s="324"/>
       <c r="R285" s="310"/>
       <c r="S285" s="334"/>
       <c r="U285" s="336"/>
       <c r="V285"/>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A286" s="342"/>
+      <c r="A286" s="294"/>
+      <c r="I286" s="330"/>
+      <c r="J286" s="331"/>
+      <c r="K286" s="332"/>
+      <c r="L286" s="332"/>
+      <c r="M286" s="332"/>
       <c r="N286" s="333"/>
-      <c r="O286" s="351"/>
+      <c r="O286" s="324"/>
       <c r="R286" s="310"/>
       <c r="S286" s="334"/>
       <c r="U286" s="336"/>
       <c r="V286"/>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A287" s="342"/>
-      <c r="O287" s="351"/>
+      <c r="A287" s="294"/>
+      <c r="I287" s="330"/>
+      <c r="J287" s="348"/>
+      <c r="K287" s="332"/>
+      <c r="L287" s="332"/>
+      <c r="M287" s="332"/>
+      <c r="N287" s="333"/>
+      <c r="O287" s="349"/>
+      <c r="R287" s="310"/>
       <c r="S287" s="334"/>
       <c r="U287" s="336"/>
       <c r="V287"/>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A288" s="294"/>
-      <c r="B288" s="295"/>
+      <c r="A288" s="342"/>
       <c r="N288" s="333"/>
-      <c r="O288" s="324"/>
+      <c r="O288" s="351"/>
+      <c r="R288" s="310"/>
       <c r="S288" s="334"/>
       <c r="U288" s="336"/>
       <c r="V288"/>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A289" s="342"/>
-      <c r="B289" s="295"/>
-      <c r="N289" s="333"/>
-      <c r="O289" s="324"/>
+      <c r="O289" s="351"/>
       <c r="S289" s="334"/>
       <c r="U289" s="336"/>
       <c r="V289"/>
@@ -55448,11 +55603,6 @@
     <row r="290" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A290" s="294"/>
       <c r="B290" s="295"/>
-      <c r="I290" s="330"/>
-      <c r="J290" s="331"/>
-      <c r="K290" s="332"/>
-      <c r="L290" s="332"/>
-      <c r="M290" s="332"/>
       <c r="N290" s="333"/>
       <c r="O290" s="324"/>
       <c r="S290" s="334"/>
@@ -55462,11 +55612,6 @@
     <row r="291" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A291" s="342"/>
       <c r="B291" s="295"/>
-      <c r="I291" s="330"/>
-      <c r="J291" s="331"/>
-      <c r="K291" s="332"/>
-      <c r="L291" s="332"/>
-      <c r="M291" s="332"/>
       <c r="N291" s="333"/>
       <c r="O291" s="324"/>
       <c r="S291" s="334"/>
@@ -55476,9 +55621,11 @@
     <row r="292" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A292" s="294"/>
       <c r="B292" s="295"/>
-      <c r="I292" s="352"/>
-      <c r="J292" s="328"/>
-      <c r="K292" s="328"/>
+      <c r="I292" s="330"/>
+      <c r="J292" s="331"/>
+      <c r="K292" s="332"/>
+      <c r="L292" s="332"/>
+      <c r="M292" s="332"/>
       <c r="N292" s="333"/>
       <c r="O292" s="324"/>
       <c r="S292" s="334"/>
@@ -55487,58 +55634,44 @@
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A293" s="342"/>
+      <c r="B293" s="295"/>
+      <c r="I293" s="330"/>
+      <c r="J293" s="331"/>
+      <c r="K293" s="332"/>
+      <c r="L293" s="332"/>
+      <c r="M293" s="332"/>
+      <c r="N293" s="333"/>
+      <c r="O293" s="324"/>
       <c r="S293" s="334"/>
       <c r="U293" s="336"/>
       <c r="V293"/>
     </row>
     <row r="294" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A294" s="294"/>
+      <c r="B294" s="295"/>
+      <c r="I294" s="352"/>
+      <c r="J294" s="328"/>
+      <c r="K294" s="328"/>
+      <c r="N294" s="333"/>
+      <c r="O294" s="324"/>
       <c r="S294" s="334"/>
       <c r="U294" s="336"/>
       <c r="V294"/>
     </row>
     <row r="295" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A295" s="294"/>
-      <c r="B295" s="354"/>
-      <c r="C295" s="354"/>
-      <c r="D295" s="354"/>
-      <c r="E295" s="355"/>
-      <c r="F295" s="356"/>
-      <c r="G295" s="357"/>
-      <c r="H295" s="358"/>
-      <c r="I295" s="359"/>
-      <c r="J295"/>
-      <c r="K295"/>
-      <c r="L295"/>
-      <c r="M295"/>
-      <c r="P295" s="360"/>
-      <c r="Q295" s="334"/>
+      <c r="A295" s="342"/>
       <c r="S295" s="334"/>
       <c r="U295" s="336"/>
       <c r="V295"/>
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A296" s="342"/>
-      <c r="B296" s="354"/>
-      <c r="C296" s="354"/>
-      <c r="D296" s="354"/>
-      <c r="E296" s="355"/>
-      <c r="F296" s="356"/>
-      <c r="G296" s="357"/>
-      <c r="H296" s="358"/>
-      <c r="I296" s="359"/>
-      <c r="J296"/>
-      <c r="K296"/>
-      <c r="L296"/>
-      <c r="M296"/>
-      <c r="P296" s="360"/>
-      <c r="Q296" s="334"/>
+      <c r="A296" s="294"/>
       <c r="S296" s="334"/>
       <c r="U296" s="336"/>
       <c r="V296"/>
     </row>
     <row r="297" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A297" s="342"/>
+      <c r="A297" s="294"/>
       <c r="B297" s="354"/>
       <c r="C297" s="354"/>
       <c r="D297" s="354"/>
@@ -55578,7 +55711,7 @@
       <c r="V298"/>
     </row>
     <row r="299" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A299" s="361"/>
+      <c r="A299" s="342"/>
       <c r="B299" s="354"/>
       <c r="C299" s="354"/>
       <c r="D299" s="354"/>
@@ -55598,7 +55731,7 @@
       <c r="V299"/>
     </row>
     <row r="300" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A300" s="307"/>
+      <c r="A300" s="342"/>
       <c r="B300" s="354"/>
       <c r="C300" s="354"/>
       <c r="D300" s="354"/>
@@ -55618,7 +55751,7 @@
       <c r="V300"/>
     </row>
     <row r="301" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A301" s="294"/>
+      <c r="A301" s="361"/>
       <c r="B301" s="354"/>
       <c r="C301" s="354"/>
       <c r="D301" s="354"/>
@@ -55638,7 +55771,7 @@
       <c r="V301"/>
     </row>
     <row r="302" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A302" s="294"/>
+      <c r="A302" s="307"/>
       <c r="B302" s="354"/>
       <c r="C302" s="354"/>
       <c r="D302" s="354"/>
@@ -55757,18 +55890,58 @@
       <c r="U307" s="336"/>
       <c r="V307"/>
     </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A308" s="294"/>
+      <c r="B308" s="354"/>
+      <c r="C308" s="354"/>
+      <c r="D308" s="354"/>
+      <c r="E308" s="355"/>
+      <c r="F308" s="356"/>
+      <c r="G308" s="357"/>
+      <c r="H308" s="358"/>
+      <c r="I308" s="359"/>
+      <c r="J308"/>
+      <c r="K308"/>
+      <c r="L308"/>
+      <c r="M308"/>
+      <c r="P308" s="360"/>
+      <c r="Q308" s="334"/>
+      <c r="S308" s="334"/>
+      <c r="U308" s="336"/>
+      <c r="V308"/>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A309" s="294"/>
+      <c r="B309" s="354"/>
+      <c r="C309" s="354"/>
+      <c r="D309" s="354"/>
+      <c r="E309" s="355"/>
+      <c r="F309" s="356"/>
+      <c r="G309" s="357"/>
+      <c r="H309" s="358"/>
+      <c r="I309" s="359"/>
+      <c r="J309"/>
+      <c r="K309"/>
+      <c r="L309"/>
+      <c r="M309"/>
+      <c r="P309" s="360"/>
+      <c r="Q309" s="334"/>
+      <c r="S309" s="334"/>
+      <c r="U309" s="336"/>
+      <c r="V309"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L104:M105"/>
+    <mergeCell ref="O111:O112"/>
+    <mergeCell ref="P111:P112"/>
+    <mergeCell ref="F276:H276"/>
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="L102:M103"/>
-    <mergeCell ref="O109:O110"/>
-    <mergeCell ref="P109:P110"/>
-    <mergeCell ref="F274:H274"/>
-    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="P89:P90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -55782,7 +55955,7 @@
   </sheetPr>
   <dimension ref="A1:X307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -55813,49 +55986,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="555" t="s">
+      <c r="A1" s="561" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="555"/>
-      <c r="C1" s="555"/>
-      <c r="D1" s="555"/>
-      <c r="E1" s="555"/>
-      <c r="F1" s="555"/>
-      <c r="G1" s="555"/>
-      <c r="H1" s="555"/>
-      <c r="I1" s="555"/>
-      <c r="J1" s="555"/>
+      <c r="B1" s="561"/>
+      <c r="C1" s="561"/>
+      <c r="D1" s="561"/>
+      <c r="E1" s="561"/>
+      <c r="F1" s="561"/>
+      <c r="G1" s="561"/>
+      <c r="H1" s="561"/>
+      <c r="I1" s="561"/>
+      <c r="J1" s="561"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="556" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="556"/>
+      <c r="S1" s="562" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="562"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="558" t="s">
+      <c r="W1" s="564" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="559"/>
+      <c r="X1" s="565"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="555"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="555"/>
-      <c r="D2" s="555"/>
-      <c r="E2" s="555"/>
-      <c r="F2" s="555"/>
-      <c r="G2" s="555"/>
-      <c r="H2" s="555"/>
-      <c r="I2" s="555"/>
-      <c r="J2" s="555"/>
+      <c r="A2" s="561"/>
+      <c r="B2" s="561"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="561"/>
+      <c r="E2" s="561"/>
+      <c r="F2" s="561"/>
+      <c r="G2" s="561"/>
+      <c r="H2" s="561"/>
+      <c r="I2" s="561"/>
+      <c r="J2" s="561"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -55863,8 +56036,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="557"/>
-      <c r="T2" s="557"/>
+      <c r="S2" s="563"/>
+      <c r="T2" s="563"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -55909,10 +56082,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="560" t="s">
+      <c r="O3" s="566" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="561"/>
+      <c r="P3" s="567"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -55957,7 +56130,7 @@
       <c r="G4" s="501">
         <v>45079</v>
       </c>
-      <c r="H4" s="645"/>
+      <c r="H4" s="553"/>
       <c r="I4" s="503">
         <v>25970</v>
       </c>
@@ -55972,7 +56145,7 @@
         <f>K4*I4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="647"/>
+      <c r="O4" s="555"/>
       <c r="P4" s="471"/>
       <c r="Q4" s="45"/>
       <c r="R4" s="46"/>
@@ -56015,8 +56188,8 @@
       <c r="K5" s="40">
         <v>46</v>
       </c>
-      <c r="L5" s="646"/>
-      <c r="M5" s="646"/>
+      <c r="L5" s="554"/>
+      <c r="M5" s="554"/>
       <c r="N5" s="42">
         <f>K5*I5</f>
         <v>912594</v>
@@ -56089,7 +56262,7 @@
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
       <c r="E7" s="34">
-        <f t="shared" ref="E5:E58" si="0">D7*F7</f>
+        <f t="shared" ref="E7:E58" si="0">D7*F7</f>
         <v>0</v>
       </c>
       <c r="F7" s="504"/>
@@ -56097,7 +56270,7 @@
       <c r="H7" s="506"/>
       <c r="I7" s="491"/>
       <c r="J7" s="39">
-        <f t="shared" ref="J4:J135" si="1">I7-F7</f>
+        <f t="shared" ref="J7:J135" si="1">I7-F7</f>
         <v>0</v>
       </c>
       <c r="K7" s="40"/>
@@ -56211,7 +56384,7 @@
       <c r="L10" s="61"/>
       <c r="M10" s="61"/>
       <c r="N10" s="42">
-        <f t="shared" ref="N4:N129" si="3">K10*I10</f>
+        <f t="shared" ref="N10:N129" si="3">K10*I10</f>
         <v>0</v>
       </c>
       <c r="O10" s="474"/>
@@ -58822,8 +58995,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O87" s="564"/>
-      <c r="P87" s="622"/>
+      <c r="O87" s="570"/>
+      <c r="P87" s="628"/>
       <c r="Q87" s="158"/>
       <c r="R87" s="125"/>
       <c r="S87" s="176"/>
@@ -58852,8 +59025,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O88" s="565"/>
-      <c r="P88" s="623"/>
+      <c r="O88" s="571"/>
+      <c r="P88" s="629"/>
       <c r="Q88" s="158"/>
       <c r="R88" s="125"/>
       <c r="S88" s="176"/>
@@ -59284,8 +59457,8 @@
         <v>0</v>
       </c>
       <c r="K102" s="81"/>
-      <c r="L102" s="562"/>
-      <c r="M102" s="563"/>
+      <c r="L102" s="568"/>
+      <c r="M102" s="569"/>
       <c r="N102" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -59317,8 +59490,8 @@
         <v>0</v>
       </c>
       <c r="K103" s="81"/>
-      <c r="L103" s="562"/>
-      <c r="M103" s="563"/>
+      <c r="L103" s="568"/>
+      <c r="M103" s="569"/>
       <c r="N103" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -59521,8 +59694,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O109" s="564"/>
-      <c r="P109" s="566"/>
+      <c r="O109" s="570"/>
+      <c r="P109" s="572"/>
       <c r="Q109" s="158"/>
       <c r="R109" s="125"/>
       <c r="S109" s="176"/>
@@ -59554,8 +59727,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O110" s="565"/>
-      <c r="P110" s="567"/>
+      <c r="O110" s="571"/>
+      <c r="P110" s="573"/>
       <c r="Q110" s="158"/>
       <c r="R110" s="125"/>
       <c r="S110" s="176"/>
@@ -64947,11 +65120,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F274" s="553" t="s">
+      <c r="F274" s="559" t="s">
         <v>27</v>
       </c>
-      <c r="G274" s="553"/>
-      <c r="H274" s="554"/>
+      <c r="G274" s="559"/>
+      <c r="H274" s="560"/>
       <c r="I274" s="303">
         <f>SUM(I4:I273)</f>
         <v>67869</v>
@@ -65528,16 +65701,16 @@
     <sortCondition ref="G4:G6"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="L102:M103"/>
+    <mergeCell ref="O109:O110"/>
+    <mergeCell ref="P109:P110"/>
+    <mergeCell ref="F274:H274"/>
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O87:O88"/>
     <mergeCell ref="P87:P88"/>
-    <mergeCell ref="L102:M103"/>
-    <mergeCell ref="O109:O110"/>
-    <mergeCell ref="P109:P110"/>
-    <mergeCell ref="F274:H274"/>
-    <mergeCell ref="A1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/ENTRADAS  OBRADOR   JUNIO      2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/ENTRADAS  OBRADOR   JUNIO      2023.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="354">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -1116,6 +1116,9 @@
   </si>
   <si>
     <t>A-1402</t>
+  </si>
+  <si>
+    <t>V05-2757</t>
   </si>
 </sst>
 </file>
@@ -4667,10 +4670,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -56101,10 +56104,10 @@
   <dimension ref="A1:X308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="K58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="I55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O64" sqref="O64"/>
+      <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -56491,7 +56494,9 @@
       <c r="G8" s="376">
         <v>45088</v>
       </c>
-      <c r="H8" s="506"/>
+      <c r="H8" s="506">
+        <v>42585</v>
+      </c>
       <c r="I8" s="491">
         <v>10800</v>
       </c>
@@ -56508,8 +56513,12 @@
         <f t="shared" ref="N8:N10" si="3">K8*I8</f>
         <v>503280</v>
       </c>
-      <c r="O8" s="472"/>
-      <c r="P8" s="473"/>
+      <c r="O8" s="472" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="473">
+        <v>45103</v>
+      </c>
       <c r="Q8" s="64"/>
       <c r="R8" s="65"/>
       <c r="S8" s="47"/>
@@ -56538,7 +56547,9 @@
       <c r="G9" s="376">
         <v>45089</v>
       </c>
-      <c r="H9" s="506"/>
+      <c r="H9" s="506">
+        <v>42604</v>
+      </c>
       <c r="I9" s="491">
         <v>9400</v>
       </c>
@@ -56555,8 +56566,12 @@
         <f t="shared" si="3"/>
         <v>438040</v>
       </c>
-      <c r="O9" s="508"/>
-      <c r="P9" s="473"/>
+      <c r="O9" s="508" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="473">
+        <v>45103</v>
+      </c>
       <c r="Q9" s="64"/>
       <c r="R9" s="65"/>
       <c r="S9" s="47"/>
@@ -56616,28 +56631,40 @@
       <c r="X10" s="52"/>
     </row>
     <row r="11" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>70</v>
+      </c>
       <c r="C11" s="67"/>
       <c r="D11" s="56"/>
       <c r="E11" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="504"/>
-      <c r="G11" s="376"/>
+      <c r="F11" s="504">
+        <v>10780</v>
+      </c>
+      <c r="G11" s="376">
+        <v>45093</v>
+      </c>
       <c r="H11" s="506"/>
-      <c r="I11" s="491"/>
+      <c r="I11" s="491">
+        <v>10780</v>
+      </c>
       <c r="J11" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="40">
+        <v>48</v>
+      </c>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="42">
         <f t="shared" ref="N11:N130" si="4">K11*I11</f>
-        <v>0</v>
+        <v>517440</v>
       </c>
       <c r="O11" s="474"/>
       <c r="P11" s="475"/>
@@ -56653,28 +56680,40 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="76"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>71</v>
+      </c>
       <c r="C12" s="67"/>
       <c r="D12" s="56"/>
       <c r="E12" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="504"/>
-      <c r="G12" s="376"/>
+      <c r="F12" s="504">
+        <v>10420</v>
+      </c>
+      <c r="G12" s="376">
+        <v>45095</v>
+      </c>
       <c r="H12" s="506"/>
-      <c r="I12" s="491"/>
+      <c r="I12" s="491">
+        <v>10420</v>
+      </c>
       <c r="J12" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
+      <c r="K12" s="40">
+        <v>48</v>
+      </c>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>500160</v>
       </c>
       <c r="O12" s="474"/>
       <c r="P12" s="475"/>
@@ -56688,28 +56727,40 @@
       <c r="X12" s="52"/>
     </row>
     <row r="13" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>70</v>
+      </c>
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
       <c r="E13" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="504"/>
-      <c r="G13" s="376"/>
+      <c r="F13" s="504">
+        <v>11320</v>
+      </c>
+      <c r="G13" s="376">
+        <v>45096</v>
+      </c>
       <c r="H13" s="453"/>
-      <c r="I13" s="491"/>
+      <c r="I13" s="491">
+        <v>11320</v>
+      </c>
       <c r="J13" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40">
+        <v>48</v>
+      </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>543360</v>
       </c>
       <c r="O13" s="476"/>
       <c r="P13" s="475"/>
@@ -56725,28 +56776,40 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>347</v>
+      </c>
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
       <c r="E14" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="504"/>
-      <c r="G14" s="376"/>
+      <c r="F14" s="504">
+        <v>13340</v>
+      </c>
+      <c r="G14" s="376">
+        <v>45097</v>
+      </c>
       <c r="H14" s="453"/>
-      <c r="I14" s="491"/>
+      <c r="I14" s="491">
+        <v>13340</v>
+      </c>
       <c r="J14" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="40"/>
+      <c r="K14" s="40">
+        <v>48</v>
+      </c>
       <c r="L14" s="61"/>
       <c r="M14" s="61"/>
       <c r="N14" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>640320</v>
       </c>
       <c r="O14" s="476"/>
       <c r="P14" s="475"/>
@@ -56760,28 +56823,40 @@
       <c r="X14" s="52"/>
     </row>
     <row r="15" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>70</v>
+      </c>
       <c r="C15" s="55"/>
       <c r="D15" s="73"/>
       <c r="E15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="504"/>
-      <c r="G15" s="376"/>
+      <c r="F15" s="504">
+        <v>10670</v>
+      </c>
+      <c r="G15" s="376">
+        <v>45098</v>
+      </c>
       <c r="H15" s="507"/>
-      <c r="I15" s="491"/>
+      <c r="I15" s="491">
+        <v>10670</v>
+      </c>
       <c r="J15" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="40"/>
+      <c r="K15" s="40">
+        <v>48</v>
+      </c>
       <c r="L15" s="61"/>
       <c r="M15" s="61"/>
       <c r="N15" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>512160</v>
       </c>
       <c r="O15" s="476"/>
       <c r="P15" s="477"/>
@@ -56797,28 +56872,40 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="76"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>71</v>
+      </c>
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
       <c r="E16" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="504"/>
-      <c r="G16" s="376"/>
+      <c r="F16" s="504">
+        <v>13770</v>
+      </c>
+      <c r="G16" s="376">
+        <v>45099</v>
+      </c>
       <c r="H16" s="453"/>
-      <c r="I16" s="491"/>
+      <c r="I16" s="491">
+        <v>13770</v>
+      </c>
       <c r="J16" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="40"/>
+      <c r="K16" s="40">
+        <v>48</v>
+      </c>
       <c r="L16" s="61"/>
       <c r="M16" s="61"/>
       <c r="N16" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>660960</v>
       </c>
       <c r="O16" s="476"/>
       <c r="P16" s="477"/>
@@ -58474,7 +58561,7 @@
       <c r="O62" s="667" t="s">
         <v>64</v>
       </c>
-      <c r="P62" s="668">
+      <c r="P62" s="669">
         <v>45100</v>
       </c>
       <c r="Q62" s="543"/>
@@ -58513,7 +58600,7 @@
         <f t="shared" si="4"/>
         <v>10243.199999999999</v>
       </c>
-      <c r="O63" s="669"/>
+      <c r="O63" s="668"/>
       <c r="P63" s="670"/>
       <c r="Q63" s="166"/>
       <c r="R63" s="125"/>
@@ -58617,28 +58704,44 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="110"/>
+      <c r="A67" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B67" s="386"/>
       <c r="C67" s="536"/>
       <c r="D67" s="160"/>
       <c r="E67" s="56"/>
-      <c r="F67" s="155"/>
-      <c r="G67" s="156"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="155"/>
+      <c r="F67" s="155">
+        <v>240</v>
+      </c>
+      <c r="G67" s="156">
+        <v>45096</v>
+      </c>
+      <c r="H67" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="I67" s="155">
+        <v>240</v>
+      </c>
       <c r="J67" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K67" s="462"/>
+      <c r="K67" s="462">
+        <v>275</v>
+      </c>
       <c r="L67" s="463"/>
       <c r="M67" s="463"/>
       <c r="N67" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="537"/>
-      <c r="P67" s="58"/>
+        <v>66000</v>
+      </c>
+      <c r="O67" s="537" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" s="58">
+        <v>45103</v>
+      </c>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="48"/>
@@ -65399,7 +65502,7 @@
       <c r="H275" s="570"/>
       <c r="I275" s="303">
         <f>SUM(I4:I274)</f>
-        <v>99983.6</v>
+        <v>170523.6</v>
       </c>
       <c r="J275" s="304"/>
       <c r="K275" s="300"/>
@@ -65498,7 +65601,7 @@
       <c r="M279" s="322"/>
       <c r="N279" s="323">
         <f>SUM(N4:N278)</f>
-        <v>4619757.6000000006</v>
+        <v>8060157.6000000006</v>
       </c>
       <c r="O279" s="324"/>
       <c r="Q279" s="325">
@@ -65558,7 +65661,7 @@
       <c r="M282" s="339"/>
       <c r="N282" s="340">
         <f>V279+S279+Q279+N279+L279</f>
-        <v>4619757.6000000006</v>
+        <v>8060157.6000000006</v>
       </c>
       <c r="O282" s="341"/>
       <c r="R282" s="310"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/ENTRADAS  OBRADOR   JUNIO      2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/ENTRADAS  OBRADOR   JUNIO      2023.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="354">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -1112,13 +1112,13 @@
     <t>A-1386</t>
   </si>
   <si>
-    <t>CABEZA</t>
-  </si>
-  <si>
     <t>A-1402</t>
   </si>
   <si>
     <t>V05-2757</t>
+  </si>
+  <si>
+    <t>CANALES  149</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="82">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -2731,32 +2731,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2783,7 +2757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="671">
+  <cellXfs count="662">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4345,33 +4319,14 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4647,12 +4602,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5009,49 +4958,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="571" t="s">
+      <c r="A1" s="564" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="571"/>
-      <c r="C1" s="571"/>
-      <c r="D1" s="571"/>
-      <c r="E1" s="571"/>
-      <c r="F1" s="571"/>
-      <c r="G1" s="571"/>
-      <c r="H1" s="571"/>
-      <c r="I1" s="571"/>
-      <c r="J1" s="571"/>
+      <c r="B1" s="564"/>
+      <c r="C1" s="564"/>
+      <c r="D1" s="564"/>
+      <c r="E1" s="564"/>
+      <c r="F1" s="564"/>
+      <c r="G1" s="564"/>
+      <c r="H1" s="564"/>
+      <c r="I1" s="564"/>
+      <c r="J1" s="564"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="572" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="572"/>
+      <c r="S1" s="565" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="565"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="574" t="s">
+      <c r="W1" s="567" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="575"/>
+      <c r="X1" s="568"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="571"/>
-      <c r="B2" s="571"/>
-      <c r="C2" s="571"/>
-      <c r="D2" s="571"/>
-      <c r="E2" s="571"/>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="571"/>
-      <c r="J2" s="571"/>
+      <c r="A2" s="564"/>
+      <c r="B2" s="564"/>
+      <c r="C2" s="564"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="564"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -5059,8 +5008,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="573"/>
-      <c r="T2" s="573"/>
+      <c r="S2" s="566"/>
+      <c r="T2" s="566"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -5105,10 +5054,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="576" t="s">
+      <c r="O3" s="569" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="577"/>
+      <c r="P3" s="570"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -8429,8 +8378,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="578"/>
-      <c r="M90" s="579"/>
+      <c r="L90" s="571"/>
+      <c r="M90" s="572"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8462,8 +8411,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="578"/>
-      <c r="M91" s="579"/>
+      <c r="L91" s="571"/>
+      <c r="M91" s="572"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8666,8 +8615,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="580"/>
-      <c r="P97" s="582"/>
+      <c r="O97" s="573"/>
+      <c r="P97" s="575"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -8699,8 +8648,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="581"/>
-      <c r="P98" s="583"/>
+      <c r="O98" s="574"/>
+      <c r="P98" s="576"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -14092,11 +14041,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="569" t="s">
+      <c r="F262" s="562" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="569"/>
-      <c r="H262" s="570"/>
+      <c r="G262" s="562"/>
+      <c r="H262" s="563"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -14722,49 +14671,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="571" t="s">
+      <c r="A1" s="564" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="571"/>
-      <c r="C1" s="571"/>
-      <c r="D1" s="571"/>
-      <c r="E1" s="571"/>
-      <c r="F1" s="571"/>
-      <c r="G1" s="571"/>
-      <c r="H1" s="571"/>
-      <c r="I1" s="571"/>
-      <c r="J1" s="571"/>
+      <c r="B1" s="564"/>
+      <c r="C1" s="564"/>
+      <c r="D1" s="564"/>
+      <c r="E1" s="564"/>
+      <c r="F1" s="564"/>
+      <c r="G1" s="564"/>
+      <c r="H1" s="564"/>
+      <c r="I1" s="564"/>
+      <c r="J1" s="564"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="572" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="572"/>
+      <c r="S1" s="565" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="565"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="574" t="s">
+      <c r="W1" s="567" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="575"/>
+      <c r="X1" s="568"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="571"/>
-      <c r="B2" s="571"/>
-      <c r="C2" s="571"/>
-      <c r="D2" s="571"/>
-      <c r="E2" s="571"/>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="571"/>
-      <c r="J2" s="571"/>
+      <c r="A2" s="564"/>
+      <c r="B2" s="564"/>
+      <c r="C2" s="564"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="564"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -14772,8 +14721,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="573"/>
-      <c r="T2" s="573"/>
+      <c r="S2" s="566"/>
+      <c r="T2" s="566"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -14818,10 +14767,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="576" t="s">
+      <c r="O3" s="569" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="577"/>
+      <c r="P3" s="570"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -17154,13 +17103,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="626" t="s">
+      <c r="A59" s="619" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="628" t="s">
+      <c r="C59" s="621" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -17168,10 +17117,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="630">
+      <c r="G59" s="623">
         <v>44981</v>
       </c>
-      <c r="H59" s="632" t="s">
+      <c r="H59" s="625" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -17190,10 +17139,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="634" t="s">
+      <c r="O59" s="627" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="624">
+      <c r="P59" s="617">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -17204,18 +17153,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="627"/>
+      <c r="A60" s="620"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="629"/>
+      <c r="C60" s="622"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="631"/>
-      <c r="H60" s="633"/>
+      <c r="G60" s="624"/>
+      <c r="H60" s="626"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -17232,8 +17181,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="635"/>
-      <c r="P60" s="625"/>
+      <c r="O60" s="628"/>
+      <c r="P60" s="618"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -17471,7 +17420,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="584" t="s">
+      <c r="A66" s="577" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -17483,10 +17432,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="586">
+      <c r="G66" s="579">
         <v>44973</v>
       </c>
-      <c r="H66" s="588" t="s">
+      <c r="H66" s="581" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -17505,10 +17454,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="590" t="s">
+      <c r="O66" s="583" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="592">
+      <c r="P66" s="585">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -17519,7 +17468,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="585"/>
+      <c r="A67" s="578"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -17529,8 +17478,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="587"/>
-      <c r="H67" s="589"/>
+      <c r="G67" s="580"/>
+      <c r="H67" s="582"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -17547,8 +17496,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="591"/>
-      <c r="P67" s="593"/>
+      <c r="O67" s="584"/>
+      <c r="P67" s="586"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -17606,13 +17555,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="614" t="s">
+      <c r="A69" s="607" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="616" t="s">
+      <c r="C69" s="609" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -17620,10 +17569,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="620">
+      <c r="G69" s="613">
         <v>44979</v>
       </c>
-      <c r="H69" s="618" t="s">
+      <c r="H69" s="611" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -17642,10 +17591,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="622" t="s">
+      <c r="O69" s="615" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="612">
+      <c r="P69" s="605">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -17656,18 +17605,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="615"/>
+      <c r="A70" s="608"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="617"/>
+      <c r="C70" s="610"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="621"/>
-      <c r="H70" s="619"/>
+      <c r="G70" s="614"/>
+      <c r="H70" s="612"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -17684,8 +17633,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="623"/>
-      <c r="P70" s="613"/>
+      <c r="O70" s="616"/>
+      <c r="P70" s="606"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -17694,13 +17643,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="602" t="s">
+      <c r="A71" s="595" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="600" t="s">
+      <c r="C71" s="593" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -17708,10 +17657,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="605">
+      <c r="G71" s="598">
         <v>44982</v>
       </c>
-      <c r="H71" s="607" t="s">
+      <c r="H71" s="600" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -17730,10 +17679,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="596" t="s">
+      <c r="O71" s="589" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="598">
+      <c r="P71" s="591">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -17744,18 +17693,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="602"/>
+      <c r="A72" s="595"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="604"/>
+      <c r="C72" s="597"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="605"/>
-      <c r="H72" s="608"/>
+      <c r="G72" s="598"/>
+      <c r="H72" s="601"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -17772,8 +17721,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="610"/>
-      <c r="P72" s="611"/>
+      <c r="O72" s="603"/>
+      <c r="P72" s="604"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -17782,18 +17731,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="603"/>
+      <c r="A73" s="596"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="601"/>
+      <c r="C73" s="594"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="606"/>
-      <c r="H73" s="609"/>
+      <c r="G73" s="599"/>
+      <c r="H73" s="602"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -17810,8 +17759,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="597"/>
-      <c r="P73" s="599"/>
+      <c r="O73" s="590"/>
+      <c r="P73" s="592"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -17987,13 +17936,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="584" t="s">
+      <c r="A80" s="577" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="600" t="s">
+      <c r="C80" s="593" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -18004,7 +17953,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="594" t="s">
+      <c r="H80" s="587" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -18023,10 +17972,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="596" t="s">
+      <c r="O80" s="589" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="598">
+      <c r="P80" s="591">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -18037,11 +17986,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="585"/>
+      <c r="A81" s="578"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="601"/>
+      <c r="C81" s="594"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -18050,7 +17999,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="595"/>
+      <c r="H81" s="588"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -18067,8 +18016,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="597"/>
-      <c r="P81" s="599"/>
+      <c r="O81" s="590"/>
+      <c r="P81" s="592"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -18619,8 +18568,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="578"/>
-      <c r="M99" s="579"/>
+      <c r="L99" s="571"/>
+      <c r="M99" s="572"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18652,8 +18601,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="578"/>
-      <c r="M100" s="579"/>
+      <c r="L100" s="571"/>
+      <c r="M100" s="572"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18856,8 +18805,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="580"/>
-      <c r="P106" s="582"/>
+      <c r="O106" s="573"/>
+      <c r="P106" s="575"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -18889,8 +18838,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="581"/>
-      <c r="P107" s="583"/>
+      <c r="O107" s="574"/>
+      <c r="P107" s="576"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -24282,11 +24231,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F271" s="569" t="s">
+      <c r="F271" s="562" t="s">
         <v>27</v>
       </c>
-      <c r="G271" s="569"/>
-      <c r="H271" s="570"/>
+      <c r="G271" s="562"/>
+      <c r="H271" s="563"/>
       <c r="I271" s="303">
         <f>SUM(I4:I270)</f>
         <v>323525.489</v>
@@ -24943,49 +24892,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="571" t="s">
+      <c r="A1" s="564" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="571"/>
-      <c r="C1" s="571"/>
-      <c r="D1" s="571"/>
-      <c r="E1" s="571"/>
-      <c r="F1" s="571"/>
-      <c r="G1" s="571"/>
-      <c r="H1" s="571"/>
-      <c r="I1" s="571"/>
-      <c r="J1" s="571"/>
+      <c r="B1" s="564"/>
+      <c r="C1" s="564"/>
+      <c r="D1" s="564"/>
+      <c r="E1" s="564"/>
+      <c r="F1" s="564"/>
+      <c r="G1" s="564"/>
+      <c r="H1" s="564"/>
+      <c r="I1" s="564"/>
+      <c r="J1" s="564"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="572" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="572"/>
+      <c r="S1" s="565" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="565"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="574" t="s">
+      <c r="W1" s="567" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="575"/>
+      <c r="X1" s="568"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="571"/>
-      <c r="B2" s="571"/>
-      <c r="C2" s="571"/>
-      <c r="D2" s="571"/>
-      <c r="E2" s="571"/>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="571"/>
-      <c r="J2" s="571"/>
+      <c r="A2" s="564"/>
+      <c r="B2" s="564"/>
+      <c r="C2" s="564"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="564"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -24993,8 +24942,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="573"/>
-      <c r="T2" s="573"/>
+      <c r="S2" s="566"/>
+      <c r="T2" s="566"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -25039,10 +24988,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="576" t="s">
+      <c r="O3" s="569" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="577"/>
+      <c r="P3" s="570"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -28623,13 +28572,13 @@
       <c r="V82" s="50"/>
     </row>
     <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="584" t="s">
+      <c r="A83" s="577" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="600" t="s">
+      <c r="C83" s="593" t="s">
         <v>193</v>
       </c>
       <c r="D83" s="431"/>
@@ -28637,10 +28586,10 @@
       <c r="F83" s="410">
         <v>27.48</v>
       </c>
-      <c r="G83" s="630">
+      <c r="G83" s="623">
         <v>45014</v>
       </c>
-      <c r="H83" s="636" t="s">
+      <c r="H83" s="629" t="s">
         <v>180</v>
       </c>
       <c r="I83" s="155">
@@ -28653,7 +28602,7 @@
       <c r="K83" s="40">
         <v>70</v>
       </c>
-      <c r="L83" s="640" t="s">
+      <c r="L83" s="633" t="s">
         <v>194</v>
       </c>
       <c r="M83" s="61"/>
@@ -28661,10 +28610,10 @@
         <f t="shared" si="2"/>
         <v>1923.6000000000001</v>
       </c>
-      <c r="O83" s="580" t="s">
+      <c r="O83" s="573" t="s">
         <v>21</v>
       </c>
-      <c r="P83" s="638">
+      <c r="P83" s="631">
         <v>45016</v>
       </c>
       <c r="Q83" s="158"/>
@@ -28675,18 +28624,18 @@
       <c r="V83" s="50"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="585"/>
+      <c r="A84" s="578"/>
       <c r="B84" s="430" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="601"/>
+      <c r="C84" s="594"/>
       <c r="D84" s="431"/>
       <c r="E84" s="56"/>
       <c r="F84" s="410">
         <v>142.5</v>
       </c>
-      <c r="G84" s="631"/>
-      <c r="H84" s="637"/>
+      <c r="G84" s="624"/>
+      <c r="H84" s="630"/>
       <c r="I84" s="155">
         <v>142.5771</v>
       </c>
@@ -28697,14 +28646,14 @@
       <c r="K84" s="40">
         <v>70</v>
       </c>
-      <c r="L84" s="640"/>
+      <c r="L84" s="633"/>
       <c r="M84" s="61"/>
       <c r="N84" s="42">
         <f t="shared" si="2"/>
         <v>9980.3970000000008</v>
       </c>
-      <c r="O84" s="581"/>
-      <c r="P84" s="639"/>
+      <c r="O84" s="574"/>
+      <c r="P84" s="632"/>
       <c r="Q84" s="158"/>
       <c r="R84" s="125"/>
       <c r="S84" s="176"/>
@@ -29135,8 +29084,8 @@
         <v>0</v>
       </c>
       <c r="K98" s="81"/>
-      <c r="L98" s="578"/>
-      <c r="M98" s="579"/>
+      <c r="L98" s="571"/>
+      <c r="M98" s="572"/>
       <c r="N98" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -29168,8 +29117,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="578"/>
-      <c r="M99" s="579"/>
+      <c r="L99" s="571"/>
+      <c r="M99" s="572"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -29372,8 +29321,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O105" s="580"/>
-      <c r="P105" s="582"/>
+      <c r="O105" s="573"/>
+      <c r="P105" s="575"/>
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
@@ -29405,8 +29354,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="581"/>
-      <c r="P106" s="583"/>
+      <c r="O106" s="574"/>
+      <c r="P106" s="576"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -34798,11 +34747,11 @@
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F270" s="569" t="s">
+      <c r="F270" s="562" t="s">
         <v>27</v>
       </c>
-      <c r="G270" s="569"/>
-      <c r="H270" s="570"/>
+      <c r="G270" s="562"/>
+      <c r="H270" s="563"/>
       <c r="I270" s="303">
         <f>SUM(I4:I269)</f>
         <v>601739.64578900009</v>
@@ -35438,49 +35387,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="571" t="s">
+      <c r="A1" s="564" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="571"/>
-      <c r="C1" s="571"/>
-      <c r="D1" s="571"/>
-      <c r="E1" s="571"/>
-      <c r="F1" s="571"/>
-      <c r="G1" s="571"/>
-      <c r="H1" s="571"/>
-      <c r="I1" s="571"/>
-      <c r="J1" s="571"/>
+      <c r="B1" s="564"/>
+      <c r="C1" s="564"/>
+      <c r="D1" s="564"/>
+      <c r="E1" s="564"/>
+      <c r="F1" s="564"/>
+      <c r="G1" s="564"/>
+      <c r="H1" s="564"/>
+      <c r="I1" s="564"/>
+      <c r="J1" s="564"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="572" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="572"/>
+      <c r="S1" s="565" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="565"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="574" t="s">
+      <c r="W1" s="567" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="575"/>
+      <c r="X1" s="568"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="571"/>
-      <c r="B2" s="571"/>
-      <c r="C2" s="571"/>
-      <c r="D2" s="571"/>
-      <c r="E2" s="571"/>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="571"/>
-      <c r="J2" s="571"/>
+      <c r="A2" s="564"/>
+      <c r="B2" s="564"/>
+      <c r="C2" s="564"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="564"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -35488,8 +35437,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="573"/>
-      <c r="T2" s="573"/>
+      <c r="S2" s="566"/>
+      <c r="T2" s="566"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -35534,10 +35483,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="576" t="s">
+      <c r="O3" s="569" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="577"/>
+      <c r="P3" s="570"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -37960,13 +37909,13 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="651" t="s">
+      <c r="A60" s="644" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="600" t="s">
+      <c r="C60" s="593" t="s">
         <v>291</v>
       </c>
       <c r="D60" s="409"/>
@@ -37974,10 +37923,10 @@
       <c r="F60" s="410">
         <v>847.4</v>
       </c>
-      <c r="G60" s="653">
+      <c r="G60" s="646">
         <v>45023</v>
       </c>
-      <c r="H60" s="655" t="s">
+      <c r="H60" s="648" t="s">
         <v>292</v>
       </c>
       <c r="I60" s="402">
@@ -37996,10 +37945,10 @@
         <f t="shared" si="2"/>
         <v>76266</v>
       </c>
-      <c r="O60" s="657" t="s">
+      <c r="O60" s="650" t="s">
         <v>21</v>
       </c>
-      <c r="P60" s="659">
+      <c r="P60" s="652">
         <v>45065</v>
       </c>
       <c r="Q60" s="543"/>
@@ -38010,18 +37959,18 @@
       <c r="V60" s="50"/>
     </row>
     <row r="61" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="652"/>
+      <c r="A61" s="645"/>
       <c r="B61" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="601"/>
+      <c r="C61" s="594"/>
       <c r="D61" s="409"/>
       <c r="E61" s="56"/>
       <c r="F61" s="410">
         <v>175.4</v>
       </c>
-      <c r="G61" s="654"/>
-      <c r="H61" s="656"/>
+      <c r="G61" s="647"/>
+      <c r="H61" s="649"/>
       <c r="I61" s="402">
         <v>175.4</v>
       </c>
@@ -38038,8 +37987,8 @@
         <f t="shared" si="2"/>
         <v>15435.2</v>
       </c>
-      <c r="O61" s="658"/>
-      <c r="P61" s="660"/>
+      <c r="O61" s="651"/>
+      <c r="P61" s="653"/>
       <c r="Q61" s="166"/>
       <c r="R61" s="125"/>
       <c r="S61" s="48"/>
@@ -38250,13 +38199,13 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="641" t="s">
+      <c r="A66" s="634" t="s">
         <v>31</v>
       </c>
       <c r="B66" s="519" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="643" t="s">
+      <c r="C66" s="636" t="s">
         <v>255</v>
       </c>
       <c r="D66" s="517"/>
@@ -38264,10 +38213,10 @@
       <c r="F66" s="493">
         <v>9084.5</v>
       </c>
-      <c r="G66" s="647">
+      <c r="G66" s="640">
         <v>45041</v>
       </c>
-      <c r="H66" s="645">
+      <c r="H66" s="638">
         <v>145029</v>
       </c>
       <c r="I66" s="515">
@@ -38286,10 +38235,10 @@
         <f t="shared" si="2"/>
         <v>417887</v>
       </c>
-      <c r="O66" s="649" t="s">
+      <c r="O66" s="642" t="s">
         <v>22</v>
       </c>
-      <c r="P66" s="598">
+      <c r="P66" s="591">
         <v>45054</v>
       </c>
       <c r="Q66" s="166"/>
@@ -38300,18 +38249,18 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="642"/>
+      <c r="A67" s="635"/>
       <c r="B67" s="519" t="s">
         <v>256</v>
       </c>
-      <c r="C67" s="644"/>
+      <c r="C67" s="637"/>
       <c r="D67" s="517"/>
       <c r="E67" s="56"/>
       <c r="F67" s="526">
         <v>1007.3</v>
       </c>
-      <c r="G67" s="648"/>
-      <c r="H67" s="646"/>
+      <c r="G67" s="641"/>
+      <c r="H67" s="639"/>
       <c r="I67" s="527">
         <v>1007.3</v>
       </c>
@@ -38328,8 +38277,8 @@
         <f t="shared" si="2"/>
         <v>63459.899999999994</v>
       </c>
-      <c r="O67" s="650"/>
-      <c r="P67" s="599"/>
+      <c r="O67" s="643"/>
+      <c r="P67" s="592"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="48"/>
@@ -38990,8 +38939,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O87" s="580"/>
-      <c r="P87" s="638"/>
+      <c r="O87" s="573"/>
+      <c r="P87" s="631"/>
       <c r="Q87" s="158"/>
       <c r="R87" s="125"/>
       <c r="S87" s="176"/>
@@ -39020,8 +38969,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O88" s="581"/>
-      <c r="P88" s="639"/>
+      <c r="O88" s="574"/>
+      <c r="P88" s="632"/>
       <c r="Q88" s="158"/>
       <c r="R88" s="125"/>
       <c r="S88" s="176"/>
@@ -39452,8 +39401,8 @@
         <v>0</v>
       </c>
       <c r="K102" s="81"/>
-      <c r="L102" s="578"/>
-      <c r="M102" s="579"/>
+      <c r="L102" s="571"/>
+      <c r="M102" s="572"/>
       <c r="N102" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -39485,8 +39434,8 @@
         <v>0</v>
       </c>
       <c r="K103" s="81"/>
-      <c r="L103" s="578"/>
-      <c r="M103" s="579"/>
+      <c r="L103" s="571"/>
+      <c r="M103" s="572"/>
       <c r="N103" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -39689,8 +39638,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O109" s="580"/>
-      <c r="P109" s="582"/>
+      <c r="O109" s="573"/>
+      <c r="P109" s="575"/>
       <c r="Q109" s="158"/>
       <c r="R109" s="125"/>
       <c r="S109" s="176"/>
@@ -39722,8 +39671,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O110" s="581"/>
-      <c r="P110" s="583"/>
+      <c r="O110" s="574"/>
+      <c r="P110" s="576"/>
       <c r="Q110" s="158"/>
       <c r="R110" s="125"/>
       <c r="S110" s="176"/>
@@ -45115,11 +45064,11 @@
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F274" s="569" t="s">
+      <c r="F274" s="562" t="s">
         <v>27</v>
       </c>
-      <c r="G274" s="569"/>
-      <c r="H274" s="570"/>
+      <c r="G274" s="562"/>
+      <c r="H274" s="563"/>
       <c r="I274" s="303">
         <f>SUM(I4:I273)</f>
         <v>409425.92000000004</v>
@@ -45760,49 +45709,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="571" t="s">
+      <c r="A1" s="564" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="571"/>
-      <c r="C1" s="571"/>
-      <c r="D1" s="571"/>
-      <c r="E1" s="571"/>
-      <c r="F1" s="571"/>
-      <c r="G1" s="571"/>
-      <c r="H1" s="571"/>
-      <c r="I1" s="571"/>
-      <c r="J1" s="571"/>
+      <c r="B1" s="564"/>
+      <c r="C1" s="564"/>
+      <c r="D1" s="564"/>
+      <c r="E1" s="564"/>
+      <c r="F1" s="564"/>
+      <c r="G1" s="564"/>
+      <c r="H1" s="564"/>
+      <c r="I1" s="564"/>
+      <c r="J1" s="564"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="572" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="572"/>
+      <c r="S1" s="565" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="565"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="574" t="s">
+      <c r="W1" s="567" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="575"/>
+      <c r="X1" s="568"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="571"/>
-      <c r="B2" s="571"/>
-      <c r="C2" s="571"/>
-      <c r="D2" s="571"/>
-      <c r="E2" s="571"/>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="571"/>
-      <c r="J2" s="571"/>
+      <c r="A2" s="564"/>
+      <c r="B2" s="564"/>
+      <c r="C2" s="564"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="564"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -45810,8 +45759,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="573"/>
-      <c r="T2" s="573"/>
+      <c r="S2" s="566"/>
+      <c r="T2" s="566"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -45856,10 +45805,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="576" t="s">
+      <c r="O3" s="569" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="577"/>
+      <c r="P3" s="570"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -49377,8 +49326,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O89" s="580"/>
-      <c r="P89" s="638"/>
+      <c r="O89" s="573"/>
+      <c r="P89" s="631"/>
       <c r="Q89" s="158"/>
       <c r="R89" s="125"/>
       <c r="S89" s="176"/>
@@ -49407,8 +49356,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O90" s="581"/>
-      <c r="P90" s="639"/>
+      <c r="O90" s="574"/>
+      <c r="P90" s="632"/>
       <c r="Q90" s="158"/>
       <c r="R90" s="125"/>
       <c r="S90" s="176"/>
@@ -49839,8 +49788,8 @@
         <v>0</v>
       </c>
       <c r="K104" s="81"/>
-      <c r="L104" s="578"/>
-      <c r="M104" s="579"/>
+      <c r="L104" s="571"/>
+      <c r="M104" s="572"/>
       <c r="N104" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -49872,8 +49821,8 @@
         <v>0</v>
       </c>
       <c r="K105" s="81"/>
-      <c r="L105" s="578"/>
-      <c r="M105" s="579"/>
+      <c r="L105" s="571"/>
+      <c r="M105" s="572"/>
       <c r="N105" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -50076,8 +50025,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O111" s="580"/>
-      <c r="P111" s="582"/>
+      <c r="O111" s="573"/>
+      <c r="P111" s="575"/>
       <c r="Q111" s="158"/>
       <c r="R111" s="125"/>
       <c r="S111" s="176"/>
@@ -50109,8 +50058,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O112" s="581"/>
-      <c r="P112" s="583"/>
+      <c r="O112" s="574"/>
+      <c r="P112" s="576"/>
       <c r="Q112" s="158"/>
       <c r="R112" s="125"/>
       <c r="S112" s="176"/>
@@ -55502,11 +55451,11 @@
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F276" s="569" t="s">
+      <c r="F276" s="562" t="s">
         <v>27</v>
       </c>
-      <c r="G276" s="569"/>
-      <c r="H276" s="570"/>
+      <c r="G276" s="562"/>
+      <c r="H276" s="563"/>
       <c r="I276" s="303">
         <f>SUM(I4:I275)</f>
         <v>446614.07</v>
@@ -56101,13 +56050,13 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A1:X308"/>
+  <dimension ref="A1:X307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="I55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -56137,49 +56086,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="571" t="s">
+      <c r="A1" s="564" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="571"/>
-      <c r="C1" s="571"/>
-      <c r="D1" s="571"/>
-      <c r="E1" s="571"/>
-      <c r="F1" s="571"/>
-      <c r="G1" s="571"/>
-      <c r="H1" s="571"/>
-      <c r="I1" s="571"/>
-      <c r="J1" s="571"/>
+      <c r="B1" s="564"/>
+      <c r="C1" s="564"/>
+      <c r="D1" s="564"/>
+      <c r="E1" s="564"/>
+      <c r="F1" s="564"/>
+      <c r="G1" s="564"/>
+      <c r="H1" s="564"/>
+      <c r="I1" s="564"/>
+      <c r="J1" s="564"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="572" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="572"/>
+      <c r="S1" s="565" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="565"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="574" t="s">
+      <c r="W1" s="567" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="575"/>
+      <c r="X1" s="568"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="571"/>
-      <c r="B2" s="571"/>
-      <c r="C2" s="571"/>
-      <c r="D2" s="571"/>
-      <c r="E2" s="571"/>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="571"/>
-      <c r="J2" s="571"/>
+      <c r="A2" s="564"/>
+      <c r="B2" s="564"/>
+      <c r="C2" s="564"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="564"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -56187,8 +56136,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="573"/>
-      <c r="T2" s="573"/>
+      <c r="S2" s="566"/>
+      <c r="T2" s="566"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -56233,10 +56182,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="576" t="s">
+      <c r="O3" s="569" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="577"/>
+      <c r="P3" s="570"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -56259,10 +56208,10 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="661" t="s">
+      <c r="A4" s="561" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="561" t="s">
+      <c r="B4" s="559" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -56317,60 +56266,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="662"/>
-      <c r="B5" s="563" t="s">
-        <v>351</v>
-      </c>
-      <c r="C5" s="564"/>
-      <c r="D5" s="565"/>
-      <c r="E5" s="566"/>
-      <c r="F5" s="567">
-        <v>918</v>
-      </c>
-      <c r="G5" s="568">
-        <v>45079</v>
-      </c>
-      <c r="H5" s="553">
-        <v>146567</v>
-      </c>
-      <c r="I5" s="503">
-        <v>918</v>
+    <row r="5" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="560" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="34">
+        <f>D5*F5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="504">
+        <v>19839</v>
+      </c>
+      <c r="G5" s="376">
+        <v>45082</v>
+      </c>
+      <c r="H5" s="453">
+        <v>42532</v>
+      </c>
+      <c r="I5" s="491">
+        <v>19839</v>
       </c>
       <c r="J5" s="39">
         <f t="shared" ref="J5:J6" si="0">I5-F5</f>
         <v>0</v>
       </c>
       <c r="K5" s="40">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="L5" s="554"/>
       <c r="M5" s="554"/>
       <c r="N5" s="42">
         <f>K5*I5</f>
-        <v>19278</v>
-      </c>
-      <c r="O5" s="555" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="471">
-        <v>45093</v>
-      </c>
-      <c r="Q5" s="559"/>
-      <c r="R5" s="560"/>
+        <v>912594</v>
+      </c>
+      <c r="O5" s="476" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="473">
+        <v>45096</v>
+      </c>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="65"/>
       <c r="S5" s="47"/>
       <c r="T5" s="48"/>
       <c r="U5" s="49"/>
       <c r="V5" s="50"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="52"/>
-    </row>
-    <row r="6" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="562" t="s">
+      <c r="W5" s="49"/>
+      <c r="X5" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="76" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>336</v>
+        <v>32</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="56"/>
@@ -56379,35 +56335,35 @@
         <v>0</v>
       </c>
       <c r="F6" s="504">
-        <v>19839</v>
+        <v>22060</v>
       </c>
       <c r="G6" s="376">
-        <v>45082</v>
+        <v>45086</v>
       </c>
       <c r="H6" s="453">
-        <v>42532</v>
+        <v>42568</v>
       </c>
       <c r="I6" s="491">
-        <v>19839</v>
+        <v>22060</v>
       </c>
       <c r="J6" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="40">
-        <v>46</v>
-      </c>
-      <c r="L6" s="554"/>
-      <c r="M6" s="554"/>
+        <v>46.6</v>
+      </c>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="42">
         <f>K6*I6</f>
-        <v>912594</v>
-      </c>
-      <c r="O6" s="476" t="s">
-        <v>21</v>
+        <v>1027996</v>
+      </c>
+      <c r="O6" s="472" t="s">
+        <v>22</v>
       </c>
       <c r="P6" s="473">
-        <v>45096</v>
+        <v>45100</v>
       </c>
       <c r="Q6" s="64"/>
       <c r="R6" s="65"/>
@@ -56415,38 +56371,38 @@
       <c r="T6" s="48"/>
       <c r="U6" s="49"/>
       <c r="V6" s="50"/>
-      <c r="W6" s="49"/>
+      <c r="W6" s="66"/>
       <c r="X6" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="76" t="s">
+    <row r="7" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="539" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
       <c r="E7" s="34">
-        <f>D7*F7</f>
+        <f t="shared" ref="E7:E58" si="1">D7*F7</f>
         <v>0</v>
       </c>
       <c r="F7" s="504">
-        <v>22060</v>
+        <v>10800</v>
       </c>
       <c r="G7" s="376">
-        <v>45086</v>
-      </c>
-      <c r="H7" s="453">
-        <v>42568</v>
+        <v>45088</v>
+      </c>
+      <c r="H7" s="506">
+        <v>42585</v>
       </c>
       <c r="I7" s="491">
-        <v>22060</v>
+        <v>10800</v>
       </c>
       <c r="J7" s="39">
-        <f>I7-F7</f>
+        <f t="shared" ref="J7:J135" si="2">I7-F7</f>
         <v>0</v>
       </c>
       <c r="K7" s="40">
@@ -56455,14 +56411,14 @@
       <c r="L7" s="61"/>
       <c r="M7" s="61"/>
       <c r="N7" s="42">
-        <f>K7*I7</f>
-        <v>1027996</v>
+        <f t="shared" ref="N7:N9" si="3">K7*I7</f>
+        <v>503280</v>
       </c>
       <c r="O7" s="472" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P7" s="473">
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="Q7" s="64"/>
       <c r="R7" s="65"/>
@@ -56471,37 +56427,35 @@
       <c r="U7" s="49"/>
       <c r="V7" s="50"/>
       <c r="W7" s="66"/>
-      <c r="X7" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="539" t="s">
+      <c r="X7" s="52"/>
+    </row>
+    <row r="8" spans="1:24" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="76" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>347</v>
-      </c>
-      <c r="C8" s="55"/>
+        <v>346</v>
+      </c>
+      <c r="C8" s="67"/>
       <c r="D8" s="56"/>
       <c r="E8" s="34">
-        <f t="shared" ref="E8:E59" si="1">D8*F8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8" s="504">
-        <v>10800</v>
+        <v>9400</v>
       </c>
       <c r="G8" s="376">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="H8" s="506">
-        <v>42585</v>
+        <v>42604</v>
       </c>
       <c r="I8" s="491">
-        <v>10800</v>
+        <v>9400</v>
       </c>
       <c r="J8" s="39">
-        <f t="shared" ref="J8:J136" si="2">I8-F8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="40">
@@ -56510,10 +56464,10 @@
       <c r="L8" s="61"/>
       <c r="M8" s="61"/>
       <c r="N8" s="42">
-        <f t="shared" ref="N8:N10" si="3">K8*I8</f>
-        <v>503280</v>
-      </c>
-      <c r="O8" s="472" t="s">
+        <f t="shared" si="3"/>
+        <v>438040</v>
+      </c>
+      <c r="O8" s="508" t="s">
         <v>21</v>
       </c>
       <c r="P8" s="473">
@@ -56525,15 +56479,17 @@
       <c r="T8" s="48"/>
       <c r="U8" s="49"/>
       <c r="V8" s="50"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="52"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="52">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:24" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="76" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="56"/>
@@ -56542,35 +56498,35 @@
         <v>0</v>
       </c>
       <c r="F9" s="504">
-        <v>9400</v>
+        <v>11233.4</v>
       </c>
       <c r="G9" s="376">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="H9" s="506">
-        <v>42604</v>
+        <v>42634</v>
       </c>
       <c r="I9" s="491">
-        <v>9400</v>
+        <v>11233.4</v>
       </c>
       <c r="J9" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="40">
-        <v>46.6</v>
+        <v>48</v>
       </c>
       <c r="L9" s="61"/>
       <c r="M9" s="61"/>
       <c r="N9" s="42">
         <f t="shared" si="3"/>
-        <v>438040</v>
+        <v>539203.19999999995</v>
       </c>
       <c r="O9" s="508" t="s">
         <v>21</v>
       </c>
       <c r="P9" s="473">
-        <v>45103</v>
+        <v>45106</v>
       </c>
       <c r="Q9" s="64"/>
       <c r="R9" s="65"/>
@@ -56579,11 +56535,9 @@
       <c r="U9" s="49"/>
       <c r="V9" s="50"/>
       <c r="W9" s="49"/>
-      <c r="X9" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X9" s="52"/>
+    </row>
+    <row r="10" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="76" t="s">
         <v>31</v>
       </c>
@@ -56597,14 +56551,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="504">
-        <v>11233.4</v>
+        <v>10780</v>
       </c>
       <c r="G10" s="376">
-        <v>45092</v>
-      </c>
-      <c r="H10" s="506"/>
+        <v>45093</v>
+      </c>
+      <c r="H10" s="506">
+        <v>42643</v>
+      </c>
       <c r="I10" s="491">
-        <v>11233.4</v>
+        <v>10780</v>
       </c>
       <c r="J10" s="39">
         <f t="shared" si="2"/>
@@ -56616,11 +56572,15 @@
       <c r="L10" s="61"/>
       <c r="M10" s="61"/>
       <c r="N10" s="42">
-        <f t="shared" si="3"/>
-        <v>539203.19999999995</v>
-      </c>
-      <c r="O10" s="508"/>
-      <c r="P10" s="473"/>
+        <f t="shared" ref="N10:N129" si="4">K10*I10</f>
+        <v>517440</v>
+      </c>
+      <c r="O10" s="474" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="475">
+        <v>45106</v>
+      </c>
       <c r="Q10" s="64"/>
       <c r="R10" s="65"/>
       <c r="S10" s="47"/>
@@ -56628,14 +56588,16 @@
       <c r="U10" s="49"/>
       <c r="V10" s="50"/>
       <c r="W10" s="49"/>
-      <c r="X10" s="52"/>
+      <c r="X10" s="52">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="76" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="67"/>
       <c r="D11" s="56"/>
@@ -56644,14 +56606,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="504">
-        <v>10780</v>
+        <v>10420</v>
       </c>
       <c r="G11" s="376">
-        <v>45093</v>
-      </c>
-      <c r="H11" s="506"/>
+        <v>45095</v>
+      </c>
+      <c r="H11" s="506">
+        <v>42658</v>
+      </c>
       <c r="I11" s="491">
-        <v>10780</v>
+        <v>10420</v>
       </c>
       <c r="J11" s="39">
         <f t="shared" si="2"/>
@@ -56663,11 +56627,15 @@
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="42">
-        <f t="shared" ref="N11:N130" si="4">K11*I11</f>
-        <v>517440</v>
-      </c>
-      <c r="O11" s="474"/>
-      <c r="P11" s="475"/>
+        <f t="shared" si="4"/>
+        <v>500160</v>
+      </c>
+      <c r="O11" s="474" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="475">
+        <v>45107</v>
+      </c>
       <c r="Q11" s="64"/>
       <c r="R11" s="65"/>
       <c r="S11" s="47"/>
@@ -56675,32 +56643,32 @@
       <c r="U11" s="49"/>
       <c r="V11" s="50"/>
       <c r="W11" s="49"/>
-      <c r="X11" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="76" t="s">
+      <c r="X11" s="52"/>
+    </row>
+    <row r="12" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="53" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="67"/>
+        <v>70</v>
+      </c>
+      <c r="C12" s="55"/>
       <c r="D12" s="56"/>
       <c r="E12" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F12" s="504">
-        <v>10420</v>
+        <v>11320</v>
       </c>
       <c r="G12" s="376">
-        <v>45095</v>
-      </c>
-      <c r="H12" s="506"/>
+        <v>45096</v>
+      </c>
+      <c r="H12" s="453">
+        <v>42669</v>
+      </c>
       <c r="I12" s="491">
-        <v>10420</v>
+        <v>11320</v>
       </c>
       <c r="J12" s="39">
         <f t="shared" si="2"/>
@@ -56713,10 +56681,14 @@
       <c r="M12" s="61"/>
       <c r="N12" s="42">
         <f t="shared" si="4"/>
-        <v>500160</v>
-      </c>
-      <c r="O12" s="474"/>
-      <c r="P12" s="475"/>
+        <v>543360</v>
+      </c>
+      <c r="O12" s="476" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="475">
+        <v>45107</v>
+      </c>
       <c r="Q12" s="64"/>
       <c r="R12" s="65"/>
       <c r="S12" s="47"/>
@@ -56724,14 +56696,16 @@
       <c r="U12" s="49"/>
       <c r="V12" s="50"/>
       <c r="W12" s="49"/>
-      <c r="X12" s="52"/>
+      <c r="X12" s="52">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="53" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>70</v>
+        <v>347</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
@@ -56740,14 +56714,14 @@
         <v>0</v>
       </c>
       <c r="F13" s="504">
-        <v>11320</v>
+        <v>13340</v>
       </c>
       <c r="G13" s="376">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="H13" s="453"/>
       <c r="I13" s="491">
-        <v>11320</v>
+        <v>13340</v>
       </c>
       <c r="J13" s="39">
         <f t="shared" si="2"/>
@@ -56760,7 +56734,7 @@
       <c r="M13" s="61"/>
       <c r="N13" s="42">
         <f t="shared" si="4"/>
-        <v>543360</v>
+        <v>640320</v>
       </c>
       <c r="O13" s="476"/>
       <c r="P13" s="475"/>
@@ -56771,32 +56745,30 @@
       <c r="U13" s="49"/>
       <c r="V13" s="50"/>
       <c r="W13" s="49"/>
-      <c r="X13" s="52">
-        <v>0</v>
-      </c>
+      <c r="X13" s="52"/>
     </row>
     <row r="14" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="53" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>347</v>
+        <v>70</v>
       </c>
       <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14" s="504">
-        <v>13340</v>
+        <v>10670</v>
       </c>
       <c r="G14" s="376">
-        <v>45097</v>
-      </c>
-      <c r="H14" s="453"/>
+        <v>45098</v>
+      </c>
+      <c r="H14" s="507"/>
       <c r="I14" s="491">
-        <v>13340</v>
+        <v>10670</v>
       </c>
       <c r="J14" s="39">
         <f t="shared" si="2"/>
@@ -56809,10 +56781,10 @@
       <c r="M14" s="61"/>
       <c r="N14" s="42">
         <f t="shared" si="4"/>
-        <v>640320</v>
+        <v>512160</v>
       </c>
       <c r="O14" s="476"/>
-      <c r="P14" s="475"/>
+      <c r="P14" s="477"/>
       <c r="Q14" s="64"/>
       <c r="R14" s="65"/>
       <c r="S14" s="47"/>
@@ -56820,30 +56792,32 @@
       <c r="U14" s="49"/>
       <c r="V14" s="50"/>
       <c r="W14" s="49"/>
-      <c r="X14" s="52"/>
+      <c r="X14" s="52">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="76" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="55"/>
-      <c r="D15" s="73"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15" s="504">
-        <v>10670</v>
+        <v>13770</v>
       </c>
       <c r="G15" s="376">
-        <v>45098</v>
-      </c>
-      <c r="H15" s="507"/>
+        <v>45099</v>
+      </c>
+      <c r="H15" s="453"/>
       <c r="I15" s="491">
-        <v>10670</v>
+        <v>13770</v>
       </c>
       <c r="J15" s="39">
         <f t="shared" si="2"/>
@@ -56856,7 +56830,7 @@
       <c r="M15" s="61"/>
       <c r="N15" s="42">
         <f t="shared" si="4"/>
-        <v>512160</v>
+        <v>660960</v>
       </c>
       <c r="O15" s="476"/>
       <c r="P15" s="477"/>
@@ -56876,23 +56850,23 @@
         <v>31</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="55"/>
+        <v>353</v>
+      </c>
+      <c r="C16" s="77"/>
       <c r="D16" s="56"/>
       <c r="E16" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16" s="504">
-        <v>13770</v>
+        <v>13480</v>
       </c>
       <c r="G16" s="376">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="H16" s="453"/>
       <c r="I16" s="491">
-        <v>13770</v>
+        <v>13480</v>
       </c>
       <c r="J16" s="39">
         <f t="shared" si="2"/>
@@ -56905,7 +56879,7 @@
       <c r="M16" s="61"/>
       <c r="N16" s="42">
         <f t="shared" si="4"/>
-        <v>660960</v>
+        <v>647040</v>
       </c>
       <c r="O16" s="476"/>
       <c r="P16" s="477"/>
@@ -56921,28 +56895,40 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="76"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>45</v>
+      </c>
       <c r="C17" s="77"/>
       <c r="D17" s="56"/>
       <c r="E17" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="504"/>
-      <c r="G17" s="376"/>
+      <c r="F17" s="504">
+        <v>25988.6</v>
+      </c>
+      <c r="G17" s="376">
+        <v>45102</v>
+      </c>
       <c r="H17" s="453"/>
-      <c r="I17" s="491"/>
+      <c r="I17" s="491">
+        <v>25988.6</v>
+      </c>
       <c r="J17" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="40"/>
+      <c r="K17" s="40">
+        <v>48.5</v>
+      </c>
       <c r="L17" s="61"/>
       <c r="M17" s="61"/>
       <c r="N17" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1260447.0999999999</v>
       </c>
       <c r="O17" s="476"/>
       <c r="P17" s="477"/>
@@ -56958,28 +56944,40 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>42</v>
+      </c>
       <c r="C18" s="77"/>
       <c r="D18" s="56"/>
       <c r="E18" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="504"/>
-      <c r="G18" s="376"/>
+      <c r="F18" s="504">
+        <v>23940</v>
+      </c>
+      <c r="G18" s="376">
+        <v>45104</v>
+      </c>
       <c r="H18" s="453"/>
-      <c r="I18" s="491"/>
+      <c r="I18" s="491">
+        <v>23940</v>
+      </c>
       <c r="J18" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="40"/>
+      <c r="K18" s="40">
+        <v>48.5</v>
+      </c>
       <c r="L18" s="61"/>
       <c r="M18" s="61"/>
       <c r="N18" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1161090</v>
       </c>
       <c r="O18" s="476"/>
       <c r="P18" s="477"/>
@@ -56994,10 +56992,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="53"/>
+    <row r="19" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="540"/>
       <c r="B19" s="54"/>
-      <c r="C19" s="77"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="56"/>
       <c r="E19" s="34">
         <f t="shared" si="1"/>
@@ -57018,7 +57016,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O19" s="476"/>
+      <c r="O19" s="478"/>
       <c r="P19" s="477"/>
       <c r="Q19" s="64"/>
       <c r="R19" s="65"/>
@@ -57031,10 +57029,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="540"/>
+    <row r="20" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="76"/>
       <c r="B20" s="54"/>
-      <c r="C20" s="78"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="56"/>
       <c r="E20" s="34">
         <f t="shared" si="1"/>
@@ -57055,7 +57053,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O20" s="478"/>
+      <c r="O20" s="476"/>
       <c r="P20" s="477"/>
       <c r="Q20" s="64"/>
       <c r="R20" s="65"/>
@@ -57068,10 +57066,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="76"/>
+    <row r="21" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="53"/>
       <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="56"/>
       <c r="E21" s="34">
         <f t="shared" si="1"/>
@@ -57092,8 +57090,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O21" s="476"/>
-      <c r="P21" s="477"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="74"/>
       <c r="Q21" s="64"/>
       <c r="R21" s="65"/>
       <c r="S21" s="47"/>
@@ -57105,10 +57103,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="53"/>
+    <row r="22" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="82"/>
       <c r="B22" s="54"/>
-      <c r="C22" s="67"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="56"/>
       <c r="E22" s="34">
         <f t="shared" si="1"/>
@@ -57122,14 +57120,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="40"/>
+      <c r="K22" s="81"/>
       <c r="L22" s="61"/>
       <c r="M22" s="61"/>
       <c r="N22" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O22" s="72"/>
+      <c r="O22" s="75"/>
       <c r="P22" s="74"/>
       <c r="Q22" s="64"/>
       <c r="R22" s="65"/>
@@ -57142,10 +57140,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="82"/>
       <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="56"/>
       <c r="E23" s="34">
         <f t="shared" si="1"/>
@@ -57166,7 +57164,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O23" s="75"/>
+      <c r="O23" s="72"/>
       <c r="P23" s="74"/>
       <c r="Q23" s="64"/>
       <c r="R23" s="65"/>
@@ -57179,11 +57177,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="82"/>
       <c r="B24" s="54"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="56"/>
+      <c r="C24" s="439"/>
+      <c r="D24" s="85"/>
       <c r="E24" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -57205,7 +57203,7 @@
       </c>
       <c r="O24" s="72"/>
       <c r="P24" s="74"/>
-      <c r="Q24" s="64"/>
+      <c r="Q24" s="86"/>
       <c r="R24" s="65"/>
       <c r="S24" s="47"/>
       <c r="T24" s="48"/>
@@ -57216,19 +57214,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="82"/>
+    <row r="25" spans="1:24" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="80"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="439"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="85"/>
       <c r="E25" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="504"/>
-      <c r="G25" s="376"/>
-      <c r="H25" s="453"/>
-      <c r="I25" s="491"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
       <c r="J25" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -57240,8 +57238,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O25" s="72"/>
-      <c r="P25" s="74"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="70"/>
       <c r="Q25" s="86"/>
       <c r="R25" s="65"/>
       <c r="S25" s="47"/>
@@ -57253,11 +57251,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="80"/>
       <c r="B26" s="54"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="85"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -57291,7 +57289,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="80"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="54"/>
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
@@ -57327,7 +57325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="87"/>
       <c r="B28" s="54"/>
       <c r="C28" s="55"/>
@@ -57364,7 +57362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="87"/>
       <c r="B29" s="54"/>
       <c r="C29" s="55"/>
@@ -57388,11 +57386,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O29" s="69"/>
+      <c r="O29" s="72"/>
       <c r="P29" s="70"/>
       <c r="Q29" s="86"/>
       <c r="R29" s="65"/>
-      <c r="S29" s="47"/>
+      <c r="S29" s="89"/>
       <c r="T29" s="48"/>
       <c r="U29" s="49"/>
       <c r="V29" s="50"/>
@@ -57401,8 +57399,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="87"/>
+    <row r="30" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="71"/>
       <c r="B30" s="54"/>
       <c r="C30" s="55"/>
       <c r="D30" s="56"/>
@@ -57425,11 +57423,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O30" s="72"/>
+      <c r="O30" s="69"/>
       <c r="P30" s="70"/>
       <c r="Q30" s="86"/>
       <c r="R30" s="65"/>
-      <c r="S30" s="89"/>
+      <c r="S30" s="47"/>
       <c r="T30" s="48"/>
       <c r="U30" s="49"/>
       <c r="V30" s="50"/>
@@ -57439,7 +57437,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="71"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="54"/>
       <c r="C31" s="55"/>
       <c r="D31" s="56"/>
@@ -57476,7 +57474,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="90"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="54"/>
       <c r="C32" s="55"/>
       <c r="D32" s="56"/>
@@ -57503,7 +57501,7 @@
       <c r="P32" s="70"/>
       <c r="Q32" s="86"/>
       <c r="R32" s="65"/>
-      <c r="S32" s="47"/>
+      <c r="S32" s="89"/>
       <c r="T32" s="48"/>
       <c r="U32" s="49"/>
       <c r="V32" s="50"/>
@@ -57538,7 +57536,7 @@
       </c>
       <c r="O33" s="69"/>
       <c r="P33" s="70"/>
-      <c r="Q33" s="86"/>
+      <c r="Q33" s="64"/>
       <c r="R33" s="65"/>
       <c r="S33" s="89"/>
       <c r="T33" s="48"/>
@@ -57550,8 +57548,8 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="87"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="55"/>
       <c r="D34" s="56"/>
       <c r="E34" s="34">
@@ -57575,8 +57573,8 @@
       </c>
       <c r="O34" s="69"/>
       <c r="P34" s="70"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="65"/>
+      <c r="Q34" s="92"/>
+      <c r="R34" s="93"/>
       <c r="S34" s="89"/>
       <c r="T34" s="48"/>
       <c r="U34" s="49"/>
@@ -57586,10 +57584,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="53"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="55"/>
+    <row r="35" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="94"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="96"/>
       <c r="D35" s="56"/>
       <c r="E35" s="34">
         <f t="shared" si="1"/>
@@ -57610,9 +57608,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O35" s="69"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="92"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="97"/>
       <c r="R35" s="93"/>
       <c r="S35" s="89"/>
       <c r="T35" s="48"/>
@@ -57623,8 +57621,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="94"/>
+    <row r="36" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="98"/>
       <c r="B36" s="95"/>
       <c r="C36" s="96"/>
       <c r="D36" s="56"/>
@@ -57647,8 +57645,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O36" s="68"/>
-      <c r="P36" s="63"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="70"/>
       <c r="Q36" s="97"/>
       <c r="R36" s="93"/>
       <c r="S36" s="89"/>
@@ -57660,7 +57658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="98"/>
       <c r="B37" s="95"/>
       <c r="C37" s="96"/>
@@ -57697,8 +57695,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="98"/>
+    <row r="38" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="99"/>
       <c r="B38" s="95"/>
       <c r="C38" s="96"/>
       <c r="D38" s="56"/>
@@ -57730,12 +57728,10 @@
       <c r="U38" s="49"/>
       <c r="V38" s="50"/>
       <c r="W38" s="49"/>
-      <c r="X38" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="99"/>
+      <c r="X38" s="100"/>
+    </row>
+    <row r="39" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="101"/>
       <c r="B39" s="95"/>
       <c r="C39" s="96"/>
       <c r="D39" s="56"/>
@@ -57769,7 +57765,7 @@
       <c r="W39" s="49"/>
       <c r="X39" s="100"/>
     </row>
-    <row r="40" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="101"/>
       <c r="B40" s="95"/>
       <c r="C40" s="96"/>
@@ -57804,8 +57800,8 @@
       <c r="W40" s="49"/>
       <c r="X40" s="100"/>
     </row>
-    <row r="41" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="101"/>
+    <row r="41" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="102"/>
       <c r="B41" s="95"/>
       <c r="C41" s="96"/>
       <c r="D41" s="56"/>
@@ -57840,7 +57836,7 @@
       <c r="X41" s="100"/>
     </row>
     <row r="42" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="102"/>
+      <c r="A42" s="98"/>
       <c r="B42" s="95"/>
       <c r="C42" s="96"/>
       <c r="D42" s="56"/>
@@ -57872,9 +57868,9 @@
       <c r="U42" s="49"/>
       <c r="V42" s="50"/>
       <c r="W42" s="49"/>
-      <c r="X42" s="100"/>
-    </row>
-    <row r="43" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X42" s="103"/>
+    </row>
+    <row r="43" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="98"/>
       <c r="B43" s="95"/>
       <c r="C43" s="96"/>
@@ -57898,8 +57894,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O43" s="69"/>
-      <c r="P43" s="70"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="105"/>
       <c r="Q43" s="97"/>
       <c r="R43" s="93"/>
       <c r="S43" s="89"/>
@@ -57933,8 +57929,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O44" s="104"/>
-      <c r="P44" s="105"/>
+      <c r="O44" s="106"/>
+      <c r="P44" s="107"/>
       <c r="Q44" s="97"/>
       <c r="R44" s="93"/>
       <c r="S44" s="89"/>
@@ -57945,7 +57941,7 @@
       <c r="X44" s="103"/>
     </row>
     <row r="45" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="98"/>
+      <c r="A45" s="101"/>
       <c r="B45" s="95"/>
       <c r="C45" s="96"/>
       <c r="D45" s="56"/>
@@ -57968,10 +57964,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O45" s="106"/>
-      <c r="P45" s="107"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="93"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="109"/>
       <c r="S45" s="89"/>
       <c r="T45" s="48"/>
       <c r="U45" s="49"/>
@@ -57980,7 +57976,7 @@
       <c r="X45" s="103"/>
     </row>
     <row r="46" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="101"/>
+      <c r="A46" s="110"/>
       <c r="B46" s="95"/>
       <c r="C46" s="96"/>
       <c r="D46" s="56"/>
@@ -58011,14 +58007,14 @@
       <c r="T46" s="48"/>
       <c r="U46" s="49"/>
       <c r="V46" s="50"/>
-      <c r="W46" s="49"/>
+      <c r="W46" s="111"/>
       <c r="X46" s="103"/>
     </row>
     <row r="47" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="110"/>
+      <c r="A47" s="112"/>
       <c r="B47" s="95"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="56"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -58040,19 +58036,19 @@
       </c>
       <c r="O47" s="69"/>
       <c r="P47" s="70"/>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="109"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="93"/>
       <c r="S47" s="89"/>
       <c r="T47" s="48"/>
       <c r="U47" s="49"/>
       <c r="V47" s="50"/>
       <c r="W47" s="111"/>
-      <c r="X47" s="103"/>
+      <c r="X47" s="115"/>
     </row>
     <row r="48" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="112"/>
+      <c r="A48" s="102"/>
       <c r="B48" s="95"/>
-      <c r="C48" s="113"/>
+      <c r="C48" s="96"/>
       <c r="D48" s="114"/>
       <c r="E48" s="34">
         <f t="shared" si="1"/>
@@ -58085,7 +58081,7 @@
       <c r="X48" s="115"/>
     </row>
     <row r="49" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="102"/>
+      <c r="A49" s="101"/>
       <c r="B49" s="95"/>
       <c r="C49" s="96"/>
       <c r="D49" s="114"/>
@@ -58120,7 +58116,7 @@
       <c r="X49" s="115"/>
     </row>
     <row r="50" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="101"/>
+      <c r="A50" s="102"/>
       <c r="B50" s="95"/>
       <c r="C50" s="96"/>
       <c r="D50" s="114"/>
@@ -58190,9 +58186,9 @@
       <c r="X51" s="115"/>
     </row>
     <row r="52" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="102"/>
-      <c r="B52" s="95"/>
-      <c r="C52" s="96"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="116"/>
       <c r="D52" s="114"/>
       <c r="E52" s="34">
         <f t="shared" si="1"/>
@@ -58225,7 +58221,7 @@
       <c r="X52" s="115"/>
     </row>
     <row r="53" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="101"/>
+      <c r="A53" s="102"/>
       <c r="B53" s="102"/>
       <c r="C53" s="116"/>
       <c r="D53" s="114"/>
@@ -58250,14 +58246,13 @@
       </c>
       <c r="O53" s="69"/>
       <c r="P53" s="70"/>
-      <c r="Q53" s="97"/>
-      <c r="R53" s="93"/>
+      <c r="Q53" s="117"/>
+      <c r="R53" s="118"/>
       <c r="S53" s="89"/>
       <c r="T53" s="48"/>
       <c r="U53" s="49"/>
       <c r="V53" s="50"/>
-      <c r="W53" s="111"/>
-      <c r="X53" s="115"/>
+      <c r="X53" s="119"/>
     </row>
     <row r="54" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="102"/>
@@ -58284,18 +58279,18 @@
         <v>0</v>
       </c>
       <c r="O54" s="69"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="117"/>
-      <c r="R54" s="118"/>
-      <c r="S54" s="89"/>
+      <c r="P54" s="120"/>
+      <c r="Q54" s="121"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="48"/>
       <c r="T54" s="48"/>
       <c r="U54" s="49"/>
       <c r="V54" s="50"/>
-      <c r="X54" s="119"/>
+      <c r="X54" s="123"/>
     </row>
     <row r="55" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="102"/>
-      <c r="B55" s="102"/>
+      <c r="A55" s="101"/>
+      <c r="B55" s="99"/>
       <c r="C55" s="116"/>
       <c r="D55" s="114"/>
       <c r="E55" s="34">
@@ -58319,19 +58314,18 @@
       </c>
       <c r="O55" s="69"/>
       <c r="P55" s="120"/>
-      <c r="Q55" s="121"/>
-      <c r="R55" s="122"/>
+      <c r="Q55" s="124"/>
+      <c r="R55" s="125"/>
       <c r="S55" s="48"/>
       <c r="T55" s="48"/>
       <c r="U55" s="49"/>
       <c r="V55" s="50"/>
-      <c r="X55" s="123"/>
     </row>
     <row r="56" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="101"/>
       <c r="B56" s="99"/>
       <c r="C56" s="116"/>
-      <c r="D56" s="114"/>
+      <c r="D56" s="116"/>
       <c r="E56" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -58369,7 +58363,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F57" s="57"/>
+      <c r="F57" s="60"/>
       <c r="G57" s="58"/>
       <c r="H57" s="59"/>
       <c r="I57" s="60"/>
@@ -58394,81 +58388,82 @@
       <c r="V57" s="50"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="101"/>
-      <c r="B58" s="99"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="A58" s="126"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="128"/>
       <c r="E58" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F58" s="60"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="60"/>
+      <c r="F58" s="129"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="132"/>
       <c r="J58" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K58" s="81"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="61"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="134"/>
       <c r="N58" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O58" s="69"/>
-      <c r="P58" s="120"/>
-      <c r="Q58" s="124"/>
-      <c r="R58" s="125"/>
-      <c r="S58" s="48"/>
-      <c r="T58" s="48"/>
-      <c r="U58" s="49"/>
-      <c r="V58" s="50"/>
-    </row>
-    <row r="59" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="126"/>
-      <c r="B59" s="127"/>
-      <c r="C59" s="128"/>
-      <c r="D59" s="128"/>
-      <c r="E59" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="129"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="132"/>
+      <c r="O58" s="135"/>
+      <c r="P58" s="136"/>
+      <c r="Q58" s="137"/>
+      <c r="R58" s="138"/>
+      <c r="S58" s="139"/>
+      <c r="T58" s="139"/>
+      <c r="U58" s="140"/>
+      <c r="V58" s="141"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="142"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="146"/>
+      <c r="G59" s="147"/>
+      <c r="H59" s="148"/>
+      <c r="I59" s="146"/>
       <c r="J59" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K59" s="133"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
       <c r="N59" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O59" s="135"/>
-      <c r="P59" s="136"/>
-      <c r="Q59" s="137"/>
-      <c r="R59" s="138"/>
-      <c r="S59" s="139"/>
-      <c r="T59" s="139"/>
-      <c r="U59" s="140"/>
-      <c r="V59" s="141"/>
-    </row>
-    <row r="60" spans="1:24" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="142"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="144"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="146"/>
-      <c r="G60" s="147"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="146"/>
+      <c r="O59" s="149"/>
+      <c r="P59" s="150"/>
+      <c r="Q59" s="151"/>
+      <c r="R59" s="125"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="48"/>
+      <c r="U59" s="49"/>
+      <c r="V59" s="50"/>
+    </row>
+    <row r="60" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="152" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="154"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="155"/>
       <c r="J60" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -58480,141 +58475,139 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O60" s="149"/>
-      <c r="P60" s="150"/>
-      <c r="Q60" s="151"/>
+      <c r="O60" s="542"/>
+      <c r="P60" s="544"/>
+      <c r="Q60" s="374"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
       <c r="T60" s="48"/>
       <c r="U60" s="49"/>
       <c r="V60" s="50"/>
     </row>
-    <row r="61" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="152" t="s">
+    <row r="61" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="577" t="s">
         <v>43</v>
       </c>
       <c r="B61" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="154"/>
-      <c r="D61" s="116"/>
+      <c r="C61" s="159"/>
+      <c r="D61" s="160"/>
       <c r="E61" s="56"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="157"/>
-      <c r="I61" s="155"/>
+      <c r="F61" s="155">
+        <v>598.4</v>
+      </c>
+      <c r="G61" s="656">
+        <v>45080</v>
+      </c>
+      <c r="H61" s="654" t="s">
+        <v>351</v>
+      </c>
+      <c r="I61" s="155">
+        <v>575.6</v>
+      </c>
       <c r="J61" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="40"/>
+        <v>-22.799999999999955</v>
+      </c>
+      <c r="K61" s="40">
+        <v>90</v>
+      </c>
       <c r="L61" s="61"/>
       <c r="M61" s="61"/>
       <c r="N61" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="542"/>
-      <c r="P61" s="544"/>
-      <c r="Q61" s="374"/>
+        <v>51804</v>
+      </c>
+      <c r="O61" s="658" t="s">
+        <v>64</v>
+      </c>
+      <c r="P61" s="660">
+        <v>45100</v>
+      </c>
+      <c r="Q61" s="543"/>
       <c r="R61" s="125"/>
       <c r="S61" s="48"/>
       <c r="T61" s="48"/>
       <c r="U61" s="49"/>
       <c r="V61" s="50"/>
     </row>
-    <row r="62" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="584" t="s">
-        <v>43</v>
-      </c>
+    <row r="62" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="578"/>
       <c r="B62" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="159"/>
+        <v>126</v>
+      </c>
+      <c r="C62" s="161"/>
       <c r="D62" s="160"/>
       <c r="E62" s="56"/>
       <c r="F62" s="155">
-        <v>598.4</v>
-      </c>
-      <c r="G62" s="665">
-        <v>45080</v>
-      </c>
-      <c r="H62" s="663" t="s">
-        <v>352</v>
-      </c>
+        <v>105.6</v>
+      </c>
+      <c r="G62" s="657"/>
+      <c r="H62" s="655"/>
       <c r="I62" s="155">
-        <v>575.6</v>
+        <v>105.6</v>
       </c>
       <c r="J62" s="39">
         <f t="shared" si="2"/>
-        <v>-22.799999999999955</v>
+        <v>0</v>
       </c>
       <c r="K62" s="40">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L62" s="61"/>
       <c r="M62" s="61"/>
       <c r="N62" s="42">
         <f t="shared" si="4"/>
-        <v>51804</v>
-      </c>
-      <c r="O62" s="667" t="s">
-        <v>64</v>
-      </c>
-      <c r="P62" s="669">
-        <v>45100</v>
-      </c>
-      <c r="Q62" s="543"/>
+        <v>10243.199999999999</v>
+      </c>
+      <c r="O62" s="659"/>
+      <c r="P62" s="661"/>
+      <c r="Q62" s="166"/>
       <c r="R62" s="125"/>
       <c r="S62" s="48"/>
       <c r="T62" s="48"/>
       <c r="U62" s="49"/>
       <c r="V62" s="50"/>
     </row>
-    <row r="63" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="585"/>
+    <row r="63" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="110"/>
       <c r="B63" s="153" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="161"/>
+        <v>23</v>
+      </c>
+      <c r="C63" s="163"/>
       <c r="D63" s="160"/>
       <c r="E63" s="56"/>
-      <c r="F63" s="155">
-        <v>105.6</v>
-      </c>
-      <c r="G63" s="666"/>
-      <c r="H63" s="664"/>
-      <c r="I63" s="155">
-        <v>105.6</v>
-      </c>
+      <c r="F63" s="155"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="164"/>
+      <c r="I63" s="155"/>
       <c r="J63" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K63" s="40">
-        <v>97</v>
-      </c>
+      <c r="K63" s="40"/>
       <c r="L63" s="61"/>
       <c r="M63" s="61"/>
       <c r="N63" s="42">
         <f t="shared" si="4"/>
-        <v>10243.199999999999</v>
-      </c>
-      <c r="O63" s="668"/>
-      <c r="P63" s="670"/>
-      <c r="Q63" s="166"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="394"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="158"/>
       <c r="R63" s="125"/>
       <c r="S63" s="48"/>
       <c r="T63" s="48"/>
       <c r="U63" s="49"/>
       <c r="V63" s="50"/>
     </row>
-    <row r="64" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="110"/>
       <c r="B64" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="163"/>
+      <c r="C64" s="165"/>
       <c r="D64" s="160"/>
       <c r="E64" s="56"/>
       <c r="F64" s="155"/>
@@ -58625,15 +58618,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K64" s="40"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="61"/>
+      <c r="K64" s="462"/>
+      <c r="L64" s="463"/>
+      <c r="M64" s="463"/>
       <c r="N64" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O64" s="394"/>
-      <c r="P64" s="36"/>
+      <c r="O64" s="158"/>
+      <c r="P64" s="58"/>
       <c r="Q64" s="158"/>
       <c r="R64" s="125"/>
       <c r="S64" s="48"/>
@@ -58641,17 +58634,15 @@
       <c r="U64" s="49"/>
       <c r="V64" s="50"/>
     </row>
-    <row r="65" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="110"/>
-      <c r="B65" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" s="165"/>
+      <c r="B65" s="386"/>
+      <c r="C65" s="536"/>
       <c r="D65" s="160"/>
       <c r="E65" s="56"/>
       <c r="F65" s="155"/>
       <c r="G65" s="156"/>
-      <c r="H65" s="164"/>
+      <c r="H65" s="59"/>
       <c r="I65" s="155"/>
       <c r="J65" s="39">
         <f t="shared" si="2"/>
@@ -58664,38 +58655,54 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O65" s="158"/>
+      <c r="O65" s="537"/>
       <c r="P65" s="58"/>
-      <c r="Q65" s="158"/>
+      <c r="Q65" s="166"/>
       <c r="R65" s="125"/>
       <c r="S65" s="48"/>
       <c r="T65" s="48"/>
       <c r="U65" s="49"/>
       <c r="V65" s="50"/>
     </row>
-    <row r="66" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="110"/>
+    <row r="66" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="110" t="s">
+        <v>136</v>
+      </c>
       <c r="B66" s="386"/>
       <c r="C66" s="536"/>
       <c r="D66" s="160"/>
       <c r="E66" s="56"/>
-      <c r="F66" s="155"/>
-      <c r="G66" s="156"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="155"/>
+      <c r="F66" s="155">
+        <v>240</v>
+      </c>
+      <c r="G66" s="156">
+        <v>45096</v>
+      </c>
+      <c r="H66" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="I66" s="155">
+        <v>240</v>
+      </c>
       <c r="J66" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K66" s="462"/>
+      <c r="K66" s="462">
+        <v>275</v>
+      </c>
       <c r="L66" s="463"/>
       <c r="M66" s="463"/>
       <c r="N66" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="537"/>
-      <c r="P66" s="58"/>
+        <v>66000</v>
+      </c>
+      <c r="O66" s="537" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" s="58">
+        <v>45103</v>
+      </c>
       <c r="Q66" s="166"/>
       <c r="R66" s="125"/>
       <c r="S66" s="48"/>
@@ -58703,45 +58710,29 @@
       <c r="U66" s="49"/>
       <c r="V66" s="50"/>
     </row>
-    <row r="67" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="110" t="s">
-        <v>136</v>
-      </c>
+    <row r="67" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="456"/>
       <c r="B67" s="386"/>
-      <c r="C67" s="536"/>
-      <c r="D67" s="160"/>
+      <c r="C67" s="492"/>
+      <c r="D67" s="445"/>
       <c r="E67" s="56"/>
-      <c r="F67" s="155">
-        <v>240</v>
-      </c>
-      <c r="G67" s="156">
-        <v>45096</v>
-      </c>
-      <c r="H67" s="59" t="s">
-        <v>353</v>
-      </c>
-      <c r="I67" s="155">
-        <v>240</v>
-      </c>
+      <c r="F67" s="493"/>
+      <c r="G67" s="494"/>
+      <c r="H67" s="506"/>
+      <c r="I67" s="493"/>
       <c r="J67" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K67" s="462">
-        <v>275</v>
-      </c>
+      <c r="K67" s="496"/>
       <c r="L67" s="463"/>
       <c r="M67" s="463"/>
       <c r="N67" s="42">
         <f t="shared" si="4"/>
-        <v>66000</v>
-      </c>
-      <c r="O67" s="537" t="s">
-        <v>21</v>
-      </c>
-      <c r="P67" s="58">
-        <v>45103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O67" s="169"/>
+      <c r="P67" s="58"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="48"/>
@@ -58749,21 +58740,21 @@
       <c r="U67" s="49"/>
       <c r="V67" s="50"/>
     </row>
-    <row r="68" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="456"/>
+    <row r="68" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="80"/>
       <c r="B68" s="386"/>
-      <c r="C68" s="492"/>
+      <c r="C68" s="444"/>
       <c r="D68" s="445"/>
       <c r="E68" s="56"/>
-      <c r="F68" s="493"/>
-      <c r="G68" s="494"/>
-      <c r="H68" s="506"/>
-      <c r="I68" s="493"/>
+      <c r="F68" s="446"/>
+      <c r="G68" s="447"/>
+      <c r="H68" s="448"/>
+      <c r="I68" s="446"/>
       <c r="J68" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K68" s="496"/>
+      <c r="K68" s="462"/>
       <c r="L68" s="463"/>
       <c r="M68" s="463"/>
       <c r="N68" s="42">
@@ -58779,15 +58770,15 @@
       <c r="U68" s="49"/>
       <c r="V68" s="50"/>
     </row>
-    <row r="69" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="80"/>
+    <row r="69" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="449"/>
       <c r="B69" s="386"/>
-      <c r="C69" s="444"/>
+      <c r="C69" s="450"/>
       <c r="D69" s="445"/>
       <c r="E69" s="56"/>
       <c r="F69" s="446"/>
       <c r="G69" s="447"/>
-      <c r="H69" s="448"/>
+      <c r="H69" s="453"/>
       <c r="I69" s="446"/>
       <c r="J69" s="39">
         <f t="shared" si="2"/>
@@ -58795,13 +58786,13 @@
       </c>
       <c r="K69" s="462"/>
       <c r="L69" s="463"/>
-      <c r="M69" s="463"/>
+      <c r="M69" s="464"/>
       <c r="N69" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O69" s="169"/>
-      <c r="P69" s="58"/>
+      <c r="P69" s="120"/>
       <c r="Q69" s="166"/>
       <c r="R69" s="125"/>
       <c r="S69" s="48"/>
@@ -58809,7 +58800,7 @@
       <c r="U69" s="49"/>
       <c r="V69" s="50"/>
     </row>
-    <row r="70" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="449"/>
       <c r="B70" s="386"/>
       <c r="C70" s="450"/>
@@ -58839,7 +58830,7 @@
       <c r="U70" s="49"/>
       <c r="V70" s="50"/>
     </row>
-    <row r="71" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="449"/>
       <c r="B71" s="386"/>
       <c r="C71" s="450"/>
@@ -58855,7 +58846,7 @@
       </c>
       <c r="K71" s="462"/>
       <c r="L71" s="463"/>
-      <c r="M71" s="464"/>
+      <c r="M71" s="463"/>
       <c r="N71" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -58870,7 +58861,7 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="449"/>
+      <c r="A72" s="90"/>
       <c r="B72" s="386"/>
       <c r="C72" s="450"/>
       <c r="D72" s="445"/>
@@ -58891,7 +58882,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="169"/>
-      <c r="P72" s="120"/>
+      <c r="P72" s="58"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="48"/>
@@ -58899,15 +58890,15 @@
       <c r="U72" s="49"/>
       <c r="V72" s="50"/>
     </row>
-    <row r="73" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="90"/>
+    <row r="73" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+      <c r="A73" s="456"/>
       <c r="B73" s="386"/>
       <c r="C73" s="450"/>
-      <c r="D73" s="445"/>
+      <c r="D73" s="454"/>
       <c r="E73" s="56"/>
       <c r="F73" s="446"/>
       <c r="G73" s="447"/>
-      <c r="H73" s="453"/>
+      <c r="H73" s="455"/>
       <c r="I73" s="446"/>
       <c r="J73" s="39">
         <f t="shared" si="2"/>
@@ -58915,9 +58906,9 @@
       </c>
       <c r="K73" s="462"/>
       <c r="L73" s="463"/>
-      <c r="M73" s="463"/>
+      <c r="M73" s="465"/>
       <c r="N73" s="42">
-        <f t="shared" si="4"/>
+        <f>K73*I73</f>
         <v>0</v>
       </c>
       <c r="O73" s="169"/>
@@ -58929,7 +58920,7 @@
       <c r="U73" s="49"/>
       <c r="V73" s="50"/>
     </row>
-    <row r="74" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="456"/>
       <c r="B74" s="386"/>
       <c r="C74" s="450"/>
@@ -58944,8 +58935,8 @@
         <v>0</v>
       </c>
       <c r="K74" s="462"/>
-      <c r="L74" s="463"/>
-      <c r="M74" s="465"/>
+      <c r="L74" s="435"/>
+      <c r="M74" s="435"/>
       <c r="N74" s="42">
         <f>K74*I74</f>
         <v>0</v>
@@ -58959,23 +58950,23 @@
       <c r="U74" s="49"/>
       <c r="V74" s="50"/>
     </row>
-    <row r="75" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="456"/>
-      <c r="B75" s="386"/>
+      <c r="B75" s="369"/>
       <c r="C75" s="450"/>
       <c r="D75" s="454"/>
       <c r="E75" s="56"/>
       <c r="F75" s="446"/>
       <c r="G75" s="447"/>
-      <c r="H75" s="455"/>
+      <c r="H75" s="451"/>
       <c r="I75" s="446"/>
       <c r="J75" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K75" s="462"/>
-      <c r="L75" s="435"/>
-      <c r="M75" s="435"/>
+      <c r="L75" s="463"/>
+      <c r="M75" s="463"/>
       <c r="N75" s="42">
         <f>K75*I75</f>
         <v>0</v>
@@ -58984,20 +58975,20 @@
       <c r="P75" s="58"/>
       <c r="Q75" s="166"/>
       <c r="R75" s="125"/>
-      <c r="S75" s="48"/>
-      <c r="T75" s="48"/>
+      <c r="S75" s="176"/>
+      <c r="T75" s="177"/>
       <c r="U75" s="49"/>
       <c r="V75" s="50"/>
     </row>
-    <row r="76" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="456"/>
-      <c r="B76" s="369"/>
-      <c r="C76" s="450"/>
-      <c r="D76" s="454"/>
+    <row r="76" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="90"/>
+      <c r="B76" s="386"/>
+      <c r="C76" s="452"/>
+      <c r="D76" s="445"/>
       <c r="E76" s="56"/>
       <c r="F76" s="446"/>
       <c r="G76" s="447"/>
-      <c r="H76" s="451"/>
+      <c r="H76" s="453"/>
       <c r="I76" s="446"/>
       <c r="J76" s="39">
         <f t="shared" si="2"/>
@@ -59019,10 +59010,10 @@
       <c r="U76" s="49"/>
       <c r="V76" s="50"/>
     </row>
-    <row r="77" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="90"/>
       <c r="B77" s="386"/>
-      <c r="C77" s="452"/>
+      <c r="C77" s="450"/>
       <c r="D77" s="445"/>
       <c r="E77" s="56"/>
       <c r="F77" s="446"/>
@@ -59034,10 +59025,10 @@
         <v>0</v>
       </c>
       <c r="K77" s="462"/>
-      <c r="L77" s="463"/>
+      <c r="L77" s="435"/>
       <c r="M77" s="463"/>
       <c r="N77" s="42">
-        <f>K77*I77</f>
+        <f t="shared" ref="N77:N83" si="5">K77*I77</f>
         <v>0</v>
       </c>
       <c r="O77" s="169"/>
@@ -59064,10 +59055,10 @@
         <v>0</v>
       </c>
       <c r="K78" s="462"/>
-      <c r="L78" s="435"/>
+      <c r="L78" s="467"/>
       <c r="M78" s="463"/>
       <c r="N78" s="42">
-        <f t="shared" ref="N78:N84" si="5">K78*I78</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O78" s="169"/>
@@ -59081,7 +59072,7 @@
     </row>
     <row r="79" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="90"/>
-      <c r="B79" s="386"/>
+      <c r="B79" s="369"/>
       <c r="C79" s="450"/>
       <c r="D79" s="445"/>
       <c r="E79" s="56"/>
@@ -59109,10 +59100,10 @@
       <c r="U79" s="49"/>
       <c r="V79" s="50"/>
     </row>
-    <row r="80" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="90"/>
       <c r="B80" s="369"/>
-      <c r="C80" s="450"/>
+      <c r="C80" s="452"/>
       <c r="D80" s="445"/>
       <c r="E80" s="56"/>
       <c r="F80" s="446"/>
@@ -59124,7 +59115,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="462"/>
-      <c r="L80" s="467"/>
+      <c r="L80" s="463"/>
       <c r="M80" s="463"/>
       <c r="N80" s="42">
         <f t="shared" si="5"/>
@@ -59140,14 +59131,14 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="90"/>
-      <c r="B81" s="369"/>
-      <c r="C81" s="452"/>
-      <c r="D81" s="445"/>
+      <c r="A81" s="456"/>
+      <c r="B81" s="386"/>
+      <c r="C81" s="457"/>
+      <c r="D81" s="454"/>
       <c r="E81" s="56"/>
       <c r="F81" s="446"/>
       <c r="G81" s="447"/>
-      <c r="H81" s="453"/>
+      <c r="H81" s="448"/>
       <c r="I81" s="446"/>
       <c r="J81" s="39">
         <f t="shared" si="2"/>
@@ -59172,7 +59163,7 @@
     <row r="82" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="456"/>
       <c r="B82" s="386"/>
-      <c r="C82" s="457"/>
+      <c r="C82" s="458"/>
       <c r="D82" s="454"/>
       <c r="E82" s="56"/>
       <c r="F82" s="446"/>
@@ -59199,10 +59190,10 @@
       <c r="U82" s="49"/>
       <c r="V82" s="50"/>
     </row>
-    <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
-      <c r="B83" s="386"/>
-      <c r="C83" s="458"/>
+      <c r="B83" s="459"/>
+      <c r="C83" s="452"/>
       <c r="D83" s="454"/>
       <c r="E83" s="56"/>
       <c r="F83" s="446"/>
@@ -59229,15 +59220,15 @@
       <c r="U83" s="49"/>
       <c r="V83" s="50"/>
     </row>
-    <row r="84" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="456"/>
-      <c r="B84" s="459"/>
+      <c r="B84" s="386"/>
       <c r="C84" s="452"/>
       <c r="D84" s="454"/>
       <c r="E84" s="56"/>
       <c r="F84" s="446"/>
       <c r="G84" s="447"/>
-      <c r="H84" s="448"/>
+      <c r="H84" s="451"/>
       <c r="I84" s="446"/>
       <c r="J84" s="39">
         <f t="shared" si="2"/>
@@ -59247,11 +59238,11 @@
       <c r="L84" s="463"/>
       <c r="M84" s="463"/>
       <c r="N84" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O84" s="169"/>
-      <c r="P84" s="58"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="158"/>
+      <c r="P84" s="183"/>
       <c r="Q84" s="166"/>
       <c r="R84" s="125"/>
       <c r="S84" s="176"/>
@@ -59261,9 +59252,9 @@
     </row>
     <row r="85" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="456"/>
-      <c r="B85" s="386"/>
+      <c r="B85" s="369"/>
       <c r="C85" s="452"/>
-      <c r="D85" s="454"/>
+      <c r="D85" s="452"/>
       <c r="E85" s="56"/>
       <c r="F85" s="446"/>
       <c r="G85" s="447"/>
@@ -59289,11 +59280,11 @@
       <c r="U85" s="49"/>
       <c r="V85" s="50"/>
     </row>
-    <row r="86" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="456"/>
-      <c r="B86" s="369"/>
-      <c r="C86" s="452"/>
-      <c r="D86" s="452"/>
+      <c r="B86" s="459"/>
+      <c r="C86" s="450"/>
+      <c r="D86" s="454"/>
       <c r="E86" s="56"/>
       <c r="F86" s="446"/>
       <c r="G86" s="447"/>
@@ -59304,7 +59295,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="462"/>
-      <c r="L86" s="463"/>
+      <c r="L86" s="464"/>
       <c r="M86" s="463"/>
       <c r="N86" s="42">
         <f t="shared" si="4"/>
@@ -59312,36 +59303,36 @@
       </c>
       <c r="O86" s="158"/>
       <c r="P86" s="183"/>
-      <c r="Q86" s="166"/>
+      <c r="Q86" s="158"/>
       <c r="R86" s="125"/>
       <c r="S86" s="176"/>
       <c r="T86" s="177"/>
       <c r="U86" s="49"/>
       <c r="V86" s="50"/>
     </row>
-    <row r="87" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="456"/>
-      <c r="B87" s="459"/>
-      <c r="C87" s="450"/>
-      <c r="D87" s="454"/>
+      <c r="B87" s="386"/>
+      <c r="C87" s="461"/>
+      <c r="D87" s="452"/>
       <c r="E87" s="56"/>
       <c r="F87" s="446"/>
-      <c r="G87" s="447"/>
-      <c r="H87" s="451"/>
+      <c r="G87" s="460"/>
+      <c r="H87" s="448"/>
       <c r="I87" s="446"/>
       <c r="J87" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K87" s="462"/>
-      <c r="L87" s="464"/>
+      <c r="L87" s="469"/>
       <c r="M87" s="463"/>
       <c r="N87" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O87" s="158"/>
-      <c r="P87" s="183"/>
+      <c r="O87" s="573"/>
+      <c r="P87" s="631"/>
       <c r="Q87" s="158"/>
       <c r="R87" s="125"/>
       <c r="S87" s="176"/>
@@ -59351,7 +59342,7 @@
     </row>
     <row r="88" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="456"/>
-      <c r="B88" s="386"/>
+      <c r="B88" s="369"/>
       <c r="C88" s="461"/>
       <c r="D88" s="452"/>
       <c r="E88" s="56"/>
@@ -59370,8 +59361,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O88" s="580"/>
-      <c r="P88" s="638"/>
+      <c r="O88" s="574"/>
+      <c r="P88" s="632"/>
       <c r="Q88" s="158"/>
       <c r="R88" s="125"/>
       <c r="S88" s="176"/>
@@ -59379,10 +59370,10 @@
       <c r="U88" s="49"/>
       <c r="V88" s="50"/>
     </row>
-    <row r="89" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="456"/>
       <c r="B89" s="369"/>
-      <c r="C89" s="461"/>
+      <c r="C89" s="452"/>
       <c r="D89" s="452"/>
       <c r="E89" s="56"/>
       <c r="F89" s="446"/>
@@ -59394,14 +59385,14 @@
         <v>0</v>
       </c>
       <c r="K89" s="462"/>
-      <c r="L89" s="469"/>
+      <c r="L89" s="463"/>
       <c r="M89" s="463"/>
       <c r="N89" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O89" s="581"/>
-      <c r="P89" s="639"/>
+      <c r="O89" s="158"/>
+      <c r="P89" s="186"/>
       <c r="Q89" s="158"/>
       <c r="R89" s="125"/>
       <c r="S89" s="176"/>
@@ -59440,15 +59431,15 @@
       <c r="V90" s="50"/>
     </row>
     <row r="91" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="456"/>
-      <c r="B91" s="369"/>
-      <c r="C91" s="452"/>
-      <c r="D91" s="452"/>
+      <c r="A91" s="152"/>
+      <c r="B91" s="178"/>
+      <c r="C91" s="170"/>
+      <c r="D91" s="170"/>
       <c r="E91" s="56"/>
-      <c r="F91" s="446"/>
-      <c r="G91" s="460"/>
-      <c r="H91" s="448"/>
-      <c r="I91" s="446"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="185"/>
+      <c r="H91" s="164"/>
+      <c r="I91" s="155"/>
       <c r="J91" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -59469,15 +59460,15 @@
       <c r="U91" s="49"/>
       <c r="V91" s="50"/>
     </row>
-    <row r="92" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="152"/>
-      <c r="B92" s="178"/>
+      <c r="B92" s="167"/>
       <c r="C92" s="170"/>
-      <c r="D92" s="170"/>
+      <c r="D92" s="174"/>
       <c r="E92" s="56"/>
       <c r="F92" s="155"/>
-      <c r="G92" s="185"/>
-      <c r="H92" s="164"/>
+      <c r="G92" s="156"/>
+      <c r="H92" s="168"/>
       <c r="I92" s="155"/>
       <c r="J92" s="39">
         <f t="shared" si="2"/>
@@ -59491,7 +59482,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="158"/>
-      <c r="P92" s="186"/>
+      <c r="P92" s="183"/>
       <c r="Q92" s="158"/>
       <c r="R92" s="125"/>
       <c r="S92" s="176"/>
@@ -59499,11 +59490,11 @@
       <c r="U92" s="49"/>
       <c r="V92" s="50"/>
     </row>
-    <row r="93" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="152"/>
       <c r="B93" s="167"/>
       <c r="C93" s="170"/>
-      <c r="D93" s="174"/>
+      <c r="D93" s="187"/>
       <c r="E93" s="56"/>
       <c r="F93" s="155"/>
       <c r="G93" s="156"/>
@@ -59513,7 +59504,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K93" s="462"/>
+      <c r="K93" s="468"/>
       <c r="L93" s="463"/>
       <c r="M93" s="463"/>
       <c r="N93" s="42">
@@ -59537,7 +59528,7 @@
       <c r="E94" s="56"/>
       <c r="F94" s="155"/>
       <c r="G94" s="156"/>
-      <c r="H94" s="168"/>
+      <c r="H94" s="164"/>
       <c r="I94" s="155"/>
       <c r="J94" s="39">
         <f t="shared" si="2"/>
@@ -59551,7 +59542,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="158"/>
-      <c r="P94" s="183"/>
+      <c r="P94" s="186"/>
       <c r="Q94" s="158"/>
       <c r="R94" s="125"/>
       <c r="S94" s="176"/>
@@ -59593,7 +59584,7 @@
       <c r="A96" s="152"/>
       <c r="B96" s="167"/>
       <c r="C96" s="170"/>
-      <c r="D96" s="187"/>
+      <c r="D96" s="181"/>
       <c r="E96" s="56"/>
       <c r="F96" s="155"/>
       <c r="G96" s="156"/>
@@ -59624,7 +59615,10 @@
       <c r="B97" s="167"/>
       <c r="C97" s="170"/>
       <c r="D97" s="181"/>
-      <c r="E97" s="56"/>
+      <c r="E97" s="56">
+        <f t="shared" ref="E97:E162" si="6">D97*F97</f>
+        <v>0</v>
+      </c>
       <c r="F97" s="155"/>
       <c r="G97" s="156"/>
       <c r="H97" s="164"/>
@@ -59633,9 +59627,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K97" s="468"/>
-      <c r="L97" s="463"/>
-      <c r="M97" s="463"/>
+      <c r="K97" s="81"/>
+      <c r="L97" s="61"/>
+      <c r="M97" s="61"/>
       <c r="N97" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -59650,17 +59644,17 @@
       <c r="V97" s="50"/>
     </row>
     <row r="98" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="152"/>
+      <c r="A98" s="98"/>
       <c r="B98" s="167"/>
-      <c r="C98" s="170"/>
-      <c r="D98" s="181"/>
+      <c r="C98" s="188"/>
+      <c r="D98" s="187"/>
       <c r="E98" s="56">
-        <f t="shared" ref="E98:E163" si="6">D98*F98</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F98" s="155"/>
       <c r="G98" s="156"/>
-      <c r="H98" s="164"/>
+      <c r="H98" s="168"/>
       <c r="I98" s="155"/>
       <c r="J98" s="39">
         <f t="shared" si="2"/>
@@ -59674,7 +59668,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="158"/>
-      <c r="P98" s="186"/>
+      <c r="P98" s="183"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -59685,7 +59679,7 @@
     <row r="99" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="98"/>
       <c r="B99" s="167"/>
-      <c r="C99" s="188"/>
+      <c r="C99" s="189"/>
       <c r="D99" s="187"/>
       <c r="E99" s="56">
         <f t="shared" si="6"/>
@@ -59707,7 +59701,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="158"/>
-      <c r="P99" s="183"/>
+      <c r="P99" s="190"/>
       <c r="Q99" s="158"/>
       <c r="R99" s="125"/>
       <c r="S99" s="176"/>
@@ -59718,8 +59712,8 @@
     <row r="100" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="98"/>
       <c r="B100" s="167"/>
-      <c r="C100" s="189"/>
-      <c r="D100" s="187"/>
+      <c r="C100" s="187"/>
+      <c r="D100" s="191"/>
       <c r="E100" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -59749,18 +59743,18 @@
       <c r="V100" s="50"/>
     </row>
     <row r="101" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="98"/>
-      <c r="B101" s="167"/>
+      <c r="A101" s="110"/>
+      <c r="B101" s="99"/>
       <c r="C101" s="187"/>
       <c r="D101" s="191"/>
       <c r="E101" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F101" s="155"/>
-      <c r="G101" s="156"/>
-      <c r="H101" s="168"/>
-      <c r="I101" s="155"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="60"/>
       <c r="J101" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -59781,10 +59775,10 @@
       <c r="U101" s="49"/>
       <c r="V101" s="50"/>
     </row>
-    <row r="102" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" s="110"/>
       <c r="B102" s="99"/>
-      <c r="C102" s="187"/>
+      <c r="C102" s="192"/>
       <c r="D102" s="191"/>
       <c r="E102" s="56">
         <f t="shared" si="6"/>
@@ -59799,8 +59793,8 @@
         <v>0</v>
       </c>
       <c r="K102" s="81"/>
-      <c r="L102" s="61"/>
-      <c r="M102" s="61"/>
+      <c r="L102" s="571"/>
+      <c r="M102" s="572"/>
       <c r="N102" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -59817,7 +59811,7 @@
     <row r="103" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" s="110"/>
       <c r="B103" s="99"/>
-      <c r="C103" s="192"/>
+      <c r="C103" s="182"/>
       <c r="D103" s="191"/>
       <c r="E103" s="56">
         <f t="shared" si="6"/>
@@ -59832,8 +59826,8 @@
         <v>0</v>
       </c>
       <c r="K103" s="81"/>
-      <c r="L103" s="578"/>
-      <c r="M103" s="579"/>
+      <c r="L103" s="571"/>
+      <c r="M103" s="572"/>
       <c r="N103" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -59847,10 +59841,10 @@
       <c r="U103" s="49"/>
       <c r="V103" s="50"/>
     </row>
-    <row r="104" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="110"/>
+    <row r="104" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="193"/>
       <c r="B104" s="99"/>
-      <c r="C104" s="182"/>
+      <c r="C104" s="194"/>
       <c r="D104" s="191"/>
       <c r="E104" s="56">
         <f t="shared" si="6"/>
@@ -59865,8 +59859,8 @@
         <v>0</v>
       </c>
       <c r="K104" s="81"/>
-      <c r="L104" s="578"/>
-      <c r="M104" s="579"/>
+      <c r="L104" s="195"/>
+      <c r="M104" s="195"/>
       <c r="N104" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -59880,10 +59874,10 @@
       <c r="U104" s="49"/>
       <c r="V104" s="50"/>
     </row>
-    <row r="105" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="193"/>
+    <row r="105" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="196"/>
       <c r="B105" s="99"/>
-      <c r="C105" s="194"/>
+      <c r="C105" s="154"/>
       <c r="D105" s="191"/>
       <c r="E105" s="56">
         <f t="shared" si="6"/>
@@ -59913,10 +59907,10 @@
       <c r="U105" s="49"/>
       <c r="V105" s="50"/>
     </row>
-    <row r="106" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="196"/>
+    <row r="106" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="101"/>
       <c r="B106" s="99"/>
-      <c r="C106" s="154"/>
+      <c r="C106" s="191"/>
       <c r="D106" s="191"/>
       <c r="E106" s="56">
         <f t="shared" si="6"/>
@@ -59931,8 +59925,8 @@
         <v>0</v>
       </c>
       <c r="K106" s="81"/>
-      <c r="L106" s="195"/>
-      <c r="M106" s="195"/>
+      <c r="L106" s="61"/>
+      <c r="M106" s="61"/>
       <c r="N106" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -60013,9 +60007,9 @@
       <c r="V108" s="50"/>
     </row>
     <row r="109" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A109" s="101"/>
+      <c r="A109" s="110"/>
       <c r="B109" s="99"/>
-      <c r="C109" s="191"/>
+      <c r="C109" s="187"/>
       <c r="D109" s="191"/>
       <c r="E109" s="56">
         <f t="shared" si="6"/>
@@ -60036,8 +60030,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O109" s="158"/>
-      <c r="P109" s="190"/>
+      <c r="O109" s="573"/>
+      <c r="P109" s="575"/>
       <c r="Q109" s="158"/>
       <c r="R109" s="125"/>
       <c r="S109" s="176"/>
@@ -60069,8 +60063,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O110" s="580"/>
-      <c r="P110" s="582"/>
+      <c r="O110" s="574"/>
+      <c r="P110" s="576"/>
       <c r="Q110" s="158"/>
       <c r="R110" s="125"/>
       <c r="S110" s="176"/>
@@ -60079,9 +60073,9 @@
       <c r="V110" s="50"/>
     </row>
     <row r="111" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="110"/>
+      <c r="A111" s="99"/>
       <c r="B111" s="99"/>
-      <c r="C111" s="187"/>
+      <c r="C111" s="191"/>
       <c r="D111" s="191"/>
       <c r="E111" s="56">
         <f t="shared" si="6"/>
@@ -60102,8 +60096,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O111" s="581"/>
-      <c r="P111" s="583"/>
+      <c r="O111" s="158"/>
+      <c r="P111" s="190"/>
       <c r="Q111" s="158"/>
       <c r="R111" s="125"/>
       <c r="S111" s="176"/>
@@ -60145,10 +60139,10 @@
       <c r="V112" s="50"/>
     </row>
     <row r="113" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="99"/>
+      <c r="A113" s="102"/>
       <c r="B113" s="99"/>
-      <c r="C113" s="191"/>
-      <c r="D113" s="191"/>
+      <c r="C113" s="197"/>
+      <c r="D113" s="197"/>
       <c r="E113" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -60177,11 +60171,11 @@
       <c r="U113" s="49"/>
       <c r="V113" s="50"/>
     </row>
-    <row r="114" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="102"/>
-      <c r="B114" s="99"/>
-      <c r="C114" s="197"/>
-      <c r="D114" s="197"/>
+    <row r="114" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A114" s="152"/>
+      <c r="B114" s="110"/>
+      <c r="C114" s="194"/>
+      <c r="D114" s="194"/>
       <c r="E114" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -60213,8 +60207,8 @@
     <row r="115" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A115" s="152"/>
       <c r="B115" s="110"/>
-      <c r="C115" s="194"/>
-      <c r="D115" s="194"/>
+      <c r="C115" s="197"/>
+      <c r="D115" s="197"/>
       <c r="E115" s="56">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -60276,9 +60270,9 @@
       <c r="U116" s="49"/>
       <c r="V116" s="50"/>
     </row>
-    <row r="117" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="152"/>
-      <c r="B117" s="110"/>
+    <row r="117" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="101"/>
+      <c r="B117" s="99"/>
       <c r="C117" s="197"/>
       <c r="D117" s="197"/>
       <c r="E117" s="56">
@@ -60305,7 +60299,7 @@
       <c r="Q117" s="158"/>
       <c r="R117" s="125"/>
       <c r="S117" s="176"/>
-      <c r="T117" s="177"/>
+      <c r="T117" s="176"/>
       <c r="U117" s="49"/>
       <c r="V117" s="50"/>
     </row>
@@ -60375,9 +60369,9 @@
       <c r="U119" s="49"/>
       <c r="V119" s="50"/>
     </row>
-    <row r="120" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A120" s="101"/>
-      <c r="B120" s="99"/>
+    <row r="120" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A120" s="99"/>
+      <c r="B120" s="198"/>
       <c r="C120" s="197"/>
       <c r="D120" s="197"/>
       <c r="E120" s="56">
@@ -60404,13 +60398,13 @@
       <c r="Q120" s="158"/>
       <c r="R120" s="125"/>
       <c r="S120" s="176"/>
-      <c r="T120" s="176"/>
+      <c r="T120" s="177"/>
       <c r="U120" s="49"/>
       <c r="V120" s="50"/>
     </row>
-    <row r="121" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A121" s="99"/>
-      <c r="B121" s="198"/>
+      <c r="B121" s="99"/>
       <c r="C121" s="197"/>
       <c r="D121" s="197"/>
       <c r="E121" s="56">
@@ -60475,7 +60469,7 @@
       <c r="V122" s="50"/>
     </row>
     <row r="123" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A123" s="99"/>
+      <c r="A123" s="152"/>
       <c r="B123" s="99"/>
       <c r="C123" s="197"/>
       <c r="D123" s="197"/>
@@ -60507,18 +60501,18 @@
       <c r="U123" s="49"/>
       <c r="V123" s="50"/>
     </row>
-    <row r="124" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A124" s="152"/>
-      <c r="B124" s="99"/>
-      <c r="C124" s="197"/>
-      <c r="D124" s="197"/>
-      <c r="E124" s="56">
+    <row r="124" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="199"/>
+      <c r="B124" s="199"/>
+      <c r="C124" s="200"/>
+      <c r="D124" s="200"/>
+      <c r="E124" s="201">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F124" s="60"/>
-      <c r="G124" s="58"/>
-      <c r="H124" s="59"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="552"/>
       <c r="I124" s="60"/>
       <c r="J124" s="39">
         <f t="shared" si="2"/>
@@ -60540,18 +60534,18 @@
       <c r="U124" s="49"/>
       <c r="V124" s="50"/>
     </row>
-    <row r="125" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="199"/>
-      <c r="B125" s="199"/>
-      <c r="C125" s="200"/>
-      <c r="D125" s="200"/>
-      <c r="E125" s="201">
+    <row r="125" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="99"/>
+      <c r="B125" s="99"/>
+      <c r="C125" s="197"/>
+      <c r="D125" s="197"/>
+      <c r="E125" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F125" s="38"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="552"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="58"/>
+      <c r="H125" s="59"/>
       <c r="I125" s="60"/>
       <c r="J125" s="39">
         <f t="shared" si="2"/>
@@ -60574,7 +60568,7 @@
       <c r="V125" s="50"/>
     </row>
     <row r="126" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="99"/>
+      <c r="A126" s="110"/>
       <c r="B126" s="99"/>
       <c r="C126" s="197"/>
       <c r="D126" s="197"/>
@@ -60673,7 +60667,7 @@
       <c r="V128" s="50"/>
     </row>
     <row r="129" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="110"/>
+      <c r="A129" s="99"/>
       <c r="B129" s="99"/>
       <c r="C129" s="197"/>
       <c r="D129" s="197"/>
@@ -60706,7 +60700,7 @@
       <c r="V129" s="50"/>
     </row>
     <row r="130" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="99"/>
+      <c r="A130" s="98"/>
       <c r="B130" s="99"/>
       <c r="C130" s="197"/>
       <c r="D130" s="197"/>
@@ -60726,7 +60720,7 @@
       <c r="L130" s="61"/>
       <c r="M130" s="61"/>
       <c r="N130" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N130:N193" si="7">K130*I130</f>
         <v>0</v>
       </c>
       <c r="O130" s="158"/>
@@ -60739,7 +60733,7 @@
       <c r="V130" s="50"/>
     </row>
     <row r="131" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="98"/>
+      <c r="A131" s="101"/>
       <c r="B131" s="99"/>
       <c r="C131" s="197"/>
       <c r="D131" s="197"/>
@@ -60759,7 +60753,7 @@
       <c r="L131" s="61"/>
       <c r="M131" s="61"/>
       <c r="N131" s="42">
-        <f t="shared" ref="N131:N194" si="7">K131*I131</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O131" s="158"/>
@@ -60805,7 +60799,7 @@
       <c r="V132" s="50"/>
     </row>
     <row r="133" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="101"/>
+      <c r="A133" s="202"/>
       <c r="B133" s="99"/>
       <c r="C133" s="197"/>
       <c r="D133" s="197"/>
@@ -60838,7 +60832,7 @@
       <c r="V133" s="50"/>
     </row>
     <row r="134" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="202"/>
+      <c r="A134" s="203"/>
       <c r="B134" s="99"/>
       <c r="C134" s="197"/>
       <c r="D134" s="197"/>
@@ -60871,7 +60865,7 @@
       <c r="V134" s="50"/>
     </row>
     <row r="135" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="203"/>
+      <c r="A135" s="204"/>
       <c r="B135" s="99"/>
       <c r="C135" s="197"/>
       <c r="D135" s="197"/>
@@ -60906,8 +60900,8 @@
     <row r="136" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="204"/>
       <c r="B136" s="99"/>
-      <c r="C136" s="197"/>
-      <c r="D136" s="197"/>
+      <c r="C136" s="154"/>
+      <c r="D136" s="154"/>
       <c r="E136" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -60917,7 +60911,7 @@
       <c r="H136" s="59"/>
       <c r="I136" s="60"/>
       <c r="J136" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J136:J199" si="8">I136-F136</f>
         <v>0</v>
       </c>
       <c r="K136" s="81"/>
@@ -60937,20 +60931,20 @@
       <c r="V136" s="50"/>
     </row>
     <row r="137" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="204"/>
+      <c r="A137" s="203"/>
       <c r="B137" s="99"/>
-      <c r="C137" s="154"/>
-      <c r="D137" s="154"/>
+      <c r="C137" s="197"/>
+      <c r="D137" s="197"/>
       <c r="E137" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F137" s="60"/>
       <c r="G137" s="58"/>
-      <c r="H137" s="59"/>
+      <c r="H137" s="205"/>
       <c r="I137" s="60"/>
       <c r="J137" s="39">
-        <f t="shared" ref="J137:J200" si="8">I137-F137</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K137" s="81"/>
@@ -60972,8 +60966,8 @@
     <row r="138" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="203"/>
       <c r="B138" s="99"/>
-      <c r="C138" s="197"/>
-      <c r="D138" s="197"/>
+      <c r="C138" s="154"/>
+      <c r="D138" s="154"/>
       <c r="E138" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -61005,8 +60999,8 @@
     <row r="139" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="203"/>
       <c r="B139" s="99"/>
-      <c r="C139" s="154"/>
-      <c r="D139" s="154"/>
+      <c r="C139" s="197"/>
+      <c r="D139" s="197"/>
       <c r="E139" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -61038,8 +61032,8 @@
     <row r="140" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="203"/>
       <c r="B140" s="99"/>
-      <c r="C140" s="197"/>
-      <c r="D140" s="197"/>
+      <c r="C140" s="194"/>
+      <c r="D140" s="194"/>
       <c r="E140" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -61060,7 +61054,7 @@
         <v>0</v>
       </c>
       <c r="O140" s="158"/>
-      <c r="P140" s="190"/>
+      <c r="P140" s="183"/>
       <c r="Q140" s="158"/>
       <c r="R140" s="125"/>
       <c r="S140" s="176"/>
@@ -61068,18 +61062,18 @@
       <c r="U140" s="49"/>
       <c r="V140" s="50"/>
     </row>
-    <row r="141" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="203"/>
+    <row r="141" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="99"/>
       <c r="B141" s="99"/>
-      <c r="C141" s="194"/>
-      <c r="D141" s="194"/>
+      <c r="C141" s="197"/>
+      <c r="D141" s="197"/>
       <c r="E141" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F141" s="60"/>
       <c r="G141" s="58"/>
-      <c r="H141" s="205"/>
+      <c r="H141" s="206"/>
       <c r="I141" s="60"/>
       <c r="J141" s="39">
         <f t="shared" si="8"/>
@@ -61093,9 +61087,9 @@
         <v>0</v>
       </c>
       <c r="O141" s="158"/>
-      <c r="P141" s="183"/>
+      <c r="P141" s="207"/>
       <c r="Q141" s="158"/>
-      <c r="R141" s="125"/>
+      <c r="R141" s="208"/>
       <c r="S141" s="176"/>
       <c r="T141" s="177"/>
       <c r="U141" s="49"/>
@@ -61200,8 +61194,8 @@
       <c r="U144" s="49"/>
       <c r="V144" s="50"/>
     </row>
-    <row r="145" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="99"/>
+    <row r="145" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="102"/>
       <c r="B145" s="99"/>
       <c r="C145" s="197"/>
       <c r="D145" s="197"/>
@@ -61211,7 +61205,7 @@
       </c>
       <c r="F145" s="60"/>
       <c r="G145" s="58"/>
-      <c r="H145" s="206"/>
+      <c r="H145" s="205"/>
       <c r="I145" s="60"/>
       <c r="J145" s="39">
         <f t="shared" si="8"/>
@@ -61224,9 +61218,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O145" s="158"/>
-      <c r="P145" s="207"/>
-      <c r="Q145" s="158"/>
+      <c r="O145" s="69"/>
+      <c r="P145" s="209"/>
+      <c r="Q145" s="210"/>
       <c r="R145" s="208"/>
       <c r="S145" s="176"/>
       <c r="T145" s="177"/>
@@ -61234,7 +61228,7 @@
       <c r="V145" s="50"/>
     </row>
     <row r="146" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="102"/>
+      <c r="A146" s="99"/>
       <c r="B146" s="99"/>
       <c r="C146" s="197"/>
       <c r="D146" s="197"/>
@@ -61267,10 +61261,10 @@
       <c r="V146" s="50"/>
     </row>
     <row r="147" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="99"/>
+      <c r="A147" s="101"/>
       <c r="B147" s="99"/>
-      <c r="C147" s="197"/>
-      <c r="D147" s="197"/>
+      <c r="C147" s="181"/>
+      <c r="D147" s="181"/>
       <c r="E147" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -61432,10 +61426,10 @@
       <c r="V151" s="50"/>
     </row>
     <row r="152" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="101"/>
+      <c r="A152" s="203"/>
       <c r="B152" s="99"/>
-      <c r="C152" s="181"/>
-      <c r="D152" s="181"/>
+      <c r="C152" s="197"/>
+      <c r="D152" s="197"/>
       <c r="E152" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -61465,10 +61459,10 @@
       <c r="V152" s="50"/>
     </row>
     <row r="153" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="203"/>
+      <c r="A153" s="169"/>
       <c r="B153" s="99"/>
-      <c r="C153" s="197"/>
-      <c r="D153" s="197"/>
+      <c r="C153" s="182"/>
+      <c r="D153" s="182"/>
       <c r="E153" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -61523,7 +61517,7 @@
       </c>
       <c r="O154" s="69"/>
       <c r="P154" s="209"/>
-      <c r="Q154" s="210"/>
+      <c r="Q154" s="211"/>
       <c r="R154" s="208"/>
       <c r="S154" s="176"/>
       <c r="T154" s="177"/>
@@ -61556,7 +61550,7 @@
       </c>
       <c r="O155" s="69"/>
       <c r="P155" s="209"/>
-      <c r="Q155" s="211"/>
+      <c r="Q155" s="210"/>
       <c r="R155" s="208"/>
       <c r="S155" s="176"/>
       <c r="T155" s="177"/>
@@ -61564,10 +61558,10 @@
       <c r="V155" s="50"/>
     </row>
     <row r="156" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="169"/>
+      <c r="A156" s="203"/>
       <c r="B156" s="99"/>
-      <c r="C156" s="182"/>
-      <c r="D156" s="182"/>
+      <c r="C156" s="197"/>
+      <c r="D156" s="197"/>
       <c r="E156" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -61588,7 +61582,7 @@
         <v>0</v>
       </c>
       <c r="O156" s="69"/>
-      <c r="P156" s="209"/>
+      <c r="P156" s="212"/>
       <c r="Q156" s="210"/>
       <c r="R156" s="208"/>
       <c r="S156" s="176"/>
@@ -61596,7 +61590,7 @@
       <c r="U156" s="49"/>
       <c r="V156" s="50"/>
     </row>
-    <row r="157" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="203"/>
       <c r="B157" s="99"/>
       <c r="C157" s="197"/>
@@ -61607,7 +61601,7 @@
       </c>
       <c r="F157" s="60"/>
       <c r="G157" s="58"/>
-      <c r="H157" s="205"/>
+      <c r="H157" s="206"/>
       <c r="I157" s="60"/>
       <c r="J157" s="39">
         <f t="shared" si="8"/>
@@ -61629,7 +61623,7 @@
       <c r="U157" s="49"/>
       <c r="V157" s="50"/>
     </row>
-    <row r="158" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="203"/>
       <c r="B158" s="99"/>
       <c r="C158" s="197"/>
@@ -61640,7 +61634,7 @@
       </c>
       <c r="F158" s="60"/>
       <c r="G158" s="58"/>
-      <c r="H158" s="206"/>
+      <c r="H158" s="213"/>
       <c r="I158" s="60"/>
       <c r="J158" s="39">
         <f t="shared" si="8"/>
@@ -61673,7 +61667,7 @@
       </c>
       <c r="F159" s="60"/>
       <c r="G159" s="58"/>
-      <c r="H159" s="213"/>
+      <c r="H159" s="205"/>
       <c r="I159" s="60"/>
       <c r="J159" s="39">
         <f t="shared" si="8"/>
@@ -61696,7 +61690,7 @@
       <c r="V159" s="50"/>
     </row>
     <row r="160" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="203"/>
+      <c r="A160" s="214"/>
       <c r="B160" s="99"/>
       <c r="C160" s="197"/>
       <c r="D160" s="197"/>
@@ -61706,7 +61700,7 @@
       </c>
       <c r="F160" s="60"/>
       <c r="G160" s="58"/>
-      <c r="H160" s="205"/>
+      <c r="H160" s="215"/>
       <c r="I160" s="60"/>
       <c r="J160" s="39">
         <f t="shared" si="8"/>
@@ -61719,17 +61713,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O160" s="69"/>
-      <c r="P160" s="212"/>
-      <c r="Q160" s="210"/>
-      <c r="R160" s="208"/>
+      <c r="O160" s="216"/>
+      <c r="P160" s="217"/>
+      <c r="Q160" s="218"/>
+      <c r="R160" s="219"/>
       <c r="S160" s="176"/>
       <c r="T160" s="177"/>
       <c r="U160" s="49"/>
       <c r="V160" s="50"/>
     </row>
     <row r="161" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="214"/>
+      <c r="A161" s="220"/>
       <c r="B161" s="99"/>
       <c r="C161" s="197"/>
       <c r="D161" s="197"/>
@@ -61738,8 +61732,8 @@
         <v>0</v>
       </c>
       <c r="F161" s="60"/>
-      <c r="G161" s="58"/>
-      <c r="H161" s="215"/>
+      <c r="G161" s="221"/>
+      <c r="H161" s="222"/>
       <c r="I161" s="60"/>
       <c r="J161" s="39">
         <f t="shared" si="8"/>
@@ -61752,17 +61746,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O161" s="216"/>
-      <c r="P161" s="217"/>
-      <c r="Q161" s="218"/>
-      <c r="R161" s="219"/>
+      <c r="O161" s="223"/>
+      <c r="P161" s="224"/>
+      <c r="Q161" s="210"/>
+      <c r="R161" s="208"/>
       <c r="S161" s="176"/>
       <c r="T161" s="177"/>
       <c r="U161" s="49"/>
       <c r="V161" s="50"/>
     </row>
     <row r="162" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="220"/>
+      <c r="A162" s="204"/>
       <c r="B162" s="99"/>
       <c r="C162" s="197"/>
       <c r="D162" s="197"/>
@@ -61771,8 +61765,8 @@
         <v>0</v>
       </c>
       <c r="F162" s="60"/>
-      <c r="G162" s="221"/>
-      <c r="H162" s="222"/>
+      <c r="G162" s="224"/>
+      <c r="H162" s="215"/>
       <c r="I162" s="60"/>
       <c r="J162" s="39">
         <f t="shared" si="8"/>
@@ -61800,40 +61794,42 @@
       <c r="C163" s="197"/>
       <c r="D163" s="197"/>
       <c r="E163" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E163:E232" si="9">D163*F163</f>
         <v>0</v>
       </c>
       <c r="F163" s="60"/>
       <c r="G163" s="224"/>
-      <c r="H163" s="215"/>
+      <c r="H163" s="222"/>
       <c r="I163" s="60"/>
       <c r="J163" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K163" s="81"/>
+      <c r="K163" s="225"/>
       <c r="L163" s="61"/>
-      <c r="M163" s="61"/>
+      <c r="M163" s="61" t="s">
+        <v>26</v>
+      </c>
       <c r="N163" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O163" s="223"/>
-      <c r="P163" s="224"/>
-      <c r="Q163" s="210"/>
-      <c r="R163" s="208"/>
+      <c r="O163" s="216"/>
+      <c r="P163" s="217"/>
+      <c r="Q163" s="218"/>
+      <c r="R163" s="219"/>
       <c r="S163" s="176"/>
       <c r="T163" s="177"/>
       <c r="U163" s="49"/>
       <c r="V163" s="50"/>
     </row>
     <row r="164" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="204"/>
+      <c r="A164" s="203"/>
       <c r="B164" s="99"/>
       <c r="C164" s="197"/>
       <c r="D164" s="197"/>
       <c r="E164" s="34">
-        <f t="shared" ref="E164:E233" si="9">D164*F164</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F164" s="60"/>
@@ -61846,90 +61842,88 @@
       </c>
       <c r="K164" s="225"/>
       <c r="L164" s="61"/>
-      <c r="M164" s="61" t="s">
-        <v>26</v>
-      </c>
+      <c r="M164" s="61"/>
       <c r="N164" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O164" s="216"/>
-      <c r="P164" s="217"/>
-      <c r="Q164" s="218"/>
-      <c r="R164" s="219"/>
+      <c r="O164" s="223"/>
+      <c r="P164" s="224"/>
+      <c r="Q164" s="210"/>
+      <c r="R164" s="208"/>
       <c r="S164" s="176"/>
       <c r="T164" s="177"/>
       <c r="U164" s="49"/>
       <c r="V164" s="50"/>
     </row>
     <row r="165" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="203"/>
+      <c r="A165" s="169"/>
       <c r="B165" s="99"/>
-      <c r="C165" s="197"/>
-      <c r="D165" s="197"/>
+      <c r="C165" s="226"/>
+      <c r="D165" s="226"/>
       <c r="E165" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F165" s="60"/>
       <c r="G165" s="224"/>
-      <c r="H165" s="222"/>
+      <c r="H165" s="227"/>
       <c r="I165" s="60"/>
       <c r="J165" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K165" s="225"/>
+      <c r="K165" s="81"/>
       <c r="L165" s="61"/>
       <c r="M165" s="61"/>
       <c r="N165" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O165" s="223"/>
-      <c r="P165" s="224"/>
-      <c r="Q165" s="210"/>
-      <c r="R165" s="208"/>
+      <c r="O165" s="228"/>
+      <c r="P165" s="229"/>
+      <c r="Q165" s="124"/>
+      <c r="R165" s="125"/>
       <c r="S165" s="176"/>
       <c r="T165" s="177"/>
       <c r="U165" s="49"/>
       <c r="V165" s="50"/>
     </row>
     <row r="166" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="169"/>
+      <c r="A166" s="230"/>
       <c r="B166" s="99"/>
-      <c r="C166" s="226"/>
-      <c r="D166" s="226"/>
+      <c r="C166" s="197"/>
+      <c r="D166" s="197"/>
       <c r="E166" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F166" s="60"/>
       <c r="G166" s="224"/>
-      <c r="H166" s="227"/>
+      <c r="H166" s="205"/>
       <c r="I166" s="60"/>
       <c r="J166" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K166" s="81"/>
-      <c r="L166" s="61"/>
-      <c r="M166" s="61"/>
+      <c r="K166" s="225"/>
+      <c r="L166" s="231"/>
+      <c r="M166" s="231"/>
       <c r="N166" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O166" s="228"/>
       <c r="P166" s="229"/>
-      <c r="Q166" s="124"/>
-      <c r="R166" s="125"/>
+      <c r="Q166" s="218"/>
+      <c r="R166" s="219"/>
       <c r="S166" s="176"/>
       <c r="T166" s="177"/>
       <c r="U166" s="49"/>
       <c r="V166" s="50"/>
     </row>
     <row r="167" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="230"/>
+      <c r="A167" s="203"/>
       <c r="B167" s="99"/>
       <c r="C167" s="197"/>
       <c r="D167" s="197"/>
@@ -61952,8 +61946,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O167" s="228"/>
-      <c r="P167" s="229"/>
+      <c r="O167" s="69"/>
+      <c r="P167" s="209"/>
       <c r="Q167" s="218"/>
       <c r="R167" s="219"/>
       <c r="S167" s="176"/>
@@ -61962,7 +61956,7 @@
       <c r="V167" s="50"/>
     </row>
     <row r="168" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="203"/>
+      <c r="A168" s="204"/>
       <c r="B168" s="99"/>
       <c r="C168" s="197"/>
       <c r="D168" s="197"/>
@@ -61972,21 +61966,21 @@
       </c>
       <c r="F168" s="60"/>
       <c r="G168" s="224"/>
-      <c r="H168" s="205"/>
+      <c r="H168" s="232"/>
       <c r="I168" s="60"/>
       <c r="J168" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K168" s="225"/>
+      <c r="K168" s="233"/>
       <c r="L168" s="231"/>
       <c r="M168" s="231"/>
       <c r="N168" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O168" s="69"/>
-      <c r="P168" s="209"/>
+      <c r="O168" s="223"/>
+      <c r="P168" s="224"/>
       <c r="Q168" s="218"/>
       <c r="R168" s="219"/>
       <c r="S168" s="176"/>
@@ -61994,7 +61988,7 @@
       <c r="U168" s="49"/>
       <c r="V168" s="50"/>
     </row>
-    <row r="169" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="204"/>
       <c r="B169" s="99"/>
       <c r="C169" s="197"/>
@@ -62005,21 +61999,21 @@
       </c>
       <c r="F169" s="60"/>
       <c r="G169" s="224"/>
-      <c r="H169" s="232"/>
+      <c r="H169" s="205"/>
       <c r="I169" s="60"/>
       <c r="J169" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K169" s="233"/>
-      <c r="L169" s="231"/>
-      <c r="M169" s="231"/>
+      <c r="K169" s="234"/>
+      <c r="L169" s="235"/>
+      <c r="M169" s="235"/>
       <c r="N169" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O169" s="223"/>
-      <c r="P169" s="224"/>
+      <c r="O169" s="216"/>
+      <c r="P169" s="217"/>
       <c r="Q169" s="218"/>
       <c r="R169" s="219"/>
       <c r="S169" s="176"/>
@@ -62027,8 +62021,8 @@
       <c r="U169" s="49"/>
       <c r="V169" s="50"/>
     </row>
-    <row r="170" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="204"/>
+    <row r="170" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="236"/>
       <c r="B170" s="99"/>
       <c r="C170" s="197"/>
       <c r="D170" s="197"/>
@@ -62036,23 +62030,23 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F170" s="60"/>
+      <c r="F170" s="237"/>
       <c r="G170" s="224"/>
-      <c r="H170" s="205"/>
+      <c r="H170" s="213"/>
       <c r="I170" s="60"/>
       <c r="J170" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K170" s="234"/>
-      <c r="L170" s="235"/>
-      <c r="M170" s="235"/>
+      <c r="L170" s="238"/>
+      <c r="M170" s="238"/>
       <c r="N170" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O170" s="216"/>
-      <c r="P170" s="217"/>
+      <c r="O170" s="223"/>
+      <c r="P170" s="224"/>
       <c r="Q170" s="218"/>
       <c r="R170" s="219"/>
       <c r="S170" s="176"/>
@@ -62061,7 +62055,7 @@
       <c r="V170" s="50"/>
     </row>
     <row r="171" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="236"/>
+      <c r="A171" s="214"/>
       <c r="B171" s="99"/>
       <c r="C171" s="197"/>
       <c r="D171" s="197"/>
@@ -62069,23 +62063,23 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F171" s="237"/>
+      <c r="F171" s="60"/>
       <c r="G171" s="224"/>
-      <c r="H171" s="213"/>
+      <c r="H171" s="205"/>
       <c r="I171" s="60"/>
       <c r="J171" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K171" s="234"/>
-      <c r="L171" s="238"/>
-      <c r="M171" s="238"/>
+      <c r="L171" s="231"/>
+      <c r="M171" s="231"/>
       <c r="N171" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O171" s="223"/>
-      <c r="P171" s="224"/>
+      <c r="O171" s="216"/>
+      <c r="P171" s="217"/>
       <c r="Q171" s="218"/>
       <c r="R171" s="219"/>
       <c r="S171" s="176"/>
@@ -62093,8 +62087,8 @@
       <c r="U171" s="49"/>
       <c r="V171" s="50"/>
     </row>
-    <row r="172" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="214"/>
+    <row r="172" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="204"/>
       <c r="B172" s="99"/>
       <c r="C172" s="197"/>
       <c r="D172" s="197"/>
@@ -62104,13 +62098,13 @@
       </c>
       <c r="F172" s="60"/>
       <c r="G172" s="224"/>
-      <c r="H172" s="205"/>
+      <c r="H172" s="239"/>
       <c r="I172" s="60"/>
       <c r="J172" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K172" s="234"/>
+      <c r="K172" s="81"/>
       <c r="L172" s="231"/>
       <c r="M172" s="231"/>
       <c r="N172" s="42">
@@ -62126,7 +62120,7 @@
       <c r="U172" s="49"/>
       <c r="V172" s="50"/>
     </row>
-    <row r="173" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="204"/>
       <c r="B173" s="99"/>
       <c r="C173" s="197"/>
@@ -62137,13 +62131,13 @@
       </c>
       <c r="F173" s="60"/>
       <c r="G173" s="224"/>
-      <c r="H173" s="239"/>
+      <c r="H173" s="215"/>
       <c r="I173" s="60"/>
       <c r="J173" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K173" s="81"/>
+      <c r="K173" s="234"/>
       <c r="L173" s="231"/>
       <c r="M173" s="231"/>
       <c r="N173" s="42">
@@ -62170,7 +62164,7 @@
       </c>
       <c r="F174" s="60"/>
       <c r="G174" s="224"/>
-      <c r="H174" s="215"/>
+      <c r="H174" s="175"/>
       <c r="I174" s="60"/>
       <c r="J174" s="39">
         <f t="shared" si="8"/>
@@ -62203,15 +62197,15 @@
       </c>
       <c r="F175" s="60"/>
       <c r="G175" s="224"/>
-      <c r="H175" s="175"/>
+      <c r="H175" s="240"/>
       <c r="I175" s="60"/>
       <c r="J175" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K175" s="234"/>
-      <c r="L175" s="231"/>
-      <c r="M175" s="231"/>
+      <c r="L175" s="241"/>
+      <c r="M175" s="241"/>
       <c r="N175" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -62236,7 +62230,7 @@
       </c>
       <c r="F176" s="60"/>
       <c r="G176" s="224"/>
-      <c r="H176" s="240"/>
+      <c r="H176" s="175"/>
       <c r="I176" s="60"/>
       <c r="J176" s="39">
         <f t="shared" si="8"/>
@@ -62308,9 +62302,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K178" s="234"/>
-      <c r="L178" s="241"/>
-      <c r="M178" s="241"/>
+      <c r="K178" s="81"/>
+      <c r="L178" s="61"/>
+      <c r="M178" s="61"/>
       <c r="N178" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -62327,8 +62321,8 @@
     <row r="179" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="204"/>
       <c r="B179" s="99"/>
-      <c r="C179" s="197"/>
-      <c r="D179" s="197"/>
+      <c r="C179" s="242"/>
+      <c r="D179" s="242"/>
       <c r="E179" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -62348,10 +62342,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O179" s="216"/>
-      <c r="P179" s="217"/>
-      <c r="Q179" s="218"/>
-      <c r="R179" s="219"/>
+      <c r="O179" s="223"/>
+      <c r="P179" s="243"/>
+      <c r="Q179" s="124"/>
+      <c r="R179" s="125"/>
       <c r="S179" s="176"/>
       <c r="T179" s="177"/>
       <c r="U179" s="49"/>
@@ -62391,17 +62385,17 @@
       <c r="V180" s="50"/>
     </row>
     <row r="181" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="204"/>
+      <c r="A181" s="101"/>
       <c r="B181" s="99"/>
-      <c r="C181" s="242"/>
-      <c r="D181" s="242"/>
+      <c r="C181" s="226"/>
+      <c r="D181" s="226"/>
       <c r="E181" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F181" s="60"/>
       <c r="G181" s="224"/>
-      <c r="H181" s="175"/>
+      <c r="H181" s="227"/>
       <c r="I181" s="60"/>
       <c r="J181" s="39">
         <f t="shared" si="8"/>
@@ -62414,8 +62408,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O181" s="223"/>
-      <c r="P181" s="243"/>
+      <c r="O181" s="69"/>
+      <c r="P181" s="209"/>
       <c r="Q181" s="124"/>
       <c r="R181" s="125"/>
       <c r="S181" s="176"/>
@@ -62424,17 +62418,17 @@
       <c r="V181" s="50"/>
     </row>
     <row r="182" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="101"/>
+      <c r="A182" s="204"/>
       <c r="B182" s="99"/>
-      <c r="C182" s="226"/>
-      <c r="D182" s="226"/>
+      <c r="C182" s="244"/>
+      <c r="D182" s="244"/>
       <c r="E182" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F182" s="60"/>
       <c r="G182" s="224"/>
-      <c r="H182" s="227"/>
+      <c r="H182" s="59"/>
       <c r="I182" s="60"/>
       <c r="J182" s="39">
         <f t="shared" si="8"/>
@@ -62457,17 +62451,17 @@
       <c r="V182" s="50"/>
     </row>
     <row r="183" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="204"/>
+      <c r="A183" s="169"/>
       <c r="B183" s="99"/>
-      <c r="C183" s="244"/>
-      <c r="D183" s="244"/>
+      <c r="C183" s="226"/>
+      <c r="D183" s="226"/>
       <c r="E183" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F183" s="60"/>
       <c r="G183" s="224"/>
-      <c r="H183" s="59"/>
+      <c r="H183" s="227"/>
       <c r="I183" s="60"/>
       <c r="J183" s="39">
         <f t="shared" si="8"/>
@@ -62489,11 +62483,11 @@
       <c r="U183" s="49"/>
       <c r="V183" s="50"/>
     </row>
-    <row r="184" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="169"/>
-      <c r="B184" s="99"/>
-      <c r="C184" s="226"/>
-      <c r="D184" s="226"/>
+    <row r="184" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="245"/>
+      <c r="B184" s="246"/>
+      <c r="C184" s="181"/>
+      <c r="D184" s="181"/>
       <c r="E184" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -62513,8 +62507,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O184" s="69"/>
-      <c r="P184" s="209"/>
+      <c r="O184" s="228"/>
+      <c r="P184" s="229"/>
       <c r="Q184" s="124"/>
       <c r="R184" s="125"/>
       <c r="S184" s="176"/>
@@ -62522,11 +62516,11 @@
       <c r="U184" s="49"/>
       <c r="V184" s="50"/>
     </row>
-    <row r="185" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="245"/>
-      <c r="B185" s="246"/>
-      <c r="C185" s="181"/>
-      <c r="D185" s="181"/>
+    <row r="185" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="169"/>
+      <c r="B185" s="99"/>
+      <c r="C185" s="247"/>
+      <c r="D185" s="247"/>
       <c r="E185" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -62546,8 +62540,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O185" s="228"/>
-      <c r="P185" s="229"/>
+      <c r="O185" s="69"/>
+      <c r="P185" s="209"/>
       <c r="Q185" s="124"/>
       <c r="R185" s="125"/>
       <c r="S185" s="176"/>
@@ -62589,10 +62583,10 @@
       <c r="V186" s="50"/>
     </row>
     <row r="187" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="169"/>
+      <c r="A187" s="248"/>
       <c r="B187" s="99"/>
-      <c r="C187" s="247"/>
-      <c r="D187" s="247"/>
+      <c r="C187" s="249"/>
+      <c r="D187" s="249"/>
       <c r="E187" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -62622,16 +62616,16 @@
       <c r="V187" s="50"/>
     </row>
     <row r="188" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="248"/>
+      <c r="A188" s="169"/>
       <c r="B188" s="99"/>
-      <c r="C188" s="249"/>
-      <c r="D188" s="249"/>
+      <c r="C188" s="250"/>
+      <c r="D188" s="250"/>
       <c r="E188" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F188" s="60"/>
-      <c r="G188" s="224"/>
+      <c r="G188" s="251"/>
       <c r="H188" s="227"/>
       <c r="I188" s="60"/>
       <c r="J188" s="39">
@@ -62645,8 +62639,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O188" s="69"/>
-      <c r="P188" s="209"/>
+      <c r="O188" s="62"/>
+      <c r="P188" s="252"/>
       <c r="Q188" s="124"/>
       <c r="R188" s="125"/>
       <c r="S188" s="176"/>
@@ -62664,7 +62658,7 @@
         <v>0</v>
       </c>
       <c r="F189" s="60"/>
-      <c r="G189" s="251"/>
+      <c r="G189" s="58"/>
       <c r="H189" s="227"/>
       <c r="I189" s="60"/>
       <c r="J189" s="39">
@@ -62687,44 +62681,41 @@
       <c r="U189" s="49"/>
       <c r="V189" s="50"/>
     </row>
-    <row r="190" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="169"/>
-      <c r="B190" s="99"/>
-      <c r="C190" s="250"/>
-      <c r="D190" s="250"/>
+      <c r="B190" s="203"/>
+      <c r="C190" s="253"/>
+      <c r="D190" s="253"/>
       <c r="E190" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F190" s="60"/>
-      <c r="G190" s="58"/>
-      <c r="H190" s="227"/>
-      <c r="I190" s="60"/>
+      <c r="F190" s="254"/>
+      <c r="G190" s="224"/>
+      <c r="H190" s="255"/>
+      <c r="I190" s="254"/>
       <c r="J190" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K190" s="81"/>
-      <c r="L190" s="61"/>
-      <c r="M190" s="61"/>
       <c r="N190" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O190" s="62"/>
-      <c r="P190" s="252"/>
-      <c r="Q190" s="124"/>
-      <c r="R190" s="125"/>
-      <c r="S190" s="176"/>
-      <c r="T190" s="177"/>
-      <c r="U190" s="49"/>
-      <c r="V190" s="50"/>
-    </row>
-    <row r="191" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O190" s="257"/>
+      <c r="P190" s="243"/>
+      <c r="Q190" s="258"/>
+      <c r="R190" s="259"/>
+      <c r="S190" s="260"/>
+      <c r="T190" s="261"/>
+      <c r="U190" s="262"/>
+      <c r="V190" s="263"/>
+    </row>
+    <row r="191" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="169"/>
-      <c r="B191" s="203"/>
-      <c r="C191" s="253"/>
-      <c r="D191" s="253"/>
+      <c r="B191" s="99"/>
+      <c r="C191" s="249"/>
+      <c r="D191" s="249"/>
       <c r="E191" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -62759,26 +62750,29 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F192" s="254"/>
+      <c r="F192" s="60"/>
       <c r="G192" s="224"/>
-      <c r="H192" s="255"/>
-      <c r="I192" s="254"/>
+      <c r="H192" s="227"/>
+      <c r="I192" s="60"/>
       <c r="J192" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="K192" s="81"/>
+      <c r="L192" s="61"/>
+      <c r="M192" s="61"/>
       <c r="N192" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O192" s="257"/>
-      <c r="P192" s="243"/>
-      <c r="Q192" s="258"/>
-      <c r="R192" s="259"/>
-      <c r="S192" s="260"/>
-      <c r="T192" s="261"/>
-      <c r="U192" s="262"/>
-      <c r="V192" s="263"/>
+      <c r="O192" s="69"/>
+      <c r="P192" s="209"/>
+      <c r="Q192" s="124"/>
+      <c r="R192" s="125"/>
+      <c r="S192" s="176"/>
+      <c r="T192" s="177"/>
+      <c r="U192" s="49"/>
+      <c r="V192" s="50"/>
     </row>
     <row r="193" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="169"/>
@@ -62816,14 +62810,14 @@
     <row r="194" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="169"/>
       <c r="B194" s="99"/>
-      <c r="C194" s="249"/>
-      <c r="D194" s="249"/>
+      <c r="C194" s="264"/>
+      <c r="D194" s="264"/>
       <c r="E194" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F194" s="60"/>
-      <c r="G194" s="224"/>
+      <c r="G194" s="251"/>
       <c r="H194" s="227"/>
       <c r="I194" s="60"/>
       <c r="J194" s="39">
@@ -62834,7 +62828,7 @@
       <c r="L194" s="61"/>
       <c r="M194" s="61"/>
       <c r="N194" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N194:N257" si="10">K194*I194</f>
         <v>0</v>
       </c>
       <c r="O194" s="69"/>
@@ -62867,7 +62861,7 @@
       <c r="L195" s="61"/>
       <c r="M195" s="61"/>
       <c r="N195" s="42">
-        <f t="shared" ref="N195:N258" si="10">K195*I195</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O195" s="69"/>
@@ -62912,11 +62906,11 @@
       <c r="U196" s="49"/>
       <c r="V196" s="50"/>
     </row>
-    <row r="197" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="169"/>
-      <c r="B197" s="99"/>
-      <c r="C197" s="264"/>
-      <c r="D197" s="264"/>
+      <c r="B197" s="203"/>
+      <c r="C197" s="265"/>
+      <c r="D197" s="265"/>
       <c r="E197" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -62945,11 +62939,11 @@
       <c r="U197" s="49"/>
       <c r="V197" s="50"/>
     </row>
-    <row r="198" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="169"/>
-      <c r="B198" s="203"/>
-      <c r="C198" s="265"/>
-      <c r="D198" s="265"/>
+      <c r="B198" s="99"/>
+      <c r="C198" s="264"/>
+      <c r="D198" s="264"/>
       <c r="E198" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -62981,14 +62975,14 @@
     <row r="199" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="169"/>
       <c r="B199" s="99"/>
-      <c r="C199" s="264"/>
-      <c r="D199" s="264"/>
+      <c r="C199" s="244"/>
+      <c r="D199" s="244"/>
       <c r="E199" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F199" s="60"/>
-      <c r="G199" s="251"/>
+      <c r="G199" s="224"/>
       <c r="H199" s="227"/>
       <c r="I199" s="60"/>
       <c r="J199" s="39">
@@ -63025,7 +63019,7 @@
       <c r="H200" s="227"/>
       <c r="I200" s="60"/>
       <c r="J200" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J200:J263" si="11">I200-F200</f>
         <v>0</v>
       </c>
       <c r="K200" s="81"/>
@@ -63058,7 +63052,7 @@
       <c r="H201" s="227"/>
       <c r="I201" s="60"/>
       <c r="J201" s="39">
-        <f t="shared" ref="J201:J264" si="11">I201-F201</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K201" s="81"/>
@@ -63110,11 +63104,11 @@
       <c r="U202" s="49"/>
       <c r="V202" s="50"/>
     </row>
-    <row r="203" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="169"/>
-      <c r="B203" s="99"/>
-      <c r="C203" s="244"/>
-      <c r="D203" s="244"/>
+    <row r="203" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="248"/>
+      <c r="B203" s="203"/>
+      <c r="C203" s="249"/>
+      <c r="D203" s="249"/>
       <c r="E203" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -63143,17 +63137,17 @@
       <c r="U203" s="49"/>
       <c r="V203" s="50"/>
     </row>
-    <row r="204" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="248"/>
-      <c r="B204" s="203"/>
-      <c r="C204" s="249"/>
-      <c r="D204" s="249"/>
+    <row r="204" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="266"/>
+      <c r="B204" s="99"/>
+      <c r="C204" s="250"/>
+      <c r="D204" s="250"/>
       <c r="E204" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F204" s="60"/>
-      <c r="G204" s="224"/>
+      <c r="G204" s="58"/>
       <c r="H204" s="227"/>
       <c r="I204" s="60"/>
       <c r="J204" s="39">
@@ -63167,8 +63161,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O204" s="69"/>
-      <c r="P204" s="209"/>
+      <c r="O204" s="62"/>
+      <c r="P204" s="252"/>
       <c r="Q204" s="124"/>
       <c r="R204" s="125"/>
       <c r="S204" s="176"/>
@@ -63176,17 +63170,17 @@
       <c r="U204" s="49"/>
       <c r="V204" s="50"/>
     </row>
-    <row r="205" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="266"/>
-      <c r="B205" s="99"/>
-      <c r="C205" s="250"/>
-      <c r="D205" s="250"/>
+    <row r="205" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="169"/>
+      <c r="B205" s="203"/>
+      <c r="C205" s="267"/>
+      <c r="D205" s="267"/>
       <c r="E205" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F205" s="60"/>
-      <c r="G205" s="58"/>
+      <c r="G205" s="224"/>
       <c r="H205" s="227"/>
       <c r="I205" s="60"/>
       <c r="J205" s="39">
@@ -63200,8 +63194,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O205" s="62"/>
-      <c r="P205" s="252"/>
+      <c r="O205" s="69"/>
+      <c r="P205" s="209"/>
       <c r="Q205" s="124"/>
       <c r="R205" s="125"/>
       <c r="S205" s="176"/>
@@ -63284,8 +63278,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F208" s="60"/>
-      <c r="G208" s="224"/>
+      <c r="F208" s="268"/>
+      <c r="G208" s="251"/>
       <c r="H208" s="227"/>
       <c r="I208" s="60"/>
       <c r="J208" s="39">
@@ -63515,7 +63509,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F215" s="268"/>
+      <c r="F215" s="60"/>
       <c r="G215" s="251"/>
       <c r="H215" s="227"/>
       <c r="I215" s="60"/>
@@ -63542,14 +63536,14 @@
     <row r="216" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="169"/>
       <c r="B216" s="203"/>
-      <c r="C216" s="267"/>
-      <c r="D216" s="267"/>
+      <c r="C216" s="244"/>
+      <c r="D216" s="244"/>
       <c r="E216" s="34">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F216" s="60"/>
-      <c r="G216" s="251"/>
+      <c r="G216" s="224"/>
       <c r="H216" s="227"/>
       <c r="I216" s="60"/>
       <c r="J216" s="39">
@@ -63803,9 +63797,9 @@
       <c r="U223" s="49"/>
       <c r="V223" s="50"/>
     </row>
-    <row r="224" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="169"/>
-      <c r="B224" s="203"/>
+    <row r="224" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="203"/>
+      <c r="B224" s="253"/>
       <c r="C224" s="244"/>
       <c r="D224" s="244"/>
       <c r="E224" s="34">
@@ -63813,8 +63807,8 @@
         <v>0</v>
       </c>
       <c r="F224" s="60"/>
-      <c r="G224" s="224"/>
-      <c r="H224" s="227"/>
+      <c r="G224" s="58"/>
+      <c r="H224" s="59"/>
       <c r="I224" s="60"/>
       <c r="J224" s="39">
         <f t="shared" si="11"/>
@@ -63836,9 +63830,9 @@
       <c r="U224" s="49"/>
       <c r="V224" s="50"/>
     </row>
-    <row r="225" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="203"/>
-      <c r="B225" s="253"/>
+    <row r="225" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="266"/>
+      <c r="B225" s="203"/>
       <c r="C225" s="244"/>
       <c r="D225" s="244"/>
       <c r="E225" s="34">
@@ -63846,8 +63840,8 @@
         <v>0</v>
       </c>
       <c r="F225" s="60"/>
-      <c r="G225" s="58"/>
-      <c r="H225" s="59"/>
+      <c r="G225" s="224"/>
+      <c r="H225" s="227"/>
       <c r="I225" s="60"/>
       <c r="J225" s="39">
         <f t="shared" si="11"/>
@@ -63969,7 +63963,7 @@
       <c r="V228" s="50"/>
     </row>
     <row r="229" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="266"/>
+      <c r="A229" s="269"/>
       <c r="B229" s="203"/>
       <c r="C229" s="244"/>
       <c r="D229" s="244"/>
@@ -64002,7 +63996,7 @@
       <c r="V229" s="50"/>
     </row>
     <row r="230" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="269"/>
+      <c r="A230" s="169"/>
       <c r="B230" s="203"/>
       <c r="C230" s="244"/>
       <c r="D230" s="244"/>
@@ -64106,7 +64100,7 @@
       <c r="C233" s="244"/>
       <c r="D233" s="244"/>
       <c r="E233" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E233:E277" si="12">D233*F233</f>
         <v>0</v>
       </c>
       <c r="F233" s="60"/>
@@ -64139,7 +64133,7 @@
       <c r="C234" s="244"/>
       <c r="D234" s="244"/>
       <c r="E234" s="34">
-        <f t="shared" ref="E234:E278" si="12">D234*F234</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F234" s="60"/>
@@ -64301,8 +64295,8 @@
     <row r="239" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="169"/>
       <c r="B239" s="203"/>
-      <c r="C239" s="244"/>
-      <c r="D239" s="244"/>
+      <c r="C239" s="270"/>
+      <c r="D239" s="270"/>
       <c r="E239" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -64334,8 +64328,8 @@
     <row r="240" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="169"/>
       <c r="B240" s="203"/>
-      <c r="C240" s="270"/>
-      <c r="D240" s="270"/>
+      <c r="C240" s="244"/>
+      <c r="D240" s="244"/>
       <c r="E240" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -64367,8 +64361,8 @@
     <row r="241" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="169"/>
       <c r="B241" s="203"/>
-      <c r="C241" s="244"/>
-      <c r="D241" s="244"/>
+      <c r="C241" s="264"/>
+      <c r="D241" s="264"/>
       <c r="E241" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -64400,8 +64394,8 @@
     <row r="242" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="169"/>
       <c r="B242" s="203"/>
-      <c r="C242" s="264"/>
-      <c r="D242" s="264"/>
+      <c r="C242" s="265"/>
+      <c r="D242" s="265"/>
       <c r="E242" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -64466,8 +64460,8 @@
     <row r="244" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="169"/>
       <c r="B244" s="203"/>
-      <c r="C244" s="265"/>
-      <c r="D244" s="265"/>
+      <c r="C244" s="264"/>
+      <c r="D244" s="264"/>
       <c r="E244" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -64499,8 +64493,8 @@
     <row r="245" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="169"/>
       <c r="B245" s="203"/>
-      <c r="C245" s="264"/>
-      <c r="D245" s="264"/>
+      <c r="C245" s="249"/>
+      <c r="D245" s="249"/>
       <c r="E245" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -64532,8 +64526,8 @@
     <row r="246" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="169"/>
       <c r="B246" s="203"/>
-      <c r="C246" s="249"/>
-      <c r="D246" s="249"/>
+      <c r="C246" s="197"/>
+      <c r="D246" s="197"/>
       <c r="E246" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -64563,10 +64557,10 @@
       <c r="V246" s="50"/>
     </row>
     <row r="247" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="169"/>
+      <c r="A247" s="204"/>
       <c r="B247" s="203"/>
-      <c r="C247" s="197"/>
-      <c r="D247" s="197"/>
+      <c r="C247" s="226"/>
+      <c r="D247" s="226"/>
       <c r="E247" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -64596,7 +64590,7 @@
       <c r="V247" s="50"/>
     </row>
     <row r="248" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="204"/>
+      <c r="A248" s="169"/>
       <c r="B248" s="203"/>
       <c r="C248" s="226"/>
       <c r="D248" s="226"/>
@@ -64662,8 +64656,8 @@
       <c r="V249" s="50"/>
     </row>
     <row r="250" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="169"/>
-      <c r="B250" s="203"/>
+      <c r="A250" s="271"/>
+      <c r="B250" s="272"/>
       <c r="C250" s="226"/>
       <c r="D250" s="226"/>
       <c r="E250" s="34">
@@ -64694,8 +64688,8 @@
       <c r="U250" s="49"/>
       <c r="V250" s="50"/>
     </row>
-    <row r="251" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="271"/>
+    <row r="251" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="204"/>
       <c r="B251" s="272"/>
       <c r="C251" s="226"/>
       <c r="D251" s="226"/>
@@ -64705,7 +64699,7 @@
       </c>
       <c r="F251" s="60"/>
       <c r="G251" s="224"/>
-      <c r="H251" s="227"/>
+      <c r="H251" s="59"/>
       <c r="I251" s="60"/>
       <c r="J251" s="39">
         <f t="shared" si="11"/>
@@ -64727,7 +64721,7 @@
       <c r="U251" s="49"/>
       <c r="V251" s="50"/>
     </row>
-    <row r="252" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="204"/>
       <c r="B252" s="272"/>
       <c r="C252" s="226"/>
@@ -64738,7 +64732,7 @@
       </c>
       <c r="F252" s="60"/>
       <c r="G252" s="224"/>
-      <c r="H252" s="59"/>
+      <c r="H252" s="227"/>
       <c r="I252" s="60"/>
       <c r="J252" s="39">
         <f t="shared" si="11"/>
@@ -64761,10 +64755,10 @@
       <c r="V252" s="50"/>
     </row>
     <row r="253" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="204"/>
+      <c r="A253" s="169"/>
       <c r="B253" s="272"/>
-      <c r="C253" s="226"/>
-      <c r="D253" s="226"/>
+      <c r="C253" s="181"/>
+      <c r="D253" s="181"/>
       <c r="E253" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -64826,18 +64820,18 @@
       <c r="U254" s="49"/>
       <c r="V254" s="50"/>
     </row>
-    <row r="255" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="169"/>
+    <row r="255" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="204"/>
       <c r="B255" s="272"/>
-      <c r="C255" s="181"/>
-      <c r="D255" s="181"/>
+      <c r="C255" s="242"/>
+      <c r="D255" s="242"/>
       <c r="E255" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F255" s="60"/>
       <c r="G255" s="224"/>
-      <c r="H255" s="227"/>
+      <c r="H255" s="175"/>
       <c r="I255" s="60"/>
       <c r="J255" s="39">
         <f t="shared" si="11"/>
@@ -64850,8 +64844,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O255" s="69"/>
-      <c r="P255" s="209"/>
+      <c r="O255" s="223"/>
+      <c r="P255" s="243"/>
       <c r="Q255" s="124"/>
       <c r="R255" s="125"/>
       <c r="S255" s="176"/>
@@ -64862,8 +64856,8 @@
     <row r="256" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="204"/>
       <c r="B256" s="272"/>
-      <c r="C256" s="242"/>
-      <c r="D256" s="242"/>
+      <c r="C256" s="187"/>
+      <c r="D256" s="187"/>
       <c r="E256" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -64877,8 +64871,8 @@
         <v>0</v>
       </c>
       <c r="K256" s="81"/>
-      <c r="L256" s="61"/>
-      <c r="M256" s="61"/>
+      <c r="L256" s="273"/>
+      <c r="M256" s="274"/>
       <c r="N256" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -64894,17 +64888,17 @@
     </row>
     <row r="257" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="204"/>
-      <c r="B257" s="272"/>
-      <c r="C257" s="187"/>
-      <c r="D257" s="187"/>
+      <c r="B257" s="275"/>
+      <c r="C257" s="182"/>
+      <c r="D257" s="182"/>
       <c r="E257" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F257" s="60"/>
-      <c r="G257" s="224"/>
-      <c r="H257" s="175"/>
-      <c r="I257" s="60"/>
+      <c r="F257" s="182"/>
+      <c r="G257" s="276"/>
+      <c r="H257" s="277"/>
+      <c r="I257" s="57"/>
       <c r="J257" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -64946,7 +64940,7 @@
       <c r="L258" s="273"/>
       <c r="M258" s="274"/>
       <c r="N258" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="N258:N277" si="13">K258*I258</f>
         <v>0</v>
       </c>
       <c r="O258" s="223"/>
@@ -64960,7 +64954,7 @@
     </row>
     <row r="259" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="204"/>
-      <c r="B259" s="275"/>
+      <c r="B259" s="278"/>
       <c r="C259" s="182"/>
       <c r="D259" s="182"/>
       <c r="E259" s="34">
@@ -64979,11 +64973,11 @@
       <c r="L259" s="273"/>
       <c r="M259" s="274"/>
       <c r="N259" s="42">
-        <f t="shared" ref="N259:N278" si="13">K259*I259</f>
-        <v>0</v>
-      </c>
-      <c r="O259" s="223"/>
-      <c r="P259" s="243"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O259" s="69"/>
+      <c r="P259" s="212"/>
       <c r="Q259" s="124"/>
       <c r="R259" s="125"/>
       <c r="S259" s="176"/>
@@ -65057,32 +65051,32 @@
       <c r="U261" s="49"/>
       <c r="V261" s="50"/>
     </row>
-    <row r="262" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="204"/>
-      <c r="B262" s="278"/>
-      <c r="C262" s="182"/>
-      <c r="D262" s="182"/>
+      <c r="B262" s="203"/>
+      <c r="C262" s="279"/>
+      <c r="D262" s="280"/>
       <c r="E262" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F262" s="182"/>
-      <c r="G262" s="276"/>
-      <c r="H262" s="277"/>
-      <c r="I262" s="57"/>
+      <c r="F262" s="38"/>
+      <c r="G262" s="281"/>
+      <c r="H262" s="282"/>
+      <c r="I262" s="60"/>
       <c r="J262" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K262" s="81"/>
       <c r="L262" s="273"/>
-      <c r="M262" s="274"/>
+      <c r="M262" s="283"/>
       <c r="N262" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O262" s="69"/>
-      <c r="P262" s="212"/>
+      <c r="O262" s="223"/>
+      <c r="P262" s="243"/>
       <c r="Q262" s="124"/>
       <c r="R262" s="125"/>
       <c r="S262" s="176"/>
@@ -65094,14 +65088,14 @@
       <c r="A263" s="204"/>
       <c r="B263" s="203"/>
       <c r="C263" s="279"/>
-      <c r="D263" s="280"/>
+      <c r="D263" s="279"/>
       <c r="E263" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F263" s="38"/>
-      <c r="G263" s="281"/>
-      <c r="H263" s="282"/>
+      <c r="F263" s="60"/>
+      <c r="G263" s="224"/>
+      <c r="H263" s="175"/>
       <c r="I263" s="60"/>
       <c r="J263" s="39">
         <f t="shared" si="11"/>
@@ -65137,7 +65131,7 @@
       <c r="H264" s="175"/>
       <c r="I264" s="60"/>
       <c r="J264" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J264:J273" si="14">I264-F264</f>
         <v>0</v>
       </c>
       <c r="K264" s="81"/>
@@ -65159,8 +65153,8 @@
     <row r="265" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="204"/>
       <c r="B265" s="203"/>
-      <c r="C265" s="279"/>
-      <c r="D265" s="279"/>
+      <c r="C265" s="284"/>
+      <c r="D265" s="284"/>
       <c r="E265" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -65170,7 +65164,7 @@
       <c r="H265" s="175"/>
       <c r="I265" s="60"/>
       <c r="J265" s="39">
-        <f t="shared" ref="J265:J274" si="14">I265-F265</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K265" s="81"/>
@@ -65189,38 +65183,40 @@
       <c r="U265" s="49"/>
       <c r="V265" s="50"/>
     </row>
-    <row r="266" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="204"/>
+    <row r="266" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="285"/>
       <c r="B266" s="203"/>
-      <c r="C266" s="284"/>
-      <c r="D266" s="284"/>
+      <c r="C266" s="203"/>
+      <c r="D266" s="203"/>
       <c r="E266" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F266" s="60"/>
+      <c r="F266" s="254"/>
       <c r="G266" s="224"/>
-      <c r="H266" s="175"/>
-      <c r="I266" s="60"/>
+      <c r="H266" s="255"/>
+      <c r="I266" s="254">
+        <v>0</v>
+      </c>
       <c r="J266" s="39">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K266" s="81"/>
-      <c r="L266" s="273"/>
-      <c r="M266" s="283"/>
+      <c r="K266" s="286"/>
+      <c r="L266" s="286"/>
+      <c r="M266" s="286"/>
       <c r="N266" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O266" s="223"/>
+      <c r="O266" s="287"/>
       <c r="P266" s="243"/>
       <c r="Q266" s="124"/>
-      <c r="R266" s="125"/>
-      <c r="S266" s="176"/>
-      <c r="T266" s="177"/>
-      <c r="U266" s="49"/>
-      <c r="V266" s="50"/>
+      <c r="R266" s="288"/>
+      <c r="S266" s="289"/>
+      <c r="T266" s="290"/>
+      <c r="U266" s="259"/>
+      <c r="V266" s="263"/>
     </row>
     <row r="267" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="285"/>
@@ -65303,7 +65299,7 @@
       </c>
       <c r="F269" s="254"/>
       <c r="G269" s="224"/>
-      <c r="H269" s="255"/>
+      <c r="H269" s="291"/>
       <c r="I269" s="254">
         <v>0</v>
       </c>
@@ -65328,7 +65324,7 @@
       <c r="V269" s="263"/>
     </row>
     <row r="270" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="285"/>
+      <c r="A270" s="292"/>
       <c r="B270" s="203"/>
       <c r="C270" s="203"/>
       <c r="D270" s="203"/>
@@ -65338,7 +65334,7 @@
       </c>
       <c r="F270" s="254"/>
       <c r="G270" s="224"/>
-      <c r="H270" s="291"/>
+      <c r="H270" s="293"/>
       <c r="I270" s="254">
         <v>0</v>
       </c>
@@ -65359,38 +65355,34 @@
       <c r="R270" s="288"/>
       <c r="S270" s="289"/>
       <c r="T270" s="290"/>
-      <c r="U270" s="259"/>
-      <c r="V270" s="263"/>
+      <c r="U270" s="49"/>
+      <c r="V270" s="50"/>
     </row>
     <row r="271" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="292"/>
-      <c r="B271" s="203"/>
-      <c r="C271" s="203"/>
-      <c r="D271" s="203"/>
+      <c r="A271" s="294"/>
+      <c r="B271" s="295"/>
       <c r="E271" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F271" s="254"/>
-      <c r="G271" s="224"/>
-      <c r="H271" s="293"/>
-      <c r="I271" s="254">
+      <c r="H271" s="299"/>
+      <c r="I271" s="297">
         <v>0</v>
       </c>
       <c r="J271" s="39">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K271" s="286"/>
-      <c r="L271" s="286"/>
-      <c r="M271" s="286"/>
+      <c r="K271" s="300"/>
+      <c r="L271" s="300"/>
+      <c r="M271" s="300"/>
       <c r="N271" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O271" s="287"/>
       <c r="P271" s="243"/>
-      <c r="Q271" s="124"/>
+      <c r="Q271" s="258"/>
       <c r="R271" s="288"/>
       <c r="S271" s="289"/>
       <c r="T271" s="290"/>
@@ -65404,7 +65396,6 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H272" s="299"/>
       <c r="I272" s="297">
         <v>0</v>
       </c>
@@ -65435,7 +65426,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I273" s="297">
+      <c r="I273" s="302">
         <v>0</v>
       </c>
       <c r="J273" s="39">
@@ -65458,22 +65449,25 @@
       <c r="U273" s="49"/>
       <c r="V273" s="50"/>
     </row>
-    <row r="274" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="294"/>
       <c r="B274" s="295"/>
-      <c r="E274" s="34">
+      <c r="E274" s="34" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I274" s="302">
-        <v>0</v>
-      </c>
-      <c r="J274" s="39">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F274" s="562" t="s">
+        <v>27</v>
+      </c>
+      <c r="G274" s="562"/>
+      <c r="H274" s="563"/>
+      <c r="I274" s="303">
+        <f>SUM(I4:I273)</f>
+        <v>233014.2</v>
+      </c>
+      <c r="J274" s="304"/>
       <c r="K274" s="300"/>
-      <c r="L274" s="300"/>
+      <c r="L274" s="305"/>
       <c r="M274" s="300"/>
       <c r="N274" s="42">
         <f t="shared" si="13"/>
@@ -65483,27 +65477,19 @@
       <c r="P274" s="243"/>
       <c r="Q274" s="258"/>
       <c r="R274" s="288"/>
-      <c r="S274" s="289"/>
-      <c r="T274" s="290"/>
-      <c r="U274" s="49"/>
+      <c r="S274" s="306"/>
+      <c r="T274" s="261"/>
+      <c r="U274" s="262"/>
       <c r="V274" s="50"/>
     </row>
-    <row r="275" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="294"/>
+    <row r="275" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="307"/>
       <c r="B275" s="295"/>
-      <c r="E275" s="34" t="e">
+      <c r="E275" s="34">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F275" s="569" t="s">
-        <v>27</v>
-      </c>
-      <c r="G275" s="569"/>
-      <c r="H275" s="570"/>
-      <c r="I275" s="303">
-        <f>SUM(I4:I274)</f>
-        <v>170523.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" s="308"/>
       <c r="J275" s="304"/>
       <c r="K275" s="300"/>
       <c r="L275" s="305"/>
@@ -65512,26 +65498,23 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O275" s="287"/>
-      <c r="P275" s="243"/>
-      <c r="Q275" s="258"/>
-      <c r="R275" s="288"/>
-      <c r="S275" s="306"/>
-      <c r="T275" s="261"/>
-      <c r="U275" s="262"/>
-      <c r="V275" s="50"/>
-    </row>
-    <row r="276" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="307"/>
+      <c r="O275" s="309"/>
+      <c r="Q275" s="6"/>
+      <c r="R275" s="310"/>
+      <c r="S275" s="311"/>
+      <c r="T275" s="312"/>
+      <c r="V275" s="9"/>
+    </row>
+    <row r="276" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="294"/>
       <c r="B276" s="295"/>
       <c r="E276" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I276" s="308"/>
-      <c r="J276" s="304"/>
+      <c r="J276" s="297"/>
       <c r="K276" s="300"/>
-      <c r="L276" s="305"/>
+      <c r="L276" s="300"/>
       <c r="M276" s="300"/>
       <c r="N276" s="42">
         <f t="shared" si="13"/>
@@ -65552,75 +65535,68 @@
         <v>0</v>
       </c>
       <c r="J277" s="297"/>
-      <c r="K277" s="300"/>
-      <c r="L277" s="300"/>
-      <c r="M277" s="300"/>
+      <c r="K277" s="314"/>
       <c r="N277" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O277" s="309"/>
+      <c r="O277" s="315"/>
       <c r="Q277" s="6"/>
       <c r="R277" s="310"/>
       <c r="S277" s="311"/>
-      <c r="T277" s="312"/>
+      <c r="T277" s="316"/>
       <c r="V277" s="9"/>
     </row>
     <row r="278" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="294"/>
-      <c r="B278" s="295"/>
-      <c r="E278" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J278" s="297"/>
-      <c r="K278" s="314"/>
-      <c r="N278" s="42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O278" s="315"/>
-      <c r="Q278" s="6"/>
-      <c r="R278" s="310"/>
-      <c r="S278" s="311"/>
-      <c r="T278" s="316"/>
-      <c r="V278" s="9"/>
-    </row>
-    <row r="279" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H278" s="318"/>
+      <c r="I278" s="319" t="s">
+        <v>28</v>
+      </c>
+      <c r="J278" s="320"/>
+      <c r="K278" s="320"/>
+      <c r="L278" s="321">
+        <f>SUM(L266:L277)</f>
+        <v>0</v>
+      </c>
+      <c r="M278" s="322"/>
+      <c r="N278" s="323">
+        <f>SUM(N4:N277)</f>
+        <v>11109456.699999999</v>
+      </c>
+      <c r="O278" s="324"/>
+      <c r="Q278" s="325">
+        <f>SUM(Q4:Q277)</f>
+        <v>0</v>
+      </c>
+      <c r="R278" s="256"/>
+      <c r="S278" s="326">
+        <f>SUM(S22:S277)</f>
+        <v>0</v>
+      </c>
+      <c r="T278" s="327"/>
+      <c r="U278" s="328"/>
+      <c r="V278" s="329">
+        <f>SUM(V266:V277)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A279" s="294"/>
       <c r="H279" s="318"/>
-      <c r="I279" s="319" t="s">
-        <v>28</v>
-      </c>
-      <c r="J279" s="320"/>
-      <c r="K279" s="320"/>
-      <c r="L279" s="321">
-        <f>SUM(L267:L278)</f>
-        <v>0</v>
-      </c>
-      <c r="M279" s="322"/>
-      <c r="N279" s="323">
-        <f>SUM(N4:N278)</f>
-        <v>8060157.6000000006</v>
-      </c>
+      <c r="I279" s="330"/>
+      <c r="J279" s="331"/>
+      <c r="K279" s="332"/>
+      <c r="L279" s="332"/>
+      <c r="M279" s="332"/>
+      <c r="N279" s="333"/>
       <c r="O279" s="324"/>
-      <c r="Q279" s="325">
-        <f>SUM(Q4:Q278)</f>
-        <v>0</v>
-      </c>
-      <c r="R279" s="256"/>
-      <c r="S279" s="326">
-        <f>SUM(S23:S278)</f>
-        <v>0</v>
-      </c>
-      <c r="T279" s="327"/>
-      <c r="U279" s="328"/>
-      <c r="V279" s="329">
-        <f>SUM(V267:V278)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R279" s="310"/>
+      <c r="S279" s="334"/>
+      <c r="U279" s="336"/>
+      <c r="V279"/>
+    </row>
+    <row r="280" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="294"/>
       <c r="H280" s="318"/>
       <c r="I280" s="330"/>
@@ -65635,56 +65611,55 @@
       <c r="U280" s="336"/>
       <c r="V280"/>
     </row>
-    <row r="281" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A281" s="294"/>
-      <c r="H281" s="318"/>
-      <c r="I281" s="330"/>
-      <c r="J281" s="331"/>
-      <c r="K281" s="332"/>
-      <c r="L281" s="332"/>
-      <c r="M281" s="332"/>
-      <c r="N281" s="333"/>
-      <c r="O281" s="324"/>
+      <c r="I281" s="337" t="s">
+        <v>29</v>
+      </c>
+      <c r="J281" s="338"/>
+      <c r="K281" s="338"/>
+      <c r="L281" s="339"/>
+      <c r="M281" s="339"/>
+      <c r="N281" s="340">
+        <f>V278+S278+Q278+N278+L278</f>
+        <v>11109456.699999999</v>
+      </c>
+      <c r="O281" s="341"/>
       <c r="R281" s="310"/>
       <c r="S281" s="334"/>
       <c r="U281" s="336"/>
       <c r="V281"/>
     </row>
-    <row r="282" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="294"/>
-      <c r="I282" s="337" t="s">
-        <v>29</v>
-      </c>
-      <c r="J282" s="338"/>
-      <c r="K282" s="338"/>
-      <c r="L282" s="339"/>
-      <c r="M282" s="339"/>
-      <c r="N282" s="340">
-        <f>V279+S279+Q279+N279+L279</f>
-        <v>8060157.6000000006</v>
-      </c>
-      <c r="O282" s="341"/>
+    <row r="282" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="342"/>
+      <c r="I282" s="343"/>
+      <c r="J282" s="344"/>
+      <c r="K282" s="344"/>
+      <c r="L282" s="345"/>
+      <c r="M282" s="345"/>
+      <c r="N282" s="346"/>
+      <c r="O282" s="347"/>
       <c r="R282" s="310"/>
       <c r="S282" s="334"/>
       <c r="U282" s="336"/>
       <c r="V282"/>
     </row>
-    <row r="283" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A283" s="342"/>
-      <c r="I283" s="343"/>
-      <c r="J283" s="344"/>
-      <c r="K283" s="344"/>
-      <c r="L283" s="345"/>
-      <c r="M283" s="345"/>
-      <c r="N283" s="346"/>
-      <c r="O283" s="347"/>
+      <c r="I283" s="330"/>
+      <c r="J283" s="331"/>
+      <c r="K283" s="332"/>
+      <c r="L283" s="332"/>
+      <c r="M283" s="332"/>
+      <c r="N283" s="333"/>
+      <c r="O283" s="324"/>
       <c r="R283" s="310"/>
       <c r="S283" s="334"/>
       <c r="U283" s="336"/>
       <c r="V283"/>
     </row>
-    <row r="284" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="342"/>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A284" s="294"/>
       <c r="I284" s="330"/>
       <c r="J284" s="331"/>
       <c r="K284" s="332"/>
@@ -65700,26 +65675,21 @@
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="294"/>
       <c r="I285" s="330"/>
-      <c r="J285" s="331"/>
+      <c r="J285" s="348"/>
       <c r="K285" s="332"/>
       <c r="L285" s="332"/>
       <c r="M285" s="332"/>
       <c r="N285" s="333"/>
-      <c r="O285" s="324"/>
+      <c r="O285" s="349"/>
       <c r="R285" s="310"/>
       <c r="S285" s="334"/>
       <c r="U285" s="336"/>
       <c r="V285"/>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A286" s="294"/>
-      <c r="I286" s="330"/>
-      <c r="J286" s="348"/>
-      <c r="K286" s="332"/>
-      <c r="L286" s="332"/>
-      <c r="M286" s="332"/>
+      <c r="A286" s="342"/>
       <c r="N286" s="333"/>
-      <c r="O286" s="349"/>
+      <c r="O286" s="351"/>
       <c r="R286" s="310"/>
       <c r="S286" s="334"/>
       <c r="U286" s="336"/>
@@ -65727,22 +65697,22 @@
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A287" s="342"/>
-      <c r="N287" s="333"/>
       <c r="O287" s="351"/>
-      <c r="R287" s="310"/>
       <c r="S287" s="334"/>
       <c r="U287" s="336"/>
       <c r="V287"/>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A288" s="342"/>
-      <c r="O288" s="351"/>
+      <c r="A288" s="294"/>
+      <c r="B288" s="295"/>
+      <c r="N288" s="333"/>
+      <c r="O288" s="324"/>
       <c r="S288" s="334"/>
       <c r="U288" s="336"/>
       <c r="V288"/>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A289" s="294"/>
+      <c r="A289" s="342"/>
       <c r="B289" s="295"/>
       <c r="N289" s="333"/>
       <c r="O289" s="324"/>
@@ -65751,8 +65721,13 @@
       <c r="V289"/>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A290" s="342"/>
+      <c r="A290" s="294"/>
       <c r="B290" s="295"/>
+      <c r="I290" s="330"/>
+      <c r="J290" s="331"/>
+      <c r="K290" s="332"/>
+      <c r="L290" s="332"/>
+      <c r="M290" s="332"/>
       <c r="N290" s="333"/>
       <c r="O290" s="324"/>
       <c r="S290" s="334"/>
@@ -65760,7 +65735,7 @@
       <c r="V290"/>
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A291" s="294"/>
+      <c r="A291" s="342"/>
       <c r="B291" s="295"/>
       <c r="I291" s="330"/>
       <c r="J291" s="331"/>
@@ -65774,13 +65749,11 @@
       <c r="V291"/>
     </row>
     <row r="292" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A292" s="342"/>
+      <c r="A292" s="294"/>
       <c r="B292" s="295"/>
-      <c r="I292" s="330"/>
-      <c r="J292" s="331"/>
-      <c r="K292" s="332"/>
-      <c r="L292" s="332"/>
-      <c r="M292" s="332"/>
+      <c r="I292" s="352"/>
+      <c r="J292" s="328"/>
+      <c r="K292" s="328"/>
       <c r="N292" s="333"/>
       <c r="O292" s="324"/>
       <c r="S292" s="334"/>
@@ -65788,31 +65761,39 @@
       <c r="V292"/>
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A293" s="294"/>
-      <c r="B293" s="295"/>
-      <c r="I293" s="352"/>
-      <c r="J293" s="328"/>
-      <c r="K293" s="328"/>
-      <c r="N293" s="333"/>
-      <c r="O293" s="324"/>
+      <c r="A293" s="342"/>
       <c r="S293" s="334"/>
       <c r="U293" s="336"/>
       <c r="V293"/>
     </row>
     <row r="294" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A294" s="342"/>
+      <c r="A294" s="294"/>
       <c r="S294" s="334"/>
       <c r="U294" s="336"/>
       <c r="V294"/>
     </row>
     <row r="295" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A295" s="294"/>
+      <c r="B295" s="354"/>
+      <c r="C295" s="354"/>
+      <c r="D295" s="354"/>
+      <c r="E295" s="355"/>
+      <c r="F295" s="356"/>
+      <c r="G295" s="357"/>
+      <c r="H295" s="358"/>
+      <c r="I295" s="359"/>
+      <c r="J295"/>
+      <c r="K295"/>
+      <c r="L295"/>
+      <c r="M295"/>
+      <c r="P295" s="360"/>
+      <c r="Q295" s="334"/>
       <c r="S295" s="334"/>
       <c r="U295" s="336"/>
       <c r="V295"/>
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A296" s="294"/>
+      <c r="A296" s="342"/>
       <c r="B296" s="354"/>
       <c r="C296" s="354"/>
       <c r="D296" s="354"/>
@@ -65872,7 +65853,7 @@
       <c r="V298"/>
     </row>
     <row r="299" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A299" s="342"/>
+      <c r="A299" s="361"/>
       <c r="B299" s="354"/>
       <c r="C299" s="354"/>
       <c r="D299" s="354"/>
@@ -65892,7 +65873,7 @@
       <c r="V299"/>
     </row>
     <row r="300" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A300" s="361"/>
+      <c r="A300" s="307"/>
       <c r="B300" s="354"/>
       <c r="C300" s="354"/>
       <c r="D300" s="354"/>
@@ -65912,7 +65893,7 @@
       <c r="V300"/>
     </row>
     <row r="301" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A301" s="307"/>
+      <c r="A301" s="294"/>
       <c r="B301" s="354"/>
       <c r="C301" s="354"/>
       <c r="D301" s="354"/>
@@ -66051,47 +66032,26 @@
       <c r="U307" s="336"/>
       <c r="V307"/>
     </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A308" s="294"/>
-      <c r="B308" s="354"/>
-      <c r="C308" s="354"/>
-      <c r="D308" s="354"/>
-      <c r="E308" s="355"/>
-      <c r="F308" s="356"/>
-      <c r="G308" s="357"/>
-      <c r="H308" s="358"/>
-      <c r="I308" s="359"/>
-      <c r="J308"/>
-      <c r="K308"/>
-      <c r="L308"/>
-      <c r="M308"/>
-      <c r="P308" s="360"/>
-      <c r="Q308" s="334"/>
-      <c r="S308" s="334"/>
-      <c r="U308" s="336"/>
-      <c r="V308"/>
-    </row>
   </sheetData>
   <sortState ref="A4:O6">
     <sortCondition ref="G4:G6"/>
   </sortState>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O88:O89"/>
-    <mergeCell ref="P88:P89"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="L103:M104"/>
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="P110:P111"/>
-    <mergeCell ref="F275:H275"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="L102:M103"/>
+    <mergeCell ref="O109:O110"/>
+    <mergeCell ref="P109:P110"/>
+    <mergeCell ref="F274:H274"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G61:G62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
